--- a/inputs/demo_region2_input.xlsx
+++ b/inputs/demo_region2_input.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Nutrition\applications\demo\data\regional\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\george.chadderdon\GitRepos\OptimaRepos\Nutrition\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-21144" windowWidth="38400" windowHeight="21144" tabRatio="961" firstSheet="1" activeTab="13"/>
+    <workbookView xWindow="-38400" yWindow="-21140" windowWidth="38400" windowHeight="21140" tabRatio="961" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -4814,14 +4814,14 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="38.6640625" style="16" customWidth="1"/>
-    <col min="3" max="16384" width="14.44140625" style="12"/>
+    <col min="1" max="1" width="27.6328125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="38.6328125" style="16" customWidth="1"/>
+    <col min="3" max="16384" width="14.453125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>100</v>
       </c>
@@ -4832,14 +4832,14 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>191</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
     </row>
-    <row r="3" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
         <v>193</v>
@@ -4848,7 +4848,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
         <v>192</v>
@@ -4857,7 +4857,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
@@ -4926,7 +4926,7 @@
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="12"/>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>30</v>
       </c>
@@ -5057,7 +5057,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="13" x14ac:dyDescent="0.25">
       <c r="B33" s="32" t="s">
         <v>129</v>
       </c>
@@ -5067,7 +5067,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>135</v>
       </c>
@@ -5250,7 +5250,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
     </row>
   </sheetData>
@@ -5271,13 +5271,13 @@
       <selection activeCell="C2" sqref="C2:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" style="55" customWidth="1"/>
-    <col min="2" max="16384" width="10.77734375" style="55"/>
+    <col min="1" max="1" width="18.6328125" style="55" customWidth="1"/>
+    <col min="2" max="16384" width="10.81640625" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A1" s="60" t="s">
         <v>195</v>
       </c>
@@ -5294,7 +5294,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="58" t="s">
         <v>164</v>
       </c>
@@ -5312,7 +5312,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="57"/>
       <c r="B3" s="57" t="s">
         <v>1</v>
@@ -5329,7 +5329,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="57"/>
       <c r="B4" s="57" t="s">
         <v>2</v>
@@ -5346,7 +5346,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="57"/>
       <c r="B5" s="57" t="s">
         <v>3</v>
@@ -5363,7 +5363,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="57"/>
       <c r="B6" s="57" t="s">
         <v>4</v>
@@ -5380,7 +5380,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C9" s="56"/>
     </row>
   </sheetData>
@@ -5400,15 +5400,15 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="52" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.77734375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="42.44140625" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="11.44140625" style="35"/>
+    <col min="2" max="2" width="47.81640625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="42.453125" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="11.453125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -5419,7 +5419,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A2" s="88" t="s">
         <v>187</v>
       </c>
@@ -5428,7 +5428,7 @@
       </c>
       <c r="C2" s="84"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A3" s="88" t="s">
         <v>209</v>
       </c>
@@ -5437,7 +5437,7 @@
       </c>
       <c r="C3" s="84"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A4" s="89" t="s">
         <v>58</v>
       </c>
@@ -5446,7 +5446,7 @@
       </c>
       <c r="C4" s="84"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A5" s="89" t="s">
         <v>137</v>
       </c>
@@ -5455,77 +5455,77 @@
       </c>
       <c r="C5" s="84"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A6" s="89"/>
       <c r="B6" s="90"/>
       <c r="C6" s="90"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A7" s="89"/>
       <c r="B7" s="90"/>
       <c r="C7" s="90"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A8" s="89"/>
       <c r="B8" s="90"/>
       <c r="C8" s="90"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A9" s="89"/>
       <c r="B9" s="90"/>
       <c r="C9" s="90"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A10" s="89"/>
       <c r="B10" s="90"/>
       <c r="C10" s="90"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A11" s="91"/>
       <c r="B11" s="90"/>
       <c r="C11" s="90"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A12" s="91"/>
       <c r="B12" s="90"/>
       <c r="C12" s="90"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A13" s="91"/>
       <c r="B13" s="90"/>
       <c r="C13" s="90"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A14" s="91"/>
       <c r="B14" s="90"/>
       <c r="C14" s="90"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A15" s="91"/>
       <c r="B15" s="90"/>
       <c r="C15" s="90"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A16" s="91"/>
       <c r="B16" s="90"/>
       <c r="C16" s="90"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A17" s="91"/>
       <c r="B17" s="90"/>
       <c r="C17" s="90"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A18" s="91"/>
       <c r="B18" s="90"/>
       <c r="C18" s="90"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A19" s="89"/>
       <c r="B19" s="90"/>
       <c r="C19" s="90"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A20" s="89"/>
       <c r="B20" s="90"/>
       <c r="C20" s="90"/>
@@ -5549,85 +5549,85 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.109375" style="35" customWidth="1"/>
-    <col min="2" max="16384" width="11.44140625" style="35"/>
+    <col min="1" max="1" width="30.08984375" style="35" customWidth="1"/>
+    <col min="2" max="16384" width="11.453125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A3" s="48" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A4" s="48" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A5" s="48" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A6" s="48" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A7" s="48" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A8" s="48" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A9" s="48" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A10" s="48"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A11" s="48"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A12" s="48"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A13" s="48"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A14" s="48"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A15" s="48"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A16" s="48"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A17" s="48"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A18" s="48"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A19" s="48"/>
     </row>
   </sheetData>
@@ -5647,7 +5647,7 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
@@ -5757,23 +5757,23 @@
   </sheetPr>
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
       <selection activeCell="C29" activeCellId="3" sqref="C2:O12 C14:O21 C23:O27 C29:O38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.77734375" customWidth="1"/>
-    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.81640625" customWidth="1"/>
+    <col min="3" max="3" width="8.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="15.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>33</v>
       </c>
@@ -5820,7 +5820,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>31</v>
       </c>
@@ -6335,7 +6335,7 @@
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="33"/>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>32</v>
       </c>
@@ -6386,7 +6386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="11" t="s">
         <v>86</v>
@@ -6431,7 +6431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="11" t="s">
         <v>187</v>
@@ -6480,7 +6480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="11" t="s">
         <v>209</v>
@@ -6716,7 +6716,7 @@
     <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="33"/>
     </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="62" t="s">
         <v>37</v>
       </c>
@@ -6966,7 +6966,7 @@
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
     </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>35</v>
       </c>
@@ -7475,7 +7475,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
@@ -7513,16 +7513,16 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.6640625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="35" customWidth="1"/>
-    <col min="3" max="4" width="11.44140625" style="35"/>
-    <col min="5" max="5" width="17.44140625" style="35" customWidth="1"/>
-    <col min="6" max="16384" width="11.44140625" style="35"/>
+    <col min="1" max="1" width="33.6328125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" style="35" customWidth="1"/>
+    <col min="3" max="4" width="11.453125" style="35"/>
+    <col min="5" max="5" width="17.453125" style="35" customWidth="1"/>
+    <col min="6" max="16384" width="11.453125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>163</v>
       </c>
@@ -7539,7 +7539,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="A2" s="39" t="s">
         <v>158</v>
       </c>
@@ -7557,7 +7557,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="A3" s="39" t="s">
         <v>157</v>
       </c>
@@ -7575,7 +7575,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="A4" s="39" t="s">
         <v>156</v>
       </c>
@@ -7593,7 +7593,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="A5" s="39" t="s">
         <v>155</v>
       </c>
@@ -7611,7 +7611,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="A6" s="39" t="s">
         <v>154</v>
       </c>
@@ -7629,7 +7629,7 @@
         <v>1.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="A7" s="39" t="s">
         <v>153</v>
       </c>
@@ -7647,7 +7647,7 @@
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="A8" s="39" t="s">
         <v>152</v>
       </c>
@@ -7665,7 +7665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="A9" s="39" t="s">
         <v>151</v>
       </c>
@@ -7683,7 +7683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="A10" s="39" t="s">
         <v>150</v>
       </c>
@@ -7722,20 +7722,20 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.21875" style="57" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.88671875" style="57" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" style="57" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" style="57" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.1796875" style="57" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.90625" style="57" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.453125" style="57" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.08984375" style="57" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="57" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.109375" style="57" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="15.33203125" style="57" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="16.88671875" style="57" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="16.109375" style="57"/>
+    <col min="6" max="7" width="13.08984375" style="57" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="15.36328125" style="57" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="16.90625" style="57" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="16.08984375" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="59" t="s">
         <v>33</v>
       </c>
@@ -7782,7 +7782,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="59" t="s">
         <v>31</v>
       </c>
@@ -7829,7 +7829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="52" t="s">
         <v>149</v>
       </c>
@@ -7873,7 +7873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="52" t="s">
         <v>173</v>
       </c>
@@ -7917,7 +7917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="52" t="s">
         <v>199</v>
       </c>
@@ -7961,7 +7961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="52" t="s">
         <v>200</v>
       </c>
@@ -8005,7 +8005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="52" t="s">
         <v>196</v>
       </c>
@@ -8049,7 +8049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="52" t="s">
         <v>136</v>
       </c>
@@ -8093,7 +8093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="52" t="s">
         <v>137</v>
       </c>
@@ -8137,7 +8137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="52" t="s">
         <v>84</v>
       </c>
@@ -8181,7 +8181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="52" t="s">
         <v>58</v>
       </c>
@@ -8225,7 +8225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="52" t="s">
         <v>67</v>
       </c>
@@ -8269,7 +8269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="52" t="s">
         <v>28</v>
       </c>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="52" t="s">
         <v>85</v>
       </c>
@@ -8357,7 +8357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="52" t="s">
         <v>60</v>
       </c>
@@ -8401,7 +8401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="52"/>
       <c r="C16" s="96"/>
       <c r="D16" s="96"/>
@@ -8417,7 +8417,7 @@
       <c r="N16" s="96"/>
       <c r="O16" s="96"/>
     </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="59" t="s">
         <v>32</v>
       </c>
@@ -8464,7 +8464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="59"/>
       <c r="B18" s="52" t="s">
         <v>86</v>
@@ -8509,7 +8509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="97" t="s">
         <v>187</v>
       </c>
@@ -8553,7 +8553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="97" t="s">
         <v>209</v>
       </c>
@@ -8597,7 +8597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="98" t="s">
         <v>57</v>
       </c>
@@ -8641,7 +8641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="52" t="s">
         <v>88</v>
       </c>
@@ -8685,7 +8685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="52" t="s">
         <v>87</v>
       </c>
@@ -8729,7 +8729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="52" t="s">
         <v>59</v>
       </c>
@@ -8773,7 +8773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="52"/>
       <c r="C25" s="96"/>
       <c r="D25" s="96"/>
@@ -8789,7 +8789,7 @@
       <c r="N25" s="96"/>
       <c r="O25" s="96"/>
     </row>
-    <row r="26" spans="1:16" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="59" t="s">
         <v>37</v>
       </c>
@@ -8837,7 +8837,7 @@
       </c>
       <c r="P26" s="99"/>
     </row>
-    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="63" t="s">
         <v>188</v>
       </c>
@@ -8881,7 +8881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="59"/>
       <c r="B28" s="63" t="s">
         <v>208</v>
@@ -8926,7 +8926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="63" t="s">
         <v>189</v>
       </c>
@@ -8970,7 +8970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="63" t="s">
         <v>190</v>
       </c>
@@ -9014,7 +9014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="52"/>
       <c r="C31" s="100"/>
       <c r="D31" s="100"/>
@@ -9030,7 +9030,7 @@
       <c r="N31" s="96"/>
       <c r="O31" s="96"/>
     </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="59" t="s">
         <v>35</v>
       </c>
@@ -9077,7 +9077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="52" t="s">
         <v>64</v>
       </c>
@@ -9121,7 +9121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="52" t="s">
         <v>62</v>
       </c>
@@ -9165,7 +9165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="52" t="s">
         <v>47</v>
       </c>
@@ -9209,7 +9209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="52" t="s">
         <v>34</v>
       </c>
@@ -9253,7 +9253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="102"/>
       <c r="B37" s="52" t="s">
         <v>83</v>
@@ -9298,7 +9298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="102" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" s="102" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="52" t="s">
         <v>82</v>
       </c>
@@ -9342,7 +9342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="102" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" s="102" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="52" t="s">
         <v>81</v>
       </c>
@@ -9386,7 +9386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="102" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" s="102" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="52" t="s">
         <v>79</v>
       </c>
@@ -9430,7 +9430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="52" t="s">
         <v>80</v>
       </c>
@@ -9491,22 +9491,22 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.77734375" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.77734375" style="35"/>
+    <col min="1" max="1" width="58.90625" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.90625" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.36328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.453125" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.81640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.90625" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.81640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.81640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -9541,7 +9541,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
         <v>29</v>
       </c>
@@ -9558,7 +9558,7 @@
       <c r="J2" s="95"/>
       <c r="K2" s="95"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A3" s="52" t="s">
         <v>86</v>
       </c>
@@ -9575,7 +9575,7 @@
       <c r="J3" s="95"/>
       <c r="K3" s="95"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A4" s="52" t="s">
         <v>61</v>
       </c>
@@ -9592,7 +9592,7 @@
       <c r="J4" s="95"/>
       <c r="K4" s="95"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A5" s="52" t="s">
         <v>149</v>
       </c>
@@ -9609,7 +9609,7 @@
       <c r="J5" s="95"/>
       <c r="K5" s="95"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A6" s="52" t="s">
         <v>198</v>
       </c>
@@ -9628,7 +9628,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A7" s="52" t="s">
         <v>63</v>
       </c>
@@ -9647,7 +9647,7 @@
       <c r="J7" s="95"/>
       <c r="K7" s="95"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A8" s="52" t="s">
         <v>64</v>
       </c>
@@ -9666,7 +9666,7 @@
       <c r="J8" s="95"/>
       <c r="K8" s="95"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
         <v>62</v>
       </c>
@@ -9685,7 +9685,7 @@
       <c r="J9" s="95"/>
       <c r="K9" s="95"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A10" s="63" t="s">
         <v>188</v>
       </c>
@@ -9702,7 +9702,7 @@
       <c r="J10" s="95"/>
       <c r="K10" s="95"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A11" s="63" t="s">
         <v>208</v>
       </c>
@@ -9719,7 +9719,7 @@
       <c r="J11" s="95"/>
       <c r="K11" s="95"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A12" s="63" t="s">
         <v>189</v>
       </c>
@@ -9736,7 +9736,7 @@
       <c r="J12" s="95"/>
       <c r="K12" s="95"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A13" s="63" t="s">
         <v>190</v>
       </c>
@@ -9753,7 +9753,7 @@
       <c r="J13" s="95"/>
       <c r="K13" s="95"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A14" s="97" t="s">
         <v>187</v>
       </c>
@@ -9772,7 +9772,7 @@
       <c r="J14" s="95"/>
       <c r="K14" s="95"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A15" s="97" t="s">
         <v>209</v>
       </c>
@@ -9791,7 +9791,7 @@
       <c r="J15" s="95"/>
       <c r="K15" s="95"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A16" s="52" t="s">
         <v>57</v>
       </c>
@@ -9812,7 +9812,7 @@
       <c r="J16" s="95"/>
       <c r="K16" s="95"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A17" s="52" t="s">
         <v>47</v>
       </c>
@@ -9829,7 +9829,7 @@
       <c r="J17" s="95"/>
       <c r="K17" s="95"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A18" s="52" t="s">
         <v>173</v>
       </c>
@@ -9848,7 +9848,7 @@
       <c r="J18" s="95"/>
       <c r="K18" s="95"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A19" s="52" t="s">
         <v>199</v>
       </c>
@@ -9867,7 +9867,7 @@
       <c r="J19" s="95"/>
       <c r="K19" s="95"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A20" s="52" t="s">
         <v>200</v>
       </c>
@@ -9886,7 +9886,7 @@
       <c r="J20" s="95"/>
       <c r="K20" s="95"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A21" s="52" t="s">
         <v>196</v>
       </c>
@@ -9905,7 +9905,7 @@
       <c r="J21" s="95"/>
       <c r="K21" s="95"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A22" s="52" t="s">
         <v>136</v>
       </c>
@@ -9926,7 +9926,7 @@
       <c r="J22" s="95"/>
       <c r="K22" s="95"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A23" s="52" t="s">
         <v>34</v>
       </c>
@@ -9945,7 +9945,7 @@
       <c r="J23" s="95"/>
       <c r="K23" s="95"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A24" s="52" t="s">
         <v>88</v>
       </c>
@@ -9962,7 +9962,7 @@
       <c r="J24" s="95"/>
       <c r="K24" s="95"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A25" s="52" t="s">
         <v>87</v>
       </c>
@@ -9979,7 +9979,7 @@
       <c r="J25" s="95"/>
       <c r="K25" s="95"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A26" s="52" t="s">
         <v>137</v>
       </c>
@@ -9996,7 +9996,7 @@
       <c r="J26" s="95"/>
       <c r="K26" s="95"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A27" s="52" t="s">
         <v>59</v>
       </c>
@@ -10015,7 +10015,7 @@
       <c r="J27" s="95"/>
       <c r="K27" s="95"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A28" s="52" t="s">
         <v>84</v>
       </c>
@@ -10032,7 +10032,7 @@
       <c r="J28" s="95"/>
       <c r="K28" s="95"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A29" s="52" t="s">
         <v>58</v>
       </c>
@@ -10051,7 +10051,7 @@
       <c r="J29" s="95"/>
       <c r="K29" s="95"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A30" s="52" t="s">
         <v>67</v>
       </c>
@@ -10068,7 +10068,7 @@
       <c r="J30" s="95"/>
       <c r="K30" s="95"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A31" s="52" t="s">
         <v>28</v>
       </c>
@@ -10087,7 +10087,7 @@
       <c r="J31" s="95"/>
       <c r="K31" s="95"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A32" s="52" t="s">
         <v>83</v>
       </c>
@@ -10106,7 +10106,7 @@
       <c r="J32" s="95"/>
       <c r="K32" s="95"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A33" s="52" t="s">
         <v>82</v>
       </c>
@@ -10125,7 +10125,7 @@
       <c r="J33" s="95"/>
       <c r="K33" s="95"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A34" s="52" t="s">
         <v>81</v>
       </c>
@@ -10144,7 +10144,7 @@
       <c r="J34" s="95"/>
       <c r="K34" s="95"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A35" s="52" t="s">
         <v>79</v>
       </c>
@@ -10163,7 +10163,7 @@
       <c r="J35" s="95"/>
       <c r="K35" s="95"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A36" s="52" t="s">
         <v>80</v>
       </c>
@@ -10182,7 +10182,7 @@
       <c r="J36" s="95"/>
       <c r="K36" s="95"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A37" s="52" t="s">
         <v>85</v>
       </c>
@@ -10199,7 +10199,7 @@
       <c r="J37" s="95"/>
       <c r="K37" s="95"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A38" s="52" t="s">
         <v>60</v>
       </c>
@@ -10237,22 +10237,22 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.77734375" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.77734375" style="35"/>
+    <col min="1" max="1" width="16.90625" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.90625" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.36328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.453125" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.81640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.90625" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.81640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.81640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>218</v>
       </c>
@@ -10287,7 +10287,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
@@ -10316,7 +10316,7 @@
       <c r="J2" s="95"/>
       <c r="K2" s="95"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
@@ -10345,7 +10345,7 @@
       <c r="J3" s="95"/>
       <c r="K3" s="95"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
         <v>3</v>
       </c>
@@ -10374,7 +10374,7 @@
       <c r="J4" s="95"/>
       <c r="K4" s="95"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
         <v>4</v>
       </c>
@@ -10403,7 +10403,7 @@
       <c r="J5" s="95"/>
       <c r="K5" s="95"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
         <v>5</v>
       </c>
@@ -10432,7 +10432,7 @@
       <c r="J6" s="95"/>
       <c r="K6" s="95"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
         <v>53</v>
       </c>
@@ -10453,7 +10453,7 @@
       <c r="J7" s="95"/>
       <c r="K7" s="95"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
         <v>54</v>
       </c>
@@ -10474,7 +10474,7 @@
       <c r="J8" s="95"/>
       <c r="K8" s="95"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
         <v>55</v>
       </c>
@@ -10495,7 +10495,7 @@
       <c r="J9" s="95"/>
       <c r="K9" s="95"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
         <v>56</v>
       </c>
@@ -10516,7 +10516,7 @@
       <c r="J10" s="95"/>
       <c r="K10" s="95"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
         <v>49</v>
       </c>
@@ -10537,7 +10537,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
         <v>50</v>
       </c>
@@ -10556,7 +10556,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A13" s="35" t="s">
         <v>51</v>
       </c>
@@ -10575,7 +10575,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A14" s="35" t="s">
         <v>52</v>
       </c>
@@ -10611,14 +10611,14 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.44140625" style="12" customWidth="1"/>
-    <col min="2" max="9" width="16.77734375" style="12" customWidth="1"/>
-    <col min="10" max="16384" width="14.44140625" style="12"/>
+    <col min="1" max="1" width="8.453125" style="12" customWidth="1"/>
+    <col min="2" max="9" width="16.81640625" style="12" customWidth="1"/>
+    <col min="10" max="16384" width="14.453125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -11707,15 +11707,15 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.109375" style="35" customWidth="1"/>
+    <col min="1" max="1" width="48.08984375" style="35" customWidth="1"/>
     <col min="2" max="2" width="15" style="35" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="12.77734375" style="35"/>
+    <col min="3" max="3" width="14.6328125" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="12.81640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>219</v>
       </c>
@@ -11741,7 +11741,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
         <v>220</v>
       </c>
@@ -11767,7 +11767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B3" s="142"/>
       <c r="C3" s="35" t="s">
         <v>175</v>
@@ -11789,7 +11789,7 @@
       </c>
       <c r="J3" s="105"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B4" s="142"/>
       <c r="C4" s="35" t="s">
         <v>174</v>
@@ -11811,7 +11811,7 @@
       </c>
       <c r="J4" s="105"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B5" s="142" t="s">
         <v>1</v>
       </c>
@@ -11835,7 +11835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B6" s="142"/>
       <c r="C6" s="35" t="s">
         <v>175</v>
@@ -11856,7 +11856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B7" s="142"/>
       <c r="C7" s="35" t="s">
         <v>174</v>
@@ -11877,7 +11877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B8" s="142" t="s">
         <v>2</v>
       </c>
@@ -11900,7 +11900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B9" s="142"/>
       <c r="C9" s="35" t="s">
         <v>175</v>
@@ -11921,7 +11921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B10" s="142"/>
       <c r="C10" s="35" t="s">
         <v>174</v>
@@ -11942,7 +11942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B11" s="142" t="s">
         <v>3</v>
       </c>
@@ -11965,7 +11965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B12" s="142"/>
       <c r="C12" s="35" t="s">
         <v>175</v>
@@ -11986,7 +11986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B13" s="142"/>
       <c r="C13" s="35" t="s">
         <v>174</v>
@@ -12007,7 +12007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B14" s="142" t="s">
         <v>4</v>
       </c>
@@ -12030,7 +12030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B15" s="142"/>
       <c r="C15" s="35" t="s">
         <v>175</v>
@@ -12051,7 +12051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B16" s="142"/>
       <c r="C16" s="35" t="s">
         <v>174</v>
@@ -12072,7 +12072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="B17" s="106" t="s">
         <v>172</v>
       </c>
@@ -12095,14 +12095,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="D18" s="107"/>
       <c r="E18" s="107"/>
       <c r="F18" s="107"/>
       <c r="G18" s="107"/>
       <c r="H18" s="107"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A19" s="40" t="s">
         <v>221</v>
       </c>
@@ -12128,7 +12128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B20" s="142"/>
       <c r="C20" s="35" t="s">
         <v>175</v>
@@ -12149,7 +12149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B21" s="142"/>
       <c r="C21" s="35" t="s">
         <v>174</v>
@@ -12170,7 +12170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B22" s="142" t="s">
         <v>1</v>
       </c>
@@ -12193,7 +12193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B23" s="142"/>
       <c r="C23" s="35" t="s">
         <v>175</v>
@@ -12214,7 +12214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B24" s="142"/>
       <c r="C24" s="35" t="s">
         <v>174</v>
@@ -12235,7 +12235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B25" s="142" t="s">
         <v>2</v>
       </c>
@@ -12258,7 +12258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B26" s="142"/>
       <c r="C26" s="35" t="s">
         <v>175</v>
@@ -12279,7 +12279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B27" s="142"/>
       <c r="C27" s="35" t="s">
         <v>174</v>
@@ -12300,7 +12300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B28" s="142" t="s">
         <v>3</v>
       </c>
@@ -12323,7 +12323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B29" s="142"/>
       <c r="C29" s="35" t="s">
         <v>175</v>
@@ -12344,7 +12344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B30" s="142"/>
       <c r="C30" s="35" t="s">
         <v>174</v>
@@ -12365,7 +12365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B31" s="142" t="s">
         <v>4</v>
       </c>
@@ -12388,7 +12388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B32" s="142"/>
       <c r="C32" s="35" t="s">
         <v>175</v>
@@ -12409,7 +12409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B33" s="142"/>
       <c r="C33" s="35" t="s">
         <v>174</v>
@@ -12430,7 +12430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="B34" s="106" t="s">
         <v>172</v>
       </c>
@@ -12453,14 +12453,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="D35" s="107"/>
       <c r="E35" s="107"/>
       <c r="F35" s="107"/>
       <c r="G35" s="107"/>
       <c r="H35" s="107"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A36" s="108" t="s">
         <v>222</v>
       </c>
@@ -12486,7 +12486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B37" s="142"/>
       <c r="C37" s="35" t="s">
         <v>175</v>
@@ -12507,7 +12507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B38" s="142"/>
       <c r="C38" s="35" t="s">
         <v>174</v>
@@ -12528,7 +12528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B39" s="142" t="s">
         <v>1</v>
       </c>
@@ -12551,7 +12551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B40" s="142"/>
       <c r="C40" s="35" t="s">
         <v>175</v>
@@ -12572,7 +12572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B41" s="142"/>
       <c r="C41" s="35" t="s">
         <v>174</v>
@@ -12593,7 +12593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B42" s="142" t="s">
         <v>2</v>
       </c>
@@ -12616,7 +12616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B43" s="142"/>
       <c r="C43" s="35" t="s">
         <v>175</v>
@@ -12637,7 +12637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B44" s="142"/>
       <c r="C44" s="35" t="s">
         <v>174</v>
@@ -12658,7 +12658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B45" s="142" t="s">
         <v>3</v>
       </c>
@@ -12681,7 +12681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B46" s="142"/>
       <c r="C46" s="35" t="s">
         <v>175</v>
@@ -12702,7 +12702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B47" s="142"/>
       <c r="C47" s="35" t="s">
         <v>174</v>
@@ -12723,7 +12723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B48" s="142" t="s">
         <v>4</v>
       </c>
@@ -12746,7 +12746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B49" s="142"/>
       <c r="C49" s="35" t="s">
         <v>175</v>
@@ -12767,7 +12767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B50" s="142"/>
       <c r="C50" s="35" t="s">
         <v>174</v>
@@ -12788,7 +12788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" ht="13" x14ac:dyDescent="0.25">
       <c r="B51" s="109" t="s">
         <v>172</v>
       </c>
@@ -12814,12 +12814,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BiU9BXNF+INgNxSFtHuqKvDgOHy4i8LHe4WBopPE5oAPe1uu8rzbQfKL4uxCQ4dbx+6qcxc95feCcYk3II7eJw==" saltValue="oFkUqZTkt+d2Svo646TgPw==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -12829,6 +12823,12 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -12846,22 +12846,22 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" style="35" customWidth="1"/>
-    <col min="2" max="2" width="34.109375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" style="35" customWidth="1"/>
+    <col min="1" max="1" width="23.90625" style="35" customWidth="1"/>
+    <col min="2" max="2" width="34.08984375" style="35" customWidth="1"/>
+    <col min="3" max="3" width="11.36328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.90625" style="35" customWidth="1"/>
     <col min="5" max="6" width="15" style="35" customWidth="1"/>
-    <col min="7" max="16384" width="16.109375" style="35"/>
+    <col min="7" max="16384" width="16.08984375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="111" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="111" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="110" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="112"/>
       <c r="C2" s="113" t="s">
         <v>26</v>
@@ -12876,7 +12876,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="40" t="s">
         <v>224</v>
       </c>
@@ -12960,7 +12960,7 @@
       <c r="E8" s="105"/>
       <c r="F8" s="105"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="40" t="s">
         <v>225</v>
       </c>
@@ -12985,7 +12985,7 @@
       <c r="F10" s="105"/>
       <c r="G10" s="122"/>
     </row>
-    <row r="11" spans="1:7" s="111" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="111" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="110" t="s">
         <v>226</v>
       </c>
@@ -12995,7 +12995,7 @@
       <c r="F11" s="124"/>
       <c r="G11" s="125"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="40" t="s">
         <v>227</v>
       </c>
@@ -13059,7 +13059,7 @@
       </c>
       <c r="G15" s="122"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="40"/>
       <c r="B16" s="126"/>
       <c r="C16" s="127"/>
@@ -13068,7 +13068,7 @@
       <c r="F16" s="105"/>
       <c r="G16" s="122"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="40" t="s">
         <v>231</v>
       </c>
@@ -13222,7 +13222,7 @@
     <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="126"/>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="40"/>
     </row>
   </sheetData>
@@ -13243,23 +13243,23 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.21875" style="35" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="35" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" style="35" customWidth="1"/>
-    <col min="4" max="8" width="14.77734375" style="35" customWidth="1"/>
-    <col min="9" max="12" width="15.33203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="16.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="12.77734375" style="35"/>
+    <col min="1" max="1" width="27.1796875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="26.90625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="18.36328125" style="35" customWidth="1"/>
+    <col min="4" max="8" width="14.81640625" style="35" customWidth="1"/>
+    <col min="9" max="12" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="16.90625" style="35" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="12.81640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="111" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="111" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="110" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="131" t="s">
         <v>213</v>
       </c>
@@ -13293,7 +13293,7 @@
       <c r="O2" s="133"/>
       <c r="P2" s="133"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A3" s="40"/>
       <c r="B3" s="35" t="s">
         <v>71</v>
@@ -13726,7 +13726,7 @@
       <c r="O17" s="131"/>
       <c r="P17" s="131"/>
     </row>
-    <row r="18" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="43" t="s">
         <v>238</v>
       </c>
@@ -13984,12 +13984,12 @@
       <c r="O26" s="131"/>
       <c r="P26" s="131"/>
     </row>
-    <row r="28" spans="1:16" s="111" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" s="111" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A28" s="110" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" s="36" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A29" s="134" t="s">
         <v>240</v>
       </c>
@@ -14023,7 +14023,7 @@
       <c r="O29" s="133"/>
       <c r="P29" s="133"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" s="35" t="s">
         <v>71</v>
@@ -14718,12 +14718,12 @@
       <c r="C54" s="43"/>
       <c r="D54" s="43"/>
     </row>
-    <row r="55" spans="1:16" s="111" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" s="111" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A55" s="110" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="56" spans="1:16" s="36" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A56" s="134" t="s">
         <v>70</v>
       </c>
@@ -14751,7 +14751,7 @@
       <c r="O56" s="133"/>
       <c r="P56" s="133"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
       <c r="B57" s="35" t="s">
         <v>38</v>
@@ -14897,12 +14897,12 @@
       <c r="C63" s="43"/>
       <c r="D63" s="43"/>
     </row>
-    <row r="64" spans="1:16" s="111" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" s="111" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A64" s="110" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="65" spans="1:16" s="36" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A65" s="134" t="s">
         <v>24</v>
       </c>
@@ -14936,7 +14936,7 @@
       <c r="O65" s="133"/>
       <c r="P65" s="133"/>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A66" s="138"/>
       <c r="B66" s="35" t="s">
         <v>73</v>
@@ -15972,12 +15972,12 @@
       <c r="O101" s="131"/>
       <c r="P101" s="131"/>
     </row>
-    <row r="103" spans="1:16" s="111" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" s="111" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A103" s="110" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="104" spans="1:16" s="36" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A104" s="134" t="s">
         <v>71</v>
       </c>
@@ -16011,7 +16011,7 @@
       <c r="O104" s="133"/>
       <c r="P104" s="133"/>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="36"/>
       <c r="C105" s="43" t="s">
@@ -16125,7 +16125,7 @@
       <c r="O108" s="131"/>
       <c r="P108" s="131"/>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
     </row>
   </sheetData>
@@ -16146,24 +16146,24 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.77734375" style="35" customWidth="1"/>
-    <col min="2" max="2" width="44.44140625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" style="35" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" style="35" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="35" customWidth="1"/>
+    <col min="1" max="1" width="25.81640625" style="35" customWidth="1"/>
+    <col min="2" max="2" width="44.453125" style="35" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" style="35" customWidth="1"/>
+    <col min="4" max="4" width="17.54296875" style="35" customWidth="1"/>
+    <col min="5" max="5" width="17.1796875" style="35" customWidth="1"/>
     <col min="6" max="6" width="15" style="35" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.77734375" style="35"/>
+    <col min="7" max="7" width="13.6328125" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.81640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="111" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="111" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="110" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="138" t="s">
         <v>25</v>
       </c>
@@ -16204,7 +16204,7 @@
         <v>174.7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="40"/>
       <c r="B4" s="130" t="s">
         <v>252</v>
@@ -16225,7 +16225,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="115" t="s">
         <v>253</v>
       </c>
@@ -16298,12 +16298,12 @@
       <c r="F9" s="130"/>
       <c r="G9" s="130"/>
     </row>
-    <row r="10" spans="1:7" s="111" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="111" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="110" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="115"/>
       <c r="B11" s="126" t="s">
         <v>196</v>
@@ -16324,16 +16324,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="115"/>
       <c r="B12" s="126"/>
     </row>
-    <row r="13" spans="1:7" s="111" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="111" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="110" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="138" t="s">
         <v>240</v>
       </c>
@@ -16356,7 +16356,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="40"/>
       <c r="B15" s="130" t="s">
         <v>257</v>
@@ -16377,7 +16377,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="138" t="s">
         <v>70</v>
       </c>
@@ -16401,12 +16401,12 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:6" s="111" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="111" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="110" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="115" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="115" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" s="59" t="s">
         <v>49</v>
       </c>
@@ -16456,16 +16456,16 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.21875" style="35" customWidth="1"/>
-    <col min="2" max="6" width="16.109375" style="35"/>
-    <col min="7" max="7" width="17.21875" style="35" customWidth="1"/>
-    <col min="8" max="8" width="16.109375" style="35" customWidth="1"/>
-    <col min="9" max="16384" width="16.109375" style="35"/>
+    <col min="1" max="1" width="52.1796875" style="35" customWidth="1"/>
+    <col min="2" max="6" width="16.08984375" style="35"/>
+    <col min="7" max="7" width="17.1796875" style="35" customWidth="1"/>
+    <col min="8" max="8" width="16.08984375" style="35" customWidth="1"/>
+    <col min="9" max="16384" width="16.08984375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="132" t="s">
         <v>69</v>
       </c>
@@ -16735,15 +16735,15 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" style="35" customWidth="1"/>
-    <col min="2" max="2" width="58.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="58.90625" style="35" bestFit="1" customWidth="1"/>
     <col min="3" max="15" width="15" style="35" customWidth="1"/>
-    <col min="16" max="16384" width="12.77734375" style="35"/>
+    <col min="16" max="16384" width="12.81640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="40"/>
       <c r="B1" s="40"/>
       <c r="C1" s="114" t="s">
@@ -16786,7 +16786,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
         <v>262</v>
       </c>
@@ -17231,7 +17231,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="63" t="s">
         <v>137</v>
       </c>
@@ -17319,7 +17319,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="13" x14ac:dyDescent="0.3">
       <c r="A16" s="40" t="s">
         <v>263</v>
       </c>
@@ -17531,15 +17531,15 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" style="35" customWidth="1"/>
-    <col min="2" max="2" width="27.21875" style="35" customWidth="1"/>
-    <col min="3" max="7" width="15.5546875" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.77734375" style="35"/>
+    <col min="1" max="1" width="21.36328125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="27.1796875" style="35" customWidth="1"/>
+    <col min="3" max="7" width="15.54296875" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.81640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="40"/>
       <c r="B1" s="132"/>
       <c r="C1" s="40" t="s">
@@ -17558,12 +17558,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B3" s="63" t="s">
         <v>67</v>
       </c>
@@ -17583,7 +17583,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A4" s="40" t="s">
         <v>265</v>
       </c>
@@ -17594,7 +17594,7 @@
       <c r="F4" s="140"/>
       <c r="G4" s="140"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B5" s="97" t="s">
         <v>183</v>
       </c>
@@ -17632,20 +17632,20 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="52" customWidth="1"/>
-    <col min="2" max="2" width="30.5546875" style="52" customWidth="1"/>
-    <col min="3" max="3" width="24.77734375" style="52" customWidth="1"/>
+    <col min="2" max="2" width="30.54296875" style="52" customWidth="1"/>
+    <col min="3" max="3" width="24.81640625" style="52" customWidth="1"/>
     <col min="4" max="4" width="15" style="35" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" style="35" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" style="35" customWidth="1"/>
-    <col min="7" max="7" width="12.77734375" style="35"/>
-    <col min="8" max="8" width="17.5546875" style="35" customWidth="1"/>
-    <col min="9" max="16384" width="12.77734375" style="35"/>
+    <col min="5" max="5" width="13.6328125" style="35" customWidth="1"/>
+    <col min="6" max="6" width="14.453125" style="35" customWidth="1"/>
+    <col min="7" max="7" width="12.81640625" style="35"/>
+    <col min="8" max="8" width="17.54296875" style="35" customWidth="1"/>
+    <col min="9" max="16384" width="12.81640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -17671,7 +17671,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
         <v>28</v>
       </c>
@@ -17697,7 +17697,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C3" s="52" t="s">
         <v>269</v>
       </c>
@@ -17717,7 +17717,7 @@
         <v>0.53134328358208949</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C4" s="52" t="s">
         <v>270</v>
       </c>
@@ -17737,7 +17737,7 @@
         <v>0.38507462686567184</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A5" s="52" t="s">
         <v>58</v>
       </c>
@@ -17763,7 +17763,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C6" s="52" t="s">
         <v>270</v>
       </c>
@@ -17783,7 +17783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B7" s="52" t="s">
         <v>65</v>
       </c>
@@ -17806,7 +17806,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C8" s="52" t="s">
         <v>270</v>
       </c>
@@ -17826,7 +17826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
         <v>136</v>
       </c>
@@ -17852,7 +17852,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C10" s="52" t="s">
         <v>270</v>
       </c>
@@ -17872,7 +17872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B11" s="52" t="s">
         <v>65</v>
       </c>
@@ -17895,7 +17895,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C12" s="52" t="s">
         <v>270</v>
       </c>
@@ -17915,7 +17915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A13" s="52" t="s">
         <v>61</v>
       </c>
@@ -17941,7 +17941,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C14" s="52" t="s">
         <v>270</v>
       </c>
@@ -17962,7 +17962,7 @@
       </c>
       <c r="I14" s="36"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B15" s="52" t="s">
         <v>65</v>
       </c>
@@ -17986,7 +17986,7 @@
       </c>
       <c r="I15" s="36"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C16" s="52" t="s">
         <v>270</v>
       </c>
@@ -18007,7 +18007,7 @@
       </c>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A17" s="52" t="s">
         <v>62</v>
       </c>
@@ -18034,7 +18034,7 @@
       </c>
       <c r="I17" s="36"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C18" s="52" t="s">
         <v>269</v>
       </c>
@@ -18055,7 +18055,7 @@
       </c>
       <c r="I18" s="36"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A19" s="52" t="s">
         <v>63</v>
       </c>
@@ -18081,7 +18081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C20" s="52" t="s">
         <v>269</v>
       </c>
@@ -18101,7 +18101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A21" s="52" t="s">
         <v>64</v>
       </c>
@@ -18127,7 +18127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C22" s="52" t="s">
         <v>269</v>
       </c>
@@ -18147,7 +18147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A23" s="52" t="s">
         <v>79</v>
       </c>
@@ -18173,7 +18173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C24" s="52" t="s">
         <v>269</v>
       </c>
@@ -18193,7 +18193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C25" s="52" t="s">
         <v>270</v>
       </c>
@@ -18213,7 +18213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A26" s="52" t="s">
         <v>80</v>
       </c>
@@ -18239,7 +18239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C27" s="52" t="s">
         <v>269</v>
       </c>
@@ -18259,7 +18259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C28" s="52" t="s">
         <v>270</v>
       </c>
@@ -18279,7 +18279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A29" s="52" t="s">
         <v>81</v>
       </c>
@@ -18305,7 +18305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C30" s="52" t="s">
         <v>269</v>
       </c>
@@ -18325,7 +18325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C31" s="52" t="s">
         <v>270</v>
       </c>
@@ -18345,7 +18345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A32" s="52" t="s">
         <v>82</v>
       </c>
@@ -18371,7 +18371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C33" s="52" t="s">
         <v>269</v>
       </c>
@@ -18391,7 +18391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C34" s="52" t="s">
         <v>270</v>
       </c>
@@ -18411,7 +18411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A35" s="52" t="s">
         <v>83</v>
       </c>
@@ -18437,7 +18437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C36" s="52" t="s">
         <v>269</v>
       </c>
@@ -18457,7 +18457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C37" s="52" t="s">
         <v>270</v>
       </c>
@@ -18477,7 +18477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A38" s="52" t="s">
         <v>60</v>
       </c>
@@ -18503,7 +18503,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C39" s="52" t="s">
         <v>269</v>
       </c>
@@ -18523,7 +18523,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C40" s="52" t="s">
         <v>270</v>
       </c>
@@ -18543,7 +18543,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B41" s="52" t="s">
         <v>16</v>
       </c>
@@ -18566,7 +18566,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C42" s="52" t="s">
         <v>269</v>
       </c>
@@ -18586,7 +18586,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C43" s="52" t="s">
         <v>270</v>
       </c>
@@ -18606,7 +18606,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A44" s="52" t="s">
         <v>84</v>
       </c>
@@ -18632,7 +18632,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C45" s="52" t="s">
         <v>269</v>
       </c>
@@ -18652,7 +18652,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A46" s="52" t="s">
         <v>85</v>
       </c>
@@ -18678,7 +18678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C47" s="52" t="s">
         <v>269</v>
       </c>
@@ -18698,7 +18698,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A48" s="52" t="s">
         <v>196</v>
       </c>
@@ -18724,7 +18724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C49" s="52" t="s">
         <v>269</v>
       </c>
@@ -18762,16 +18762,16 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" style="35" customWidth="1"/>
-    <col min="2" max="2" width="27.44140625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" style="35" customWidth="1"/>
-    <col min="4" max="7" width="17.21875" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.77734375" style="35"/>
+    <col min="2" max="2" width="27.453125" style="35" customWidth="1"/>
+    <col min="3" max="3" width="23.6328125" style="35" customWidth="1"/>
+    <col min="4" max="7" width="17.1796875" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.81640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="132" t="s">
         <v>69</v>
       </c>
@@ -18793,7 +18793,7 @@
       </c>
       <c r="H1" s="103"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
         <v>86</v>
       </c>
@@ -18817,7 +18817,7 @@
       </c>
       <c r="H2" s="97"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C3" s="35" t="s">
         <v>269</v>
       </c>
@@ -18835,7 +18835,7 @@
       </c>
       <c r="H3" s="141"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A4" s="43" t="s">
         <v>87</v>
       </c>
@@ -18859,7 +18859,7 @@
       </c>
       <c r="H4" s="141"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A5" s="36"/>
       <c r="C5" s="35" t="s">
         <v>269</v>
@@ -18878,7 +18878,7 @@
       </c>
       <c r="H5" s="97"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A6" s="43" t="s">
         <v>88</v>
       </c>
@@ -18902,7 +18902,7 @@
       </c>
       <c r="H6" s="97"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A7" s="36"/>
       <c r="C7" s="35" t="s">
         <v>269</v>
@@ -18938,14 +18938,14 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.109375" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16.08984375" customWidth="1"/>
+    <col min="2" max="2" width="31.36328125" customWidth="1"/>
     <col min="3" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="str">
         <f>"Percentage of deaths in baseline year ("&amp;start_year&amp;") attributable to cause"</f>
         <v>Percentage of deaths in baseline year (2017) attributable to cause</v>
@@ -18956,7 +18956,7 @@
       <c r="E1" s="41"/>
       <c r="F1" s="41"/>
     </row>
-    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>211</v>
       </c>
@@ -19055,7 +19055,7 @@
       <c r="G12" s="24"/>
       <c r="H12" s="24"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>31</v>
       </c>
@@ -19261,7 +19261,7 @@
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -19377,13 +19377,13 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.44140625" customWidth="1"/>
+    <col min="1" max="1" width="31.453125" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="str">
         <f>"Percentage of population in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of population in each category in baseline year (2017)</v>
@@ -19804,13 +19804,13 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.77734375" customWidth="1"/>
-    <col min="2" max="7" width="13.44140625" customWidth="1"/>
+    <col min="1" max="1" width="28.81640625" customWidth="1"/>
+    <col min="2" max="7" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="str">
         <f>"Percentage of children in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of children in each category in baseline year (2017)</v>
@@ -19940,13 +19940,13 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="29.44140625" customWidth="1"/>
+    <col min="2" max="2" width="29.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>138</v>
       </c>
@@ -19981,7 +19981,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>139</v>
       </c>
@@ -19998,10 +19998,10 @@
       <c r="J2" s="28"/>
       <c r="K2" s="28"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B3" s="14"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>140</v>
       </c>
@@ -20018,10 +20018,10 @@
       <c r="J4" s="28"/>
       <c r="K4" s="28"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B5" s="14"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>141</v>
       </c>
@@ -20038,7 +20038,7 @@
       <c r="J6" s="28"/>
       <c r="K6" s="28"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
         <v>32</v>
       </c>
@@ -20052,7 +20052,7 @@
       <c r="J7" s="28"/>
       <c r="K7" s="28"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
         <v>144</v>
       </c>
@@ -20066,7 +20066,7 @@
       <c r="J8" s="28"/>
       <c r="K8" s="28"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>142</v>
       </c>
@@ -20083,7 +20083,7 @@
       <c r="J10" s="28"/>
       <c r="K10" s="28"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B11" s="34" t="s">
         <v>146</v>
       </c>
@@ -20097,7 +20097,7 @@
       <c r="J11" s="28"/>
       <c r="K11" s="28"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>74</v>
       </c>
@@ -20114,7 +20114,7 @@
       <c r="J13" s="28"/>
       <c r="K13" s="28"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
         <v>170</v>
       </c>
@@ -20145,15 +20145,15 @@
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="35" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="11.44140625" style="35"/>
+    <col min="2" max="2" width="19.08984375" style="35" customWidth="1"/>
+    <col min="3" max="3" width="13.453125" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="11.453125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="50" t="s">
         <v>178</v>
       </c>
@@ -20170,7 +20170,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="49" t="s">
         <v>173</v>
       </c>
@@ -20184,7 +20184,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A3" s="47"/>
       <c r="B3" s="46" t="s">
         <v>1</v>
@@ -20198,7 +20198,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A4" s="47"/>
       <c r="B4" s="46" t="s">
         <v>2</v>
@@ -20212,7 +20212,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A5" s="47"/>
       <c r="B5" s="46" t="s">
         <v>3</v>
@@ -20226,7 +20226,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A6" s="47"/>
       <c r="B6" s="46" t="s">
         <v>4</v>
@@ -20240,7 +20240,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A7" s="47"/>
       <c r="B7" s="46" t="s">
         <v>172</v>
@@ -20249,7 +20249,7 @@
       <c r="D7" s="44"/>
       <c r="E7" s="84"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A9" s="49" t="s">
         <v>199</v>
       </c>
@@ -20265,7 +20265,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A10" s="47"/>
       <c r="B10" s="46" t="s">
         <v>1</v>
@@ -20277,7 +20277,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A11" s="47"/>
       <c r="B11" s="46" t="s">
         <v>2</v>
@@ -20289,7 +20289,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A12" s="47"/>
       <c r="B12" s="46" t="s">
         <v>3</v>
@@ -20301,7 +20301,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A13" s="47"/>
       <c r="B13" s="46" t="s">
         <v>4</v>
@@ -20313,7 +20313,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A14" s="47"/>
       <c r="B14" s="46" t="s">
         <v>172</v>
@@ -20322,7 +20322,7 @@
       <c r="D14" s="44"/>
       <c r="E14" s="84"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A16" s="49" t="s">
         <v>200</v>
       </c>
@@ -20338,7 +20338,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A17" s="47"/>
       <c r="B17" s="46" t="s">
         <v>1</v>
@@ -20352,7 +20352,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A18" s="47"/>
       <c r="B18" s="46" t="s">
         <v>2</v>
@@ -20366,7 +20366,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A19" s="47"/>
       <c r="B19" s="46" t="s">
         <v>3</v>
@@ -20380,7 +20380,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A20" s="47"/>
       <c r="B20" s="46" t="s">
         <v>4</v>
@@ -20394,7 +20394,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A21" s="47"/>
       <c r="B21" s="46" t="s">
         <v>172</v>
@@ -20421,15 +20421,15 @@
       <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" customWidth="1"/>
+    <col min="1" max="1" width="15.6328125" customWidth="1"/>
+    <col min="2" max="2" width="15.453125" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" customWidth="1"/>
+    <col min="4" max="4" width="12.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="64" t="s">
         <v>164</v>
       </c>
@@ -20443,7 +20443,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="65" t="s">
         <v>69</v>
       </c>
@@ -20455,7 +20455,7 @@
       </c>
       <c r="D2" s="84"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A3" s="65" t="s">
         <v>185</v>
       </c>
@@ -20480,21 +20480,21 @@
   </sheetPr>
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="56" style="52" customWidth="1"/>
     <col min="2" max="2" width="20" style="36" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" style="35" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" style="35" customWidth="1"/>
-    <col min="5" max="5" width="32.33203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="14.44140625" style="35"/>
+    <col min="3" max="3" width="20.453125" style="35" customWidth="1"/>
+    <col min="4" max="4" width="20.08984375" style="35" customWidth="1"/>
+    <col min="5" max="5" width="32.36328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="14.453125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="54" t="s">
         <v>69</v>
       </c>
@@ -20784,7 +20784,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="52" t="s">
         <v>173</v>
       </c>
@@ -20795,7 +20795,7 @@
         <v>0.95</v>
       </c>
       <c r="D18" s="87">
-        <f>SUMPRODUCT(('IYCF cost'!$C$2:$E$6)*('IYCF packages'!$C$2:$E$6&lt;&gt;""))</f>
+        <f>SUMPRODUCT(('IYCF cost'!$C$2:$E$6)*('IYCF packages'!$C$2:$E$6&lt;&gt;"")*('IYCF packages'!$C$2:$E$6&lt;&gt;FALSE))</f>
         <v>3.66</v>
       </c>
       <c r="E18" s="86" t="s">
@@ -20813,8 +20813,8 @@
         <v>0.95</v>
       </c>
       <c r="D19" s="87">
-        <f>SUMPRODUCT(('IYCF cost'!$C$2:$E$6)*('IYCF packages'!$C$9:$E$13&lt;&gt;""))</f>
-        <v>3.78</v>
+        <f>SUMPRODUCT(('IYCF cost'!$C$2:$E$6)*('IYCF packages'!$C$9:$E$13&lt;&gt;"")*('IYCF packages'!$C$9:$E$13&lt;&gt;FALSE))</f>
+        <v>0</v>
       </c>
       <c r="E19" s="86" t="s">
         <v>202</v>
@@ -20831,7 +20831,7 @@
         <v>0.95</v>
       </c>
       <c r="D20" s="87">
-        <f>SUMPRODUCT(('IYCF cost'!$C$2:$E$6)*('IYCF packages'!$C$16:$E$20&lt;&gt;""))</f>
+        <f>SUMPRODUCT(('IYCF cost'!$C$2:$E$6)*('IYCF packages'!$C$16:$E$20&lt;&gt;"")*('IYCF packages'!$C$16:$E$20&lt;&gt;FALSE))</f>
         <v>14.270000000000001</v>
       </c>
       <c r="E20" s="86" t="s">

--- a/inputs/demo_region2_input.xlsx
+++ b/inputs/demo_region2_input.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Nutrition\applications\demo\data\regional\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Nutrition\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-21144" windowWidth="38400" windowHeight="21144" tabRatio="961" firstSheet="1" activeTab="13"/>
+    <workbookView xWindow="-38400" yWindow="-21144" windowWidth="38400" windowHeight="21144" tabRatio="961" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -91,7 +91,7 @@
     <definedName name="term_SGA">'Baseline year population inputs'!$C$47</definedName>
     <definedName name="U5_mortality">'Baseline year population inputs'!$C$39</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcMode="manual"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -5757,7 +5757,7 @@
   </sheetPr>
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
       <selection activeCell="C29" activeCellId="3" sqref="C2:O12 C14:O21 C23:O27 C29:O38"/>
     </sheetView>
   </sheetViews>
@@ -12814,12 +12814,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BiU9BXNF+INgNxSFtHuqKvDgOHy4i8LHe4WBopPE5oAPe1uu8rzbQfKL4uxCQ4dbx+6qcxc95feCcYk3II7eJw==" saltValue="oFkUqZTkt+d2Svo646TgPw==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -12829,6 +12823,12 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -20141,8 +20141,8 @@
   </sheetPr>
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -20257,9 +20257,7 @@
         <v>32</v>
       </c>
       <c r="C9" s="84"/>
-      <c r="D9" s="84" t="b">
-        <v>0</v>
-      </c>
+      <c r="D9" s="84"/>
       <c r="E9" s="61" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
@@ -20271,7 +20269,9 @@
         <v>1</v>
       </c>
       <c r="C10" s="84"/>
-      <c r="D10" s="84"/>
+      <c r="D10" s="84" t="s">
+        <v>194</v>
+      </c>
       <c r="E10" s="61" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
@@ -20283,7 +20283,9 @@
         <v>2</v>
       </c>
       <c r="C11" s="84"/>
-      <c r="D11" s="84"/>
+      <c r="D11" s="84" t="s">
+        <v>194</v>
+      </c>
       <c r="E11" s="61" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
@@ -20295,7 +20297,9 @@
         <v>3</v>
       </c>
       <c r="C12" s="84"/>
-      <c r="D12" s="84"/>
+      <c r="D12" s="84" t="s">
+        <v>194</v>
+      </c>
       <c r="E12" s="61" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
@@ -20307,7 +20311,9 @@
         <v>4</v>
       </c>
       <c r="C13" s="84"/>
-      <c r="D13" s="84"/>
+      <c r="D13" s="84" t="s">
+        <v>194</v>
+      </c>
       <c r="E13" s="61" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
@@ -20329,10 +20335,10 @@
       <c r="B16" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="84"/>
-      <c r="D16" s="84" t="s">
+      <c r="C16" s="84" t="s">
         <v>194</v>
       </c>
+      <c r="D16" s="84"/>
       <c r="E16" s="61" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
@@ -20344,9 +20350,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="84"/>
-      <c r="D17" s="84" t="s">
-        <v>194</v>
-      </c>
+      <c r="D17" s="84"/>
       <c r="E17" s="61" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
@@ -20358,9 +20362,7 @@
         <v>2</v>
       </c>
       <c r="C18" s="84"/>
-      <c r="D18" s="84" t="s">
-        <v>194</v>
-      </c>
+      <c r="D18" s="84"/>
       <c r="E18" s="61" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
@@ -20372,9 +20374,7 @@
         <v>3</v>
       </c>
       <c r="C19" s="84"/>
-      <c r="D19" s="84" t="s">
-        <v>194</v>
-      </c>
+      <c r="D19" s="84"/>
       <c r="E19" s="61" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
@@ -20386,9 +20386,7 @@
         <v>4</v>
       </c>
       <c r="C20" s="84"/>
-      <c r="D20" s="84" t="s">
-        <v>194</v>
-      </c>
+      <c r="D20" s="84"/>
       <c r="E20" s="61" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
@@ -20814,7 +20812,7 @@
       </c>
       <c r="D19" s="87">
         <f>SUMPRODUCT(('IYCF cost'!$C$2:$E$6)*('IYCF packages'!$C$9:$E$13&lt;&gt;""))</f>
-        <v>3.78</v>
+        <v>10.49</v>
       </c>
       <c r="E19" s="86" t="s">
         <v>202</v>
@@ -20832,7 +20830,7 @@
       </c>
       <c r="D20" s="87">
         <f>SUMPRODUCT(('IYCF cost'!$C$2:$E$6)*('IYCF packages'!$C$16:$E$20&lt;&gt;""))</f>
-        <v>14.270000000000001</v>
+        <v>0.91500000000000004</v>
       </c>
       <c r="E20" s="86" t="s">
         <v>202</v>

--- a/inputs/demo_region2_input.xlsx
+++ b/inputs/demo_region2_input.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\george.chadderdon\GitRepos\OptimaRepos\Nutrition\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Nutrition\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-21140" windowWidth="38400" windowHeight="21140" tabRatio="961"/>
+    <workbookView xWindow="-38400" yWindow="-21144" windowWidth="38400" windowHeight="21144" tabRatio="961"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -4794,14 +4794,14 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6328125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="38.6328125" style="16" customWidth="1"/>
-    <col min="3" max="16384" width="14.453125" style="12"/>
+    <col min="1" max="1" width="27.6640625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" style="16" customWidth="1"/>
+    <col min="3" max="16384" width="14.44140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>100</v>
       </c>
@@ -4812,14 +4812,14 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>191</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
     </row>
-    <row r="3" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
         <v>193</v>
@@ -4828,7 +4828,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
         <v>192</v>
@@ -4837,7 +4837,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
@@ -4906,7 +4906,7 @@
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="12"/>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>30</v>
       </c>
@@ -5037,7 +5037,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B33" s="32" t="s">
         <v>129</v>
       </c>
@@ -5047,7 +5047,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>135</v>
       </c>
@@ -5230,7 +5230,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
     </row>
   </sheetData>
@@ -5251,15 +5251,15 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="52" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.81640625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="42.453125" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="11.453125" style="35"/>
+    <col min="2" max="2" width="47.77734375" style="35" customWidth="1"/>
+    <col min="3" max="3" width="42.44140625" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -5400,13 +5400,13 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.08984375" style="35" customWidth="1"/>
-    <col min="2" max="16384" width="11.453125" style="35"/>
+    <col min="1" max="1" width="30.109375" style="35" customWidth="1"/>
+    <col min="2" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -5498,7 +5498,7 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
@@ -5612,19 +5612,19 @@
       <selection activeCell="C29" activeCellId="3" sqref="C2:O12 C14:O21 C23:O27 C29:O38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.81640625" customWidth="1"/>
-    <col min="3" max="3" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.77734375" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>33</v>
       </c>
@@ -5671,7 +5671,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>31</v>
       </c>
@@ -6186,7 +6186,7 @@
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="33"/>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>32</v>
       </c>
@@ -6237,7 +6237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="11" t="s">
         <v>86</v>
@@ -6282,7 +6282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="11" t="s">
         <v>187</v>
@@ -6331,7 +6331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="11" t="s">
         <v>208</v>
@@ -6567,7 +6567,7 @@
     <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="33"/>
     </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="58" t="s">
         <v>37</v>
       </c>
@@ -6817,7 +6817,7 @@
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
     </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>35</v>
       </c>
@@ -7326,7 +7326,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
@@ -7364,16 +7364,16 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.6328125" style="35" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" style="35" customWidth="1"/>
-    <col min="3" max="4" width="11.453125" style="35"/>
-    <col min="5" max="5" width="17.453125" style="35" customWidth="1"/>
-    <col min="6" max="16384" width="11.453125" style="35"/>
+    <col min="1" max="1" width="33.6640625" style="35" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="35" customWidth="1"/>
+    <col min="3" max="4" width="11.44140625" style="35"/>
+    <col min="5" max="5" width="17.44140625" style="35" customWidth="1"/>
+    <col min="6" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>163</v>
       </c>
@@ -7390,7 +7390,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
         <v>158</v>
       </c>
@@ -7408,7 +7408,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="39" t="s">
         <v>157</v>
       </c>
@@ -7426,7 +7426,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="39" t="s">
         <v>156</v>
       </c>
@@ -7444,7 +7444,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="39" t="s">
         <v>155</v>
       </c>
@@ -7462,7 +7462,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="39" t="s">
         <v>154</v>
       </c>
@@ -7480,7 +7480,7 @@
         <v>1.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="39" t="s">
         <v>153</v>
       </c>
@@ -7498,7 +7498,7 @@
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="39" t="s">
         <v>152</v>
       </c>
@@ -7516,7 +7516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="39" t="s">
         <v>151</v>
       </c>
@@ -7534,7 +7534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="39" t="s">
         <v>150</v>
       </c>
@@ -7573,20 +7573,20 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.1796875" style="55" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.90625" style="55" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.453125" style="55" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.08984375" style="55" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.21875" style="55" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.88671875" style="55" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" style="55" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" style="55" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="55" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.08984375" style="55" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="15.36328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="16.90625" style="55" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="16.08984375" style="55"/>
+    <col min="6" max="7" width="13.109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="15.33203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="16.88671875" style="55" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="16.109375" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="56" t="s">
         <v>33</v>
       </c>
@@ -7633,7 +7633,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="56" t="s">
         <v>31</v>
       </c>
@@ -7680,7 +7680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="52" t="s">
         <v>149</v>
       </c>
@@ -7724,7 +7724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="52" t="s">
         <v>173</v>
       </c>
@@ -7768,7 +7768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="52" t="s">
         <v>198</v>
       </c>
@@ -7812,7 +7812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="52" t="s">
         <v>199</v>
       </c>
@@ -7856,7 +7856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="52" t="s">
         <v>195</v>
       </c>
@@ -7900,7 +7900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="52" t="s">
         <v>136</v>
       </c>
@@ -7944,7 +7944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="52" t="s">
         <v>137</v>
       </c>
@@ -7988,7 +7988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="52" t="s">
         <v>84</v>
       </c>
@@ -8032,7 +8032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="52" t="s">
         <v>58</v>
       </c>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="52" t="s">
         <v>67</v>
       </c>
@@ -8120,7 +8120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="52" t="s">
         <v>28</v>
       </c>
@@ -8164,7 +8164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="52" t="s">
         <v>85</v>
       </c>
@@ -8208,7 +8208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="52" t="s">
         <v>60</v>
       </c>
@@ -8252,7 +8252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="52"/>
       <c r="C16" s="91"/>
       <c r="D16" s="91"/>
@@ -8268,7 +8268,7 @@
       <c r="N16" s="91"/>
       <c r="O16" s="91"/>
     </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="56" t="s">
         <v>32</v>
       </c>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="56"/>
       <c r="B18" s="52" t="s">
         <v>86</v>
@@ -8360,7 +8360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="92" t="s">
         <v>187</v>
       </c>
@@ -8404,7 +8404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="92" t="s">
         <v>208</v>
       </c>
@@ -8448,7 +8448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="93" t="s">
         <v>57</v>
       </c>
@@ -8492,7 +8492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="52" t="s">
         <v>88</v>
       </c>
@@ -8536,7 +8536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="52" t="s">
         <v>87</v>
       </c>
@@ -8580,7 +8580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="52" t="s">
         <v>59</v>
       </c>
@@ -8624,7 +8624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="52"/>
       <c r="C25" s="91"/>
       <c r="D25" s="91"/>
@@ -8640,7 +8640,7 @@
       <c r="N25" s="91"/>
       <c r="O25" s="91"/>
     </row>
-    <row r="26" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="56" t="s">
         <v>37</v>
       </c>
@@ -8688,7 +8688,7 @@
       </c>
       <c r="P26" s="94"/>
     </row>
-    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="59" t="s">
         <v>188</v>
       </c>
@@ -8732,7 +8732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="56"/>
       <c r="B28" s="59" t="s">
         <v>207</v>
@@ -8777,7 +8777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="59" t="s">
         <v>189</v>
       </c>
@@ -8821,7 +8821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="59" t="s">
         <v>190</v>
       </c>
@@ -8865,7 +8865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="52"/>
       <c r="C31" s="95"/>
       <c r="D31" s="95"/>
@@ -8881,7 +8881,7 @@
       <c r="N31" s="91"/>
       <c r="O31" s="91"/>
     </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="56" t="s">
         <v>35</v>
       </c>
@@ -8928,7 +8928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="52" t="s">
         <v>64</v>
       </c>
@@ -8972,7 +8972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="52" t="s">
         <v>62</v>
       </c>
@@ -9016,7 +9016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="52" t="s">
         <v>47</v>
       </c>
@@ -9060,7 +9060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="52" t="s">
         <v>34</v>
       </c>
@@ -9104,7 +9104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="97"/>
       <c r="B37" s="52" t="s">
         <v>83</v>
@@ -9149,7 +9149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="52" t="s">
         <v>82</v>
       </c>
@@ -9193,7 +9193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="52" t="s">
         <v>81</v>
       </c>
@@ -9237,7 +9237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="52" t="s">
         <v>79</v>
       </c>
@@ -9281,7 +9281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="52" t="s">
         <v>80</v>
       </c>
@@ -9342,22 +9342,22 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="58.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -10088,22 +10088,22 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="16.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>217</v>
       </c>
@@ -10462,15 +10462,15 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.08984375" style="35" customWidth="1"/>
+    <col min="1" max="1" width="48.109375" style="35" customWidth="1"/>
     <col min="2" max="2" width="15" style="35" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="12.81640625" style="35"/>
+    <col min="3" max="3" width="14.6640625" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>218</v>
       </c>
@@ -10496,7 +10496,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>219</v>
       </c>
@@ -10827,7 +10827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17" s="101" t="s">
         <v>172</v>
       </c>
@@ -10857,7 +10857,7 @@
       <c r="G18" s="102"/>
       <c r="H18" s="102"/>
     </row>
-    <row r="19" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="40" t="s">
         <v>220</v>
       </c>
@@ -11185,7 +11185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B34" s="101" t="s">
         <v>172</v>
       </c>
@@ -11215,7 +11215,7 @@
       <c r="G35" s="102"/>
       <c r="H35" s="102"/>
     </row>
-    <row r="36" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="103" t="s">
         <v>221</v>
       </c>
@@ -11543,7 +11543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="104" t="s">
         <v>172</v>
       </c>
@@ -11569,12 +11569,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BiU9BXNF+INgNxSFtHuqKvDgOHy4i8LHe4WBopPE5oAPe1uu8rzbQfKL4uxCQ4dbx+6qcxc95feCcYk3II7eJw==" saltValue="oFkUqZTkt+d2Svo646TgPw==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -11584,6 +11578,12 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -11601,14 +11601,14 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.453125" style="12" customWidth="1"/>
-    <col min="2" max="9" width="16.81640625" style="12" customWidth="1"/>
-    <col min="10" max="16384" width="14.453125" style="12"/>
+    <col min="1" max="1" width="8.44140625" style="12" customWidth="1"/>
+    <col min="2" max="9" width="16.77734375" style="12" customWidth="1"/>
+    <col min="10" max="16384" width="14.44140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -12697,22 +12697,22 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.90625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="34.08984375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="11.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.90625" style="35" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="34.109375" style="35" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" style="35" customWidth="1"/>
     <col min="5" max="6" width="15" style="35" customWidth="1"/>
-    <col min="7" max="16384" width="16.08984375" style="35"/>
+    <col min="7" max="16384" width="16.109375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="106" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="106" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="105" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="107"/>
       <c r="C2" s="108" t="s">
         <v>26</v>
@@ -12727,7 +12727,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
         <v>223</v>
       </c>
@@ -12811,7 +12811,7 @@
       <c r="E8" s="100"/>
       <c r="F8" s="100"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="40" t="s">
         <v>224</v>
       </c>
@@ -12836,7 +12836,7 @@
       <c r="F10" s="100"/>
       <c r="G10" s="117"/>
     </row>
-    <row r="11" spans="1:7" s="106" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="106" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="105" t="s">
         <v>225</v>
       </c>
@@ -12846,7 +12846,7 @@
       <c r="F11" s="119"/>
       <c r="G11" s="120"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="40" t="s">
         <v>226</v>
       </c>
@@ -12910,7 +12910,7 @@
       </c>
       <c r="G15" s="117"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
       <c r="B16" s="121"/>
       <c r="C16" s="122"/>
@@ -12919,7 +12919,7 @@
       <c r="F16" s="100"/>
       <c r="G16" s="117"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="40" t="s">
         <v>230</v>
       </c>
@@ -13073,7 +13073,7 @@
     <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="121"/>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="40"/>
     </row>
   </sheetData>
@@ -13094,23 +13094,23 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.1796875" style="35" customWidth="1"/>
-    <col min="2" max="2" width="26.90625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="18.36328125" style="35" customWidth="1"/>
-    <col min="4" max="8" width="14.81640625" style="35" customWidth="1"/>
-    <col min="9" max="12" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="16.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="27.21875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="35" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="35" customWidth="1"/>
+    <col min="4" max="8" width="14.77734375" style="35" customWidth="1"/>
+    <col min="9" max="12" width="15.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="16.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="105" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="126" t="s">
         <v>212</v>
       </c>
@@ -13144,7 +13144,7 @@
       <c r="O2" s="128"/>
       <c r="P2" s="128"/>
     </row>
-    <row r="3" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="40"/>
       <c r="B3" s="35" t="s">
         <v>71</v>
@@ -13577,7 +13577,7 @@
       <c r="O17" s="126"/>
       <c r="P17" s="126"/>
     </row>
-    <row r="18" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="43" t="s">
         <v>237</v>
       </c>
@@ -13835,12 +13835,12 @@
       <c r="O26" s="126"/>
       <c r="P26" s="126"/>
     </row>
-    <row r="28" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="105" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="36" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="129" t="s">
         <v>239</v>
       </c>
@@ -13874,7 +13874,7 @@
       <c r="O29" s="128"/>
       <c r="P29" s="128"/>
     </row>
-    <row r="30" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="35" t="s">
         <v>71</v>
@@ -14569,12 +14569,12 @@
       <c r="C54" s="43"/>
       <c r="D54" s="43"/>
     </row>
-    <row r="55" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="105" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="56" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" s="36" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A56" s="129" t="s">
         <v>70</v>
       </c>
@@ -14602,7 +14602,7 @@
       <c r="O56" s="128"/>
       <c r="P56" s="128"/>
     </row>
-    <row r="57" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="35" t="s">
         <v>38</v>
@@ -14748,12 +14748,12 @@
       <c r="C63" s="43"/>
       <c r="D63" s="43"/>
     </row>
-    <row r="64" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="105" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="65" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" s="36" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A65" s="129" t="s">
         <v>24</v>
       </c>
@@ -14787,7 +14787,7 @@
       <c r="O65" s="128"/>
       <c r="P65" s="128"/>
     </row>
-    <row r="66" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="133"/>
       <c r="B66" s="35" t="s">
         <v>73</v>
@@ -15823,12 +15823,12 @@
       <c r="O101" s="126"/>
       <c r="P101" s="126"/>
     </row>
-    <row r="103" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="105" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="104" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" s="36" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A104" s="129" t="s">
         <v>71</v>
       </c>
@@ -15862,7 +15862,7 @@
       <c r="O104" s="128"/>
       <c r="P104" s="128"/>
     </row>
-    <row r="105" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="36"/>
       <c r="C105" s="43" t="s">
@@ -15976,7 +15976,7 @@
       <c r="O108" s="126"/>
       <c r="P108" s="126"/>
     </row>
-    <row r="111" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
     </row>
   </sheetData>
@@ -15997,24 +15997,24 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.81640625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="44.453125" style="35" customWidth="1"/>
-    <col min="3" max="3" width="17.81640625" style="35" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" style="35" customWidth="1"/>
-    <col min="5" max="5" width="17.1796875" style="35" customWidth="1"/>
+    <col min="1" max="1" width="25.77734375" style="35" customWidth="1"/>
+    <col min="2" max="2" width="44.44140625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" style="35" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" style="35" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="35" customWidth="1"/>
     <col min="6" max="6" width="15" style="35" customWidth="1"/>
-    <col min="7" max="7" width="13.6328125" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.81640625" style="35"/>
+    <col min="7" max="7" width="13.6640625" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="105" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="133" t="s">
         <v>25</v>
       </c>
@@ -16055,7 +16055,7 @@
         <v>174.7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="40"/>
       <c r="B4" s="125" t="s">
         <v>251</v>
@@ -16076,7 +16076,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="110" t="s">
         <v>252</v>
       </c>
@@ -16149,12 +16149,12 @@
       <c r="F9" s="125"/>
       <c r="G9" s="125"/>
     </row>
-    <row r="10" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="105" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="110"/>
       <c r="B11" s="121" t="s">
         <v>195</v>
@@ -16175,16 +16175,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="110"/>
       <c r="B12" s="121"/>
     </row>
-    <row r="13" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="105" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="133" t="s">
         <v>239</v>
       </c>
@@ -16207,7 +16207,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="40"/>
       <c r="B15" s="125" t="s">
         <v>256</v>
@@ -16228,7 +16228,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="133" t="s">
         <v>70</v>
       </c>
@@ -16252,12 +16252,12 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:6" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="105" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="110" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="110" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="56" t="s">
         <v>49</v>
       </c>
@@ -16304,19 +16304,19 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.1796875" style="35" customWidth="1"/>
-    <col min="2" max="6" width="16.08984375" style="35"/>
-    <col min="7" max="7" width="17.1796875" style="35" customWidth="1"/>
-    <col min="8" max="8" width="16.08984375" style="35" customWidth="1"/>
-    <col min="9" max="16384" width="16.08984375" style="35"/>
+    <col min="1" max="1" width="52.21875" style="35" customWidth="1"/>
+    <col min="2" max="6" width="16.109375" style="35"/>
+    <col min="7" max="7" width="17.21875" style="35" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" style="35" customWidth="1"/>
+    <col min="9" max="16384" width="16.109375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="127" t="s">
         <v>69</v>
       </c>
@@ -16532,10 +16532,10 @@
         <v>259</v>
       </c>
       <c r="C12" s="115">
-        <v>0.23</v>
+        <v>0.08</v>
       </c>
       <c r="D12" s="115">
-        <v>0.23</v>
+        <v>0.08</v>
       </c>
       <c r="E12" s="115">
         <v>0</v>
@@ -16586,15 +16586,15 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" style="35" customWidth="1"/>
-    <col min="2" max="2" width="58.90625" style="35" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="58.88671875" style="35" bestFit="1" customWidth="1"/>
     <col min="3" max="15" width="15" style="35" customWidth="1"/>
-    <col min="16" max="16384" width="12.81640625" style="35"/>
+    <col min="16" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="40"/>
       <c r="B1" s="40"/>
       <c r="C1" s="109" t="s">
@@ -16637,7 +16637,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>261</v>
       </c>
@@ -17082,7 +17082,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="59" t="s">
         <v>137</v>
       </c>
@@ -17170,7 +17170,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="40" t="s">
         <v>262</v>
       </c>
@@ -17382,15 +17382,15 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.36328125" style="35" customWidth="1"/>
-    <col min="2" max="2" width="27.1796875" style="35" customWidth="1"/>
-    <col min="3" max="7" width="15.54296875" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="21.33203125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="27.21875" style="35" customWidth="1"/>
+    <col min="3" max="7" width="15.5546875" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="40"/>
       <c r="B1" s="127"/>
       <c r="C1" s="40" t="s">
@@ -17409,7 +17409,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>263</v>
       </c>
@@ -17434,7 +17434,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
         <v>264</v>
       </c>
@@ -17483,20 +17483,20 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="52" customWidth="1"/>
-    <col min="2" max="2" width="30.54296875" style="52" customWidth="1"/>
-    <col min="3" max="3" width="24.81640625" style="52" customWidth="1"/>
+    <col min="2" max="2" width="30.5546875" style="52" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" style="52" customWidth="1"/>
     <col min="4" max="4" width="15" style="35" customWidth="1"/>
-    <col min="5" max="5" width="13.6328125" style="35" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" style="35" customWidth="1"/>
-    <col min="7" max="7" width="12.81640625" style="35"/>
-    <col min="8" max="8" width="17.54296875" style="35" customWidth="1"/>
-    <col min="9" max="16384" width="12.81640625" style="35"/>
+    <col min="5" max="5" width="13.6640625" style="35" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" style="35" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" style="35"/>
+    <col min="8" max="8" width="17.5546875" style="35" customWidth="1"/>
+    <col min="9" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -18613,16 +18613,16 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" style="35" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" style="35" customWidth="1"/>
-    <col min="3" max="3" width="23.6328125" style="35" customWidth="1"/>
-    <col min="4" max="7" width="17.1796875" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.81640625" style="35"/>
+    <col min="2" max="2" width="27.44140625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" style="35" customWidth="1"/>
+    <col min="4" max="7" width="17.21875" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="127" t="s">
         <v>69</v>
       </c>
@@ -18789,14 +18789,14 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.08984375" customWidth="1"/>
-    <col min="2" max="2" width="31.36328125" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
     <col min="3" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="str">
         <f>"Percentage of deaths in baseline year ("&amp;start_year&amp;") attributable to cause"</f>
         <v>Percentage of deaths in baseline year (2017) attributable to cause</v>
@@ -18807,7 +18807,7 @@
       <c r="E1" s="41"/>
       <c r="F1" s="41"/>
     </row>
-    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>210</v>
       </c>
@@ -18906,7 +18906,7 @@
       <c r="G12" s="24"/>
       <c r="H12" s="24"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>31</v>
       </c>
@@ -19112,7 +19112,7 @@
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -19228,13 +19228,13 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.453125" customWidth="1"/>
+    <col min="1" max="1" width="31.44140625" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="str">
         <f>"Percentage of population in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of population in each category in baseline year (2017)</v>
@@ -19655,13 +19655,13 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.81640625" customWidth="1"/>
-    <col min="2" max="7" width="13.453125" customWidth="1"/>
+    <col min="1" max="1" width="28.77734375" customWidth="1"/>
+    <col min="2" max="7" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="str">
         <f>"Percentage of children in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of children in each category in baseline year (2017)</v>
@@ -19791,13 +19791,13 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="29.453125" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>138</v>
       </c>
@@ -19996,15 +19996,15 @@
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="35" customWidth="1"/>
-    <col min="2" max="2" width="19.08984375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="11.453125" style="35"/>
+    <col min="2" max="2" width="19.109375" style="35" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="50" t="s">
         <v>178</v>
       </c>
@@ -20021,7 +20021,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="49" t="s">
         <v>173</v>
       </c>
@@ -20100,7 +20100,7 @@
       <c r="D7" s="44"/>
       <c r="E7" s="80"/>
     </row>
-    <row r="9" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="49" t="s">
         <v>198</v>
       </c>
@@ -20173,7 +20173,7 @@
       <c r="D14" s="44"/>
       <c r="E14" s="80"/>
     </row>
-    <row r="16" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="49" t="s">
         <v>199</v>
       </c>
@@ -20272,15 +20272,15 @@
       <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6328125" customWidth="1"/>
-    <col min="2" max="2" width="15.453125" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" customWidth="1"/>
-    <col min="4" max="4" width="12.81640625" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="60" t="s">
         <v>164</v>
       </c>
@@ -20294,7 +20294,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="61" t="s">
         <v>69</v>
       </c>
@@ -20306,7 +20306,7 @@
       </c>
       <c r="D2" s="80"/>
     </row>
-    <row r="3" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="61" t="s">
         <v>185</v>
       </c>
@@ -20335,17 +20335,17 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="56" style="52" customWidth="1"/>
     <col min="2" max="2" width="20" style="36" customWidth="1"/>
-    <col min="3" max="3" width="20.453125" style="35" customWidth="1"/>
-    <col min="4" max="4" width="20.08984375" style="35" customWidth="1"/>
-    <col min="5" max="5" width="32.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="14.453125" style="35"/>
+    <col min="3" max="3" width="20.44140625" style="35" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" style="35" customWidth="1"/>
+    <col min="5" max="5" width="32.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="14.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="54" t="s">
         <v>69</v>
       </c>
@@ -20635,7 +20635,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="52" t="s">
         <v>173</v>
       </c>

--- a/inputs/demo_region2_input.xlsx
+++ b/inputs/demo_region2_input.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Nutrition\inputs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-21144" windowWidth="38400" windowHeight="21144" tabRatio="961"/>
+    <workbookView xWindow="-38400" yWindow="-21140" windowWidth="38400" windowHeight="16420" tabRatio="961" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -17,7 +12,7 @@
     <sheet name="Causes of death" sheetId="4" r:id="rId3"/>
     <sheet name="Nutritional status distribution" sheetId="5" r:id="rId4"/>
     <sheet name="Breastfeeding distribution" sheetId="50" r:id="rId5"/>
-    <sheet name="Time trends" sheetId="51" state="hidden" r:id="rId6"/>
+    <sheet name="Time trends" sheetId="51" r:id="rId6"/>
     <sheet name="IYCF packages" sheetId="55" r:id="rId7"/>
     <sheet name="Treatment of SAM" sheetId="60" r:id="rId8"/>
     <sheet name="Programs cost and coverage" sheetId="56" r:id="rId9"/>
@@ -90,7 +85,7 @@
     <definedName name="term_SGA">'Baseline year population inputs'!$C$47</definedName>
     <definedName name="U5_mortality">'Baseline year population inputs'!$C$39</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -105,7 +100,7 @@
     <author>Nick Scott</author>
   </authors>
   <commentList>
-    <comment ref="D28" authorId="0" shapeId="0">
+    <comment ref="D28" authorId="0">
       <text>
         <r>
           <rPr>
@@ -168,7 +163,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D30" authorId="0" shapeId="0">
+    <comment ref="D30" authorId="0">
       <text>
         <r>
           <rPr>
@@ -231,7 +226,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D37" authorId="0" shapeId="0">
+    <comment ref="D37" authorId="0">
       <text>
         <r>
           <rPr>
@@ -267,7 +262,7 @@
     <author>Sam</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -291,7 +286,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -325,7 +320,7 @@
     <author>Sam</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -368,7 +363,7 @@
     <author>Nick Scott</author>
   </authors>
   <commentList>
-    <comment ref="A36" authorId="0" shapeId="0">
+    <comment ref="A36" authorId="0">
       <text>
         <r>
           <rPr>
@@ -402,7 +397,7 @@
     <author>Nick Scott</author>
   </authors>
   <commentList>
-    <comment ref="B6" authorId="0" shapeId="0">
+    <comment ref="B6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -426,7 +421,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="0" shapeId="0">
+    <comment ref="B7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1271,12 +1266,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0.0%"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
@@ -1584,7 +1579,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2302,7 +2297,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2338,8 +2333,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2349,7 +2344,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -2359,16 +2354,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -2401,7 +2396,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="725" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="725" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="725" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="725" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2416,7 +2411,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="725" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="726" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="726" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="19" fillId="3" borderId="4" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="19" fillId="3" borderId="4" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="725" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2446,7 +2441,7 @@
     <xf numFmtId="9" fontId="9" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2465,28 +2460,28 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="9" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2611,7 +2606,7 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="725" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="725" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="725" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="725" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3403,7 +3398,7 @@
         <xdr:cNvPr id="2049" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000001080000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000001080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3460,7 +3455,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3517,7 +3512,7 @@
         <xdr:cNvPr id="3" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3574,7 +3569,7 @@
         <xdr:cNvPr id="4" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3631,7 +3626,7 @@
         <xdr:cNvPr id="5" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3688,7 +3683,7 @@
         <xdr:cNvPr id="6" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3745,7 +3740,7 @@
         <xdr:cNvPr id="7" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3802,7 +3797,7 @@
         <xdr:cNvPr id="8" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3859,7 +3854,7 @@
         <xdr:cNvPr id="9" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3916,7 +3911,7 @@
         <xdr:cNvPr id="10" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3973,7 +3968,7 @@
         <xdr:cNvPr id="11" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4030,7 +4025,7 @@
         <xdr:cNvPr id="12" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4087,7 +4082,7 @@
         <xdr:cNvPr id="13" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4144,7 +4139,7 @@
         <xdr:cNvPr id="14" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4201,7 +4196,7 @@
         <xdr:cNvPr id="15" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4258,7 +4253,7 @@
         <xdr:cNvPr id="16" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000010000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4315,7 +4310,7 @@
         <xdr:cNvPr id="17" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000011000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4372,7 +4367,7 @@
         <xdr:cNvPr id="18" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000012000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4421,7 +4416,7 @@
         <xdr:cNvPr id="19" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000013000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4790,18 +4785,18 @@
   </sheetPr>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="38.6640625" style="16" customWidth="1"/>
-    <col min="3" max="16384" width="14.44140625" style="12"/>
+    <col min="1" max="1" width="27.6328125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="38.6328125" style="16" customWidth="1"/>
+    <col min="3" max="16384" width="14.453125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>100</v>
       </c>
@@ -4812,14 +4807,14 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>191</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
     </row>
-    <row r="3" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
         <v>193</v>
@@ -4828,7 +4823,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
         <v>192</v>
@@ -4837,7 +4832,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
@@ -4906,7 +4901,7 @@
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="12"/>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>30</v>
       </c>
@@ -5037,7 +5032,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="13" x14ac:dyDescent="0.25">
       <c r="B33" s="32" t="s">
         <v>129</v>
       </c>
@@ -5047,7 +5042,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>135</v>
       </c>
@@ -5230,7 +5225,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
     </row>
   </sheetData>
@@ -5251,15 +5246,15 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="52" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.77734375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="42.44140625" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="11.44140625" style="35"/>
+    <col min="2" max="2" width="47.81640625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="42.453125" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="11.453125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -5400,13 +5395,13 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.109375" style="35" customWidth="1"/>
-    <col min="2" max="16384" width="11.44140625" style="35"/>
+    <col min="1" max="1" width="30.08984375" style="35" customWidth="1"/>
+    <col min="2" max="16384" width="11.453125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -5498,7 +5493,7 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
@@ -5612,19 +5607,19 @@
       <selection activeCell="C29" activeCellId="3" sqref="C2:O12 C14:O21 C23:O27 C29:O38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.77734375" customWidth="1"/>
-    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.81640625" customWidth="1"/>
+    <col min="3" max="3" width="8.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="15.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>33</v>
       </c>
@@ -5671,7 +5666,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>31</v>
       </c>
@@ -6186,7 +6181,7 @@
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="33"/>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>32</v>
       </c>
@@ -6237,7 +6232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="11" t="s">
         <v>86</v>
@@ -6282,7 +6277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="11" t="s">
         <v>187</v>
@@ -6331,7 +6326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="11" t="s">
         <v>208</v>
@@ -6567,7 +6562,7 @@
     <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="33"/>
     </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="58" t="s">
         <v>37</v>
       </c>
@@ -6817,7 +6812,7 @@
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
     </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>35</v>
       </c>
@@ -7326,7 +7321,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
@@ -7364,16 +7359,16 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.6640625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="35" customWidth="1"/>
-    <col min="3" max="4" width="11.44140625" style="35"/>
-    <col min="5" max="5" width="17.44140625" style="35" customWidth="1"/>
-    <col min="6" max="16384" width="11.44140625" style="35"/>
+    <col min="1" max="1" width="33.6328125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" style="35" customWidth="1"/>
+    <col min="3" max="4" width="11.453125" style="35"/>
+    <col min="5" max="5" width="17.453125" style="35" customWidth="1"/>
+    <col min="6" max="16384" width="11.453125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>163</v>
       </c>
@@ -7390,7 +7385,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="A2" s="39" t="s">
         <v>158</v>
       </c>
@@ -7408,7 +7403,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="A3" s="39" t="s">
         <v>157</v>
       </c>
@@ -7426,7 +7421,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="A4" s="39" t="s">
         <v>156</v>
       </c>
@@ -7444,7 +7439,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="A5" s="39" t="s">
         <v>155</v>
       </c>
@@ -7462,7 +7457,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="A6" s="39" t="s">
         <v>154</v>
       </c>
@@ -7480,7 +7475,7 @@
         <v>1.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="A7" s="39" t="s">
         <v>153</v>
       </c>
@@ -7498,7 +7493,7 @@
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="A8" s="39" t="s">
         <v>152</v>
       </c>
@@ -7516,7 +7511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="A9" s="39" t="s">
         <v>151</v>
       </c>
@@ -7534,7 +7529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="A10" s="39" t="s">
         <v>150</v>
       </c>
@@ -7573,20 +7568,20 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.21875" style="55" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.88671875" style="55" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" style="55" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.1796875" style="55" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.90625" style="55" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.453125" style="55" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.08984375" style="55" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="55" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="15.33203125" style="55" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="16.88671875" style="55" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="16.109375" style="55"/>
+    <col min="6" max="7" width="13.08984375" style="55" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="15.36328125" style="55" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="16.90625" style="55" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="16.08984375" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="56" t="s">
         <v>33</v>
       </c>
@@ -7633,7 +7628,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="56" t="s">
         <v>31</v>
       </c>
@@ -7680,7 +7675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="52" t="s">
         <v>149</v>
       </c>
@@ -7724,7 +7719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="52" t="s">
         <v>173</v>
       </c>
@@ -7768,7 +7763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="52" t="s">
         <v>198</v>
       </c>
@@ -7812,7 +7807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="52" t="s">
         <v>199</v>
       </c>
@@ -7856,7 +7851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="52" t="s">
         <v>195</v>
       </c>
@@ -7900,7 +7895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="52" t="s">
         <v>136</v>
       </c>
@@ -7944,7 +7939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="52" t="s">
         <v>137</v>
       </c>
@@ -7988,7 +7983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="52" t="s">
         <v>84</v>
       </c>
@@ -8032,7 +8027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="52" t="s">
         <v>58</v>
       </c>
@@ -8076,7 +8071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="52" t="s">
         <v>67</v>
       </c>
@@ -8120,7 +8115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="52" t="s">
         <v>28</v>
       </c>
@@ -8164,7 +8159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="52" t="s">
         <v>85</v>
       </c>
@@ -8208,7 +8203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="52" t="s">
         <v>60</v>
       </c>
@@ -8252,7 +8247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="52"/>
       <c r="C16" s="91"/>
       <c r="D16" s="91"/>
@@ -8268,7 +8263,7 @@
       <c r="N16" s="91"/>
       <c r="O16" s="91"/>
     </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="56" t="s">
         <v>32</v>
       </c>
@@ -8315,7 +8310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="56"/>
       <c r="B18" s="52" t="s">
         <v>86</v>
@@ -8360,7 +8355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="92" t="s">
         <v>187</v>
       </c>
@@ -8404,7 +8399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="92" t="s">
         <v>208</v>
       </c>
@@ -8448,7 +8443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="93" t="s">
         <v>57</v>
       </c>
@@ -8492,7 +8487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="52" t="s">
         <v>88</v>
       </c>
@@ -8536,7 +8531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="52" t="s">
         <v>87</v>
       </c>
@@ -8580,7 +8575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="52" t="s">
         <v>59</v>
       </c>
@@ -8624,7 +8619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="52"/>
       <c r="C25" s="91"/>
       <c r="D25" s="91"/>
@@ -8640,7 +8635,7 @@
       <c r="N25" s="91"/>
       <c r="O25" s="91"/>
     </row>
-    <row r="26" spans="1:16" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="56" t="s">
         <v>37</v>
       </c>
@@ -8688,7 +8683,7 @@
       </c>
       <c r="P26" s="94"/>
     </row>
-    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="59" t="s">
         <v>188</v>
       </c>
@@ -8732,7 +8727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="56"/>
       <c r="B28" s="59" t="s">
         <v>207</v>
@@ -8777,7 +8772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="59" t="s">
         <v>189</v>
       </c>
@@ -8821,7 +8816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="59" t="s">
         <v>190</v>
       </c>
@@ -8865,7 +8860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="52"/>
       <c r="C31" s="95"/>
       <c r="D31" s="95"/>
@@ -8881,7 +8876,7 @@
       <c r="N31" s="91"/>
       <c r="O31" s="91"/>
     </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="56" t="s">
         <v>35</v>
       </c>
@@ -8928,7 +8923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="52" t="s">
         <v>64</v>
       </c>
@@ -8972,7 +8967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="52" t="s">
         <v>62</v>
       </c>
@@ -9016,7 +9011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="52" t="s">
         <v>47</v>
       </c>
@@ -9060,7 +9055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="52" t="s">
         <v>34</v>
       </c>
@@ -9104,7 +9099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="97"/>
       <c r="B37" s="52" t="s">
         <v>83</v>
@@ -9149,7 +9144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="52" t="s">
         <v>82</v>
       </c>
@@ -9193,7 +9188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="52" t="s">
         <v>81</v>
       </c>
@@ -9237,7 +9232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="52" t="s">
         <v>79</v>
       </c>
@@ -9281,7 +9276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="52" t="s">
         <v>80</v>
       </c>
@@ -9342,22 +9337,22 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.77734375" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.77734375" style="35"/>
+    <col min="1" max="1" width="58.90625" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.90625" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.36328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.453125" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.81640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.90625" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.81640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.81640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -10088,22 +10083,22 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.77734375" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.77734375" style="35"/>
+    <col min="1" max="1" width="16.90625" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.90625" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.36328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.453125" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.81640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.90625" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.81640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.81640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>217</v>
       </c>
@@ -10462,15 +10457,15 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.109375" style="35" customWidth="1"/>
+    <col min="1" max="1" width="48.08984375" style="35" customWidth="1"/>
     <col min="2" max="2" width="15" style="35" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="12.77734375" style="35"/>
+    <col min="3" max="3" width="14.6328125" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="12.81640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>218</v>
       </c>
@@ -10496,7 +10491,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
         <v>219</v>
       </c>
@@ -10827,7 +10822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="B17" s="101" t="s">
         <v>172</v>
       </c>
@@ -10857,7 +10852,7 @@
       <c r="G18" s="102"/>
       <c r="H18" s="102"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A19" s="40" t="s">
         <v>220</v>
       </c>
@@ -11185,7 +11180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="B34" s="101" t="s">
         <v>172</v>
       </c>
@@ -11215,7 +11210,7 @@
       <c r="G35" s="102"/>
       <c r="H35" s="102"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A36" s="103" t="s">
         <v>221</v>
       </c>
@@ -11543,7 +11538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" ht="13" x14ac:dyDescent="0.25">
       <c r="B51" s="104" t="s">
         <v>172</v>
       </c>
@@ -11601,14 +11596,14 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.44140625" style="12" customWidth="1"/>
-    <col min="2" max="9" width="16.77734375" style="12" customWidth="1"/>
-    <col min="10" max="16384" width="14.44140625" style="12"/>
+    <col min="1" max="1" width="8.453125" style="12" customWidth="1"/>
+    <col min="2" max="9" width="16.81640625" style="12" customWidth="1"/>
+    <col min="10" max="16384" width="14.453125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -12697,22 +12692,22 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" style="35" customWidth="1"/>
-    <col min="2" max="2" width="34.109375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" style="35" customWidth="1"/>
+    <col min="1" max="1" width="23.90625" style="35" customWidth="1"/>
+    <col min="2" max="2" width="34.08984375" style="35" customWidth="1"/>
+    <col min="3" max="3" width="11.36328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.90625" style="35" customWidth="1"/>
     <col min="5" max="6" width="15" style="35" customWidth="1"/>
-    <col min="7" max="16384" width="16.109375" style="35"/>
+    <col min="7" max="16384" width="16.08984375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="106" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="106" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="105" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="107"/>
       <c r="C2" s="108" t="s">
         <v>26</v>
@@ -12727,7 +12722,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="40" t="s">
         <v>223</v>
       </c>
@@ -12811,7 +12806,7 @@
       <c r="E8" s="100"/>
       <c r="F8" s="100"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="40" t="s">
         <v>224</v>
       </c>
@@ -12836,7 +12831,7 @@
       <c r="F10" s="100"/>
       <c r="G10" s="117"/>
     </row>
-    <row r="11" spans="1:7" s="106" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="106" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="105" t="s">
         <v>225</v>
       </c>
@@ -12846,7 +12841,7 @@
       <c r="F11" s="119"/>
       <c r="G11" s="120"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="40" t="s">
         <v>226</v>
       </c>
@@ -12910,7 +12905,7 @@
       </c>
       <c r="G15" s="117"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="40"/>
       <c r="B16" s="121"/>
       <c r="C16" s="122"/>
@@ -12919,7 +12914,7 @@
       <c r="F16" s="100"/>
       <c r="G16" s="117"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="40" t="s">
         <v>230</v>
       </c>
@@ -13073,7 +13068,7 @@
     <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="121"/>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="40"/>
     </row>
   </sheetData>
@@ -13094,23 +13089,23 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.21875" style="35" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="35" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" style="35" customWidth="1"/>
-    <col min="4" max="8" width="14.77734375" style="35" customWidth="1"/>
-    <col min="9" max="12" width="15.33203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="16.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="12.77734375" style="35"/>
+    <col min="1" max="1" width="27.1796875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="26.90625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="18.36328125" style="35" customWidth="1"/>
+    <col min="4" max="8" width="14.81640625" style="35" customWidth="1"/>
+    <col min="9" max="12" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="16.90625" style="35" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="12.81640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="105" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="126" t="s">
         <v>212</v>
       </c>
@@ -13144,7 +13139,7 @@
       <c r="O2" s="128"/>
       <c r="P2" s="128"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A3" s="40"/>
       <c r="B3" s="35" t="s">
         <v>71</v>
@@ -13577,7 +13572,7 @@
       <c r="O17" s="126"/>
       <c r="P17" s="126"/>
     </row>
-    <row r="18" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="43" t="s">
         <v>237</v>
       </c>
@@ -13835,12 +13830,12 @@
       <c r="O26" s="126"/>
       <c r="P26" s="126"/>
     </row>
-    <row r="28" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A28" s="105" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" s="36" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A29" s="129" t="s">
         <v>239</v>
       </c>
@@ -13874,7 +13869,7 @@
       <c r="O29" s="128"/>
       <c r="P29" s="128"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" s="35" t="s">
         <v>71</v>
@@ -14569,12 +14564,12 @@
       <c r="C54" s="43"/>
       <c r="D54" s="43"/>
     </row>
-    <row r="55" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A55" s="105" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="56" spans="1:16" s="36" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A56" s="129" t="s">
         <v>70</v>
       </c>
@@ -14602,7 +14597,7 @@
       <c r="O56" s="128"/>
       <c r="P56" s="128"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
       <c r="B57" s="35" t="s">
         <v>38</v>
@@ -14748,12 +14743,12 @@
       <c r="C63" s="43"/>
       <c r="D63" s="43"/>
     </row>
-    <row r="64" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A64" s="105" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="65" spans="1:16" s="36" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A65" s="129" t="s">
         <v>24</v>
       </c>
@@ -14787,7 +14782,7 @@
       <c r="O65" s="128"/>
       <c r="P65" s="128"/>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A66" s="133"/>
       <c r="B66" s="35" t="s">
         <v>73</v>
@@ -15823,12 +15818,12 @@
       <c r="O101" s="126"/>
       <c r="P101" s="126"/>
     </row>
-    <row r="103" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A103" s="105" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="104" spans="1:16" s="36" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A104" s="129" t="s">
         <v>71</v>
       </c>
@@ -15862,7 +15857,7 @@
       <c r="O104" s="128"/>
       <c r="P104" s="128"/>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="36"/>
       <c r="C105" s="43" t="s">
@@ -15976,7 +15971,7 @@
       <c r="O108" s="126"/>
       <c r="P108" s="126"/>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
     </row>
   </sheetData>
@@ -15997,24 +15992,24 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.77734375" style="35" customWidth="1"/>
-    <col min="2" max="2" width="44.44140625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" style="35" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" style="35" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="35" customWidth="1"/>
+    <col min="1" max="1" width="25.81640625" style="35" customWidth="1"/>
+    <col min="2" max="2" width="44.453125" style="35" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" style="35" customWidth="1"/>
+    <col min="4" max="4" width="17.54296875" style="35" customWidth="1"/>
+    <col min="5" max="5" width="17.1796875" style="35" customWidth="1"/>
     <col min="6" max="6" width="15" style="35" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.77734375" style="35"/>
+    <col min="7" max="7" width="13.6328125" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.81640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="105" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="133" t="s">
         <v>25</v>
       </c>
@@ -16055,7 +16050,7 @@
         <v>174.7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="40"/>
       <c r="B4" s="125" t="s">
         <v>251</v>
@@ -16076,7 +16071,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="110" t="s">
         <v>252</v>
       </c>
@@ -16149,12 +16144,12 @@
       <c r="F9" s="125"/>
       <c r="G9" s="125"/>
     </row>
-    <row r="10" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="105" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="110"/>
       <c r="B11" s="121" t="s">
         <v>195</v>
@@ -16175,16 +16170,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="110"/>
       <c r="B12" s="121"/>
     </row>
-    <row r="13" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="105" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="133" t="s">
         <v>239</v>
       </c>
@@ -16207,7 +16202,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="40"/>
       <c r="B15" s="125" t="s">
         <v>256</v>
@@ -16228,7 +16223,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="133" t="s">
         <v>70</v>
       </c>
@@ -16252,12 +16247,12 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:6" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="105" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="110" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="110" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" s="56" t="s">
         <v>49</v>
       </c>
@@ -16307,16 +16302,16 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.21875" style="35" customWidth="1"/>
-    <col min="2" max="6" width="16.109375" style="35"/>
-    <col min="7" max="7" width="17.21875" style="35" customWidth="1"/>
-    <col min="8" max="8" width="16.109375" style="35" customWidth="1"/>
-    <col min="9" max="16384" width="16.109375" style="35"/>
+    <col min="1" max="1" width="52.1796875" style="35" customWidth="1"/>
+    <col min="2" max="6" width="16.08984375" style="35"/>
+    <col min="7" max="7" width="17.1796875" style="35" customWidth="1"/>
+    <col min="8" max="8" width="16.08984375" style="35" customWidth="1"/>
+    <col min="9" max="16384" width="16.08984375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="127" t="s">
         <v>69</v>
       </c>
@@ -16586,15 +16581,15 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" style="35" customWidth="1"/>
-    <col min="2" max="2" width="58.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="58.90625" style="35" bestFit="1" customWidth="1"/>
     <col min="3" max="15" width="15" style="35" customWidth="1"/>
-    <col min="16" max="16384" width="12.77734375" style="35"/>
+    <col min="16" max="16384" width="12.81640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="40"/>
       <c r="B1" s="40"/>
       <c r="C1" s="109" t="s">
@@ -16637,7 +16632,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
         <v>261</v>
       </c>
@@ -17082,7 +17077,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="59" t="s">
         <v>137</v>
       </c>
@@ -17170,7 +17165,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="13" x14ac:dyDescent="0.3">
       <c r="A16" s="40" t="s">
         <v>262</v>
       </c>
@@ -17382,15 +17377,15 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" style="35" customWidth="1"/>
-    <col min="2" max="2" width="27.21875" style="35" customWidth="1"/>
-    <col min="3" max="7" width="15.5546875" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.77734375" style="35"/>
+    <col min="1" max="1" width="21.36328125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="27.1796875" style="35" customWidth="1"/>
+    <col min="3" max="7" width="15.54296875" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.81640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="40"/>
       <c r="B1" s="127"/>
       <c r="C1" s="40" t="s">
@@ -17409,7 +17404,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
         <v>263</v>
       </c>
@@ -17434,7 +17429,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A4" s="40" t="s">
         <v>264</v>
       </c>
@@ -17483,20 +17478,20 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="52" customWidth="1"/>
-    <col min="2" max="2" width="30.5546875" style="52" customWidth="1"/>
-    <col min="3" max="3" width="24.77734375" style="52" customWidth="1"/>
+    <col min="2" max="2" width="30.54296875" style="52" customWidth="1"/>
+    <col min="3" max="3" width="24.81640625" style="52" customWidth="1"/>
     <col min="4" max="4" width="15" style="35" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" style="35" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" style="35" customWidth="1"/>
-    <col min="7" max="7" width="12.77734375" style="35"/>
-    <col min="8" max="8" width="17.5546875" style="35" customWidth="1"/>
-    <col min="9" max="16384" width="12.77734375" style="35"/>
+    <col min="5" max="5" width="13.6328125" style="35" customWidth="1"/>
+    <col min="6" max="6" width="14.453125" style="35" customWidth="1"/>
+    <col min="7" max="7" width="12.81640625" style="35"/>
+    <col min="8" max="8" width="17.54296875" style="35" customWidth="1"/>
+    <col min="9" max="16384" width="12.81640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -18613,16 +18608,16 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" style="35" customWidth="1"/>
-    <col min="2" max="2" width="27.44140625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" style="35" customWidth="1"/>
-    <col min="4" max="7" width="17.21875" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.77734375" style="35"/>
+    <col min="2" max="2" width="27.453125" style="35" customWidth="1"/>
+    <col min="3" max="3" width="23.6328125" style="35" customWidth="1"/>
+    <col min="4" max="7" width="17.1796875" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.81640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="127" t="s">
         <v>69</v>
       </c>
@@ -18789,14 +18784,14 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.109375" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16.08984375" customWidth="1"/>
+    <col min="2" max="2" width="31.36328125" customWidth="1"/>
     <col min="3" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="str">
         <f>"Percentage of deaths in baseline year ("&amp;start_year&amp;") attributable to cause"</f>
         <v>Percentage of deaths in baseline year (2017) attributable to cause</v>
@@ -18807,7 +18802,7 @@
       <c r="E1" s="41"/>
       <c r="F1" s="41"/>
     </row>
-    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>210</v>
       </c>
@@ -18906,7 +18901,7 @@
       <c r="G12" s="24"/>
       <c r="H12" s="24"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>31</v>
       </c>
@@ -19112,7 +19107,7 @@
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -19228,13 +19223,13 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.44140625" customWidth="1"/>
+    <col min="1" max="1" width="31.453125" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="str">
         <f>"Percentage of population in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of population in each category in baseline year (2017)</v>
@@ -19292,23 +19287,23 @@
         <v>118</v>
       </c>
       <c r="C3" s="76">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE) - SUM(C4:C5), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(C4:C5), "")</f>
         <v>0.32228430019523346</v>
       </c>
       <c r="D3" s="76">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D4:D5), 0, 1) + 1, 0, 1, TRUE) - SUM(D4:D5), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D4:D5), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(D4:D5), "")</f>
         <v>0.32228430019523346</v>
       </c>
       <c r="E3" s="76">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E4:E5), 0, 1) + 1, 0, 1, TRUE) - SUM(E4:E5), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E4:E5), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(E4:E5), "")</f>
         <v>0.35908666207150708</v>
       </c>
       <c r="F3" s="76">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F4:F5), 0, 1) + 1, 0, 1, TRUE) - SUM(F4:F5), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F4:F5), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(F4:F5), "")</f>
         <v>0.37651189492768178</v>
       </c>
       <c r="G3" s="76">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G4:G5), 0, 1) + 1, 0, 1, TRUE) - SUM(G4:G5), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G4:G5), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(G4:G5), "")</f>
         <v>0.37372365733745416</v>
       </c>
     </row>
@@ -19403,23 +19398,23 @@
         <v>121</v>
       </c>
       <c r="C9" s="76">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE) - SUM(C10:C11), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(C10:C11), "")</f>
         <v>0.28180440984664923</v>
       </c>
       <c r="D9" s="76">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D10:D11), 0, 1) + 1, 0, 1, TRUE) - SUM(D10:D11), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D10:D11), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(D10:D11), "")</f>
         <v>0.28180440984664923</v>
       </c>
       <c r="E9" s="76">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E10:E11), 0, 1) + 1, 0, 1, TRUE) - SUM(E10:E11), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E10:E11), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(E10:E11), "")</f>
         <v>0.2466938696379041</v>
       </c>
       <c r="F9" s="76">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F10:F11), 0, 1) + 1, 0, 1, TRUE) - SUM(F10:F11), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F10:F11), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(F10:F11), "")</f>
         <v>0.21506846670192739</v>
       </c>
       <c r="G9" s="76">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G10:G11), 0, 1) + 1, 0, 1, TRUE) - SUM(G10:G11), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G10:G11), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(G10:G11), "")</f>
         <v>0.15821429221536368</v>
       </c>
     </row>
@@ -19655,13 +19650,13 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.77734375" customWidth="1"/>
-    <col min="2" max="7" width="13.44140625" customWidth="1"/>
+    <col min="1" max="1" width="28.81640625" customWidth="1"/>
+    <col min="2" max="7" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="str">
         <f>"Percentage of children in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of children in each category in baseline year (2017)</v>
@@ -19785,19 +19780,19 @@
   <sheetPr>
     <tabColor rgb="FF007600"/>
   </sheetPr>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="29.44140625" customWidth="1"/>
+    <col min="2" max="2" width="29.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>138</v>
       </c>
@@ -19805,41 +19800,59 @@
         <v>145</v>
       </c>
       <c r="C1">
-        <v>2010</v>
+        <v>2017</v>
       </c>
       <c r="D1">
-        <v>2011</v>
+        <v>2018</v>
       </c>
       <c r="E1">
-        <v>2012</v>
+        <v>2019</v>
       </c>
       <c r="F1">
-        <v>2013</v>
+        <v>2020</v>
       </c>
       <c r="G1">
-        <v>2014</v>
+        <v>2021</v>
       </c>
       <c r="H1">
-        <v>2015</v>
+        <v>2022</v>
       </c>
       <c r="I1">
-        <v>2016</v>
+        <v>2023</v>
       </c>
       <c r="J1">
-        <v>2017</v>
+        <v>2024</v>
       </c>
       <c r="K1">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2025</v>
+      </c>
+      <c r="L1">
+        <v>2026</v>
+      </c>
+      <c r="M1">
+        <v>2027</v>
+      </c>
+      <c r="N1">
+        <v>2028</v>
+      </c>
+      <c r="O1">
+        <v>2029</v>
+      </c>
+      <c r="P1">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>139</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="C2" s="28"/>
+      <c r="C2" s="28">
+        <f>(('Nutritional status distribution'!C4+'Nutritional status distribution'!C5)*(1/60)+('Nutritional status distribution'!D4+'Nutritional status distribution'!D5)*(5/60)+('Nutritional status distribution'!E4+'Nutritional status distribution'!E5)*(6/60)+('Nutritional status distribution'!F4+'Nutritional status distribution'!F5)*(12/60)+('Nutritional status distribution'!G4+'Nutritional status distribution'!G5)*(36/60))</f>
+        <v>0.34434320222452625</v>
+      </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
       <c r="F2" s="28"/>
@@ -19848,18 +19861,28 @@
       <c r="I2" s="28"/>
       <c r="J2" s="28"/>
       <c r="K2" s="28"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B3" s="14"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>140</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="C4" s="28"/>
+      <c r="C4" s="28">
+        <f>(('Nutritional status distribution'!C10+'Nutritional status distribution'!C11)*(1/60)+('Nutritional status distribution'!D10+'Nutritional status distribution'!D11)*(5/60)+('Nutritional status distribution'!E10+'Nutritional status distribution'!E11)*(6/60)+('Nutritional status distribution'!F10+'Nutritional status distribution'!F11)*(12/60)+('Nutritional status distribution'!G10+'Nutritional status distribution'!G11)*(36/60))</f>
+        <v>4.4702487716765882E-2</v>
+      </c>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
       <c r="F4" s="28"/>
@@ -19867,19 +19890,29 @@
       <c r="H4" s="28"/>
       <c r="I4" s="28"/>
       <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K4" s="28">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B5" s="14"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>141</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="C6" s="28"/>
+      <c r="C6" s="28">
+        <f>'Nutritional status distribution'!C15*(1/60)+'Nutritional status distribution'!D15*(5/60)+'Nutritional status distribution'!E15*(6/60)+'Nutritional status distribution'!F15*(12/60)+'Nutritional status distribution'!G15*(24/60)</f>
+        <v>0.17953600000000003</v>
+      </c>
       <c r="D6" s="28"/>
       <c r="E6" s="28"/>
       <c r="F6" s="28"/>
@@ -19888,12 +19921,22 @@
       <c r="I6" s="28"/>
       <c r="J6" s="28"/>
       <c r="K6" s="28"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28">
+        <v>0.17299999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="28"/>
+      <c r="C7" s="28">
+        <f>('Nutritional status distribution'!H15*('Demographic projections'!C2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!I15*('Demographic projections'!D2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!J15*('Demographic projections'!E2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!K15*('Demographic projections'!F2/SUM('Demographic projections'!C2:F2)))</f>
+        <v>0.18837666072928053</v>
+      </c>
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
       <c r="F7" s="28"/>
@@ -19902,12 +19945,22 @@
       <c r="I7" s="28"/>
       <c r="J7" s="28"/>
       <c r="K7" s="28"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28">
+        <v>0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="C8" s="28"/>
+      <c r="C8" s="28">
+        <f>('Nutritional status distribution'!L15*('Demographic projections'!C2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!M15*('Demographic projections'!D2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!N15*('Demographic projections'!E2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!O15*('Demographic projections'!F2/SUM('Demographic projections'!C2:F2)))</f>
+        <v>0.18837666072928053</v>
+      </c>
       <c r="D8" s="28"/>
       <c r="E8" s="28"/>
       <c r="F8" s="28"/>
@@ -19916,29 +19969,51 @@
       <c r="I8" s="28"/>
       <c r="J8" s="28"/>
       <c r="K8" s="28"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28">
+        <v>0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>142</v>
       </c>
       <c r="B10" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="C10" s="28"/>
+      <c r="C10" s="28">
+        <f>('Breastfeeding distribution'!C2*(1/6)+'Breastfeeding distribution'!D2*(5/6))</f>
+        <v>0.50922873745377717</v>
+      </c>
       <c r="D10" s="28"/>
       <c r="E10" s="28"/>
       <c r="F10" s="28"/>
       <c r="G10" s="28"/>
       <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
+      <c r="I10" s="28">
+        <v>0.53</v>
+      </c>
       <c r="J10" s="28"/>
       <c r="K10" s="28"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B11" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="C11" s="28"/>
+      <c r="C11" s="28">
+        <f>(('Breastfeeding distribution'!E2+'Breastfeeding distribution'!E3+'Breastfeeding distribution'!E4)*(6/18)+('Breastfeeding distribution'!F2+'Breastfeeding distribution'!F3+'Breastfeeding distribution'!F4)*(12/18))</f>
+        <v>0.80834605377276669</v>
+      </c>
       <c r="D11" s="28"/>
       <c r="E11" s="28"/>
       <c r="F11" s="28"/>
@@ -19947,15 +20022,25 @@
       <c r="I11" s="28"/>
       <c r="J11" s="28"/>
       <c r="K11" s="28"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>74</v>
       </c>
       <c r="B13" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="C13" s="28"/>
+      <c r="C13" s="28">
+        <f>(neonatal_mortality*(1/60)+infant_mortality*(11/60)+U5_mortality*(48/60))/1000</f>
+        <v>6.1899999999999997E-2</v>
+      </c>
       <c r="D13" s="28"/>
       <c r="E13" s="28"/>
       <c r="F13" s="28"/>
@@ -19963,13 +20048,25 @@
       <c r="H13" s="28"/>
       <c r="I13" s="28"/>
       <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K13" s="28">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="C14" s="28"/>
+      <c r="C14" s="28">
+        <f>maternal_mortality/1000</f>
+        <v>4.0099999999999997E-3</v>
+      </c>
       <c r="D14" s="28"/>
       <c r="E14" s="28"/>
       <c r="F14" s="28"/>
@@ -19978,6 +20075,11 @@
       <c r="I14" s="28"/>
       <c r="J14" s="28"/>
       <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19996,15 +20098,15 @@
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="35" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="11.44140625" style="35"/>
+    <col min="2" max="2" width="19.08984375" style="35" customWidth="1"/>
+    <col min="3" max="3" width="13.453125" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="11.453125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="50" t="s">
         <v>178</v>
       </c>
@@ -20021,7 +20123,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="49" t="s">
         <v>173</v>
       </c>
@@ -20100,7 +20202,7 @@
       <c r="D7" s="44"/>
       <c r="E7" s="80"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A9" s="49" t="s">
         <v>198</v>
       </c>
@@ -20173,7 +20275,7 @@
       <c r="D14" s="44"/>
       <c r="E14" s="80"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A16" s="49" t="s">
         <v>199</v>
       </c>
@@ -20272,15 +20374,15 @@
       <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" customWidth="1"/>
+    <col min="1" max="1" width="15.6328125" customWidth="1"/>
+    <col min="2" max="2" width="15.453125" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" customWidth="1"/>
+    <col min="4" max="4" width="12.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="60" t="s">
         <v>164</v>
       </c>
@@ -20294,7 +20396,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="61" t="s">
         <v>69</v>
       </c>
@@ -20306,7 +20408,7 @@
       </c>
       <c r="D2" s="80"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A3" s="61" t="s">
         <v>185</v>
       </c>
@@ -20335,17 +20437,17 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="56" style="52" customWidth="1"/>
     <col min="2" max="2" width="20" style="36" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" style="35" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" style="35" customWidth="1"/>
-    <col min="5" max="5" width="32.33203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="14.44140625" style="35"/>
+    <col min="3" max="3" width="20.453125" style="35" customWidth="1"/>
+    <col min="4" max="4" width="20.08984375" style="35" customWidth="1"/>
+    <col min="5" max="5" width="32.36328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="14.453125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="54" t="s">
         <v>69</v>
       </c>
@@ -20635,7 +20737,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="52" t="s">
         <v>173</v>
       </c>

--- a/inputs/demo_region2_input.xlsx
+++ b/inputs/demo_region2_input.xlsx
@@ -14569,7 +14569,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="56" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" s="36" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A56" s="129" t="s">
         <v>70</v>
       </c>
@@ -19783,7 +19783,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -19897,7 +19897,9 @@
       <c r="M4" s="28"/>
       <c r="N4" s="28"/>
       <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
+      <c r="P4" s="28">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B5" s="14"/>
@@ -19910,8 +19912,8 @@
         <v>143</v>
       </c>
       <c r="C6" s="28">
-        <f>'Nutritional status distribution'!C15*(1/60)+'Nutritional status distribution'!D15*(5/60)+'Nutritional status distribution'!E15*(6/60)+'Nutritional status distribution'!F15*(12/60)+'Nutritional status distribution'!G15*(24/60)</f>
-        <v>0.17953600000000003</v>
+        <f>'Nutritional status distribution'!C15*(1/60)+'Nutritional status distribution'!D15*(5/60)+'Nutritional status distribution'!E15*(6/60)+'Nutritional status distribution'!F15*(12/60)+'Nutritional status distribution'!G15*(36/60)</f>
+        <v>0.22016400000000003</v>
       </c>
       <c r="D6" s="28"/>
       <c r="E6" s="28"/>

--- a/inputs/demo_region2_input.xlsx
+++ b/inputs/demo_region2_input.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\george.chadderdon\GitRepos\OptimaRepos\Nutrition\inputs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-21140" windowWidth="38400" windowHeight="21140" tabRatio="961"/>
+    <workbookView xWindow="-38400" yWindow="-21140" windowWidth="38400" windowHeight="16420" tabRatio="961" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -17,7 +12,7 @@
     <sheet name="Causes of death" sheetId="4" r:id="rId3"/>
     <sheet name="Nutritional status distribution" sheetId="5" r:id="rId4"/>
     <sheet name="Breastfeeding distribution" sheetId="50" r:id="rId5"/>
-    <sheet name="Time trends" sheetId="51" state="hidden" r:id="rId6"/>
+    <sheet name="Time trends" sheetId="51" r:id="rId6"/>
     <sheet name="IYCF packages" sheetId="55" r:id="rId7"/>
     <sheet name="Treatment of SAM" sheetId="60" r:id="rId8"/>
     <sheet name="Programs cost and coverage" sheetId="56" r:id="rId9"/>
@@ -90,7 +85,7 @@
     <definedName name="term_SGA">'Baseline year population inputs'!$C$47</definedName>
     <definedName name="U5_mortality">'Baseline year population inputs'!$C$39</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -105,7 +100,7 @@
     <author>Nick Scott</author>
   </authors>
   <commentList>
-    <comment ref="D28" authorId="0" shapeId="0">
+    <comment ref="D28" authorId="0">
       <text>
         <r>
           <rPr>
@@ -168,7 +163,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D30" authorId="0" shapeId="0">
+    <comment ref="D30" authorId="0">
       <text>
         <r>
           <rPr>
@@ -231,7 +226,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D37" authorId="0" shapeId="0">
+    <comment ref="D37" authorId="0">
       <text>
         <r>
           <rPr>
@@ -267,7 +262,7 @@
     <author>Sam</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -291,7 +286,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -325,7 +320,7 @@
     <author>Sam</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -368,7 +363,7 @@
     <author>Nick Scott</author>
   </authors>
   <commentList>
-    <comment ref="A36" authorId="0" shapeId="0">
+    <comment ref="A36" authorId="0">
       <text>
         <r>
           <rPr>
@@ -402,7 +397,7 @@
     <author>Nick Scott</author>
   </authors>
   <commentList>
-    <comment ref="B6" authorId="0" shapeId="0">
+    <comment ref="B6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -426,7 +421,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="0" shapeId="0">
+    <comment ref="B7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1271,12 +1266,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0.0%"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
@@ -1584,7 +1579,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2302,7 +2297,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2338,8 +2333,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2349,7 +2344,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -2359,16 +2354,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -2401,7 +2396,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="725" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="725" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="725" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="725" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2416,7 +2411,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="725" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="726" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="726" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="19" fillId="3" borderId="4" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="19" fillId="3" borderId="4" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="725" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2446,7 +2441,7 @@
     <xf numFmtId="9" fontId="9" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2465,28 +2460,28 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="9" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2611,7 +2606,7 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="725" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="725" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="725" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="725" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3403,7 +3398,7 @@
         <xdr:cNvPr id="2049" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000001080000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000001080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3460,7 +3455,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3517,7 +3512,7 @@
         <xdr:cNvPr id="3" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3574,7 +3569,7 @@
         <xdr:cNvPr id="4" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3631,7 +3626,7 @@
         <xdr:cNvPr id="5" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3688,7 +3683,7 @@
         <xdr:cNvPr id="6" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3745,7 +3740,7 @@
         <xdr:cNvPr id="7" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3802,7 +3797,7 @@
         <xdr:cNvPr id="8" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3859,7 +3854,7 @@
         <xdr:cNvPr id="9" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3916,7 +3911,7 @@
         <xdr:cNvPr id="10" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3973,7 +3968,7 @@
         <xdr:cNvPr id="11" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4030,7 +4025,7 @@
         <xdr:cNvPr id="12" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4087,7 +4082,7 @@
         <xdr:cNvPr id="13" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4144,7 +4139,7 @@
         <xdr:cNvPr id="14" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4201,7 +4196,7 @@
         <xdr:cNvPr id="15" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4258,7 +4253,7 @@
         <xdr:cNvPr id="16" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000010000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4315,7 +4310,7 @@
         <xdr:cNvPr id="17" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000011000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4372,7 +4367,7 @@
         <xdr:cNvPr id="18" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000012000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4421,7 +4416,7 @@
         <xdr:cNvPr id="19" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000013000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4790,7 +4785,7 @@
   </sheetPr>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -11569,12 +11564,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BiU9BXNF+INgNxSFtHuqKvDgOHy4i8LHe4WBopPE5oAPe1uu8rzbQfKL4uxCQ4dbx+6qcxc95feCcYk3II7eJw==" saltValue="oFkUqZTkt+d2Svo646TgPw==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -11584,6 +11573,12 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -14574,7 +14569,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="56" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" s="36" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A56" s="129" t="s">
         <v>70</v>
       </c>
@@ -16304,7 +16299,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -16532,10 +16527,10 @@
         <v>259</v>
       </c>
       <c r="C12" s="115">
-        <v>0.23</v>
+        <v>0.08</v>
       </c>
       <c r="D12" s="115">
-        <v>0.23</v>
+        <v>0.08</v>
       </c>
       <c r="E12" s="115">
         <v>0</v>
@@ -19292,23 +19287,23 @@
         <v>118</v>
       </c>
       <c r="C3" s="76">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE) - SUM(C4:C5), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(C4:C5), "")</f>
         <v>0.32228430019523346</v>
       </c>
       <c r="D3" s="76">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D4:D5), 0, 1) + 1, 0, 1, TRUE) - SUM(D4:D5), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D4:D5), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(D4:D5), "")</f>
         <v>0.32228430019523346</v>
       </c>
       <c r="E3" s="76">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E4:E5), 0, 1) + 1, 0, 1, TRUE) - SUM(E4:E5), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E4:E5), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(E4:E5), "")</f>
         <v>0.35908666207150708</v>
       </c>
       <c r="F3" s="76">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F4:F5), 0, 1) + 1, 0, 1, TRUE) - SUM(F4:F5), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F4:F5), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(F4:F5), "")</f>
         <v>0.37651189492768178</v>
       </c>
       <c r="G3" s="76">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G4:G5), 0, 1) + 1, 0, 1, TRUE) - SUM(G4:G5), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G4:G5), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(G4:G5), "")</f>
         <v>0.37372365733745416</v>
       </c>
     </row>
@@ -19403,23 +19398,23 @@
         <v>121</v>
       </c>
       <c r="C9" s="76">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE) - SUM(C10:C11), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(C10:C11), "")</f>
         <v>0.28180440984664923</v>
       </c>
       <c r="D9" s="76">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D10:D11), 0, 1) + 1, 0, 1, TRUE) - SUM(D10:D11), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D10:D11), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(D10:D11), "")</f>
         <v>0.28180440984664923</v>
       </c>
       <c r="E9" s="76">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E10:E11), 0, 1) + 1, 0, 1, TRUE) - SUM(E10:E11), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E10:E11), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(E10:E11), "")</f>
         <v>0.2466938696379041</v>
       </c>
       <c r="F9" s="76">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F10:F11), 0, 1) + 1, 0, 1, TRUE) - SUM(F10:F11), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F10:F11), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(F10:F11), "")</f>
         <v>0.21506846670192739</v>
       </c>
       <c r="G9" s="76">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G10:G11), 0, 1) + 1, 0, 1, TRUE) - SUM(G10:G11), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G10:G11), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(G10:G11), "")</f>
         <v>0.15821429221536368</v>
       </c>
     </row>
@@ -19785,10 +19780,10 @@
   <sheetPr>
     <tabColor rgb="FF007600"/>
   </sheetPr>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -19797,7 +19792,7 @@
     <col min="2" max="2" width="29.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>138</v>
       </c>
@@ -19805,41 +19800,59 @@
         <v>145</v>
       </c>
       <c r="C1">
-        <v>2010</v>
+        <v>2017</v>
       </c>
       <c r="D1">
-        <v>2011</v>
+        <v>2018</v>
       </c>
       <c r="E1">
-        <v>2012</v>
+        <v>2019</v>
       </c>
       <c r="F1">
-        <v>2013</v>
+        <v>2020</v>
       </c>
       <c r="G1">
-        <v>2014</v>
+        <v>2021</v>
       </c>
       <c r="H1">
-        <v>2015</v>
+        <v>2022</v>
       </c>
       <c r="I1">
-        <v>2016</v>
+        <v>2023</v>
       </c>
       <c r="J1">
-        <v>2017</v>
+        <v>2024</v>
       </c>
       <c r="K1">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2025</v>
+      </c>
+      <c r="L1">
+        <v>2026</v>
+      </c>
+      <c r="M1">
+        <v>2027</v>
+      </c>
+      <c r="N1">
+        <v>2028</v>
+      </c>
+      <c r="O1">
+        <v>2029</v>
+      </c>
+      <c r="P1">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>139</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="C2" s="28"/>
+      <c r="C2" s="28">
+        <f>(('Nutritional status distribution'!C4+'Nutritional status distribution'!C5)*(1/60)+('Nutritional status distribution'!D4+'Nutritional status distribution'!D5)*(5/60)+('Nutritional status distribution'!E4+'Nutritional status distribution'!E5)*(6/60)+('Nutritional status distribution'!F4+'Nutritional status distribution'!F5)*(12/60)+('Nutritional status distribution'!G4+'Nutritional status distribution'!G5)*(36/60))</f>
+        <v>0.34434320222452625</v>
+      </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
       <c r="F2" s="28"/>
@@ -19848,18 +19861,28 @@
       <c r="I2" s="28"/>
       <c r="J2" s="28"/>
       <c r="K2" s="28"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B3" s="14"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>140</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="C4" s="28"/>
+      <c r="C4" s="28">
+        <f>(('Nutritional status distribution'!C10+'Nutritional status distribution'!C11)*(1/60)+('Nutritional status distribution'!D10+'Nutritional status distribution'!D11)*(5/60)+('Nutritional status distribution'!E10+'Nutritional status distribution'!E11)*(6/60)+('Nutritional status distribution'!F10+'Nutritional status distribution'!F11)*(12/60)+('Nutritional status distribution'!G10+'Nutritional status distribution'!G11)*(36/60))</f>
+        <v>4.4702487716765882E-2</v>
+      </c>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
       <c r="F4" s="28"/>
@@ -19867,19 +19890,31 @@
       <c r="H4" s="28"/>
       <c r="I4" s="28"/>
       <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K4" s="28">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B5" s="14"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>141</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="C6" s="28"/>
+      <c r="C6" s="28">
+        <f>'Nutritional status distribution'!C15*(1/60)+'Nutritional status distribution'!D15*(5/60)+'Nutritional status distribution'!E15*(6/60)+'Nutritional status distribution'!F15*(12/60)+'Nutritional status distribution'!G15*(36/60)</f>
+        <v>0.22016400000000003</v>
+      </c>
       <c r="D6" s="28"/>
       <c r="E6" s="28"/>
       <c r="F6" s="28"/>
@@ -19888,12 +19923,22 @@
       <c r="I6" s="28"/>
       <c r="J6" s="28"/>
       <c r="K6" s="28"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28">
+        <v>0.17299999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="28"/>
+      <c r="C7" s="28">
+        <f>('Nutritional status distribution'!H15*('Demographic projections'!C2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!I15*('Demographic projections'!D2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!J15*('Demographic projections'!E2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!K15*('Demographic projections'!F2/SUM('Demographic projections'!C2:F2)))</f>
+        <v>0.18837666072928053</v>
+      </c>
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
       <c r="F7" s="28"/>
@@ -19902,12 +19947,22 @@
       <c r="I7" s="28"/>
       <c r="J7" s="28"/>
       <c r="K7" s="28"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28">
+        <v>0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="C8" s="28"/>
+      <c r="C8" s="28">
+        <f>('Nutritional status distribution'!L15*('Demographic projections'!C2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!M15*('Demographic projections'!D2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!N15*('Demographic projections'!E2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!O15*('Demographic projections'!F2/SUM('Demographic projections'!C2:F2)))</f>
+        <v>0.18837666072928053</v>
+      </c>
       <c r="D8" s="28"/>
       <c r="E8" s="28"/>
       <c r="F8" s="28"/>
@@ -19916,29 +19971,51 @@
       <c r="I8" s="28"/>
       <c r="J8" s="28"/>
       <c r="K8" s="28"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28">
+        <v>0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>142</v>
       </c>
       <c r="B10" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="C10" s="28"/>
+      <c r="C10" s="28">
+        <f>('Breastfeeding distribution'!C2*(1/6)+'Breastfeeding distribution'!D2*(5/6))</f>
+        <v>0.50922873745377717</v>
+      </c>
       <c r="D10" s="28"/>
       <c r="E10" s="28"/>
       <c r="F10" s="28"/>
       <c r="G10" s="28"/>
       <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
+      <c r="I10" s="28">
+        <v>0.53</v>
+      </c>
       <c r="J10" s="28"/>
       <c r="K10" s="28"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B11" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="C11" s="28"/>
+      <c r="C11" s="28">
+        <f>(('Breastfeeding distribution'!E2+'Breastfeeding distribution'!E3+'Breastfeeding distribution'!E4)*(6/18)+('Breastfeeding distribution'!F2+'Breastfeeding distribution'!F3+'Breastfeeding distribution'!F4)*(12/18))</f>
+        <v>0.80834605377276669</v>
+      </c>
       <c r="D11" s="28"/>
       <c r="E11" s="28"/>
       <c r="F11" s="28"/>
@@ -19947,15 +20024,25 @@
       <c r="I11" s="28"/>
       <c r="J11" s="28"/>
       <c r="K11" s="28"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>74</v>
       </c>
       <c r="B13" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="C13" s="28"/>
+      <c r="C13" s="28">
+        <f>(neonatal_mortality*(1/60)+infant_mortality*(11/60)+U5_mortality*(48/60))/1000</f>
+        <v>6.1899999999999997E-2</v>
+      </c>
       <c r="D13" s="28"/>
       <c r="E13" s="28"/>
       <c r="F13" s="28"/>
@@ -19963,13 +20050,25 @@
       <c r="H13" s="28"/>
       <c r="I13" s="28"/>
       <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K13" s="28">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="C14" s="28"/>
+      <c r="C14" s="28">
+        <f>maternal_mortality/1000</f>
+        <v>4.0099999999999997E-3</v>
+      </c>
       <c r="D14" s="28"/>
       <c r="E14" s="28"/>
       <c r="F14" s="28"/>
@@ -19978,6 +20077,11 @@
       <c r="I14" s="28"/>
       <c r="J14" s="28"/>
       <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/inputs/demo_region2_input.xlsx
+++ b/inputs/demo_region2_input.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Nutrition\inputs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-21140" windowWidth="38400" windowHeight="16420" tabRatio="961" activeTab="5"/>
+    <workbookView xWindow="-38400" yWindow="-21144" windowWidth="38400" windowHeight="16416" tabRatio="961"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -85,7 +90,7 @@
     <definedName name="term_SGA">'Baseline year population inputs'!$C$47</definedName>
     <definedName name="U5_mortality">'Baseline year population inputs'!$C$39</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -100,7 +105,7 @@
     <author>Nick Scott</author>
   </authors>
   <commentList>
-    <comment ref="D28" authorId="0">
+    <comment ref="D28" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -163,7 +168,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D30" authorId="0">
+    <comment ref="D30" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -226,7 +231,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D37" authorId="0">
+    <comment ref="D37" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -262,7 +267,7 @@
     <author>Sam</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -286,7 +291,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -320,7 +325,7 @@
     <author>Sam</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -363,7 +368,7 @@
     <author>Nick Scott</author>
   </authors>
   <commentList>
-    <comment ref="A36" authorId="0">
+    <comment ref="A36" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -397,7 +402,7 @@
     <author>Nick Scott</author>
   </authors>
   <commentList>
-    <comment ref="B6" authorId="0">
+    <comment ref="B6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -421,7 +426,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="0">
+    <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1266,12 +1271,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
@@ -1579,7 +1584,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2297,7 +2302,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2333,8 +2338,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2344,7 +2349,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="9" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -2354,16 +2359,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -2396,7 +2401,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="725" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="725" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="725" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="725" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2411,7 +2416,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="725" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="726" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="726" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="19" fillId="3" borderId="4" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="19" fillId="3" borderId="4" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="725" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2441,7 +2446,7 @@
     <xf numFmtId="9" fontId="9" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2460,28 +2465,28 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="9" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2606,7 +2611,7 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="725" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="725" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="725" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="725" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3398,7 +3403,7 @@
         <xdr:cNvPr id="2049" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000001080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000001080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3455,7 +3460,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3512,7 +3517,7 @@
         <xdr:cNvPr id="3" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3569,7 +3574,7 @@
         <xdr:cNvPr id="4" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3626,7 +3631,7 @@
         <xdr:cNvPr id="5" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3683,7 +3688,7 @@
         <xdr:cNvPr id="6" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3740,7 +3745,7 @@
         <xdr:cNvPr id="7" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3797,7 +3802,7 @@
         <xdr:cNvPr id="8" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3854,7 +3859,7 @@
         <xdr:cNvPr id="9" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3911,7 +3916,7 @@
         <xdr:cNvPr id="10" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3968,7 +3973,7 @@
         <xdr:cNvPr id="11" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4025,7 +4030,7 @@
         <xdr:cNvPr id="12" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4082,7 +4087,7 @@
         <xdr:cNvPr id="13" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4139,7 +4144,7 @@
         <xdr:cNvPr id="14" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4196,7 +4201,7 @@
         <xdr:cNvPr id="15" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4253,7 +4258,7 @@
         <xdr:cNvPr id="16" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4310,7 +4315,7 @@
         <xdr:cNvPr id="17" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4367,7 +4372,7 @@
         <xdr:cNvPr id="18" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4416,7 +4421,7 @@
         <xdr:cNvPr id="19" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4785,18 +4790,18 @@
   </sheetPr>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37:C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6328125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="38.6328125" style="16" customWidth="1"/>
-    <col min="3" max="16384" width="14.453125" style="12"/>
+    <col min="1" max="1" width="27.6640625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" style="16" customWidth="1"/>
+    <col min="3" max="16384" width="14.44140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>100</v>
       </c>
@@ -4807,14 +4812,14 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>191</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
     </row>
-    <row r="3" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
         <v>193</v>
@@ -4823,7 +4828,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
         <v>192</v>
@@ -4832,7 +4837,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
@@ -4901,7 +4906,7 @@
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="12"/>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>30</v>
       </c>
@@ -5032,7 +5037,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B33" s="32" t="s">
         <v>129</v>
       </c>
@@ -5042,7 +5047,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>135</v>
       </c>
@@ -5225,7 +5230,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
     </row>
   </sheetData>
@@ -5246,15 +5251,15 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="52" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.81640625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="42.453125" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="11.453125" style="35"/>
+    <col min="2" max="2" width="47.77734375" style="35" customWidth="1"/>
+    <col min="3" max="3" width="42.44140625" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -5395,13 +5400,13 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.08984375" style="35" customWidth="1"/>
-    <col min="2" max="16384" width="11.453125" style="35"/>
+    <col min="1" max="1" width="30.109375" style="35" customWidth="1"/>
+    <col min="2" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -5493,7 +5498,7 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
@@ -5607,19 +5612,19 @@
       <selection activeCell="C29" activeCellId="3" sqref="C2:O12 C14:O21 C23:O27 C29:O38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.81640625" customWidth="1"/>
-    <col min="3" max="3" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.77734375" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>33</v>
       </c>
@@ -5666,7 +5671,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>31</v>
       </c>
@@ -6181,7 +6186,7 @@
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="33"/>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>32</v>
       </c>
@@ -6232,7 +6237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="11" t="s">
         <v>86</v>
@@ -6277,7 +6282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="11" t="s">
         <v>187</v>
@@ -6326,7 +6331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="11" t="s">
         <v>208</v>
@@ -6562,7 +6567,7 @@
     <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="33"/>
     </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="58" t="s">
         <v>37</v>
       </c>
@@ -6812,7 +6817,7 @@
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
     </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>35</v>
       </c>
@@ -7321,7 +7326,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
@@ -7359,16 +7364,16 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.6328125" style="35" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" style="35" customWidth="1"/>
-    <col min="3" max="4" width="11.453125" style="35"/>
-    <col min="5" max="5" width="17.453125" style="35" customWidth="1"/>
-    <col min="6" max="16384" width="11.453125" style="35"/>
+    <col min="1" max="1" width="33.6640625" style="35" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="35" customWidth="1"/>
+    <col min="3" max="4" width="11.44140625" style="35"/>
+    <col min="5" max="5" width="17.44140625" style="35" customWidth="1"/>
+    <col min="6" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>163</v>
       </c>
@@ -7385,7 +7390,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
         <v>158</v>
       </c>
@@ -7403,7 +7408,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="39" t="s">
         <v>157</v>
       </c>
@@ -7421,7 +7426,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="39" t="s">
         <v>156</v>
       </c>
@@ -7439,7 +7444,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="39" t="s">
         <v>155</v>
       </c>
@@ -7457,7 +7462,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="39" t="s">
         <v>154</v>
       </c>
@@ -7475,7 +7480,7 @@
         <v>1.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="39" t="s">
         <v>153</v>
       </c>
@@ -7493,7 +7498,7 @@
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="39" t="s">
         <v>152</v>
       </c>
@@ -7511,7 +7516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="39" t="s">
         <v>151</v>
       </c>
@@ -7529,7 +7534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="39" t="s">
         <v>150</v>
       </c>
@@ -7568,20 +7573,20 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.1796875" style="55" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.90625" style="55" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.453125" style="55" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.08984375" style="55" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.21875" style="55" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.88671875" style="55" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" style="55" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" style="55" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="55" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.08984375" style="55" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="15.36328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="16.90625" style="55" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="16.08984375" style="55"/>
+    <col min="6" max="7" width="13.109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="15.33203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="16.88671875" style="55" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="16.109375" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="56" t="s">
         <v>33</v>
       </c>
@@ -7628,7 +7633,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="56" t="s">
         <v>31</v>
       </c>
@@ -7675,7 +7680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="52" t="s">
         <v>149</v>
       </c>
@@ -7719,7 +7724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="52" t="s">
         <v>173</v>
       </c>
@@ -7763,7 +7768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="52" t="s">
         <v>198</v>
       </c>
@@ -7807,7 +7812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="52" t="s">
         <v>199</v>
       </c>
@@ -7851,7 +7856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="52" t="s">
         <v>195</v>
       </c>
@@ -7895,7 +7900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="52" t="s">
         <v>136</v>
       </c>
@@ -7939,7 +7944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="52" t="s">
         <v>137</v>
       </c>
@@ -7983,7 +7988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="52" t="s">
         <v>84</v>
       </c>
@@ -8027,7 +8032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="52" t="s">
         <v>58</v>
       </c>
@@ -8071,7 +8076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="52" t="s">
         <v>67</v>
       </c>
@@ -8115,7 +8120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="52" t="s">
         <v>28</v>
       </c>
@@ -8159,7 +8164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="52" t="s">
         <v>85</v>
       </c>
@@ -8203,7 +8208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="52" t="s">
         <v>60</v>
       </c>
@@ -8247,7 +8252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="52"/>
       <c r="C16" s="91"/>
       <c r="D16" s="91"/>
@@ -8263,7 +8268,7 @@
       <c r="N16" s="91"/>
       <c r="O16" s="91"/>
     </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="56" t="s">
         <v>32</v>
       </c>
@@ -8310,7 +8315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="56"/>
       <c r="B18" s="52" t="s">
         <v>86</v>
@@ -8355,7 +8360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="92" t="s">
         <v>187</v>
       </c>
@@ -8399,7 +8404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="92" t="s">
         <v>208</v>
       </c>
@@ -8443,7 +8448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="93" t="s">
         <v>57</v>
       </c>
@@ -8487,7 +8492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="52" t="s">
         <v>88</v>
       </c>
@@ -8531,7 +8536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="52" t="s">
         <v>87</v>
       </c>
@@ -8575,7 +8580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="52" t="s">
         <v>59</v>
       </c>
@@ -8619,7 +8624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="52"/>
       <c r="C25" s="91"/>
       <c r="D25" s="91"/>
@@ -8635,7 +8640,7 @@
       <c r="N25" s="91"/>
       <c r="O25" s="91"/>
     </row>
-    <row r="26" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="56" t="s">
         <v>37</v>
       </c>
@@ -8683,7 +8688,7 @@
       </c>
       <c r="P26" s="94"/>
     </row>
-    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="59" t="s">
         <v>188</v>
       </c>
@@ -8727,7 +8732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="56"/>
       <c r="B28" s="59" t="s">
         <v>207</v>
@@ -8772,7 +8777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="59" t="s">
         <v>189</v>
       </c>
@@ -8816,7 +8821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="59" t="s">
         <v>190</v>
       </c>
@@ -8860,7 +8865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="52"/>
       <c r="C31" s="95"/>
       <c r="D31" s="95"/>
@@ -8876,7 +8881,7 @@
       <c r="N31" s="91"/>
       <c r="O31" s="91"/>
     </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="56" t="s">
         <v>35</v>
       </c>
@@ -8923,7 +8928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="52" t="s">
         <v>64</v>
       </c>
@@ -8967,7 +8972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="52" t="s">
         <v>62</v>
       </c>
@@ -9011,7 +9016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="52" t="s">
         <v>47</v>
       </c>
@@ -9055,7 +9060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="52" t="s">
         <v>34</v>
       </c>
@@ -9099,7 +9104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="97"/>
       <c r="B37" s="52" t="s">
         <v>83</v>
@@ -9144,7 +9149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="52" t="s">
         <v>82</v>
       </c>
@@ -9188,7 +9193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="52" t="s">
         <v>81</v>
       </c>
@@ -9232,7 +9237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="52" t="s">
         <v>79</v>
       </c>
@@ -9276,7 +9281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="52" t="s">
         <v>80</v>
       </c>
@@ -9337,22 +9342,22 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="58.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -10083,22 +10088,22 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="16.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>217</v>
       </c>
@@ -10457,15 +10462,15 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.08984375" style="35" customWidth="1"/>
+    <col min="1" max="1" width="48.109375" style="35" customWidth="1"/>
     <col min="2" max="2" width="15" style="35" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="12.81640625" style="35"/>
+    <col min="3" max="3" width="14.6640625" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>218</v>
       </c>
@@ -10491,7 +10496,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>219</v>
       </c>
@@ -10822,7 +10827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17" s="101" t="s">
         <v>172</v>
       </c>
@@ -10852,7 +10857,7 @@
       <c r="G18" s="102"/>
       <c r="H18" s="102"/>
     </row>
-    <row r="19" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="40" t="s">
         <v>220</v>
       </c>
@@ -11180,7 +11185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B34" s="101" t="s">
         <v>172</v>
       </c>
@@ -11210,7 +11215,7 @@
       <c r="G35" s="102"/>
       <c r="H35" s="102"/>
     </row>
-    <row r="36" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="103" t="s">
         <v>221</v>
       </c>
@@ -11538,7 +11543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="104" t="s">
         <v>172</v>
       </c>
@@ -11564,6 +11569,12 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BiU9BXNF+INgNxSFtHuqKvDgOHy4i8LHe4WBopPE5oAPe1uu8rzbQfKL4uxCQ4dbx+6qcxc95feCcYk3II7eJw==" saltValue="oFkUqZTkt+d2Svo646TgPw==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -11573,12 +11584,6 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -11596,14 +11601,14 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.453125" style="12" customWidth="1"/>
-    <col min="2" max="9" width="16.81640625" style="12" customWidth="1"/>
-    <col min="10" max="16384" width="14.453125" style="12"/>
+    <col min="1" max="1" width="8.44140625" style="12" customWidth="1"/>
+    <col min="2" max="9" width="16.77734375" style="12" customWidth="1"/>
+    <col min="10" max="16384" width="14.44140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -12692,22 +12697,22 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.90625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="34.08984375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="11.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.90625" style="35" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="34.109375" style="35" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" style="35" customWidth="1"/>
     <col min="5" max="6" width="15" style="35" customWidth="1"/>
-    <col min="7" max="16384" width="16.08984375" style="35"/>
+    <col min="7" max="16384" width="16.109375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="106" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="106" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="105" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="107"/>
       <c r="C2" s="108" t="s">
         <v>26</v>
@@ -12722,7 +12727,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
         <v>223</v>
       </c>
@@ -12806,7 +12811,7 @@
       <c r="E8" s="100"/>
       <c r="F8" s="100"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="40" t="s">
         <v>224</v>
       </c>
@@ -12831,7 +12836,7 @@
       <c r="F10" s="100"/>
       <c r="G10" s="117"/>
     </row>
-    <row r="11" spans="1:7" s="106" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="106" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="105" t="s">
         <v>225</v>
       </c>
@@ -12841,7 +12846,7 @@
       <c r="F11" s="119"/>
       <c r="G11" s="120"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="40" t="s">
         <v>226</v>
       </c>
@@ -12905,7 +12910,7 @@
       </c>
       <c r="G15" s="117"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
       <c r="B16" s="121"/>
       <c r="C16" s="122"/>
@@ -12914,7 +12919,7 @@
       <c r="F16" s="100"/>
       <c r="G16" s="117"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="40" t="s">
         <v>230</v>
       </c>
@@ -13068,7 +13073,7 @@
     <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="121"/>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="40"/>
     </row>
   </sheetData>
@@ -13089,23 +13094,23 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.1796875" style="35" customWidth="1"/>
-    <col min="2" max="2" width="26.90625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="18.36328125" style="35" customWidth="1"/>
-    <col min="4" max="8" width="14.81640625" style="35" customWidth="1"/>
-    <col min="9" max="12" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="16.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="27.21875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="35" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="35" customWidth="1"/>
+    <col min="4" max="8" width="14.77734375" style="35" customWidth="1"/>
+    <col min="9" max="12" width="15.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="16.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="105" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="126" t="s">
         <v>212</v>
       </c>
@@ -13139,7 +13144,7 @@
       <c r="O2" s="128"/>
       <c r="P2" s="128"/>
     </row>
-    <row r="3" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="40"/>
       <c r="B3" s="35" t="s">
         <v>71</v>
@@ -13572,7 +13577,7 @@
       <c r="O17" s="126"/>
       <c r="P17" s="126"/>
     </row>
-    <row r="18" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="43" t="s">
         <v>237</v>
       </c>
@@ -13830,12 +13835,12 @@
       <c r="O26" s="126"/>
       <c r="P26" s="126"/>
     </row>
-    <row r="28" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="105" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="36" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="129" t="s">
         <v>239</v>
       </c>
@@ -13869,7 +13874,7 @@
       <c r="O29" s="128"/>
       <c r="P29" s="128"/>
     </row>
-    <row r="30" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="35" t="s">
         <v>71</v>
@@ -14564,12 +14569,12 @@
       <c r="C54" s="43"/>
       <c r="D54" s="43"/>
     </row>
-    <row r="55" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="105" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="56" spans="1:16" s="36" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" s="36" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A56" s="129" t="s">
         <v>70</v>
       </c>
@@ -14597,7 +14602,7 @@
       <c r="O56" s="128"/>
       <c r="P56" s="128"/>
     </row>
-    <row r="57" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="35" t="s">
         <v>38</v>
@@ -14743,12 +14748,12 @@
       <c r="C63" s="43"/>
       <c r="D63" s="43"/>
     </row>
-    <row r="64" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="105" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="65" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" s="36" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A65" s="129" t="s">
         <v>24</v>
       </c>
@@ -14782,7 +14787,7 @@
       <c r="O65" s="128"/>
       <c r="P65" s="128"/>
     </row>
-    <row r="66" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="133"/>
       <c r="B66" s="35" t="s">
         <v>73</v>
@@ -15818,12 +15823,12 @@
       <c r="O101" s="126"/>
       <c r="P101" s="126"/>
     </row>
-    <row r="103" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="105" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="104" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" s="36" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A104" s="129" t="s">
         <v>71</v>
       </c>
@@ -15857,7 +15862,7 @@
       <c r="O104" s="128"/>
       <c r="P104" s="128"/>
     </row>
-    <row r="105" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="36"/>
       <c r="C105" s="43" t="s">
@@ -15971,7 +15976,7 @@
       <c r="O108" s="126"/>
       <c r="P108" s="126"/>
     </row>
-    <row r="111" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
     </row>
   </sheetData>
@@ -15992,24 +15997,24 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.81640625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="44.453125" style="35" customWidth="1"/>
-    <col min="3" max="3" width="17.81640625" style="35" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" style="35" customWidth="1"/>
-    <col min="5" max="5" width="17.1796875" style="35" customWidth="1"/>
+    <col min="1" max="1" width="25.77734375" style="35" customWidth="1"/>
+    <col min="2" max="2" width="44.44140625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" style="35" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" style="35" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="35" customWidth="1"/>
     <col min="6" max="6" width="15" style="35" customWidth="1"/>
-    <col min="7" max="7" width="13.6328125" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.81640625" style="35"/>
+    <col min="7" max="7" width="13.6640625" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="105" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="133" t="s">
         <v>25</v>
       </c>
@@ -16050,7 +16055,7 @@
         <v>174.7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="40"/>
       <c r="B4" s="125" t="s">
         <v>251</v>
@@ -16071,7 +16076,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="110" t="s">
         <v>252</v>
       </c>
@@ -16144,12 +16149,12 @@
       <c r="F9" s="125"/>
       <c r="G9" s="125"/>
     </row>
-    <row r="10" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="105" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="110"/>
       <c r="B11" s="121" t="s">
         <v>195</v>
@@ -16170,16 +16175,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="110"/>
       <c r="B12" s="121"/>
     </row>
-    <row r="13" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="105" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="133" t="s">
         <v>239</v>
       </c>
@@ -16202,7 +16207,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="40"/>
       <c r="B15" s="125" t="s">
         <v>256</v>
@@ -16223,7 +16228,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="133" t="s">
         <v>70</v>
       </c>
@@ -16247,12 +16252,12 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:6" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="105" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="110" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="110" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="56" t="s">
         <v>49</v>
       </c>
@@ -16302,16 +16307,16 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.1796875" style="35" customWidth="1"/>
-    <col min="2" max="6" width="16.08984375" style="35"/>
-    <col min="7" max="7" width="17.1796875" style="35" customWidth="1"/>
-    <col min="8" max="8" width="16.08984375" style="35" customWidth="1"/>
-    <col min="9" max="16384" width="16.08984375" style="35"/>
+    <col min="1" max="1" width="52.21875" style="35" customWidth="1"/>
+    <col min="2" max="6" width="16.109375" style="35"/>
+    <col min="7" max="7" width="17.21875" style="35" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" style="35" customWidth="1"/>
+    <col min="9" max="16384" width="16.109375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="127" t="s">
         <v>69</v>
       </c>
@@ -16581,15 +16586,15 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" style="35" customWidth="1"/>
-    <col min="2" max="2" width="58.90625" style="35" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="58.88671875" style="35" bestFit="1" customWidth="1"/>
     <col min="3" max="15" width="15" style="35" customWidth="1"/>
-    <col min="16" max="16384" width="12.81640625" style="35"/>
+    <col min="16" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="40"/>
       <c r="B1" s="40"/>
       <c r="C1" s="109" t="s">
@@ -16632,7 +16637,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>261</v>
       </c>
@@ -17077,7 +17082,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="59" t="s">
         <v>137</v>
       </c>
@@ -17165,7 +17170,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="40" t="s">
         <v>262</v>
       </c>
@@ -17377,15 +17382,15 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.36328125" style="35" customWidth="1"/>
-    <col min="2" max="2" width="27.1796875" style="35" customWidth="1"/>
-    <col min="3" max="7" width="15.54296875" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="21.33203125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="27.21875" style="35" customWidth="1"/>
+    <col min="3" max="7" width="15.5546875" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="40"/>
       <c r="B1" s="127"/>
       <c r="C1" s="40" t="s">
@@ -17404,7 +17409,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>263</v>
       </c>
@@ -17429,7 +17434,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
         <v>264</v>
       </c>
@@ -17478,20 +17483,20 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="52" customWidth="1"/>
-    <col min="2" max="2" width="30.54296875" style="52" customWidth="1"/>
-    <col min="3" max="3" width="24.81640625" style="52" customWidth="1"/>
+    <col min="2" max="2" width="30.5546875" style="52" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" style="52" customWidth="1"/>
     <col min="4" max="4" width="15" style="35" customWidth="1"/>
-    <col min="5" max="5" width="13.6328125" style="35" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" style="35" customWidth="1"/>
-    <col min="7" max="7" width="12.81640625" style="35"/>
-    <col min="8" max="8" width="17.54296875" style="35" customWidth="1"/>
-    <col min="9" max="16384" width="12.81640625" style="35"/>
+    <col min="5" max="5" width="13.6640625" style="35" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" style="35" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" style="35"/>
+    <col min="8" max="8" width="17.5546875" style="35" customWidth="1"/>
+    <col min="9" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -18608,16 +18613,16 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" style="35" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" style="35" customWidth="1"/>
-    <col min="3" max="3" width="23.6328125" style="35" customWidth="1"/>
-    <col min="4" max="7" width="17.1796875" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.81640625" style="35"/>
+    <col min="2" max="2" width="27.44140625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" style="35" customWidth="1"/>
+    <col min="4" max="7" width="17.21875" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="127" t="s">
         <v>69</v>
       </c>
@@ -18784,14 +18789,14 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.08984375" customWidth="1"/>
-    <col min="2" max="2" width="31.36328125" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
     <col min="3" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="str">
         <f>"Percentage of deaths in baseline year ("&amp;start_year&amp;") attributable to cause"</f>
         <v>Percentage of deaths in baseline year (2017) attributable to cause</v>
@@ -18802,7 +18807,7 @@
       <c r="E1" s="41"/>
       <c r="F1" s="41"/>
     </row>
-    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>210</v>
       </c>
@@ -18901,7 +18906,7 @@
       <c r="G12" s="24"/>
       <c r="H12" s="24"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>31</v>
       </c>
@@ -19107,7 +19112,7 @@
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -19223,13 +19228,13 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.453125" customWidth="1"/>
+    <col min="1" max="1" width="31.44140625" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="str">
         <f>"Percentage of population in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of population in each category in baseline year (2017)</v>
@@ -19287,23 +19292,23 @@
         <v>118</v>
       </c>
       <c r="C3" s="76">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(C4:C5), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE) - SUM(C4:C5), "")</f>
         <v>0.32228430019523346</v>
       </c>
       <c r="D3" s="76">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D4:D5), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(D4:D5), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D4:D5), 0, 1) + 1, 0, 1, TRUE) - SUM(D4:D5), "")</f>
         <v>0.32228430019523346</v>
       </c>
       <c r="E3" s="76">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E4:E5), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(E4:E5), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E4:E5), 0, 1) + 1, 0, 1, TRUE) - SUM(E4:E5), "")</f>
         <v>0.35908666207150708</v>
       </c>
       <c r="F3" s="76">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F4:F5), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(F4:F5), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F4:F5), 0, 1) + 1, 0, 1, TRUE) - SUM(F4:F5), "")</f>
         <v>0.37651189492768178</v>
       </c>
       <c r="G3" s="76">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G4:G5), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(G4:G5), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G4:G5), 0, 1) + 1, 0, 1, TRUE) - SUM(G4:G5), "")</f>
         <v>0.37372365733745416</v>
       </c>
     </row>
@@ -19398,23 +19403,23 @@
         <v>121</v>
       </c>
       <c r="C9" s="76">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(C10:C11), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE) - SUM(C10:C11), "")</f>
         <v>0.28180440984664923</v>
       </c>
       <c r="D9" s="76">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D10:D11), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(D10:D11), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D10:D11), 0, 1) + 1, 0, 1, TRUE) - SUM(D10:D11), "")</f>
         <v>0.28180440984664923</v>
       </c>
       <c r="E9" s="76">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E10:E11), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(E10:E11), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E10:E11), 0, 1) + 1, 0, 1, TRUE) - SUM(E10:E11), "")</f>
         <v>0.2466938696379041</v>
       </c>
       <c r="F9" s="76">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F10:F11), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(F10:F11), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F10:F11), 0, 1) + 1, 0, 1, TRUE) - SUM(F10:F11), "")</f>
         <v>0.21506846670192739</v>
       </c>
       <c r="G9" s="76">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G10:G11), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(G10:G11), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G10:G11), 0, 1) + 1, 0, 1, TRUE) - SUM(G10:G11), "")</f>
         <v>0.15821429221536368</v>
       </c>
     </row>
@@ -19650,13 +19655,13 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.81640625" customWidth="1"/>
-    <col min="2" max="7" width="13.453125" customWidth="1"/>
+    <col min="1" max="1" width="28.77734375" customWidth="1"/>
+    <col min="2" max="7" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="str">
         <f>"Percentage of children in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of children in each category in baseline year (2017)</v>
@@ -19782,17 +19787,17 @@
   </sheetPr>
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="29.453125" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>138</v>
       </c>
@@ -20100,15 +20105,15 @@
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="35" customWidth="1"/>
-    <col min="2" max="2" width="19.08984375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="11.453125" style="35"/>
+    <col min="2" max="2" width="19.109375" style="35" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="50" t="s">
         <v>178</v>
       </c>
@@ -20125,7 +20130,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="49" t="s">
         <v>173</v>
       </c>
@@ -20204,7 +20209,7 @@
       <c r="D7" s="44"/>
       <c r="E7" s="80"/>
     </row>
-    <row r="9" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="49" t="s">
         <v>198</v>
       </c>
@@ -20277,7 +20282,7 @@
       <c r="D14" s="44"/>
       <c r="E14" s="80"/>
     </row>
-    <row r="16" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="49" t="s">
         <v>199</v>
       </c>
@@ -20376,15 +20381,15 @@
       <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6328125" customWidth="1"/>
-    <col min="2" max="2" width="15.453125" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" customWidth="1"/>
-    <col min="4" max="4" width="12.81640625" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="60" t="s">
         <v>164</v>
       </c>
@@ -20398,7 +20403,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="61" t="s">
         <v>69</v>
       </c>
@@ -20410,7 +20415,7 @@
       </c>
       <c r="D2" s="80"/>
     </row>
-    <row r="3" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="61" t="s">
         <v>185</v>
       </c>
@@ -20439,17 +20444,17 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="56" style="52" customWidth="1"/>
     <col min="2" max="2" width="20" style="36" customWidth="1"/>
-    <col min="3" max="3" width="20.453125" style="35" customWidth="1"/>
-    <col min="4" max="4" width="20.08984375" style="35" customWidth="1"/>
-    <col min="5" max="5" width="32.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="14.453125" style="35"/>
+    <col min="3" max="3" width="20.44140625" style="35" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" style="35" customWidth="1"/>
+    <col min="5" max="5" width="32.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="14.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="54" t="s">
         <v>69</v>
       </c>
@@ -20739,7 +20744,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="52" t="s">
         <v>173</v>
       </c>

--- a/inputs/demo_region2_input.xlsx
+++ b/inputs/demo_region2_input.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Nutrition\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dominic.delport\Documents\GitHub\Nutrition\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A99ABC-1943-4986-B677-B34E5AD2034D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-21144" windowWidth="38400" windowHeight="16416" tabRatio="961"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="961" firstSheet="5" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -90,8 +91,16 @@
     <definedName name="term_SGA">'Baseline year population inputs'!$C$47</definedName>
     <definedName name="U5_mortality">'Baseline year population inputs'!$C$39</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -100,12 +109,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Nick Scott</author>
   </authors>
   <commentList>
-    <comment ref="D28" authorId="0" shapeId="0">
+    <comment ref="D28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
       <text>
         <r>
           <rPr>
@@ -168,7 +177,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D30" authorId="0" shapeId="0">
+    <comment ref="D30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000002000000}">
       <text>
         <r>
           <rPr>
@@ -231,7 +240,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D37" authorId="0" shapeId="0">
+    <comment ref="D37" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000003000000}">
       <text>
         <r>
           <rPr>
@@ -262,12 +271,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Sam</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000001000000}">
       <text>
         <r>
           <rPr>
@@ -291,7 +300,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000002000000}">
       <text>
         <r>
           <rPr>
@@ -320,12 +329,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Sam</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0E00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -363,12 +372,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Nick Scott</author>
   </authors>
   <commentList>
-    <comment ref="A36" authorId="0" shapeId="0">
+    <comment ref="A36" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -397,12 +406,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Nick Scott</author>
   </authors>
   <commentList>
-    <comment ref="B6" authorId="0" shapeId="0">
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -426,7 +435,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="0" shapeId="0">
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1271,7 +1280,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -2619,7 +2628,7 @@
   </cellXfs>
   <cellStyles count="728">
     <cellStyle name="Comma" xfId="9" builtinId="3"/>
-    <cellStyle name="Comma 2" xfId="727"/>
+    <cellStyle name="Comma 2" xfId="727" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -3343,8 +3352,8 @@
     <cellStyle name="Hyperlink" xfId="721" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="723" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="725"/>
-    <cellStyle name="Normal 3" xfId="726"/>
+    <cellStyle name="Normal 2" xfId="725" xr:uid="{00000000-0005-0000-0000-0000D5020000}"/>
+    <cellStyle name="Normal 3" xfId="726" xr:uid="{00000000-0005-0000-0000-0000D6020000}"/>
     <cellStyle name="Percent" xfId="10" builtinId="5"/>
   </cellStyles>
   <dxfs count="1">
@@ -4784,24 +4793,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FF007600"/>
   </sheetPr>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C37" sqref="C37:C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="38.6640625" style="16" customWidth="1"/>
-    <col min="3" max="16384" width="14.44140625" style="12"/>
+    <col min="1" max="1" width="27.6328125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="38.6328125" style="16" customWidth="1"/>
+    <col min="3" max="16384" width="14.453125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>100</v>
       </c>
@@ -4812,14 +4821,14 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>191</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
     </row>
-    <row r="3" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
         <v>193</v>
@@ -4828,7 +4837,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
         <v>192</v>
@@ -4837,7 +4846,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
@@ -4906,7 +4915,7 @@
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="12"/>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>30</v>
       </c>
@@ -5037,7 +5046,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="13" x14ac:dyDescent="0.25">
       <c r="B33" s="32" t="s">
         <v>129</v>
       </c>
@@ -5047,7 +5056,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>135</v>
       </c>
@@ -5230,7 +5239,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
     </row>
   </sheetData>
@@ -5241,7 +5250,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
@@ -5251,15 +5260,15 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="52" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.77734375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="42.44140625" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="11.44140625" style="35"/>
+    <col min="2" max="2" width="47.81640625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="42.453125" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="11.453125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -5270,7 +5279,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A2" s="83" t="s">
         <v>187</v>
       </c>
@@ -5279,7 +5288,7 @@
       </c>
       <c r="C2" s="80"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A3" s="83" t="s">
         <v>208</v>
       </c>
@@ -5288,7 +5297,7 @@
       </c>
       <c r="C3" s="80"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A4" s="84" t="s">
         <v>58</v>
       </c>
@@ -5297,7 +5306,7 @@
       </c>
       <c r="C4" s="80"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A5" s="84" t="s">
         <v>137</v>
       </c>
@@ -5306,77 +5315,77 @@
       </c>
       <c r="C5" s="80"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A6" s="84"/>
       <c r="B6" s="85"/>
       <c r="C6" s="85"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A7" s="84"/>
       <c r="B7" s="85"/>
       <c r="C7" s="85"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A8" s="84"/>
       <c r="B8" s="85"/>
       <c r="C8" s="85"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A9" s="84"/>
       <c r="B9" s="85"/>
       <c r="C9" s="85"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A10" s="84"/>
       <c r="B10" s="85"/>
       <c r="C10" s="85"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A11" s="86"/>
       <c r="B11" s="85"/>
       <c r="C11" s="85"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A12" s="86"/>
       <c r="B12" s="85"/>
       <c r="C12" s="85"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A13" s="86"/>
       <c r="B13" s="85"/>
       <c r="C13" s="85"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A14" s="86"/>
       <c r="B14" s="85"/>
       <c r="C14" s="85"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A15" s="86"/>
       <c r="B15" s="85"/>
       <c r="C15" s="85"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A16" s="86"/>
       <c r="B16" s="85"/>
       <c r="C16" s="85"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A17" s="86"/>
       <c r="B17" s="85"/>
       <c r="C17" s="85"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A18" s="86"/>
       <c r="B18" s="85"/>
       <c r="C18" s="85"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A19" s="84"/>
       <c r="B19" s="85"/>
       <c r="C19" s="85"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A20" s="84"/>
       <c r="B20" s="85"/>
       <c r="C20" s="85"/>
@@ -5390,7 +5399,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
@@ -5400,85 +5409,85 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.109375" style="35" customWidth="1"/>
-    <col min="2" max="16384" width="11.44140625" style="35"/>
+    <col min="1" max="1" width="30.08984375" style="35" customWidth="1"/>
+    <col min="2" max="16384" width="11.453125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A3" s="48" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A4" s="48" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A5" s="48" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A6" s="48" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A7" s="48" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A8" s="48" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A9" s="48" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A10" s="48"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A11" s="48"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A12" s="48"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A13" s="48"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A14" s="48"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A15" s="48"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A16" s="48"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A17" s="48"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A18" s="48"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A19" s="48"/>
     </row>
   </sheetData>
@@ -5488,7 +5497,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.34998626667073579"/>
   </sheetPr>
@@ -5498,7 +5507,7 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
@@ -5602,29 +5611,29 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
       <selection activeCell="C29" activeCellId="3" sqref="C2:O12 C14:O21 C23:O27 C29:O38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.77734375" customWidth="1"/>
-    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.81640625" customWidth="1"/>
+    <col min="3" max="3" width="8.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="15.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>33</v>
       </c>
@@ -5671,7 +5680,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>31</v>
       </c>
@@ -6186,7 +6195,7 @@
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="33"/>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>32</v>
       </c>
@@ -6237,7 +6246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="11" t="s">
         <v>86</v>
@@ -6282,7 +6291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="11" t="s">
         <v>187</v>
@@ -6331,7 +6340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="11" t="s">
         <v>208</v>
@@ -6567,7 +6576,7 @@
     <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="33"/>
     </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="58" t="s">
         <v>37</v>
       </c>
@@ -6817,7 +6826,7 @@
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
     </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>35</v>
       </c>
@@ -7312,7 +7321,7 @@
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="8AA2I9UZPCvjoGOxL0MMyqqXoHDNS7n4JtfrsQRho74JNJJKUigxuy0/aEjLs4m9INQV0OZqejhY0qqpkSRx4A==" saltValue="BKXFXqwFrNK8M/n7gCZbMQ==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
-  <sortState ref="B14:O21">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B14:O21">
     <sortCondition ref="B14:B21"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7321,12 +7330,12 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
@@ -7354,7 +7363,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
@@ -7364,16 +7373,16 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.6640625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="35" customWidth="1"/>
-    <col min="3" max="4" width="11.44140625" style="35"/>
-    <col min="5" max="5" width="17.44140625" style="35" customWidth="1"/>
-    <col min="6" max="16384" width="11.44140625" style="35"/>
+    <col min="1" max="1" width="33.6328125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" style="35" customWidth="1"/>
+    <col min="3" max="4" width="11.453125" style="35"/>
+    <col min="5" max="5" width="17.453125" style="35" customWidth="1"/>
+    <col min="6" max="16384" width="11.453125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>163</v>
       </c>
@@ -7390,7 +7399,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="A2" s="39" t="s">
         <v>158</v>
       </c>
@@ -7408,7 +7417,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="A3" s="39" t="s">
         <v>157</v>
       </c>
@@ -7426,7 +7435,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="A4" s="39" t="s">
         <v>156</v>
       </c>
@@ -7444,7 +7453,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="A5" s="39" t="s">
         <v>155</v>
       </c>
@@ -7462,7 +7471,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="A6" s="39" t="s">
         <v>154</v>
       </c>
@@ -7480,7 +7489,7 @@
         <v>1.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="A7" s="39" t="s">
         <v>153</v>
       </c>
@@ -7498,7 +7507,7 @@
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="A8" s="39" t="s">
         <v>152</v>
       </c>
@@ -7516,7 +7525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="A9" s="39" t="s">
         <v>151</v>
       </c>
@@ -7534,7 +7543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="A10" s="39" t="s">
         <v>150</v>
       </c>
@@ -7563,7 +7572,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
@@ -7573,20 +7582,20 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.21875" style="55" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.88671875" style="55" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" style="55" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.1796875" style="55" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.90625" style="55" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.453125" style="55" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.08984375" style="55" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="55" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="15.33203125" style="55" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="16.88671875" style="55" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="16.109375" style="55"/>
+    <col min="6" max="7" width="13.08984375" style="55" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="15.36328125" style="55" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="16.90625" style="55" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="16.08984375" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="56" t="s">
         <v>33</v>
       </c>
@@ -7633,7 +7642,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="56" t="s">
         <v>31</v>
       </c>
@@ -7680,7 +7689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="52" t="s">
         <v>149</v>
       </c>
@@ -7724,7 +7733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="52" t="s">
         <v>173</v>
       </c>
@@ -7768,7 +7777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="52" t="s">
         <v>198</v>
       </c>
@@ -7812,7 +7821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="52" t="s">
         <v>199</v>
       </c>
@@ -7856,7 +7865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="52" t="s">
         <v>195</v>
       </c>
@@ -7900,7 +7909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="52" t="s">
         <v>136</v>
       </c>
@@ -7944,7 +7953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="52" t="s">
         <v>137</v>
       </c>
@@ -7988,7 +7997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="52" t="s">
         <v>84</v>
       </c>
@@ -8032,7 +8041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="52" t="s">
         <v>58</v>
       </c>
@@ -8076,7 +8085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="52" t="s">
         <v>67</v>
       </c>
@@ -8120,7 +8129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="52" t="s">
         <v>28</v>
       </c>
@@ -8164,7 +8173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="52" t="s">
         <v>85</v>
       </c>
@@ -8208,7 +8217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="52" t="s">
         <v>60</v>
       </c>
@@ -8252,7 +8261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="52"/>
       <c r="C16" s="91"/>
       <c r="D16" s="91"/>
@@ -8268,7 +8277,7 @@
       <c r="N16" s="91"/>
       <c r="O16" s="91"/>
     </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="56" t="s">
         <v>32</v>
       </c>
@@ -8315,7 +8324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="56"/>
       <c r="B18" s="52" t="s">
         <v>86</v>
@@ -8360,7 +8369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="92" t="s">
         <v>187</v>
       </c>
@@ -8404,7 +8413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="92" t="s">
         <v>208</v>
       </c>
@@ -8448,7 +8457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="93" t="s">
         <v>57</v>
       </c>
@@ -8492,7 +8501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="52" t="s">
         <v>88</v>
       </c>
@@ -8536,7 +8545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="52" t="s">
         <v>87</v>
       </c>
@@ -8580,7 +8589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="52" t="s">
         <v>59</v>
       </c>
@@ -8624,7 +8633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="52"/>
       <c r="C25" s="91"/>
       <c r="D25" s="91"/>
@@ -8640,7 +8649,7 @@
       <c r="N25" s="91"/>
       <c r="O25" s="91"/>
     </row>
-    <row r="26" spans="1:16" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="56" t="s">
         <v>37</v>
       </c>
@@ -8688,7 +8697,7 @@
       </c>
       <c r="P26" s="94"/>
     </row>
-    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="59" t="s">
         <v>188</v>
       </c>
@@ -8732,7 +8741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="56"/>
       <c r="B28" s="59" t="s">
         <v>207</v>
@@ -8777,7 +8786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="59" t="s">
         <v>189</v>
       </c>
@@ -8821,7 +8830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="59" t="s">
         <v>190</v>
       </c>
@@ -8865,7 +8874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="52"/>
       <c r="C31" s="95"/>
       <c r="D31" s="95"/>
@@ -8881,7 +8890,7 @@
       <c r="N31" s="91"/>
       <c r="O31" s="91"/>
     </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="56" t="s">
         <v>35</v>
       </c>
@@ -8928,7 +8937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="52" t="s">
         <v>64</v>
       </c>
@@ -8972,7 +8981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="52" t="s">
         <v>62</v>
       </c>
@@ -9016,7 +9025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="52" t="s">
         <v>47</v>
       </c>
@@ -9060,7 +9069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="52" t="s">
         <v>34</v>
       </c>
@@ -9104,7 +9113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="97"/>
       <c r="B37" s="52" t="s">
         <v>83</v>
@@ -9149,7 +9158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="52" t="s">
         <v>82</v>
       </c>
@@ -9193,7 +9202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="52" t="s">
         <v>81</v>
       </c>
@@ -9237,7 +9246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="52" t="s">
         <v>79</v>
       </c>
@@ -9281,7 +9290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="52" t="s">
         <v>80</v>
       </c>
@@ -9332,7 +9341,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
@@ -9342,22 +9351,22 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.77734375" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.77734375" style="35"/>
+    <col min="1" max="1" width="58.90625" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.90625" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.36328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.453125" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.81640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.90625" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.81640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.81640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -9392,7 +9401,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
         <v>29</v>
       </c>
@@ -9409,7 +9418,7 @@
       <c r="J2" s="90"/>
       <c r="K2" s="90"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A3" s="52" t="s">
         <v>86</v>
       </c>
@@ -9426,7 +9435,7 @@
       <c r="J3" s="90"/>
       <c r="K3" s="90"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A4" s="52" t="s">
         <v>61</v>
       </c>
@@ -9443,7 +9452,7 @@
       <c r="J4" s="90"/>
       <c r="K4" s="90"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A5" s="52" t="s">
         <v>149</v>
       </c>
@@ -9460,7 +9469,7 @@
       <c r="J5" s="90"/>
       <c r="K5" s="90"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A6" s="52" t="s">
         <v>197</v>
       </c>
@@ -9479,7 +9488,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A7" s="52" t="s">
         <v>63</v>
       </c>
@@ -9498,7 +9507,7 @@
       <c r="J7" s="90"/>
       <c r="K7" s="90"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A8" s="52" t="s">
         <v>64</v>
       </c>
@@ -9517,7 +9526,7 @@
       <c r="J8" s="90"/>
       <c r="K8" s="90"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
         <v>62</v>
       </c>
@@ -9536,7 +9545,7 @@
       <c r="J9" s="90"/>
       <c r="K9" s="90"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A10" s="59" t="s">
         <v>188</v>
       </c>
@@ -9553,7 +9562,7 @@
       <c r="J10" s="90"/>
       <c r="K10" s="90"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A11" s="59" t="s">
         <v>207</v>
       </c>
@@ -9570,7 +9579,7 @@
       <c r="J11" s="90"/>
       <c r="K11" s="90"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A12" s="59" t="s">
         <v>189</v>
       </c>
@@ -9587,7 +9596,7 @@
       <c r="J12" s="90"/>
       <c r="K12" s="90"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A13" s="59" t="s">
         <v>190</v>
       </c>
@@ -9604,7 +9613,7 @@
       <c r="J13" s="90"/>
       <c r="K13" s="90"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A14" s="92" t="s">
         <v>187</v>
       </c>
@@ -9623,7 +9632,7 @@
       <c r="J14" s="90"/>
       <c r="K14" s="90"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A15" s="92" t="s">
         <v>208</v>
       </c>
@@ -9642,7 +9651,7 @@
       <c r="J15" s="90"/>
       <c r="K15" s="90"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A16" s="52" t="s">
         <v>57</v>
       </c>
@@ -9663,7 +9672,7 @@
       <c r="J16" s="90"/>
       <c r="K16" s="90"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A17" s="52" t="s">
         <v>47</v>
       </c>
@@ -9680,7 +9689,7 @@
       <c r="J17" s="90"/>
       <c r="K17" s="90"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A18" s="52" t="s">
         <v>173</v>
       </c>
@@ -9699,7 +9708,7 @@
       <c r="J18" s="90"/>
       <c r="K18" s="90"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A19" s="52" t="s">
         <v>198</v>
       </c>
@@ -9718,7 +9727,7 @@
       <c r="J19" s="90"/>
       <c r="K19" s="90"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A20" s="52" t="s">
         <v>199</v>
       </c>
@@ -9737,7 +9746,7 @@
       <c r="J20" s="90"/>
       <c r="K20" s="90"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A21" s="52" t="s">
         <v>195</v>
       </c>
@@ -9756,7 +9765,7 @@
       <c r="J21" s="90"/>
       <c r="K21" s="90"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A22" s="52" t="s">
         <v>136</v>
       </c>
@@ -9777,7 +9786,7 @@
       <c r="J22" s="90"/>
       <c r="K22" s="90"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A23" s="52" t="s">
         <v>34</v>
       </c>
@@ -9796,7 +9805,7 @@
       <c r="J23" s="90"/>
       <c r="K23" s="90"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A24" s="52" t="s">
         <v>88</v>
       </c>
@@ -9813,7 +9822,7 @@
       <c r="J24" s="90"/>
       <c r="K24" s="90"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A25" s="52" t="s">
         <v>87</v>
       </c>
@@ -9830,7 +9839,7 @@
       <c r="J25" s="90"/>
       <c r="K25" s="90"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A26" s="52" t="s">
         <v>137</v>
       </c>
@@ -9847,7 +9856,7 @@
       <c r="J26" s="90"/>
       <c r="K26" s="90"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A27" s="52" t="s">
         <v>59</v>
       </c>
@@ -9866,7 +9875,7 @@
       <c r="J27" s="90"/>
       <c r="K27" s="90"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A28" s="52" t="s">
         <v>84</v>
       </c>
@@ -9883,7 +9892,7 @@
       <c r="J28" s="90"/>
       <c r="K28" s="90"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A29" s="52" t="s">
         <v>58</v>
       </c>
@@ -9902,7 +9911,7 @@
       <c r="J29" s="90"/>
       <c r="K29" s="90"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A30" s="52" t="s">
         <v>67</v>
       </c>
@@ -9919,7 +9928,7 @@
       <c r="J30" s="90"/>
       <c r="K30" s="90"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A31" s="52" t="s">
         <v>28</v>
       </c>
@@ -9938,7 +9947,7 @@
       <c r="J31" s="90"/>
       <c r="K31" s="90"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A32" s="52" t="s">
         <v>83</v>
       </c>
@@ -9957,7 +9966,7 @@
       <c r="J32" s="90"/>
       <c r="K32" s="90"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A33" s="52" t="s">
         <v>82</v>
       </c>
@@ -9976,7 +9985,7 @@
       <c r="J33" s="90"/>
       <c r="K33" s="90"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A34" s="52" t="s">
         <v>81</v>
       </c>
@@ -9995,7 +10004,7 @@
       <c r="J34" s="90"/>
       <c r="K34" s="90"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A35" s="52" t="s">
         <v>79</v>
       </c>
@@ -10014,7 +10023,7 @@
       <c r="J35" s="90"/>
       <c r="K35" s="90"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A36" s="52" t="s">
         <v>80</v>
       </c>
@@ -10033,7 +10042,7 @@
       <c r="J36" s="90"/>
       <c r="K36" s="90"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A37" s="52" t="s">
         <v>85</v>
       </c>
@@ -10050,7 +10059,7 @@
       <c r="J37" s="90"/>
       <c r="K37" s="90"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A38" s="52" t="s">
         <v>60</v>
       </c>
@@ -10078,7 +10087,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
@@ -10088,22 +10097,22 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.77734375" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.77734375" style="35"/>
+    <col min="1" max="1" width="16.90625" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.90625" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.36328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.453125" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.81640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.90625" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.81640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.81640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>217</v>
       </c>
@@ -10138,7 +10147,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
@@ -10167,7 +10176,7 @@
       <c r="J2" s="90"/>
       <c r="K2" s="90"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
@@ -10196,7 +10205,7 @@
       <c r="J3" s="90"/>
       <c r="K3" s="90"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
         <v>3</v>
       </c>
@@ -10225,7 +10234,7 @@
       <c r="J4" s="90"/>
       <c r="K4" s="90"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
         <v>4</v>
       </c>
@@ -10254,7 +10263,7 @@
       <c r="J5" s="90"/>
       <c r="K5" s="90"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
         <v>5</v>
       </c>
@@ -10283,7 +10292,7 @@
       <c r="J6" s="90"/>
       <c r="K6" s="90"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
         <v>53</v>
       </c>
@@ -10304,7 +10313,7 @@
       <c r="J7" s="90"/>
       <c r="K7" s="90"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
         <v>54</v>
       </c>
@@ -10325,7 +10334,7 @@
       <c r="J8" s="90"/>
       <c r="K8" s="90"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
         <v>55</v>
       </c>
@@ -10346,7 +10355,7 @@
       <c r="J9" s="90"/>
       <c r="K9" s="90"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
         <v>56</v>
       </c>
@@ -10367,7 +10376,7 @@
       <c r="J10" s="90"/>
       <c r="K10" s="90"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
         <v>49</v>
       </c>
@@ -10388,7 +10397,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
         <v>50</v>
       </c>
@@ -10407,7 +10416,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A13" s="35" t="s">
         <v>51</v>
       </c>
@@ -10426,7 +10435,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A14" s="35" t="s">
         <v>52</v>
       </c>
@@ -10452,7 +10461,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
@@ -10462,15 +10471,15 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.109375" style="35" customWidth="1"/>
+    <col min="1" max="1" width="48.08984375" style="35" customWidth="1"/>
     <col min="2" max="2" width="15" style="35" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="12.77734375" style="35"/>
+    <col min="3" max="3" width="14.6328125" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="12.81640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>218</v>
       </c>
@@ -10496,7 +10505,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
         <v>219</v>
       </c>
@@ -10522,7 +10531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B3" s="137"/>
       <c r="C3" s="35" t="s">
         <v>175</v>
@@ -10544,7 +10553,7 @@
       </c>
       <c r="J3" s="100"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B4" s="137"/>
       <c r="C4" s="35" t="s">
         <v>174</v>
@@ -10566,7 +10575,7 @@
       </c>
       <c r="J4" s="100"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B5" s="137" t="s">
         <v>1</v>
       </c>
@@ -10590,7 +10599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B6" s="137"/>
       <c r="C6" s="35" t="s">
         <v>175</v>
@@ -10611,7 +10620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B7" s="137"/>
       <c r="C7" s="35" t="s">
         <v>174</v>
@@ -10632,7 +10641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B8" s="137" t="s">
         <v>2</v>
       </c>
@@ -10655,7 +10664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B9" s="137"/>
       <c r="C9" s="35" t="s">
         <v>175</v>
@@ -10676,7 +10685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B10" s="137"/>
       <c r="C10" s="35" t="s">
         <v>174</v>
@@ -10697,7 +10706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B11" s="137" t="s">
         <v>3</v>
       </c>
@@ -10720,7 +10729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B12" s="137"/>
       <c r="C12" s="35" t="s">
         <v>175</v>
@@ -10741,7 +10750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B13" s="137"/>
       <c r="C13" s="35" t="s">
         <v>174</v>
@@ -10762,7 +10771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B14" s="137" t="s">
         <v>4</v>
       </c>
@@ -10785,7 +10794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B15" s="137"/>
       <c r="C15" s="35" t="s">
         <v>175</v>
@@ -10806,7 +10815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B16" s="137"/>
       <c r="C16" s="35" t="s">
         <v>174</v>
@@ -10827,7 +10836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="B17" s="101" t="s">
         <v>172</v>
       </c>
@@ -10850,14 +10859,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="D18" s="102"/>
       <c r="E18" s="102"/>
       <c r="F18" s="102"/>
       <c r="G18" s="102"/>
       <c r="H18" s="102"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A19" s="40" t="s">
         <v>220</v>
       </c>
@@ -10883,7 +10892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B20" s="137"/>
       <c r="C20" s="35" t="s">
         <v>175</v>
@@ -10904,7 +10913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B21" s="137"/>
       <c r="C21" s="35" t="s">
         <v>174</v>
@@ -10925,7 +10934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B22" s="137" t="s">
         <v>1</v>
       </c>
@@ -10948,7 +10957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B23" s="137"/>
       <c r="C23" s="35" t="s">
         <v>175</v>
@@ -10969,7 +10978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B24" s="137"/>
       <c r="C24" s="35" t="s">
         <v>174</v>
@@ -10990,7 +10999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B25" s="137" t="s">
         <v>2</v>
       </c>
@@ -11013,7 +11022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B26" s="137"/>
       <c r="C26" s="35" t="s">
         <v>175</v>
@@ -11034,7 +11043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B27" s="137"/>
       <c r="C27" s="35" t="s">
         <v>174</v>
@@ -11055,7 +11064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B28" s="137" t="s">
         <v>3</v>
       </c>
@@ -11078,7 +11087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B29" s="137"/>
       <c r="C29" s="35" t="s">
         <v>175</v>
@@ -11099,7 +11108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B30" s="137"/>
       <c r="C30" s="35" t="s">
         <v>174</v>
@@ -11120,7 +11129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B31" s="137" t="s">
         <v>4</v>
       </c>
@@ -11143,7 +11152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B32" s="137"/>
       <c r="C32" s="35" t="s">
         <v>175</v>
@@ -11164,7 +11173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B33" s="137"/>
       <c r="C33" s="35" t="s">
         <v>174</v>
@@ -11185,7 +11194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="B34" s="101" t="s">
         <v>172</v>
       </c>
@@ -11208,14 +11217,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="D35" s="102"/>
       <c r="E35" s="102"/>
       <c r="F35" s="102"/>
       <c r="G35" s="102"/>
       <c r="H35" s="102"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A36" s="103" t="s">
         <v>221</v>
       </c>
@@ -11241,7 +11250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B37" s="137"/>
       <c r="C37" s="35" t="s">
         <v>175</v>
@@ -11262,7 +11271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B38" s="137"/>
       <c r="C38" s="35" t="s">
         <v>174</v>
@@ -11283,7 +11292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B39" s="137" t="s">
         <v>1</v>
       </c>
@@ -11306,7 +11315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B40" s="137"/>
       <c r="C40" s="35" t="s">
         <v>175</v>
@@ -11327,7 +11336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B41" s="137"/>
       <c r="C41" s="35" t="s">
         <v>174</v>
@@ -11348,7 +11357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B42" s="137" t="s">
         <v>2</v>
       </c>
@@ -11371,7 +11380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B43" s="137"/>
       <c r="C43" s="35" t="s">
         <v>175</v>
@@ -11392,7 +11401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B44" s="137"/>
       <c r="C44" s="35" t="s">
         <v>174</v>
@@ -11413,7 +11422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B45" s="137" t="s">
         <v>3</v>
       </c>
@@ -11436,7 +11445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B46" s="137"/>
       <c r="C46" s="35" t="s">
         <v>175</v>
@@ -11457,7 +11466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B47" s="137"/>
       <c r="C47" s="35" t="s">
         <v>174</v>
@@ -11478,7 +11487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B48" s="137" t="s">
         <v>4</v>
       </c>
@@ -11501,7 +11510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B49" s="137"/>
       <c r="C49" s="35" t="s">
         <v>175</v>
@@ -11522,7 +11531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B50" s="137"/>
       <c r="C50" s="35" t="s">
         <v>174</v>
@@ -11543,7 +11552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" ht="13" x14ac:dyDescent="0.25">
       <c r="B51" s="104" t="s">
         <v>172</v>
       </c>
@@ -11569,12 +11578,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BiU9BXNF+INgNxSFtHuqKvDgOHy4i8LHe4WBopPE5oAPe1uu8rzbQfKL4uxCQ4dbx+6qcxc95feCcYk3II7eJw==" saltValue="oFkUqZTkt+d2Svo646TgPw==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -11584,6 +11587,12 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -11591,7 +11600,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FF007600"/>
   </sheetPr>
@@ -11601,14 +11610,14 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.44140625" style="12" customWidth="1"/>
-    <col min="2" max="9" width="16.77734375" style="12" customWidth="1"/>
-    <col min="10" max="16384" width="14.44140625" style="12"/>
+    <col min="1" max="1" width="8.453125" style="12" customWidth="1"/>
+    <col min="2" max="9" width="16.81640625" style="12" customWidth="1"/>
+    <col min="10" max="16384" width="14.453125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -12687,7 +12696,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
@@ -12697,22 +12706,22 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" style="35" customWidth="1"/>
-    <col min="2" max="2" width="34.109375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" style="35" customWidth="1"/>
+    <col min="1" max="1" width="23.90625" style="35" customWidth="1"/>
+    <col min="2" max="2" width="34.08984375" style="35" customWidth="1"/>
+    <col min="3" max="3" width="11.36328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.90625" style="35" customWidth="1"/>
     <col min="5" max="6" width="15" style="35" customWidth="1"/>
-    <col min="7" max="16384" width="16.109375" style="35"/>
+    <col min="7" max="16384" width="16.08984375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="106" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="106" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="105" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="107"/>
       <c r="C2" s="108" t="s">
         <v>26</v>
@@ -12727,7 +12736,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="40" t="s">
         <v>223</v>
       </c>
@@ -12811,7 +12820,7 @@
       <c r="E8" s="100"/>
       <c r="F8" s="100"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="40" t="s">
         <v>224</v>
       </c>
@@ -12836,7 +12845,7 @@
       <c r="F10" s="100"/>
       <c r="G10" s="117"/>
     </row>
-    <row r="11" spans="1:7" s="106" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="106" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="105" t="s">
         <v>225</v>
       </c>
@@ -12846,7 +12855,7 @@
       <c r="F11" s="119"/>
       <c r="G11" s="120"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="40" t="s">
         <v>226</v>
       </c>
@@ -12910,7 +12919,7 @@
       </c>
       <c r="G15" s="117"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="40"/>
       <c r="B16" s="121"/>
       <c r="C16" s="122"/>
@@ -12919,7 +12928,7 @@
       <c r="F16" s="100"/>
       <c r="G16" s="117"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="40" t="s">
         <v>230</v>
       </c>
@@ -13073,7 +13082,7 @@
     <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="121"/>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="40"/>
     </row>
   </sheetData>
@@ -13084,7 +13093,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
@@ -13094,23 +13103,23 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.21875" style="35" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="35" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" style="35" customWidth="1"/>
-    <col min="4" max="8" width="14.77734375" style="35" customWidth="1"/>
-    <col min="9" max="12" width="15.33203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="16.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="12.77734375" style="35"/>
+    <col min="1" max="1" width="27.1796875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="26.90625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="18.36328125" style="35" customWidth="1"/>
+    <col min="4" max="8" width="14.81640625" style="35" customWidth="1"/>
+    <col min="9" max="12" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="16.90625" style="35" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="12.81640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="105" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="126" t="s">
         <v>212</v>
       </c>
@@ -13144,7 +13153,7 @@
       <c r="O2" s="128"/>
       <c r="P2" s="128"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A3" s="40"/>
       <c r="B3" s="35" t="s">
         <v>71</v>
@@ -13577,7 +13586,7 @@
       <c r="O17" s="126"/>
       <c r="P17" s="126"/>
     </row>
-    <row r="18" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="43" t="s">
         <v>237</v>
       </c>
@@ -13835,12 +13844,12 @@
       <c r="O26" s="126"/>
       <c r="P26" s="126"/>
     </row>
-    <row r="28" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A28" s="105" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" s="36" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A29" s="129" t="s">
         <v>239</v>
       </c>
@@ -13874,7 +13883,7 @@
       <c r="O29" s="128"/>
       <c r="P29" s="128"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" s="35" t="s">
         <v>71</v>
@@ -14569,12 +14578,12 @@
       <c r="C54" s="43"/>
       <c r="D54" s="43"/>
     </row>
-    <row r="55" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A55" s="105" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="56" spans="1:16" s="36" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A56" s="129" t="s">
         <v>70</v>
       </c>
@@ -14602,7 +14611,7 @@
       <c r="O56" s="128"/>
       <c r="P56" s="128"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
       <c r="B57" s="35" t="s">
         <v>38</v>
@@ -14748,12 +14757,12 @@
       <c r="C63" s="43"/>
       <c r="D63" s="43"/>
     </row>
-    <row r="64" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A64" s="105" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="65" spans="1:16" s="36" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A65" s="129" t="s">
         <v>24</v>
       </c>
@@ -14787,7 +14796,7 @@
       <c r="O65" s="128"/>
       <c r="P65" s="128"/>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A66" s="133"/>
       <c r="B66" s="35" t="s">
         <v>73</v>
@@ -15823,12 +15832,12 @@
       <c r="O101" s="126"/>
       <c r="P101" s="126"/>
     </row>
-    <row r="103" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A103" s="105" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="104" spans="1:16" s="36" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A104" s="129" t="s">
         <v>71</v>
       </c>
@@ -15862,7 +15871,7 @@
       <c r="O104" s="128"/>
       <c r="P104" s="128"/>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="36"/>
       <c r="C105" s="43" t="s">
@@ -15976,7 +15985,7 @@
       <c r="O108" s="126"/>
       <c r="P108" s="126"/>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
     </row>
   </sheetData>
@@ -15987,7 +15996,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
@@ -15997,24 +16006,24 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.77734375" style="35" customWidth="1"/>
-    <col min="2" max="2" width="44.44140625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" style="35" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" style="35" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="35" customWidth="1"/>
+    <col min="1" max="1" width="25.81640625" style="35" customWidth="1"/>
+    <col min="2" max="2" width="44.453125" style="35" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" style="35" customWidth="1"/>
+    <col min="4" max="4" width="17.54296875" style="35" customWidth="1"/>
+    <col min="5" max="5" width="17.1796875" style="35" customWidth="1"/>
     <col min="6" max="6" width="15" style="35" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.77734375" style="35"/>
+    <col min="7" max="7" width="13.6328125" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.81640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="105" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="133" t="s">
         <v>25</v>
       </c>
@@ -16055,7 +16064,7 @@
         <v>174.7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="40"/>
       <c r="B4" s="125" t="s">
         <v>251</v>
@@ -16076,7 +16085,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="110" t="s">
         <v>252</v>
       </c>
@@ -16149,12 +16158,12 @@
       <c r="F9" s="125"/>
       <c r="G9" s="125"/>
     </row>
-    <row r="10" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="105" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="110"/>
       <c r="B11" s="121" t="s">
         <v>195</v>
@@ -16175,16 +16184,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="110"/>
       <c r="B12" s="121"/>
     </row>
-    <row r="13" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="105" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="133" t="s">
         <v>239</v>
       </c>
@@ -16207,7 +16216,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="40"/>
       <c r="B15" s="125" t="s">
         <v>256</v>
@@ -16228,7 +16237,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="133" t="s">
         <v>70</v>
       </c>
@@ -16252,12 +16261,12 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:6" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="105" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="110" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="110" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" s="56" t="s">
         <v>49</v>
       </c>
@@ -16297,26 +16306,26 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E6" sqref="C6:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.21875" style="35" customWidth="1"/>
-    <col min="2" max="6" width="16.109375" style="35"/>
-    <col min="7" max="7" width="17.21875" style="35" customWidth="1"/>
-    <col min="8" max="8" width="16.109375" style="35" customWidth="1"/>
-    <col min="9" max="16384" width="16.109375" style="35"/>
+    <col min="1" max="1" width="52.1796875" style="35" customWidth="1"/>
+    <col min="2" max="6" width="16.08984375" style="35"/>
+    <col min="7" max="7" width="17.1796875" style="35" customWidth="1"/>
+    <col min="8" max="8" width="16.08984375" style="35" customWidth="1"/>
+    <col min="9" max="16384" width="16.08984375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="127" t="s">
         <v>69</v>
       </c>
@@ -16380,10 +16389,10 @@
         <v>259</v>
       </c>
       <c r="C4" s="115">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="D4" s="115">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="E4" s="115">
         <v>0</v>
@@ -16418,10 +16427,10 @@
         <v>259</v>
       </c>
       <c r="C6" s="115">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="D6" s="115">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="E6" s="115">
         <v>0</v>
@@ -16576,25 +16585,25 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O19" sqref="E19:O20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" style="35" customWidth="1"/>
-    <col min="2" max="2" width="58.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="58.90625" style="35" bestFit="1" customWidth="1"/>
     <col min="3" max="15" width="15" style="35" customWidth="1"/>
-    <col min="16" max="16384" width="12.77734375" style="35"/>
+    <col min="16" max="16384" width="12.81640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="40"/>
       <c r="B1" s="40"/>
       <c r="C1" s="109" t="s">
@@ -16637,7 +16646,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
         <v>261</v>
       </c>
@@ -17082,7 +17091,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="59" t="s">
         <v>137</v>
       </c>
@@ -17170,7 +17179,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="13" x14ac:dyDescent="0.3">
       <c r="A16" s="40" t="s">
         <v>262</v>
       </c>
@@ -17319,37 +17328,37 @@
         <v>1</v>
       </c>
       <c r="E20" s="115">
-        <v>0.9</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="F20" s="115">
-        <v>0.9</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="G20" s="115">
-        <v>0.9</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="H20" s="115">
-        <v>0.9</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="I20" s="115">
-        <v>0.9</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="J20" s="115">
-        <v>0.9</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="K20" s="115">
-        <v>0.9</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="L20" s="115">
-        <v>0.9</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="M20" s="115">
-        <v>0.9</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="N20" s="115">
-        <v>0.9</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="O20" s="115">
-        <v>0.9</v>
+        <v>0.97599999999999998</v>
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
@@ -17372,25 +17381,25 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D5" sqref="D5:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" style="35" customWidth="1"/>
-    <col min="2" max="2" width="27.21875" style="35" customWidth="1"/>
-    <col min="3" max="7" width="15.5546875" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.77734375" style="35"/>
+    <col min="1" max="1" width="21.36328125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="27.1796875" style="35" customWidth="1"/>
+    <col min="3" max="7" width="15.54296875" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.81640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="40"/>
       <c r="B1" s="127"/>
       <c r="C1" s="40" t="s">
@@ -17409,12 +17418,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B3" s="59" t="s">
         <v>67</v>
       </c>
@@ -17422,19 +17431,19 @@
         <v>1</v>
       </c>
       <c r="D3" s="115">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="E3" s="115">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="F3" s="115">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="G3" s="115">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A4" s="40" t="s">
         <v>264</v>
       </c>
@@ -17445,7 +17454,7 @@
       <c r="F4" s="135"/>
       <c r="G4" s="135"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B5" s="92" t="s">
         <v>183</v>
       </c>
@@ -17453,16 +17462,16 @@
         <v>1</v>
       </c>
       <c r="D5" s="115">
-        <v>0.14299999999999999</v>
+        <v>0.16</v>
       </c>
       <c r="E5" s="115">
-        <v>0.14299999999999999</v>
+        <v>0.16</v>
       </c>
       <c r="F5" s="115">
-        <v>0.14299999999999999</v>
+        <v>0.16</v>
       </c>
       <c r="G5" s="115">
-        <v>0.14299999999999999</v>
+        <v>0.16</v>
       </c>
     </row>
   </sheetData>
@@ -17473,30 +17482,30 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="111" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A2" zoomScale="111" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="52" customWidth="1"/>
-    <col min="2" max="2" width="30.5546875" style="52" customWidth="1"/>
-    <col min="3" max="3" width="24.77734375" style="52" customWidth="1"/>
+    <col min="2" max="2" width="30.54296875" style="52" customWidth="1"/>
+    <col min="3" max="3" width="24.81640625" style="52" customWidth="1"/>
     <col min="4" max="4" width="15" style="35" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" style="35" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" style="35" customWidth="1"/>
-    <col min="7" max="7" width="12.77734375" style="35"/>
-    <col min="8" max="8" width="17.5546875" style="35" customWidth="1"/>
-    <col min="9" max="16384" width="12.77734375" style="35"/>
+    <col min="5" max="5" width="13.6328125" style="35" customWidth="1"/>
+    <col min="6" max="6" width="14.453125" style="35" customWidth="1"/>
+    <col min="7" max="7" width="12.81640625" style="35"/>
+    <col min="8" max="8" width="17.54296875" style="35" customWidth="1"/>
+    <col min="9" max="16384" width="12.81640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -17522,7 +17531,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
         <v>28</v>
       </c>
@@ -17548,7 +17557,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C3" s="52" t="s">
         <v>268</v>
       </c>
@@ -17559,16 +17568,16 @@
         <v>0</v>
       </c>
       <c r="F3" s="115">
-        <v>0.53134328358208949</v>
+        <v>0.36</v>
       </c>
       <c r="G3" s="115">
-        <v>0.53134328358208949</v>
+        <v>0.36</v>
       </c>
       <c r="H3" s="115">
-        <v>0.53134328358208949</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C4" s="52" t="s">
         <v>269</v>
       </c>
@@ -17579,16 +17588,16 @@
         <v>0</v>
       </c>
       <c r="F4" s="115">
-        <v>0.38507462686567184</v>
+        <v>0.45</v>
       </c>
       <c r="G4" s="115">
-        <v>0.38507462686567184</v>
+        <v>0.45</v>
       </c>
       <c r="H4" s="115">
-        <v>0.38507462686567184</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A5" s="52" t="s">
         <v>58</v>
       </c>
@@ -17614,7 +17623,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C6" s="52" t="s">
         <v>269</v>
       </c>
@@ -17634,7 +17643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B7" s="52" t="s">
         <v>65</v>
       </c>
@@ -17657,7 +17666,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C8" s="52" t="s">
         <v>269</v>
       </c>
@@ -17677,7 +17686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
         <v>136</v>
       </c>
@@ -17703,7 +17712,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C10" s="52" t="s">
         <v>269</v>
       </c>
@@ -17723,7 +17732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B11" s="52" t="s">
         <v>65</v>
       </c>
@@ -17746,7 +17755,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C12" s="52" t="s">
         <v>269</v>
       </c>
@@ -17766,7 +17775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A13" s="52" t="s">
         <v>61</v>
       </c>
@@ -17783,16 +17792,16 @@
         <v>0</v>
       </c>
       <c r="F13" s="115">
-        <v>0.33500000000000002</v>
+        <v>0.8</v>
       </c>
       <c r="G13" s="115">
-        <v>0.33500000000000002</v>
+        <v>0.8</v>
       </c>
       <c r="H13" s="115">
-        <v>0.33500000000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C14" s="52" t="s">
         <v>269</v>
       </c>
@@ -17803,17 +17812,17 @@
         <v>0</v>
       </c>
       <c r="F14" s="115">
-        <v>0.7</v>
+        <v>0.85</v>
       </c>
       <c r="G14" s="115">
-        <v>0.62</v>
+        <v>0.85</v>
       </c>
       <c r="H14" s="115">
-        <v>0.62</v>
+        <v>0.85</v>
       </c>
       <c r="I14" s="36"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B15" s="52" t="s">
         <v>65</v>
       </c>
@@ -17827,17 +17836,17 @@
         <v>0</v>
       </c>
       <c r="F15" s="115">
-        <v>0.33500000000000002</v>
+        <v>0.8</v>
       </c>
       <c r="G15" s="115">
-        <v>0.33500000000000002</v>
+        <v>0.8</v>
       </c>
       <c r="H15" s="115">
-        <v>0.33500000000000002</v>
+        <v>0.8</v>
       </c>
       <c r="I15" s="36"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C16" s="52" t="s">
         <v>269</v>
       </c>
@@ -17848,17 +17857,17 @@
         <v>0</v>
       </c>
       <c r="F16" s="115">
-        <v>0.84</v>
+        <v>0.75</v>
       </c>
       <c r="G16" s="115">
-        <v>0.62</v>
+        <v>0.75</v>
       </c>
       <c r="H16" s="115">
-        <v>0.62</v>
+        <v>0.75</v>
       </c>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A17" s="52" t="s">
         <v>62</v>
       </c>
@@ -17885,12 +17894,12 @@
       </c>
       <c r="I17" s="36"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C18" s="52" t="s">
         <v>268</v>
       </c>
       <c r="D18" s="115">
-        <v>0.46</v>
+        <v>0.19</v>
       </c>
       <c r="E18" s="115">
         <v>0</v>
@@ -17906,7 +17915,7 @@
       </c>
       <c r="I18" s="36"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A19" s="52" t="s">
         <v>63</v>
       </c>
@@ -17932,12 +17941,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C20" s="52" t="s">
         <v>268</v>
       </c>
       <c r="D20" s="115">
-        <v>0.46</v>
+        <v>0.19</v>
       </c>
       <c r="E20" s="115">
         <v>0</v>
@@ -17952,7 +17961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A21" s="52" t="s">
         <v>64</v>
       </c>
@@ -17978,12 +17987,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C22" s="52" t="s">
         <v>268</v>
       </c>
       <c r="D22" s="115">
-        <v>0.46</v>
+        <v>0.19</v>
       </c>
       <c r="E22" s="115">
         <v>0</v>
@@ -17998,7 +18007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A23" s="52" t="s">
         <v>79</v>
       </c>
@@ -18024,7 +18033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C24" s="52" t="s">
         <v>268</v>
       </c>
@@ -18044,7 +18053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C25" s="52" t="s">
         <v>269</v>
       </c>
@@ -18064,7 +18073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A26" s="52" t="s">
         <v>80</v>
       </c>
@@ -18090,7 +18099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C27" s="52" t="s">
         <v>268</v>
       </c>
@@ -18110,7 +18119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C28" s="52" t="s">
         <v>269</v>
       </c>
@@ -18130,7 +18139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A29" s="52" t="s">
         <v>81</v>
       </c>
@@ -18156,7 +18165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C30" s="52" t="s">
         <v>268</v>
       </c>
@@ -18176,7 +18185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C31" s="52" t="s">
         <v>269</v>
       </c>
@@ -18196,7 +18205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A32" s="52" t="s">
         <v>82</v>
       </c>
@@ -18222,7 +18231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C33" s="52" t="s">
         <v>268</v>
       </c>
@@ -18242,7 +18251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C34" s="52" t="s">
         <v>269</v>
       </c>
@@ -18262,7 +18271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A35" s="52" t="s">
         <v>83</v>
       </c>
@@ -18288,7 +18297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C36" s="52" t="s">
         <v>268</v>
       </c>
@@ -18308,7 +18317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C37" s="52" t="s">
         <v>269</v>
       </c>
@@ -18328,7 +18337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A38" s="52" t="s">
         <v>60</v>
       </c>
@@ -18354,7 +18363,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C39" s="52" t="s">
         <v>268</v>
       </c>
@@ -18374,7 +18383,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C40" s="52" t="s">
         <v>269</v>
       </c>
@@ -18394,7 +18403,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B41" s="52" t="s">
         <v>16</v>
       </c>
@@ -18417,7 +18426,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C42" s="52" t="s">
         <v>268</v>
       </c>
@@ -18437,27 +18446,27 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C43" s="52" t="s">
         <v>269</v>
       </c>
       <c r="D43" s="115">
-        <v>0.52</v>
+        <v>0.63</v>
       </c>
       <c r="E43" s="115">
-        <v>0.52</v>
+        <v>0.63</v>
       </c>
       <c r="F43" s="115">
-        <v>0.52</v>
+        <v>0.63</v>
       </c>
       <c r="G43" s="115">
-        <v>0.52</v>
+        <v>0.63</v>
       </c>
       <c r="H43" s="115">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A44" s="52" t="s">
         <v>84</v>
       </c>
@@ -18483,27 +18492,27 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C45" s="52" t="s">
         <v>268</v>
       </c>
       <c r="D45" s="115">
-        <v>0.93</v>
+        <v>0.8</v>
       </c>
       <c r="E45" s="115">
-        <v>0.93</v>
+        <v>0.8</v>
       </c>
       <c r="F45" s="115">
-        <v>0.93</v>
+        <v>0.8</v>
       </c>
       <c r="G45" s="115">
-        <v>0.93</v>
+        <v>0.8</v>
       </c>
       <c r="H45" s="115">
-        <v>0.93</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A46" s="52" t="s">
         <v>85</v>
       </c>
@@ -18529,27 +18538,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C47" s="52" t="s">
         <v>268</v>
       </c>
       <c r="D47" s="115">
-        <v>0.86</v>
+        <v>0.76</v>
       </c>
       <c r="E47" s="115">
-        <v>0.86</v>
+        <v>0.76</v>
       </c>
       <c r="F47" s="115">
-        <v>0.86</v>
+        <v>0.76</v>
       </c>
       <c r="G47" s="115">
-        <v>0.86</v>
+        <v>0.76</v>
       </c>
       <c r="H47" s="115">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A48" s="52" t="s">
         <v>195</v>
       </c>
@@ -18563,7 +18572,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="E48" s="115">
-        <v>0.57999999999999996</v>
+        <v>0</v>
       </c>
       <c r="F48" s="115">
         <v>0</v>
@@ -18575,15 +18584,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C49" s="52" t="s">
         <v>268</v>
       </c>
       <c r="D49" s="115">
-        <v>0.51</v>
+        <v>0.88</v>
       </c>
       <c r="E49" s="115">
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="F49" s="115">
         <v>0</v>
@@ -18603,26 +18612,26 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D7" sqref="D7:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" style="35" customWidth="1"/>
-    <col min="2" max="2" width="27.44140625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" style="35" customWidth="1"/>
-    <col min="4" max="7" width="17.21875" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.77734375" style="35"/>
+    <col min="2" max="2" width="27.453125" style="35" customWidth="1"/>
+    <col min="3" max="3" width="23.6328125" style="35" customWidth="1"/>
+    <col min="4" max="7" width="17.1796875" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.81640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="127" t="s">
         <v>69</v>
       </c>
@@ -18644,7 +18653,7 @@
       </c>
       <c r="H1" s="98"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
         <v>86</v>
       </c>
@@ -18668,7 +18677,7 @@
       </c>
       <c r="H2" s="92"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C3" s="35" t="s">
         <v>268</v>
       </c>
@@ -18686,7 +18695,7 @@
       </c>
       <c r="H3" s="136"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A4" s="43" t="s">
         <v>87</v>
       </c>
@@ -18710,7 +18719,7 @@
       </c>
       <c r="H4" s="136"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A5" s="36"/>
       <c r="C5" s="35" t="s">
         <v>268</v>
@@ -18729,7 +18738,7 @@
       </c>
       <c r="H5" s="92"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A6" s="43" t="s">
         <v>88</v>
       </c>
@@ -18753,22 +18762,22 @@
       </c>
       <c r="H6" s="92"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A7" s="36"/>
       <c r="C7" s="35" t="s">
         <v>268</v>
       </c>
       <c r="D7" s="115">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="E7" s="115">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="F7" s="115">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="G7" s="115">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="H7" s="136"/>
     </row>
@@ -18779,7 +18788,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FF007600"/>
   </sheetPr>
@@ -18789,14 +18798,14 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.109375" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16.08984375" customWidth="1"/>
+    <col min="2" max="2" width="31.36328125" customWidth="1"/>
     <col min="3" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="str">
         <f>"Percentage of deaths in baseline year ("&amp;start_year&amp;") attributable to cause"</f>
         <v>Percentage of deaths in baseline year (2017) attributable to cause</v>
@@ -18807,7 +18816,7 @@
       <c r="E1" s="41"/>
       <c r="F1" s="41"/>
     </row>
-    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>210</v>
       </c>
@@ -18906,7 +18915,7 @@
       <c r="G12" s="24"/>
       <c r="H12" s="24"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>31</v>
       </c>
@@ -19112,7 +19121,7 @@
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -19218,7 +19227,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor rgb="FF007600"/>
   </sheetPr>
@@ -19228,13 +19237,13 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.44140625" customWidth="1"/>
+    <col min="1" max="1" width="31.453125" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="str">
         <f>"Percentage of population in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of population in each category in baseline year (2017)</v>
@@ -19645,7 +19654,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor rgb="FF007600"/>
   </sheetPr>
@@ -19655,13 +19664,13 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.77734375" customWidth="1"/>
-    <col min="2" max="7" width="13.44140625" customWidth="1"/>
+    <col min="1" max="1" width="28.81640625" customWidth="1"/>
+    <col min="2" max="7" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="str">
         <f>"Percentage of children in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of children in each category in baseline year (2017)</v>
@@ -19781,7 +19790,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor rgb="FF007600"/>
   </sheetPr>
@@ -19791,13 +19800,13 @@
       <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="29.44140625" customWidth="1"/>
+    <col min="2" max="2" width="29.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>138</v>
       </c>
@@ -19847,7 +19856,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>139</v>
       </c>
@@ -19874,10 +19883,10 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B3" s="14"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>140</v>
       </c>
@@ -19906,10 +19915,10 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B5" s="14"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>141</v>
       </c>
@@ -19936,7 +19945,7 @@
         <v>0.17299999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
         <v>32</v>
       </c>
@@ -19960,7 +19969,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
         <v>144</v>
       </c>
@@ -19984,7 +19993,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>142</v>
       </c>
@@ -20013,7 +20022,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B11" s="34" t="s">
         <v>146</v>
       </c>
@@ -20037,7 +20046,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>74</v>
       </c>
@@ -20066,7 +20075,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
         <v>170</v>
       </c>
@@ -20095,7 +20104,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
@@ -20105,15 +20114,15 @@
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="35" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="11.44140625" style="35"/>
+    <col min="2" max="2" width="19.08984375" style="35" customWidth="1"/>
+    <col min="3" max="3" width="13.453125" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="11.453125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="50" t="s">
         <v>178</v>
       </c>
@@ -20130,7 +20139,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="49" t="s">
         <v>173</v>
       </c>
@@ -20144,7 +20153,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A3" s="47"/>
       <c r="B3" s="46" t="s">
         <v>1</v>
@@ -20158,7 +20167,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A4" s="47"/>
       <c r="B4" s="46" t="s">
         <v>2</v>
@@ -20172,7 +20181,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A5" s="47"/>
       <c r="B5" s="46" t="s">
         <v>3</v>
@@ -20186,7 +20195,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A6" s="47"/>
       <c r="B6" s="46" t="s">
         <v>4</v>
@@ -20200,7 +20209,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A7" s="47"/>
       <c r="B7" s="46" t="s">
         <v>172</v>
@@ -20209,7 +20218,7 @@
       <c r="D7" s="44"/>
       <c r="E7" s="80"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A9" s="49" t="s">
         <v>198</v>
       </c>
@@ -20225,7 +20234,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A10" s="47"/>
       <c r="B10" s="46" t="s">
         <v>1</v>
@@ -20237,7 +20246,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A11" s="47"/>
       <c r="B11" s="46" t="s">
         <v>2</v>
@@ -20249,7 +20258,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A12" s="47"/>
       <c r="B12" s="46" t="s">
         <v>3</v>
@@ -20261,7 +20270,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A13" s="47"/>
       <c r="B13" s="46" t="s">
         <v>4</v>
@@ -20273,7 +20282,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A14" s="47"/>
       <c r="B14" s="46" t="s">
         <v>172</v>
@@ -20282,7 +20291,7 @@
       <c r="D14" s="44"/>
       <c r="E14" s="80"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A16" s="49" t="s">
         <v>199</v>
       </c>
@@ -20298,7 +20307,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A17" s="47"/>
       <c r="B17" s="46" t="s">
         <v>1</v>
@@ -20312,7 +20321,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A18" s="47"/>
       <c r="B18" s="46" t="s">
         <v>2</v>
@@ -20326,7 +20335,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A19" s="47"/>
       <c r="B19" s="46" t="s">
         <v>3</v>
@@ -20340,7 +20349,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A20" s="47"/>
       <c r="B20" s="46" t="s">
         <v>4</v>
@@ -20354,7 +20363,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A21" s="47"/>
       <c r="B21" s="46" t="s">
         <v>172</v>
@@ -20371,7 +20380,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
@@ -20381,15 +20390,15 @@
       <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" customWidth="1"/>
+    <col min="1" max="1" width="15.6328125" customWidth="1"/>
+    <col min="2" max="2" width="15.453125" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" customWidth="1"/>
+    <col min="4" max="4" width="12.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="60" t="s">
         <v>164</v>
       </c>
@@ -20403,7 +20412,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="61" t="s">
         <v>69</v>
       </c>
@@ -20415,7 +20424,7 @@
       </c>
       <c r="D2" s="80"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A3" s="61" t="s">
         <v>185</v>
       </c>
@@ -20434,7 +20443,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
@@ -20444,17 +20453,17 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="56" style="52" customWidth="1"/>
     <col min="2" max="2" width="20" style="36" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" style="35" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" style="35" customWidth="1"/>
-    <col min="5" max="5" width="32.33203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="14.44140625" style="35"/>
+    <col min="3" max="3" width="20.453125" style="35" customWidth="1"/>
+    <col min="4" max="4" width="20.08984375" style="35" customWidth="1"/>
+    <col min="5" max="5" width="32.36328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="14.453125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="54" t="s">
         <v>69</v>
       </c>
@@ -20744,7 +20753,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="52" t="s">
         <v>173</v>
       </c>
@@ -21107,7 +21116,7 @@
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="zGqGWUHks9r73YYvhtsA/6n2sxkq6NyOLMnszdwkuYHRGc3RAKyH9yLxkOwoypM6IGMaCGHxxq0vP7rXnZY93w==" saltValue="sA5n05NYbI4nfIN6wumz0A==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
-  <sortState ref="A2:D38">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D38">
     <sortCondition ref="A2:A38"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -21116,7 +21125,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0800-000000000000}">
           <x14:formula1>
             <xm:f>'Cost curve options'!$A$1:$A$4</xm:f>
           </x14:formula1>

--- a/inputs/demo_region2_input.xlsx
+++ b/inputs/demo_region2_input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dominic.delport\Documents\GitHub\Nutrition\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A99ABC-1943-4986-B677-B34E5AD2034D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E61009-2075-4706-909C-C7E4728912DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="961" firstSheet="5" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,8 @@
     <sheet name="Nutritional status distribution" sheetId="5" r:id="rId4"/>
     <sheet name="Breastfeeding distribution" sheetId="50" r:id="rId5"/>
     <sheet name="Time trends" sheetId="51" r:id="rId6"/>
-    <sheet name="IYCF packages" sheetId="55" r:id="rId7"/>
-    <sheet name="Treatment of SAM" sheetId="60" r:id="rId8"/>
+    <sheet name="Treatment of SAM" sheetId="60" r:id="rId7"/>
+    <sheet name="IYCF packages" sheetId="55" r:id="rId8"/>
     <sheet name="Programs cost and coverage" sheetId="56" r:id="rId9"/>
     <sheet name="Program dependencies" sheetId="58" r:id="rId10"/>
     <sheet name="Reference programs" sheetId="59" state="hidden" r:id="rId11"/>
@@ -43,7 +43,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">'Birth outcome risks'!$A$1:$F$7</definedName>
-    <definedName name="abortion" localSheetId="6">'Baseline year population inputs'!$C$38</definedName>
+    <definedName name="abortion" localSheetId="7">'Baseline year population inputs'!$C$38</definedName>
     <definedName name="abortion">'Baseline year population inputs'!$C$41</definedName>
     <definedName name="comm_deliv">'Treatment of SAM'!$D$3</definedName>
     <definedName name="diarrhoea_1_5mo">'Baseline year population inputs'!$C$52</definedName>
@@ -85,7 +85,7 @@
     <definedName name="preterm_SGA">'Baseline year population inputs'!$C$45</definedName>
     <definedName name="school_attendance">'Baseline year population inputs'!$C$10</definedName>
     <definedName name="start_year">'Baseline year population inputs'!$C$3</definedName>
-    <definedName name="stillbirth" localSheetId="6">'Baseline year population inputs'!$C$39</definedName>
+    <definedName name="stillbirth" localSheetId="7">'Baseline year population inputs'!$C$39</definedName>
     <definedName name="stillbirth">'Baseline year population inputs'!$C$42</definedName>
     <definedName name="term_AGA">'Baseline year population inputs'!$C$48</definedName>
     <definedName name="term_SGA">'Baseline year population inputs'!$C$47</definedName>
@@ -465,7 +465,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="272">
   <si>
     <t>year</t>
   </si>
@@ -1275,6 +1275,12 @@
   </si>
   <si>
     <t>Effectiveness incidence</t>
+  </si>
+  <si>
+    <t>Prevalence of pre-eclampsia</t>
+  </si>
+  <si>
+    <t>Prevalence of eclampsia</t>
   </si>
 </sst>
 </file>
@@ -4799,8 +4805,8 @@
   </sheetPr>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37:C39"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5239,11 +5245,27 @@
         <v>0.42</v>
       </c>
     </row>
+    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="C60" s="66">
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="C61" s="66">
+        <v>1.4E-2</v>
+      </c>
+    </row>
     <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="+9Suyn/yJ+/EM7RUr1qMTZHSm3U+1uIXMhBD+aAA0nDfN+v1Ow0ayqKqCzynFsdpKs9kZ/CGKHW0UdUKuuKSyQ==" saltValue="FmZd7+5MfNCaF4Xf/vChWg==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
@@ -5279,7 +5301,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="83" t="s">
         <v>187</v>
       </c>
@@ -5288,7 +5310,7 @@
       </c>
       <c r="C2" s="80"/>
     </row>
-    <row r="3" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="83" t="s">
         <v>208</v>
       </c>
@@ -5297,7 +5319,7 @@
       </c>
       <c r="C3" s="80"/>
     </row>
-    <row r="4" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="84" t="s">
         <v>58</v>
       </c>
@@ -5306,7 +5328,7 @@
       </c>
       <c r="C4" s="80"/>
     </row>
-    <row r="5" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="84" t="s">
         <v>137</v>
       </c>
@@ -5315,77 +5337,77 @@
       </c>
       <c r="C5" s="80"/>
     </row>
-    <row r="6" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="84"/>
       <c r="B6" s="85"/>
       <c r="C6" s="85"/>
     </row>
-    <row r="7" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="84"/>
       <c r="B7" s="85"/>
       <c r="C7" s="85"/>
     </row>
-    <row r="8" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="84"/>
       <c r="B8" s="85"/>
       <c r="C8" s="85"/>
     </row>
-    <row r="9" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="84"/>
       <c r="B9" s="85"/>
       <c r="C9" s="85"/>
     </row>
-    <row r="10" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="84"/>
       <c r="B10" s="85"/>
       <c r="C10" s="85"/>
     </row>
-    <row r="11" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="86"/>
       <c r="B11" s="85"/>
       <c r="C11" s="85"/>
     </row>
-    <row r="12" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="86"/>
       <c r="B12" s="85"/>
       <c r="C12" s="85"/>
     </row>
-    <row r="13" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="86"/>
       <c r="B13" s="85"/>
       <c r="C13" s="85"/>
     </row>
-    <row r="14" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="86"/>
       <c r="B14" s="85"/>
       <c r="C14" s="85"/>
     </row>
-    <row r="15" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="86"/>
       <c r="B15" s="85"/>
       <c r="C15" s="85"/>
     </row>
-    <row r="16" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="86"/>
       <c r="B16" s="85"/>
       <c r="C16" s="85"/>
     </row>
-    <row r="17" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="86"/>
       <c r="B17" s="85"/>
       <c r="C17" s="85"/>
     </row>
-    <row r="18" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="86"/>
       <c r="B18" s="85"/>
       <c r="C18" s="85"/>
     </row>
-    <row r="19" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="84"/>
       <c r="B19" s="85"/>
       <c r="C19" s="85"/>
     </row>
-    <row r="20" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="84"/>
       <c r="B20" s="85"/>
       <c r="C20" s="85"/>
@@ -5420,74 +5442,74 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="48" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="48" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="48" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="48" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="48" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="48" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="48" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="48"/>
     </row>
-    <row r="11" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="48"/>
     </row>
-    <row r="12" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="48"/>
     </row>
-    <row r="13" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="48"/>
     </row>
-    <row r="14" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="48"/>
     </row>
-    <row r="15" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="48"/>
     </row>
-    <row r="16" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="48"/>
     </row>
-    <row r="17" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="48"/>
     </row>
-    <row r="18" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="48"/>
     </row>
-    <row r="19" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="48"/>
     </row>
   </sheetData>
@@ -5617,7 +5639,7 @@
   </sheetPr>
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
       <selection activeCell="C29" activeCellId="3" sqref="C2:O12 C14:O21 C23:O27 C29:O38"/>
     </sheetView>
   </sheetViews>
@@ -9401,7 +9423,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
         <v>29</v>
       </c>
@@ -9418,7 +9440,7 @@
       <c r="J2" s="90"/>
       <c r="K2" s="90"/>
     </row>
-    <row r="3" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="52" t="s">
         <v>86</v>
       </c>
@@ -9435,7 +9457,7 @@
       <c r="J3" s="90"/>
       <c r="K3" s="90"/>
     </row>
-    <row r="4" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="52" t="s">
         <v>61</v>
       </c>
@@ -9452,7 +9474,7 @@
       <c r="J4" s="90"/>
       <c r="K4" s="90"/>
     </row>
-    <row r="5" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="52" t="s">
         <v>149</v>
       </c>
@@ -9469,7 +9491,7 @@
       <c r="J5" s="90"/>
       <c r="K5" s="90"/>
     </row>
-    <row r="6" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="52" t="s">
         <v>197</v>
       </c>
@@ -9488,7 +9510,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="52" t="s">
         <v>63</v>
       </c>
@@ -9507,7 +9529,7 @@
       <c r="J7" s="90"/>
       <c r="K7" s="90"/>
     </row>
-    <row r="8" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="52" t="s">
         <v>64</v>
       </c>
@@ -9526,7 +9548,7 @@
       <c r="J8" s="90"/>
       <c r="K8" s="90"/>
     </row>
-    <row r="9" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
         <v>62</v>
       </c>
@@ -9545,7 +9567,7 @@
       <c r="J9" s="90"/>
       <c r="K9" s="90"/>
     </row>
-    <row r="10" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="59" t="s">
         <v>188</v>
       </c>
@@ -9562,7 +9584,7 @@
       <c r="J10" s="90"/>
       <c r="K10" s="90"/>
     </row>
-    <row r="11" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="59" t="s">
         <v>207</v>
       </c>
@@ -9579,7 +9601,7 @@
       <c r="J11" s="90"/>
       <c r="K11" s="90"/>
     </row>
-    <row r="12" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="59" t="s">
         <v>189</v>
       </c>
@@ -9596,7 +9618,7 @@
       <c r="J12" s="90"/>
       <c r="K12" s="90"/>
     </row>
-    <row r="13" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="59" t="s">
         <v>190</v>
       </c>
@@ -9613,7 +9635,7 @@
       <c r="J13" s="90"/>
       <c r="K13" s="90"/>
     </row>
-    <row r="14" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="92" t="s">
         <v>187</v>
       </c>
@@ -9632,7 +9654,7 @@
       <c r="J14" s="90"/>
       <c r="K14" s="90"/>
     </row>
-    <row r="15" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="92" t="s">
         <v>208</v>
       </c>
@@ -9651,7 +9673,7 @@
       <c r="J15" s="90"/>
       <c r="K15" s="90"/>
     </row>
-    <row r="16" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="52" t="s">
         <v>57</v>
       </c>
@@ -9672,7 +9694,7 @@
       <c r="J16" s="90"/>
       <c r="K16" s="90"/>
     </row>
-    <row r="17" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="52" t="s">
         <v>47</v>
       </c>
@@ -9689,7 +9711,7 @@
       <c r="J17" s="90"/>
       <c r="K17" s="90"/>
     </row>
-    <row r="18" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="52" t="s">
         <v>173</v>
       </c>
@@ -9708,7 +9730,7 @@
       <c r="J18" s="90"/>
       <c r="K18" s="90"/>
     </row>
-    <row r="19" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="52" t="s">
         <v>198</v>
       </c>
@@ -9727,7 +9749,7 @@
       <c r="J19" s="90"/>
       <c r="K19" s="90"/>
     </row>
-    <row r="20" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="52" t="s">
         <v>199</v>
       </c>
@@ -9746,7 +9768,7 @@
       <c r="J20" s="90"/>
       <c r="K20" s="90"/>
     </row>
-    <row r="21" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="52" t="s">
         <v>195</v>
       </c>
@@ -9765,7 +9787,7 @@
       <c r="J21" s="90"/>
       <c r="K21" s="90"/>
     </row>
-    <row r="22" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="52" t="s">
         <v>136</v>
       </c>
@@ -9786,7 +9808,7 @@
       <c r="J22" s="90"/>
       <c r="K22" s="90"/>
     </row>
-    <row r="23" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="52" t="s">
         <v>34</v>
       </c>
@@ -9805,7 +9827,7 @@
       <c r="J23" s="90"/>
       <c r="K23" s="90"/>
     </row>
-    <row r="24" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="52" t="s">
         <v>88</v>
       </c>
@@ -9822,7 +9844,7 @@
       <c r="J24" s="90"/>
       <c r="K24" s="90"/>
     </row>
-    <row r="25" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="52" t="s">
         <v>87</v>
       </c>
@@ -9839,7 +9861,7 @@
       <c r="J25" s="90"/>
       <c r="K25" s="90"/>
     </row>
-    <row r="26" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="52" t="s">
         <v>137</v>
       </c>
@@ -9856,7 +9878,7 @@
       <c r="J26" s="90"/>
       <c r="K26" s="90"/>
     </row>
-    <row r="27" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="52" t="s">
         <v>59</v>
       </c>
@@ -9875,7 +9897,7 @@
       <c r="J27" s="90"/>
       <c r="K27" s="90"/>
     </row>
-    <row r="28" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="52" t="s">
         <v>84</v>
       </c>
@@ -9892,7 +9914,7 @@
       <c r="J28" s="90"/>
       <c r="K28" s="90"/>
     </row>
-    <row r="29" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="52" t="s">
         <v>58</v>
       </c>
@@ -9911,7 +9933,7 @@
       <c r="J29" s="90"/>
       <c r="K29" s="90"/>
     </row>
-    <row r="30" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="52" t="s">
         <v>67</v>
       </c>
@@ -9928,7 +9950,7 @@
       <c r="J30" s="90"/>
       <c r="K30" s="90"/>
     </row>
-    <row r="31" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="52" t="s">
         <v>28</v>
       </c>
@@ -9947,7 +9969,7 @@
       <c r="J31" s="90"/>
       <c r="K31" s="90"/>
     </row>
-    <row r="32" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="52" t="s">
         <v>83</v>
       </c>
@@ -9966,7 +9988,7 @@
       <c r="J32" s="90"/>
       <c r="K32" s="90"/>
     </row>
-    <row r="33" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="52" t="s">
         <v>82</v>
       </c>
@@ -9985,7 +10007,7 @@
       <c r="J33" s="90"/>
       <c r="K33" s="90"/>
     </row>
-    <row r="34" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="52" t="s">
         <v>81</v>
       </c>
@@ -10004,7 +10026,7 @@
       <c r="J34" s="90"/>
       <c r="K34" s="90"/>
     </row>
-    <row r="35" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="52" t="s">
         <v>79</v>
       </c>
@@ -10023,7 +10045,7 @@
       <c r="J35" s="90"/>
       <c r="K35" s="90"/>
     </row>
-    <row r="36" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="52" t="s">
         <v>80</v>
       </c>
@@ -10042,7 +10064,7 @@
       <c r="J36" s="90"/>
       <c r="K36" s="90"/>
     </row>
-    <row r="37" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="52" t="s">
         <v>85</v>
       </c>
@@ -10059,7 +10081,7 @@
       <c r="J37" s="90"/>
       <c r="K37" s="90"/>
     </row>
-    <row r="38" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="52" t="s">
         <v>60</v>
       </c>
@@ -10147,7 +10169,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
@@ -10176,7 +10198,7 @@
       <c r="J2" s="90"/>
       <c r="K2" s="90"/>
     </row>
-    <row r="3" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
@@ -10205,7 +10227,7 @@
       <c r="J3" s="90"/>
       <c r="K3" s="90"/>
     </row>
-    <row r="4" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
         <v>3</v>
       </c>
@@ -10234,7 +10256,7 @@
       <c r="J4" s="90"/>
       <c r="K4" s="90"/>
     </row>
-    <row r="5" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
         <v>4</v>
       </c>
@@ -10263,7 +10285,7 @@
       <c r="J5" s="90"/>
       <c r="K5" s="90"/>
     </row>
-    <row r="6" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
         <v>5</v>
       </c>
@@ -10292,7 +10314,7 @@
       <c r="J6" s="90"/>
       <c r="K6" s="90"/>
     </row>
-    <row r="7" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
         <v>53</v>
       </c>
@@ -10313,7 +10335,7 @@
       <c r="J7" s="90"/>
       <c r="K7" s="90"/>
     </row>
-    <row r="8" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
         <v>54</v>
       </c>
@@ -10334,7 +10356,7 @@
       <c r="J8" s="90"/>
       <c r="K8" s="90"/>
     </row>
-    <row r="9" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
         <v>55</v>
       </c>
@@ -10355,7 +10377,7 @@
       <c r="J9" s="90"/>
       <c r="K9" s="90"/>
     </row>
-    <row r="10" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
         <v>56</v>
       </c>
@@ -10376,7 +10398,7 @@
       <c r="J10" s="90"/>
       <c r="K10" s="90"/>
     </row>
-    <row r="11" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
         <v>49</v>
       </c>
@@ -10397,7 +10419,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
         <v>50</v>
       </c>
@@ -10416,7 +10438,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="35" t="s">
         <v>51</v>
       </c>
@@ -10435,7 +10457,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="35" t="s">
         <v>52</v>
       </c>
@@ -10531,7 +10553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="137"/>
       <c r="C3" s="35" t="s">
         <v>175</v>
@@ -10553,7 +10575,7 @@
       </c>
       <c r="J3" s="100"/>
     </row>
-    <row r="4" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="137"/>
       <c r="C4" s="35" t="s">
         <v>174</v>
@@ -10575,7 +10597,7 @@
       </c>
       <c r="J4" s="100"/>
     </row>
-    <row r="5" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="137" t="s">
         <v>1</v>
       </c>
@@ -10599,7 +10621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="137"/>
       <c r="C6" s="35" t="s">
         <v>175</v>
@@ -10620,7 +10642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="137"/>
       <c r="C7" s="35" t="s">
         <v>174</v>
@@ -10641,7 +10663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="137" t="s">
         <v>2</v>
       </c>
@@ -10664,7 +10686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="137"/>
       <c r="C9" s="35" t="s">
         <v>175</v>
@@ -10685,7 +10707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="137"/>
       <c r="C10" s="35" t="s">
         <v>174</v>
@@ -10706,7 +10728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="137" t="s">
         <v>3</v>
       </c>
@@ -10729,7 +10751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="137"/>
       <c r="C12" s="35" t="s">
         <v>175</v>
@@ -10750,7 +10772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="137"/>
       <c r="C13" s="35" t="s">
         <v>174</v>
@@ -10771,7 +10793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="137" t="s">
         <v>4</v>
       </c>
@@ -10794,7 +10816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="137"/>
       <c r="C15" s="35" t="s">
         <v>175</v>
@@ -10815,7 +10837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="137"/>
       <c r="C16" s="35" t="s">
         <v>174</v>
@@ -10859,7 +10881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D18" s="102"/>
       <c r="E18" s="102"/>
       <c r="F18" s="102"/>
@@ -10892,7 +10914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B20" s="137"/>
       <c r="C20" s="35" t="s">
         <v>175</v>
@@ -10913,7 +10935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B21" s="137"/>
       <c r="C21" s="35" t="s">
         <v>174</v>
@@ -10934,7 +10956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B22" s="137" t="s">
         <v>1</v>
       </c>
@@ -10957,7 +10979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23" s="137"/>
       <c r="C23" s="35" t="s">
         <v>175</v>
@@ -10978,7 +11000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B24" s="137"/>
       <c r="C24" s="35" t="s">
         <v>174</v>
@@ -10999,7 +11021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25" s="137" t="s">
         <v>2</v>
       </c>
@@ -11022,7 +11044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B26" s="137"/>
       <c r="C26" s="35" t="s">
         <v>175</v>
@@ -11043,7 +11065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27" s="137"/>
       <c r="C27" s="35" t="s">
         <v>174</v>
@@ -11064,7 +11086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28" s="137" t="s">
         <v>3</v>
       </c>
@@ -11087,7 +11109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B29" s="137"/>
       <c r="C29" s="35" t="s">
         <v>175</v>
@@ -11108,7 +11130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B30" s="137"/>
       <c r="C30" s="35" t="s">
         <v>174</v>
@@ -11129,7 +11151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B31" s="137" t="s">
         <v>4</v>
       </c>
@@ -11152,7 +11174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B32" s="137"/>
       <c r="C32" s="35" t="s">
         <v>175</v>
@@ -11173,7 +11195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B33" s="137"/>
       <c r="C33" s="35" t="s">
         <v>174</v>
@@ -11217,7 +11239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D35" s="102"/>
       <c r="E35" s="102"/>
       <c r="F35" s="102"/>
@@ -11250,7 +11272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B37" s="137"/>
       <c r="C37" s="35" t="s">
         <v>175</v>
@@ -11271,7 +11293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B38" s="137"/>
       <c r="C38" s="35" t="s">
         <v>174</v>
@@ -11292,7 +11314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B39" s="137" t="s">
         <v>1</v>
       </c>
@@ -11315,7 +11337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B40" s="137"/>
       <c r="C40" s="35" t="s">
         <v>175</v>
@@ -11336,7 +11358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B41" s="137"/>
       <c r="C41" s="35" t="s">
         <v>174</v>
@@ -11357,7 +11379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B42" s="137" t="s">
         <v>2</v>
       </c>
@@ -11380,7 +11402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B43" s="137"/>
       <c r="C43" s="35" t="s">
         <v>175</v>
@@ -11401,7 +11423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B44" s="137"/>
       <c r="C44" s="35" t="s">
         <v>174</v>
@@ -11422,7 +11444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B45" s="137" t="s">
         <v>3</v>
       </c>
@@ -11445,7 +11467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B46" s="137"/>
       <c r="C46" s="35" t="s">
         <v>175</v>
@@ -11466,7 +11488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B47" s="137"/>
       <c r="C47" s="35" t="s">
         <v>174</v>
@@ -11487,7 +11509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B48" s="137" t="s">
         <v>4</v>
       </c>
@@ -11510,7 +11532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="137"/>
       <c r="C49" s="35" t="s">
         <v>175</v>
@@ -11531,7 +11553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="137"/>
       <c r="C50" s="35" t="s">
         <v>174</v>
@@ -11578,6 +11600,12 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BiU9BXNF+INgNxSFtHuqKvDgOHy4i8LHe4WBopPE5oAPe1uu8rzbQfKL4uxCQ4dbx+6qcxc95feCcYk3II7eJw==" saltValue="oFkUqZTkt+d2Svo646TgPw==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -11587,12 +11615,6 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -17423,7 +17445,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="59" t="s">
         <v>67</v>
       </c>
@@ -17454,7 +17476,7 @@
       <c r="F4" s="135"/>
       <c r="G4" s="135"/>
     </row>
-    <row r="5" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="92" t="s">
         <v>183</v>
       </c>
@@ -17531,7 +17553,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
         <v>28</v>
       </c>
@@ -17557,7 +17579,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C3" s="52" t="s">
         <v>268</v>
       </c>
@@ -17577,7 +17599,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C4" s="52" t="s">
         <v>269</v>
       </c>
@@ -17597,7 +17619,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="52" t="s">
         <v>58</v>
       </c>
@@ -17623,7 +17645,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C6" s="52" t="s">
         <v>269</v>
       </c>
@@ -17643,7 +17665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="52" t="s">
         <v>65</v>
       </c>
@@ -17666,7 +17688,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C8" s="52" t="s">
         <v>269</v>
       </c>
@@ -17686,7 +17708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
         <v>136</v>
       </c>
@@ -17712,7 +17734,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C10" s="52" t="s">
         <v>269</v>
       </c>
@@ -17732,7 +17754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="52" t="s">
         <v>65</v>
       </c>
@@ -17755,7 +17777,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C12" s="52" t="s">
         <v>269</v>
       </c>
@@ -17775,7 +17797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="52" t="s">
         <v>61</v>
       </c>
@@ -17801,7 +17823,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C14" s="52" t="s">
         <v>269</v>
       </c>
@@ -17822,7 +17844,7 @@
       </c>
       <c r="I14" s="36"/>
     </row>
-    <row r="15" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="52" t="s">
         <v>65</v>
       </c>
@@ -17846,7 +17868,7 @@
       </c>
       <c r="I15" s="36"/>
     </row>
-    <row r="16" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C16" s="52" t="s">
         <v>269</v>
       </c>
@@ -17867,7 +17889,7 @@
       </c>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="52" t="s">
         <v>62</v>
       </c>
@@ -17894,7 +17916,7 @@
       </c>
       <c r="I17" s="36"/>
     </row>
-    <row r="18" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C18" s="52" t="s">
         <v>268</v>
       </c>
@@ -17915,7 +17937,7 @@
       </c>
       <c r="I18" s="36"/>
     </row>
-    <row r="19" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="52" t="s">
         <v>63</v>
       </c>
@@ -17941,7 +17963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C20" s="52" t="s">
         <v>268</v>
       </c>
@@ -17961,7 +17983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="52" t="s">
         <v>64</v>
       </c>
@@ -17987,7 +18009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C22" s="52" t="s">
         <v>268</v>
       </c>
@@ -18007,7 +18029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="52" t="s">
         <v>79</v>
       </c>
@@ -18033,7 +18055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C24" s="52" t="s">
         <v>268</v>
       </c>
@@ -18053,7 +18075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C25" s="52" t="s">
         <v>269</v>
       </c>
@@ -18073,7 +18095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="52" t="s">
         <v>80</v>
       </c>
@@ -18099,7 +18121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C27" s="52" t="s">
         <v>268</v>
       </c>
@@ -18119,7 +18141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C28" s="52" t="s">
         <v>269</v>
       </c>
@@ -18139,7 +18161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="52" t="s">
         <v>81</v>
       </c>
@@ -18165,7 +18187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C30" s="52" t="s">
         <v>268</v>
       </c>
@@ -18185,7 +18207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C31" s="52" t="s">
         <v>269</v>
       </c>
@@ -18205,7 +18227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="52" t="s">
         <v>82</v>
       </c>
@@ -18231,7 +18253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C33" s="52" t="s">
         <v>268</v>
       </c>
@@ -18251,7 +18273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C34" s="52" t="s">
         <v>269</v>
       </c>
@@ -18271,7 +18293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="52" t="s">
         <v>83</v>
       </c>
@@ -18297,7 +18319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C36" s="52" t="s">
         <v>268</v>
       </c>
@@ -18317,7 +18339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C37" s="52" t="s">
         <v>269</v>
       </c>
@@ -18337,7 +18359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="52" t="s">
         <v>60</v>
       </c>
@@ -18363,7 +18385,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C39" s="52" t="s">
         <v>268</v>
       </c>
@@ -18383,7 +18405,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C40" s="52" t="s">
         <v>269</v>
       </c>
@@ -18403,7 +18425,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B41" s="52" t="s">
         <v>16</v>
       </c>
@@ -18426,7 +18448,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C42" s="52" t="s">
         <v>268</v>
       </c>
@@ -18446,7 +18468,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C43" s="52" t="s">
         <v>269</v>
       </c>
@@ -18466,7 +18488,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="52" t="s">
         <v>84</v>
       </c>
@@ -18492,7 +18514,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C45" s="52" t="s">
         <v>268</v>
       </c>
@@ -18512,7 +18534,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="52" t="s">
         <v>85</v>
       </c>
@@ -18538,7 +18560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C47" s="52" t="s">
         <v>268</v>
       </c>
@@ -18558,7 +18580,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="52" t="s">
         <v>195</v>
       </c>
@@ -18584,7 +18606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C49" s="52" t="s">
         <v>268</v>
       </c>
@@ -18653,7 +18675,7 @@
       </c>
       <c r="H1" s="98"/>
     </row>
-    <row r="2" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
         <v>86</v>
       </c>
@@ -18677,7 +18699,7 @@
       </c>
       <c r="H2" s="92"/>
     </row>
-    <row r="3" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="35" t="s">
         <v>268</v>
       </c>
@@ -18695,7 +18717,7 @@
       </c>
       <c r="H3" s="136"/>
     </row>
-    <row r="4" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="43" t="s">
         <v>87</v>
       </c>
@@ -18719,7 +18741,7 @@
       </c>
       <c r="H4" s="136"/>
     </row>
-    <row r="5" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="36"/>
       <c r="C5" s="35" t="s">
         <v>268</v>
@@ -18738,7 +18760,7 @@
       </c>
       <c r="H5" s="92"/>
     </row>
-    <row r="6" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="43" t="s">
         <v>88</v>
       </c>
@@ -18762,7 +18784,7 @@
       </c>
       <c r="H6" s="92"/>
     </row>
-    <row r="7" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="36"/>
       <c r="C7" s="35" t="s">
         <v>268</v>
@@ -19856,7 +19878,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>139</v>
       </c>
@@ -19883,10 +19905,10 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B3" s="14"/>
     </row>
-    <row r="4" spans="1:16" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>140</v>
       </c>
@@ -19915,10 +19937,10 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B5" s="14"/>
     </row>
-    <row r="6" spans="1:16" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>141</v>
       </c>
@@ -19945,7 +19967,7 @@
         <v>0.17299999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
         <v>32</v>
       </c>
@@ -19969,7 +19991,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
         <v>144</v>
       </c>
@@ -19993,7 +20015,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>142</v>
       </c>
@@ -20022,7 +20044,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B11" s="34" t="s">
         <v>146</v>
       </c>
@@ -20046,7 +20068,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>74</v>
       </c>
@@ -20075,7 +20097,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
         <v>170</v>
       </c>
@@ -20104,282 +20126,6 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <sheetPr>
-    <tabColor theme="7" tint="-0.249977111117893"/>
-  </sheetPr>
-  <dimension ref="A1:E21"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17" style="35" customWidth="1"/>
-    <col min="2" max="2" width="19.08984375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="11.453125" style="35"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
-        <v>178</v>
-      </c>
-      <c r="B1" s="51" t="s">
-        <v>177</v>
-      </c>
-      <c r="C1" s="51" t="s">
-        <v>176</v>
-      </c>
-      <c r="D1" s="51" t="s">
-        <v>175</v>
-      </c>
-      <c r="E1" s="51" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="13" x14ac:dyDescent="0.3">
-      <c r="A2" s="49" t="s">
-        <v>173</v>
-      </c>
-      <c r="B2" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="57" t="str">
-        <f>IF(E$7="","",E$7)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="80" t="b">
-        <v>1</v>
-      </c>
-      <c r="D3" s="80"/>
-      <c r="E3" s="57" t="str">
-        <f>IF(E$7="","",E$7)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="47"/>
-      <c r="B4" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="80" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" s="80"/>
-      <c r="E4" s="57" t="str">
-        <f>IF(E$7="","",E$7)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="47"/>
-      <c r="B5" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="80" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5" s="80"/>
-      <c r="E5" s="57" t="str">
-        <f>IF(E$7="","",E$7)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="47"/>
-      <c r="B6" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="80" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6" s="80"/>
-      <c r="E6" s="57" t="str">
-        <f>IF(E$7="","",E$7)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
-      <c r="B7" s="46" t="s">
-        <v>172</v>
-      </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="80"/>
-    </row>
-    <row r="9" spans="1:5" ht="13" x14ac:dyDescent="0.3">
-      <c r="A9" s="49" t="s">
-        <v>198</v>
-      </c>
-      <c r="B9" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" s="57" t="str">
-        <f>IF(E$7="","",E$7)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="47"/>
-      <c r="B10" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="80"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="57" t="str">
-        <f>IF(E$7="","",E$7)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="47"/>
-      <c r="B11" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="80"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="57" t="str">
-        <f>IF(E$7="","",E$7)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="47"/>
-      <c r="B12" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="80"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="57" t="str">
-        <f>IF(E$7="","",E$7)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="47"/>
-      <c r="B13" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="80"/>
-      <c r="D13" s="80"/>
-      <c r="E13" s="57" t="str">
-        <f>IF(E$7="","",E$7)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="47"/>
-      <c r="B14" s="46" t="s">
-        <v>172</v>
-      </c>
-      <c r="C14" s="45"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="80"/>
-    </row>
-    <row r="16" spans="1:5" ht="13" x14ac:dyDescent="0.3">
-      <c r="A16" s="49" t="s">
-        <v>199</v>
-      </c>
-      <c r="B16" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="80"/>
-      <c r="D16" s="80" t="s">
-        <v>194</v>
-      </c>
-      <c r="E16" s="57" t="str">
-        <f>IF(E$7="","",E$7)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="47"/>
-      <c r="B17" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="80"/>
-      <c r="D17" s="80" t="s">
-        <v>194</v>
-      </c>
-      <c r="E17" s="57" t="str">
-        <f>IF(E$7="","",E$7)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="47"/>
-      <c r="B18" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="80"/>
-      <c r="D18" s="80" t="s">
-        <v>194</v>
-      </c>
-      <c r="E18" s="57" t="str">
-        <f>IF(E$7="","",E$7)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="47"/>
-      <c r="B19" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="80"/>
-      <c r="D19" s="80" t="s">
-        <v>194</v>
-      </c>
-      <c r="E19" s="57" t="str">
-        <f>IF(E$7="","",E$7)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="47"/>
-      <c r="B20" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="80"/>
-      <c r="D20" s="80" t="s">
-        <v>194</v>
-      </c>
-      <c r="E20" s="57" t="str">
-        <f>IF(E$7="","",E$7)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="47"/>
-      <c r="B21" s="46" t="s">
-        <v>172</v>
-      </c>
-      <c r="C21" s="45"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="80"/>
-    </row>
-  </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="9wsRtmiVNJB0UeV33D4Iu3yiIwegEB7YesrZkCblhc6wUV+2PK18HRXoB0nl0+0IenWTDgkV+kV0Xi5B6erGpg==" saltValue="FiZTxqAqHli9KHTCkjPnDg==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
@@ -20439,6 +20185,284 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="tS5A5il384gB8zsJjwidwZIpdVsJo/ah59cRAmnHpig36ZssdSIeiIXxiNqdW+7yhHG743nXUgYflxFLjdX6Kg==" saltValue="H9BMcvjdiLgSEjFGZvTrQw==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr>
+    <tabColor theme="7" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17" style="35" customWidth="1"/>
+    <col min="2" max="2" width="19.08984375" style="35" customWidth="1"/>
+    <col min="3" max="3" width="13.453125" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="11.453125" style="35"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+      <c r="A1" s="50" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1" s="51" t="s">
+        <v>176</v>
+      </c>
+      <c r="D1" s="51" t="s">
+        <v>175</v>
+      </c>
+      <c r="E1" s="51" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+      <c r="A2" s="49" t="s">
+        <v>173</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="57" t="str">
+        <f>IF(E$7="","",E$7)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="47"/>
+      <c r="B3" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="80" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="80"/>
+      <c r="E3" s="57" t="str">
+        <f>IF(E$7="","",E$7)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="47"/>
+      <c r="B4" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="80" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" s="80"/>
+      <c r="E4" s="57" t="str">
+        <f>IF(E$7="","",E$7)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="47"/>
+      <c r="B5" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="80" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="80"/>
+      <c r="E5" s="57" t="str">
+        <f>IF(E$7="","",E$7)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="47"/>
+      <c r="B6" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="80" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" s="80"/>
+      <c r="E6" s="57" t="str">
+        <f>IF(E$7="","",E$7)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="47"/>
+      <c r="B7" s="46" t="s">
+        <v>172</v>
+      </c>
+      <c r="C7" s="45"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="80"/>
+    </row>
+    <row r="9" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+      <c r="A9" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="B9" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" s="57" t="str">
+        <f>IF(E$7="","",E$7)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="47"/>
+      <c r="B10" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="57" t="str">
+        <f>IF(E$7="","",E$7)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="47"/>
+      <c r="B11" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="57" t="str">
+        <f>IF(E$7="","",E$7)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="47"/>
+      <c r="B12" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="57" t="str">
+        <f>IF(E$7="","",E$7)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="47"/>
+      <c r="B13" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="80"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="57" t="str">
+        <f>IF(E$7="","",E$7)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="47"/>
+      <c r="B14" s="46" t="s">
+        <v>172</v>
+      </c>
+      <c r="C14" s="45"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="80" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+      <c r="A16" s="49" t="s">
+        <v>199</v>
+      </c>
+      <c r="B16" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="80"/>
+      <c r="D16" s="80" t="s">
+        <v>194</v>
+      </c>
+      <c r="E16" s="57" t="str">
+        <f>IF(E$7="","",E$7)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="47"/>
+      <c r="B17" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="80"/>
+      <c r="D17" s="80" t="s">
+        <v>194</v>
+      </c>
+      <c r="E17" s="57" t="str">
+        <f>IF(E$7="","",E$7)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="47"/>
+      <c r="B18" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="80"/>
+      <c r="D18" s="80" t="s">
+        <v>194</v>
+      </c>
+      <c r="E18" s="57" t="str">
+        <f>IF(E$7="","",E$7)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="47"/>
+      <c r="B19" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="80"/>
+      <c r="D19" s="80" t="s">
+        <v>194</v>
+      </c>
+      <c r="E19" s="57" t="str">
+        <f>IF(E$7="","",E$7)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="47"/>
+      <c r="B20" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="80"/>
+      <c r="D20" s="80" t="s">
+        <v>194</v>
+      </c>
+      <c r="E20" s="57" t="str">
+        <f>IF(E$7="","",E$7)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="47"/>
+      <c r="B21" s="46" t="s">
+        <v>172</v>
+      </c>
+      <c r="C21" s="45"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="80"/>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="9wsRtmiVNJB0UeV33D4Iu3yiIwegEB7YesrZkCblhc6wUV+2PK18HRXoB0nl0+0IenWTDgkV+kV0Xi5B6erGpg==" saltValue="FiZTxqAqHli9KHTCkjPnDg==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 

--- a/inputs/demo_region2_input.xlsx
+++ b/inputs/demo_region2_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dominic.delport\Documents\GitHub\Nutrition\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E61009-2075-4706-909C-C7E4728912DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA34A15-C310-4027-8B2B-E5585E12CB7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="961" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -1085,9 +1085,6 @@
     <t>Cost-coverage relationship</t>
   </si>
   <si>
-    <t>Unit cost (US$ per person per year)</t>
-  </si>
-  <si>
     <t>IFAS (health facility)</t>
   </si>
   <si>
@@ -1281,6 +1278,9 @@
   </si>
   <si>
     <t>Prevalence of eclampsia</t>
+  </si>
+  <si>
+    <t>Unit cost (US$)</t>
   </si>
 </sst>
 </file>
@@ -4805,7 +4805,7 @@
   </sheetPr>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
@@ -4864,7 +4864,7 @@
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C7" s="65">
         <v>9862402</v>
@@ -5247,7 +5247,7 @@
     </row>
     <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="16" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C60" s="66">
         <v>4.5999999999999999E-2</v>
@@ -5255,7 +5255,7 @@
     </row>
     <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="16" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C61" s="66">
         <v>1.4E-2</v>
@@ -5312,7 +5312,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="83" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B3" s="80" t="s">
         <v>59</v>
@@ -6365,7 +6365,7 @@
     <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C17" s="88">
         <v>0</v>
@@ -6699,7 +6699,7 @@
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="59" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C25" s="88">
         <v>0</v>
@@ -8437,7 +8437,7 @@
     </row>
     <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="92" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C20" s="90">
         <v>0</v>
@@ -8766,7 +8766,7 @@
     <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="56"/>
       <c r="B28" s="59" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C28" s="90">
         <v>0</v>
@@ -9393,16 +9393,16 @@
         <v>69</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C1" s="35" t="s">
         <v>70</v>
       </c>
       <c r="D1" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="E1" s="35" t="s">
         <v>213</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>214</v>
       </c>
       <c r="F1" s="35" t="s">
         <v>24</v>
@@ -9414,13 +9414,13 @@
         <v>74</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J1" s="35" t="s">
         <v>196</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -9586,7 +9586,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="59" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B11" s="90"/>
       <c r="C11" s="90" t="s">
@@ -9656,7 +9656,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="92" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B15" s="90"/>
       <c r="C15" s="90" t="s">
@@ -10136,19 +10136,19 @@
   <sheetData>
     <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C1" s="35" t="s">
         <v>70</v>
       </c>
       <c r="D1" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="E1" s="35" t="s">
         <v>213</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>214</v>
       </c>
       <c r="F1" s="35" t="s">
         <v>24</v>
@@ -10160,13 +10160,13 @@
         <v>74</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J1" s="35" t="s">
         <v>196</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -10503,7 +10503,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B1" s="40" t="s">
         <v>177</v>
@@ -10529,7 +10529,7 @@
     </row>
     <row r="2" spans="1:10" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B2" s="137" t="s">
         <v>32</v>
@@ -10890,7 +10890,7 @@
     </row>
     <row r="19" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A19" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B19" s="137" t="s">
         <v>32</v>
@@ -11248,7 +11248,7 @@
     </row>
     <row r="36" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A36" s="103" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B36" s="137" t="s">
         <v>32</v>
@@ -11600,12 +11600,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BiU9BXNF+INgNxSFtHuqKvDgOHy4i8LHe4WBopPE5oAPe1uu8rzbQfKL4uxCQ4dbx+6qcxc95feCcYk3II7eJw==" saltValue="oFkUqZTkt+d2Svo646TgPw==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -11615,6 +11609,12 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -12740,7 +12740,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="106" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="105" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12760,7 +12760,7 @@
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="40" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B3" s="110"/>
       <c r="C3" s="111"/>
@@ -12844,7 +12844,7 @@
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="40" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C9" s="114">
         <v>1</v>
@@ -12869,7 +12869,7 @@
     </row>
     <row r="11" spans="1:7" s="106" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="105" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C11" s="118"/>
       <c r="D11" s="119"/>
@@ -12879,7 +12879,7 @@
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="40" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C12" s="116"/>
       <c r="D12" s="100"/>
@@ -12889,7 +12889,7 @@
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="121" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C13" s="114">
         <v>1</v>
@@ -12907,7 +12907,7 @@
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="121" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C14" s="114">
         <v>1</v>
@@ -12925,7 +12925,7 @@
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="121" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C15" s="114">
         <v>1</v>
@@ -12952,7 +12952,7 @@
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="40" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B17" s="110"/>
       <c r="C17" s="123"/>
@@ -13138,18 +13138,18 @@
   <sheetData>
     <row r="1" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="105" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="126" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B2" s="127" t="s">
+        <v>231</v>
+      </c>
+      <c r="C2" s="127" t="s">
         <v>232</v>
-      </c>
-      <c r="C2" s="127" t="s">
-        <v>233</v>
       </c>
       <c r="D2" s="109" t="s">
         <v>1</v>
@@ -13181,7 +13181,7 @@
         <v>71</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D3" s="114">
         <v>1</v>
@@ -13209,7 +13209,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C4" s="43" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D4" s="115">
         <v>1</v>
@@ -13237,7 +13237,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C5" s="43" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D5" s="115">
         <v>1</v>
@@ -13265,7 +13265,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C6" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D6" s="115">
         <v>1</v>
@@ -13296,7 +13296,7 @@
         <v>16</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D7" s="114">
         <v>1</v>
@@ -13324,7 +13324,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C8" s="43" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D8" s="115">
         <v>1</v>
@@ -13352,7 +13352,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C9" s="43" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D9" s="115">
         <v>1</v>
@@ -13380,7 +13380,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C10" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D10" s="115">
         <v>1</v>
@@ -13411,7 +13411,7 @@
         <v>18</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D11" s="114">
         <v>1</v>
@@ -13439,7 +13439,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C12" s="43" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D12" s="115">
         <v>1</v>
@@ -13467,7 +13467,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C13" s="43" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D13" s="115">
         <v>1</v>
@@ -13495,7 +13495,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C14" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D14" s="115">
         <v>1</v>
@@ -13526,7 +13526,7 @@
         <v>19</v>
       </c>
       <c r="C15" s="43" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D15" s="114">
         <v>1</v>
@@ -13554,7 +13554,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C16" s="43" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D16" s="115">
         <v>1</v>
@@ -13582,7 +13582,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C17" s="43" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D17" s="115">
         <v>1</v>
@@ -13610,7 +13610,7 @@
     </row>
     <row r="18" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D18" s="115">
         <v>1</v>
@@ -13641,7 +13641,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="43" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D19" s="114">
         <v>1</v>
@@ -13669,7 +13669,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C20" s="43" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D20" s="115">
         <v>1</v>
@@ -13697,7 +13697,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C21" s="43" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D21" s="115">
         <v>1</v>
@@ -13725,7 +13725,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C22" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D22" s="115">
         <v>1</v>
@@ -13756,7 +13756,7 @@
         <v>23</v>
       </c>
       <c r="C23" s="43" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D23" s="114">
         <v>1</v>
@@ -13784,7 +13784,7 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C24" s="43" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D24" s="115">
         <v>1</v>
@@ -13812,7 +13812,7 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C25" s="43" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D25" s="115">
         <v>1</v>
@@ -13840,7 +13840,7 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C26" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D26" s="115">
         <v>1</v>
@@ -13868,18 +13868,18 @@
     </row>
     <row r="28" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A28" s="105" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="36" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A29" s="129" t="s">
+        <v>238</v>
+      </c>
+      <c r="B29" s="98" t="s">
+        <v>231</v>
+      </c>
+      <c r="C29" s="98" t="s">
         <v>239</v>
-      </c>
-      <c r="B29" s="98" t="s">
-        <v>232</v>
-      </c>
-      <c r="C29" s="98" t="s">
-        <v>240</v>
       </c>
       <c r="D29" s="109" t="s">
         <v>1</v>
@@ -13911,7 +13911,7 @@
         <v>71</v>
       </c>
       <c r="C30" s="43" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D30" s="114">
         <v>1</v>
@@ -13939,7 +13939,7 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C31" s="43" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D31" s="115">
         <v>1</v>
@@ -14026,7 +14026,7 @@
         <v>16</v>
       </c>
       <c r="C34" s="43" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D34" s="114">
         <v>1</v>
@@ -14054,7 +14054,7 @@
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C35" s="43" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D35" s="115">
         <v>1</v>
@@ -14141,7 +14141,7 @@
         <v>18</v>
       </c>
       <c r="C38" s="43" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D38" s="114">
         <v>1</v>
@@ -14169,7 +14169,7 @@
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C39" s="43" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D39" s="115">
         <v>1</v>
@@ -14256,7 +14256,7 @@
         <v>19</v>
       </c>
       <c r="C42" s="43" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D42" s="114">
         <v>1</v>
@@ -14284,7 +14284,7 @@
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C43" s="43" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D43" s="115">
         <v>1</v>
@@ -14371,7 +14371,7 @@
         <v>17</v>
       </c>
       <c r="C46" s="43" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D46" s="114">
         <v>1</v>
@@ -14399,7 +14399,7 @@
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C47" s="43" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D47" s="115">
         <v>1</v>
@@ -14486,7 +14486,7 @@
         <v>23</v>
       </c>
       <c r="C50" s="43" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D50" s="114">
         <v>1</v>
@@ -14514,7 +14514,7 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C51" s="43" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D51" s="115">
         <v>1</v>
@@ -14602,7 +14602,7 @@
     </row>
     <row r="55" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A55" s="105" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="56" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
@@ -14610,10 +14610,10 @@
         <v>70</v>
       </c>
       <c r="B56" s="98" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C56" s="131" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D56" s="109" t="s">
         <v>53</v>
@@ -14639,7 +14639,7 @@
         <v>38</v>
       </c>
       <c r="C57" s="43" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D57" s="114">
         <v>1</v>
@@ -14661,7 +14661,7 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C58" s="43" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D58" s="115">
         <v>10.675000000000001</v>
@@ -14686,7 +14686,7 @@
         <v>39</v>
       </c>
       <c r="C59" s="43" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D59" s="114">
         <v>1</v>
@@ -14708,7 +14708,7 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C60" s="43" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D60" s="115">
         <v>10.675000000000001</v>
@@ -14733,7 +14733,7 @@
         <v>40</v>
       </c>
       <c r="C61" s="43" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D61" s="114">
         <v>1</v>
@@ -14755,7 +14755,7 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C62" s="43" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D62" s="115">
         <v>10.675000000000001</v>
@@ -14781,7 +14781,7 @@
     </row>
     <row r="64" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A64" s="105" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="65" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
@@ -14789,10 +14789,10 @@
         <v>24</v>
       </c>
       <c r="B65" s="98" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C65" s="131" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D65" s="109" t="s">
         <v>1</v>
@@ -15856,7 +15856,7 @@
     </row>
     <row r="103" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A103" s="105" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="104" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
@@ -15867,7 +15867,7 @@
         <v>169</v>
       </c>
       <c r="C104" s="131" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D104" s="109" t="s">
         <v>1</v>
@@ -16042,7 +16042,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="105" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -16068,10 +16068,10 @@
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="121" t="s">
+        <v>248</v>
+      </c>
+      <c r="C3" s="115" t="s">
         <v>249</v>
-      </c>
-      <c r="C3" s="115" t="s">
-        <v>250</v>
       </c>
       <c r="D3" s="115">
         <v>45</v>
@@ -16089,7 +16089,7 @@
     <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="40"/>
       <c r="B4" s="125" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C4" s="115">
         <v>1.0249999999999999</v>
@@ -16109,7 +16109,7 @@
     </row>
     <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="110" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -16182,7 +16182,7 @@
     </row>
     <row r="10" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="105" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -16212,15 +16212,15 @@
     </row>
     <row r="13" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="105" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="133" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B14" s="125" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C14" s="115">
         <v>1.0249999999999999</v>
@@ -16241,7 +16241,7 @@
     <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="40"/>
       <c r="B15" s="125" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C15" s="115">
         <v>1.0249999999999999</v>
@@ -16264,7 +16264,7 @@
         <v>70</v>
       </c>
       <c r="B16" s="121" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C16" s="115">
         <v>1</v>
@@ -16285,7 +16285,7 @@
     <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:6" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="105" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="110" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -16370,7 +16370,7 @@
         <v>29</v>
       </c>
       <c r="B2" s="92" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C2" s="115">
         <v>0.21</v>
@@ -16388,7 +16388,7 @@
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="92"/>
       <c r="B3" s="92" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C3" s="115">
         <v>1</v>
@@ -16408,7 +16408,7 @@
         <v>187</v>
       </c>
       <c r="B4" s="92" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C4" s="115">
         <v>0</v>
@@ -16426,7 +16426,7 @@
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="92"/>
       <c r="B5" s="92" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C5" s="115">
         <v>1</v>
@@ -16443,10 +16443,10 @@
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="92" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B6" s="92" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C6" s="115">
         <v>0</v>
@@ -16464,7 +16464,7 @@
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="92"/>
       <c r="B7" s="92" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C7" s="115">
         <v>1</v>
@@ -16484,7 +16484,7 @@
         <v>57</v>
       </c>
       <c r="B8" s="92" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C8" s="115">
         <v>0.35</v>
@@ -16502,7 +16502,7 @@
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="92"/>
       <c r="B9" s="92" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C9" s="115">
         <v>1</v>
@@ -16522,7 +16522,7 @@
         <v>34</v>
       </c>
       <c r="B10" s="92" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C10" s="115">
         <v>0.35</v>
@@ -16540,7 +16540,7 @@
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="92"/>
       <c r="B11" s="92" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C11" s="115">
         <v>1</v>
@@ -16560,7 +16560,7 @@
         <v>59</v>
       </c>
       <c r="B12" s="92" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C12" s="115">
         <v>0.08</v>
@@ -16578,7 +16578,7 @@
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="92"/>
       <c r="B13" s="92" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C13" s="115">
         <v>1</v>
@@ -16670,7 +16670,7 @@
     </row>
     <row r="2" spans="1:15" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -16763,7 +16763,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B5" s="59" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C5" s="115">
         <v>1</v>
@@ -16939,7 +16939,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B9" s="92" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C9" s="115">
         <v>1</v>
@@ -17203,7 +17203,7 @@
     </row>
     <row r="16" spans="1:15" ht="13" x14ac:dyDescent="0.3">
       <c r="A16" s="40" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B16" s="59"/>
     </row>
@@ -17442,7 +17442,7 @@
     </row>
     <row r="2" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -17467,7 +17467,7 @@
     </row>
     <row r="4" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A4" s="40" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B4" s="59"/>
       <c r="C4" s="135"/>
@@ -17532,10 +17532,10 @@
         <v>69</v>
       </c>
       <c r="B1" s="40" t="s">
+        <v>264</v>
+      </c>
+      <c r="C1" s="133" t="s">
         <v>265</v>
-      </c>
-      <c r="C1" s="133" t="s">
-        <v>266</v>
       </c>
       <c r="D1" s="40" t="s">
         <v>1</v>
@@ -17561,7 +17561,7 @@
         <v>71</v>
       </c>
       <c r="C2" s="52" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D2" s="115">
         <v>0</v>
@@ -17581,7 +17581,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C3" s="52" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D3" s="115">
         <v>0</v>
@@ -17601,7 +17601,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C4" s="52" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D4" s="115">
         <v>0</v>
@@ -17627,7 +17627,7 @@
         <v>66</v>
       </c>
       <c r="C5" s="52" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D5" s="115">
         <v>0</v>
@@ -17647,7 +17647,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C6" s="52" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D6" s="115">
         <v>0</v>
@@ -17670,7 +17670,7 @@
         <v>65</v>
       </c>
       <c r="C7" s="52" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D7" s="115">
         <v>0</v>
@@ -17690,7 +17690,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C8" s="52" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D8" s="115">
         <v>0</v>
@@ -17716,7 +17716,7 @@
         <v>66</v>
       </c>
       <c r="C9" s="52" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D9" s="115">
         <v>0</v>
@@ -17736,7 +17736,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C10" s="52" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D10" s="115">
         <v>0</v>
@@ -17759,7 +17759,7 @@
         <v>65</v>
       </c>
       <c r="C11" s="52" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D11" s="115">
         <v>0</v>
@@ -17779,7 +17779,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C12" s="52" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D12" s="115">
         <v>0</v>
@@ -17805,7 +17805,7 @@
         <v>66</v>
       </c>
       <c r="C13" s="52" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D13" s="115">
         <v>0</v>
@@ -17825,7 +17825,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C14" s="52" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D14" s="115">
         <v>0</v>
@@ -17849,7 +17849,7 @@
         <v>65</v>
       </c>
       <c r="C15" s="52" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D15" s="115">
         <v>0</v>
@@ -17870,7 +17870,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C16" s="52" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D16" s="115">
         <v>0</v>
@@ -17897,7 +17897,7 @@
         <v>27</v>
       </c>
       <c r="C17" s="52" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D17" s="115">
         <v>0.7</v>
@@ -17918,7 +17918,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C18" s="52" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D18" s="115">
         <v>0.19</v>
@@ -17945,7 +17945,7 @@
         <v>27</v>
       </c>
       <c r="C19" s="52" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D19" s="115">
         <v>0.7</v>
@@ -17965,7 +17965,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C20" s="52" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D20" s="115">
         <v>0.19</v>
@@ -17991,7 +17991,7 @@
         <v>27</v>
       </c>
       <c r="C21" s="52" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D21" s="115">
         <v>0.7</v>
@@ -18011,7 +18011,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C22" s="52" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D22" s="115">
         <v>0.19</v>
@@ -18037,7 +18037,7 @@
         <v>71</v>
       </c>
       <c r="C23" s="52" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D23" s="115">
         <v>1</v>
@@ -18057,7 +18057,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C24" s="52" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D24" s="115">
         <v>0</v>
@@ -18077,7 +18077,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C25" s="52" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D25" s="115">
         <v>0</v>
@@ -18103,7 +18103,7 @@
         <v>71</v>
       </c>
       <c r="C26" s="52" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D26" s="115">
         <v>1</v>
@@ -18123,7 +18123,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C27" s="52" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D27" s="115">
         <v>0</v>
@@ -18143,7 +18143,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C28" s="52" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D28" s="115">
         <v>0</v>
@@ -18169,7 +18169,7 @@
         <v>71</v>
       </c>
       <c r="C29" s="52" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D29" s="115">
         <v>1</v>
@@ -18189,7 +18189,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C30" s="52" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D30" s="115">
         <v>0</v>
@@ -18209,7 +18209,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C31" s="52" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D31" s="115">
         <v>0</v>
@@ -18235,7 +18235,7 @@
         <v>71</v>
       </c>
       <c r="C32" s="52" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D32" s="115">
         <v>1</v>
@@ -18255,7 +18255,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C33" s="52" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D33" s="115">
         <v>0</v>
@@ -18275,7 +18275,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C34" s="52" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D34" s="115">
         <v>0</v>
@@ -18301,7 +18301,7 @@
         <v>71</v>
       </c>
       <c r="C35" s="52" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D35" s="115">
         <v>1</v>
@@ -18321,7 +18321,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C36" s="52" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D36" s="115">
         <v>0</v>
@@ -18341,7 +18341,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C37" s="52" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D37" s="115">
         <v>0</v>
@@ -18367,7 +18367,7 @@
         <v>71</v>
       </c>
       <c r="C38" s="52" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D38" s="115">
         <v>0.3</v>
@@ -18387,7 +18387,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C39" s="52" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D39" s="115">
         <v>0.5</v>
@@ -18407,7 +18407,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C40" s="52" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D40" s="115">
         <v>0.65</v>
@@ -18430,7 +18430,7 @@
         <v>16</v>
       </c>
       <c r="C41" s="52" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D41" s="115">
         <v>0.3</v>
@@ -18450,7 +18450,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C42" s="52" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D42" s="115">
         <v>0.49</v>
@@ -18470,7 +18470,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C43" s="52" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D43" s="115">
         <v>0.63</v>
@@ -18496,7 +18496,7 @@
         <v>71</v>
       </c>
       <c r="C44" s="52" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D44" s="115">
         <v>0.88</v>
@@ -18516,7 +18516,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C45" s="52" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D45" s="115">
         <v>0.8</v>
@@ -18542,7 +18542,7 @@
         <v>71</v>
       </c>
       <c r="C46" s="52" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D46" s="115">
         <v>1</v>
@@ -18562,7 +18562,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C47" s="52" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D47" s="115">
         <v>0.76</v>
@@ -18588,7 +18588,7 @@
         <v>13</v>
       </c>
       <c r="C48" s="52" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D48" s="115">
         <v>0.57999999999999996</v>
@@ -18608,7 +18608,7 @@
     </row>
     <row r="49" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C49" s="52" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D49" s="115">
         <v>0.88</v>
@@ -18658,7 +18658,7 @@
         <v>69</v>
       </c>
       <c r="B1" s="127" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C1" s="127"/>
       <c r="D1" s="40" t="s">
@@ -18683,7 +18683,7 @@
         <v>41</v>
       </c>
       <c r="C2" s="43" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D2" s="115">
         <v>1</v>
@@ -18701,7 +18701,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="35" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D3" s="115">
         <v>0.2</v>
@@ -18725,7 +18725,7 @@
         <v>41</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D4" s="115">
         <v>1</v>
@@ -18744,7 +18744,7 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="36"/>
       <c r="C5" s="35" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D5" s="115">
         <v>0.59</v>
@@ -18768,7 +18768,7 @@
         <v>41</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D6" s="115">
         <v>1</v>
@@ -18787,7 +18787,7 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="36"/>
       <c r="C7" s="35" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D7" s="115">
         <v>0.59</v>
@@ -18840,10 +18840,10 @@
     </row>
     <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B2" s="41" t="s">
         <v>210</v>
-      </c>
-      <c r="B2" s="41" t="s">
-        <v>211</v>
       </c>
       <c r="C2" s="41" t="s">
         <v>1</v>
@@ -18942,7 +18942,7 @@
         <v>31</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C13" s="23" t="s">
         <v>2</v>
@@ -19148,7 +19148,7 @@
         <v>32</v>
       </c>
       <c r="B25" s="41" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C25" s="41" t="s">
         <v>32</v>
@@ -20473,8 +20473,8 @@
   </sheetPr>
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -20499,7 +20499,7 @@
         <v>200</v>
       </c>
       <c r="D1" s="53" t="s">
-        <v>206</v>
+        <v>271</v>
       </c>
       <c r="E1" s="53" t="s">
         <v>205</v>
@@ -20660,7 +20660,7 @@
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="59" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B11" s="81">
         <v>0</v>
@@ -20728,7 +20728,7 @@
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B15" s="81">
         <v>0</v>
@@ -21139,7 +21139,7 @@
       <c r="F39" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="zGqGWUHks9r73YYvhtsA/6n2sxkq6NyOLMnszdwkuYHRGc3RAKyH9yLxkOwoypM6IGMaCGHxxq0vP7rXnZY93w==" saltValue="sA5n05NYbI4nfIN6wumz0A==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="qPEVIb2i+EW7aeHSHXfyIGKbWVsX0oVXgH7/1TuJ2Sl4kovrKOo2Y4B+EbmYp4DoC5yzt0/wDQVuaLfKSXe2dQ==" saltValue="2Pd0d2wQNpcAJ+vxVS7jHw==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D38">
     <sortCondition ref="A2:A38"/>
   </sortState>

--- a/inputs/demo_region2_input.xlsx
+++ b/inputs/demo_region2_input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dominic.delport\Documents\GitHub\Nutrition\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Github\Nutrition\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA34A15-C310-4027-8B2B-E5585E12CB7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F21BD5-5884-4917-93C1-18A4466C573F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="961" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Causes of death" sheetId="4" r:id="rId3"/>
     <sheet name="Nutritional status distribution" sheetId="5" r:id="rId4"/>
     <sheet name="Breastfeeding distribution" sheetId="50" r:id="rId5"/>
-    <sheet name="Time trends" sheetId="51" r:id="rId6"/>
+    <sheet name="Time trends" sheetId="51" state="hidden" r:id="rId6"/>
     <sheet name="Treatment of SAM" sheetId="60" r:id="rId7"/>
     <sheet name="IYCF packages" sheetId="55" r:id="rId8"/>
     <sheet name="Programs cost and coverage" sheetId="56" r:id="rId9"/>
@@ -91,14 +91,12 @@
     <definedName name="term_SGA">'Baseline year population inputs'!$C$47</definedName>
     <definedName name="U5_mortality">'Baseline year population inputs'!$C$39</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -114,7 +112,31 @@
     <author>Nick Scott</author>
   </authors>
   <commentList>
-    <comment ref="D28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{516BE8AC-D5C4-4804-A018-BB7D6CA65CAA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Nick Scott:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Cost per person per year, or per pregnancy</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D28" authorId="0" shapeId="0" xr:uid="{296487DF-5497-43C6-BC27-615E8085D2A7}">
       <text>
         <r>
           <rPr>
@@ -134,50 +156,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">The cost per child per year can be estimated as 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">= (cost per treatment) * (annual diarrhoea incidence)
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Diarrhoea incidence is the average in children under 5.  See user guide for further information</t>
+Cost per treatment</t>
         </r>
       </text>
     </comment>
-    <comment ref="D30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000002000000}">
+    <comment ref="D30" authorId="0" shapeId="0" xr:uid="{B5EF2EAD-9605-4FDD-965C-E5FA9AAF8CC7}">
       <text>
         <r>
           <rPr>
@@ -197,27 +180,21 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-</t>
+Cost per treatment</t>
         </r>
+      </text>
+    </comment>
+    <comment ref="D37" authorId="0" shapeId="0" xr:uid="{13A38A84-89BA-4FED-9C35-1DABAE8430F1}">
+      <text>
         <r>
           <rPr>
+            <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">The cost per child per year can be estimated as 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">= (cost per treatment episode) * (SAM prevalence) * 2.6
-</t>
+          <t>Nick Scott:</t>
         </r>
         <r>
           <rPr>
@@ -227,42 +204,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Cost per treatment episode includes management of MAM (if selected) and is an average over delivery modalities. See user guide for further information</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D37" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nick Scott:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-The cost per child per year can be estimated as 
-= (cost per treatment) * (annual diarrhoea incidence)
-Diarrhoea incidence is the average in children under 5.  See user guide for further information</t>
+Cost per treatment</t>
         </r>
       </text>
     </comment>
@@ -1293,7 +1235,7 @@
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="29">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1464,6 +1406,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -2319,7 +2274,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2628,6 +2583,9 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="725" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="725" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="725" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4805,18 +4763,18 @@
   </sheetPr>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="27.6328125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="38.6328125" style="16" customWidth="1"/>
-    <col min="3" max="16384" width="14.453125" style="12"/>
+    <col min="1" max="1" width="27.6640625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" style="16" customWidth="1"/>
+    <col min="3" max="16384" width="14.44140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.05" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>100</v>
       </c>
@@ -4827,14 +4785,14 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="16.05" customHeight="1">
       <c r="A2" s="12" t="s">
         <v>191</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
     </row>
-    <row r="3" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="16.05" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
         <v>193</v>
@@ -4843,7 +4801,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="16.05" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
         <v>192</v>
@@ -4852,17 +4810,17 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="16.05" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" customHeight="1">
       <c r="A6" s="12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" customHeight="1">
       <c r="B7" s="16" t="s">
         <v>208</v>
       </c>
@@ -4870,7 +4828,7 @@
         <v>9862402</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15" customHeight="1">
       <c r="B8" s="7" t="s">
         <v>106</v>
       </c>
@@ -4878,7 +4836,7 @@
         <v>0.28199999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15" customHeight="1">
       <c r="B9" s="9" t="s">
         <v>107</v>
       </c>
@@ -4886,7 +4844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15" customHeight="1">
       <c r="B10" s="9" t="s">
         <v>105</v>
       </c>
@@ -4894,7 +4852,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15" customHeight="1">
       <c r="B11" s="7" t="s">
         <v>108</v>
       </c>
@@ -4902,7 +4860,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15" customHeight="1">
       <c r="B12" s="7" t="s">
         <v>109</v>
       </c>
@@ -4910,7 +4868,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="15" customHeight="1">
       <c r="B13" s="7" t="s">
         <v>110</v>
       </c>
@@ -4918,17 +4876,17 @@
         <v>0.221</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="15" customHeight="1">
       <c r="B14" s="12"/>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="15" customHeight="1">
       <c r="A15" s="12" t="s">
         <v>30</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="15" customHeight="1">
       <c r="B16" s="9" t="s">
         <v>94</v>
       </c>
@@ -4936,7 +4894,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="15" customHeight="1">
       <c r="B17" s="9" t="s">
         <v>95</v>
       </c>
@@ -4944,7 +4902,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="15" customHeight="1">
       <c r="B18" s="9" t="s">
         <v>96</v>
       </c>
@@ -4952,7 +4910,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="15" customHeight="1">
       <c r="B19" s="9" t="s">
         <v>97</v>
       </c>
@@ -4960,7 +4918,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="15" customHeight="1">
       <c r="B20" s="9" t="s">
         <v>98</v>
       </c>
@@ -4969,15 +4927,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="15" customHeight="1">
       <c r="B21" s="12"/>
     </row>
-    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="15" customHeight="1">
       <c r="A22" s="12" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="15" customHeight="1">
       <c r="B23" s="20" t="s">
         <v>101</v>
       </c>
@@ -4985,7 +4943,7 @@
         <v>0.127</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="15" customHeight="1">
       <c r="B24" s="20" t="s">
         <v>102</v>
       </c>
@@ -4993,7 +4951,7 @@
         <v>0.45200000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="15" customHeight="1">
       <c r="B25" s="20" t="s">
         <v>103</v>
       </c>
@@ -5001,7 +4959,7 @@
         <v>0.33400000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="15" customHeight="1">
       <c r="B26" s="20" t="s">
         <v>104</v>
       </c>
@@ -5009,18 +4967,18 @@
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="15" customHeight="1">
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
     </row>
-    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="15" customHeight="1">
       <c r="A28" s="12" t="s">
         <v>196</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
     </row>
-    <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="14.25" customHeight="1">
       <c r="B29" s="30" t="s">
         <v>75</v>
       </c>
@@ -5028,7 +4986,7 @@
         <v>0.20799999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="14.25" customHeight="1">
       <c r="B30" s="30" t="s">
         <v>76</v>
       </c>
@@ -5036,7 +4994,7 @@
         <v>0.63700000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="14.25" customHeight="1">
       <c r="B31" s="30" t="s">
         <v>77</v>
       </c>
@@ -5044,7 +5002,7 @@
         <v>0.11899999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="14.25" customHeight="1">
       <c r="B32" s="30" t="s">
         <v>78</v>
       </c>
@@ -5052,7 +5010,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="13.2">
       <c r="B33" s="32" t="s">
         <v>129</v>
       </c>
@@ -5061,20 +5019,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="15" customHeight="1"/>
+    <row r="35" spans="1:5" ht="15" customHeight="1">
       <c r="A35" s="4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="15" customHeight="1">
       <c r="A36" s="12" t="s">
         <v>74</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="13"/>
     </row>
-    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="15" customHeight="1">
       <c r="B37" s="42" t="s">
         <v>92</v>
       </c>
@@ -5082,7 +5040,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="15" customHeight="1">
       <c r="B38" s="16" t="s">
         <v>91</v>
       </c>
@@ -5092,7 +5050,7 @@
       <c r="D38" s="17"/>
       <c r="E38" s="18"/>
     </row>
-    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="15" customHeight="1">
       <c r="B39" s="16" t="s">
         <v>90</v>
       </c>
@@ -5102,7 +5060,7 @@
       <c r="D39" s="17"/>
       <c r="E39" s="17"/>
     </row>
-    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="15" customHeight="1">
       <c r="B40" s="16" t="s">
         <v>171</v>
       </c>
@@ -5110,7 +5068,7 @@
         <v>4.01</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="15" customHeight="1">
       <c r="B41" s="16" t="s">
         <v>89</v>
       </c>
@@ -5118,7 +5076,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="15" customHeight="1">
       <c r="B42" s="42" t="s">
         <v>93</v>
       </c>
@@ -5126,16 +5084,16 @@
         <v>22.4</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="15.75" customHeight="1">
       <c r="D43" s="17"/>
     </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="15.75" customHeight="1">
       <c r="A44" s="12" t="s">
         <v>133</v>
       </c>
       <c r="D44" s="17"/>
     </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="15.75" customHeight="1">
       <c r="B45" s="16" t="s">
         <v>9</v>
       </c>
@@ -5144,7 +5102,7 @@
       </c>
       <c r="D45" s="17"/>
     </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="15.75" customHeight="1">
       <c r="B46" s="16" t="s">
         <v>11</v>
       </c>
@@ -5153,7 +5111,7 @@
       </c>
       <c r="D46" s="17"/>
     </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="15.75" customHeight="1">
       <c r="B47" s="16" t="s">
         <v>12</v>
       </c>
@@ -5163,7 +5121,7 @@
       <c r="D47" s="17"/>
       <c r="E47" s="18"/>
     </row>
-    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="15" customHeight="1">
       <c r="B48" s="16" t="s">
         <v>26</v>
       </c>
@@ -5174,16 +5132,16 @@
       <c r="D48" s="17"/>
       <c r="E48" s="17"/>
     </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="15.75" customHeight="1">
       <c r="D49" s="17"/>
     </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="15.75" customHeight="1">
       <c r="A50" s="12" t="s">
         <v>72</v>
       </c>
       <c r="D50" s="17"/>
     </row>
-    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="15.75" customHeight="1">
       <c r="B51" s="16" t="s">
         <v>124</v>
       </c>
@@ -5192,7 +5150,7 @@
       </c>
       <c r="D51" s="17"/>
     </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="15" customHeight="1">
       <c r="B52" s="16" t="s">
         <v>125</v>
       </c>
@@ -5200,7 +5158,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="15.75" customHeight="1">
       <c r="B53" s="16" t="s">
         <v>126</v>
       </c>
@@ -5208,7 +5166,7 @@
         <v>5.64</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="15.75" customHeight="1">
       <c r="B54" s="16" t="s">
         <v>127</v>
       </c>
@@ -5216,7 +5174,7 @@
         <v>5.43</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="15.75" customHeight="1">
       <c r="B55" s="16" t="s">
         <v>128</v>
       </c>
@@ -5224,12 +5182,12 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="15.75" customHeight="1">
       <c r="A57" s="12" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="15.75" customHeight="1">
       <c r="B58" s="7" t="s">
         <v>111</v>
       </c>
@@ -5237,7 +5195,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="15.75" customHeight="1">
       <c r="B59" s="16" t="s">
         <v>132</v>
       </c>
@@ -5245,7 +5203,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="15.75" customHeight="1">
       <c r="B60" s="16" t="s">
         <v>269</v>
       </c>
@@ -5253,7 +5211,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="15.75" customHeight="1">
       <c r="B61" s="16" t="s">
         <v>270</v>
       </c>
@@ -5261,7 +5219,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="15.75" customHeight="1">
       <c r="A63" s="4"/>
     </row>
   </sheetData>
@@ -5282,15 +5240,15 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="53" style="52" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.81640625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="42.453125" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="11.453125" style="35"/>
+    <col min="2" max="2" width="47.77734375" style="35" customWidth="1"/>
+    <col min="3" max="3" width="42.44140625" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -5301,7 +5259,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="83" t="s">
         <v>187</v>
       </c>
@@ -5310,7 +5268,7 @@
       </c>
       <c r="C2" s="80"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="83" t="s">
         <v>207</v>
       </c>
@@ -5319,7 +5277,7 @@
       </c>
       <c r="C3" s="80"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="84" t="s">
         <v>58</v>
       </c>
@@ -5328,7 +5286,7 @@
       </c>
       <c r="C4" s="80"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="84" t="s">
         <v>137</v>
       </c>
@@ -5337,77 +5295,77 @@
       </c>
       <c r="C5" s="80"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="84"/>
       <c r="B6" s="85"/>
       <c r="C6" s="85"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="84"/>
       <c r="B7" s="85"/>
       <c r="C7" s="85"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="84"/>
       <c r="B8" s="85"/>
       <c r="C8" s="85"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="84"/>
       <c r="B9" s="85"/>
       <c r="C9" s="85"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="84"/>
       <c r="B10" s="85"/>
       <c r="C10" s="85"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="86"/>
       <c r="B11" s="85"/>
       <c r="C11" s="85"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="86"/>
       <c r="B12" s="85"/>
       <c r="C12" s="85"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="86"/>
       <c r="B13" s="85"/>
       <c r="C13" s="85"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="86"/>
       <c r="B14" s="85"/>
       <c r="C14" s="85"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="86"/>
       <c r="B15" s="85"/>
       <c r="C15" s="85"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="86"/>
       <c r="B16" s="85"/>
       <c r="C16" s="85"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="86"/>
       <c r="B17" s="85"/>
       <c r="C17" s="85"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="86"/>
       <c r="B18" s="85"/>
       <c r="C18" s="85"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="84"/>
       <c r="B19" s="85"/>
       <c r="C19" s="85"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="84"/>
       <c r="B20" s="85"/>
       <c r="C20" s="85"/>
@@ -5431,85 +5389,85 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="30.08984375" style="35" customWidth="1"/>
-    <col min="2" max="16384" width="11.453125" style="35"/>
+    <col min="1" max="1" width="30.109375" style="35" customWidth="1"/>
+    <col min="2" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" s="48" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" s="48" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" s="48" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1">
       <c r="A5" s="48" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1">
       <c r="A6" s="48" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1">
       <c r="A7" s="48" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1">
       <c r="A8" s="48" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1">
       <c r="A9" s="48" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1">
       <c r="A10" s="48"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1">
       <c r="A11" s="48"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1">
       <c r="A12" s="48"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1">
       <c r="A13" s="48"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1">
       <c r="A14" s="48"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1">
       <c r="A15" s="48"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1">
       <c r="A16" s="48"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" s="48"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" s="48"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" s="48"/>
     </row>
   </sheetData>
@@ -5529,9 +5487,9 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -5551,7 +5509,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>71</v>
       </c>
@@ -5576,7 +5534,7 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>65</v>
       </c>
@@ -5601,7 +5559,7 @@
         <v>5.8059717622450747E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>66</v>
       </c>
@@ -5643,19 +5601,19 @@
       <selection activeCell="C29" activeCellId="3" sqref="C2:O12 C14:O21 C23:O27 C29:O38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.81640625" customWidth="1"/>
-    <col min="3" max="3" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.77734375" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>33</v>
       </c>
@@ -5702,7 +5660,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>31</v>
       </c>
@@ -5753,7 +5711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1">
       <c r="B3" s="7" t="s">
         <v>149</v>
       </c>
@@ -5797,7 +5755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1">
       <c r="B4" s="7" t="s">
         <v>195</v>
       </c>
@@ -5841,7 +5799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1">
       <c r="B5" s="11" t="s">
         <v>136</v>
       </c>
@@ -5887,7 +5845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1">
       <c r="B6" s="11" t="s">
         <v>137</v>
       </c>
@@ -5934,7 +5892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1">
       <c r="B7" s="33" t="s">
         <v>84</v>
       </c>
@@ -5983,7 +5941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1">
       <c r="B8" s="11" t="s">
         <v>58</v>
       </c>
@@ -6029,7 +5987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1">
       <c r="B9" s="11" t="s">
         <v>67</v>
       </c>
@@ -6077,7 +6035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="15" customHeight="1">
       <c r="B10" s="11" t="s">
         <v>28</v>
       </c>
@@ -6121,7 +6079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1">
       <c r="B11" s="33" t="s">
         <v>85</v>
       </c>
@@ -6170,7 +6128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1">
       <c r="B12" s="11" t="s">
         <v>60</v>
       </c>
@@ -6214,10 +6172,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1">
       <c r="B13" s="33"/>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>32</v>
       </c>
@@ -6268,7 +6226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1">
       <c r="A15" s="4"/>
       <c r="B15" s="11" t="s">
         <v>86</v>
@@ -6313,7 +6271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1">
       <c r="A16" s="4"/>
       <c r="B16" s="11" t="s">
         <v>187</v>
@@ -6362,7 +6320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1">
       <c r="A17" s="4"/>
       <c r="B17" s="11" t="s">
         <v>207</v>
@@ -6411,7 +6369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="15" customHeight="1">
       <c r="B18" s="33" t="s">
         <v>57</v>
       </c>
@@ -6459,7 +6417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="15.75" customHeight="1">
       <c r="B19" s="11" t="s">
         <v>88</v>
       </c>
@@ -6503,7 +6461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="15.75" customHeight="1">
       <c r="B20" s="11" t="s">
         <v>87</v>
       </c>
@@ -6547,7 +6505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="15.75" customHeight="1">
       <c r="B21" s="33" t="s">
         <v>59</v>
       </c>
@@ -6595,10 +6553,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="15.75" customHeight="1">
       <c r="B22" s="33"/>
     </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" ht="15.75" customHeight="1">
       <c r="A23" s="58" t="s">
         <v>37</v>
       </c>
@@ -6649,7 +6607,7 @@
         <v>0.221</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="15.75" customHeight="1">
       <c r="B24" s="59" t="s">
         <v>188</v>
       </c>
@@ -6697,7 +6655,7 @@
         <v>0.54921999999999993</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="15.75" customHeight="1">
       <c r="B25" s="59" t="s">
         <v>206</v>
       </c>
@@ -6745,7 +6703,7 @@
         <v>0.23537999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="15.75" customHeight="1">
       <c r="B26" s="59" t="s">
         <v>189</v>
       </c>
@@ -6793,7 +6751,7 @@
         <v>0.21539999999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="15.75" customHeight="1">
       <c r="B27" s="59" t="s">
         <v>190</v>
       </c>
@@ -6838,7 +6796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="15.75" customHeight="1">
       <c r="B28" s="11"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -6848,7 +6806,7 @@
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
     </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" ht="15.75" customHeight="1">
       <c r="A29" s="4" t="s">
         <v>35</v>
       </c>
@@ -6906,7 +6864,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="15.75" customHeight="1">
       <c r="B30" s="11" t="s">
         <v>64</v>
       </c>
@@ -6961,7 +6919,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="15.75" customHeight="1">
       <c r="B31" s="11" t="s">
         <v>62</v>
       </c>
@@ -7016,7 +6974,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="15.75" customHeight="1">
       <c r="B32" s="11" t="s">
         <v>47</v>
       </c>
@@ -7060,7 +7018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1">
       <c r="B33" s="11" t="s">
         <v>34</v>
       </c>
@@ -7117,7 +7075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1">
       <c r="B34" s="33" t="s">
         <v>83</v>
       </c>
@@ -7161,7 +7119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1">
       <c r="A35" s="5"/>
       <c r="B35" s="33" t="s">
         <v>82</v>
@@ -7206,7 +7164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="B36" s="33" t="s">
         <v>81</v>
       </c>
@@ -7250,7 +7208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="B37" s="33" t="s">
         <v>79</v>
       </c>
@@ -7294,7 +7252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="B38" s="33" t="s">
         <v>80</v>
       </c>
@@ -7338,7 +7296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" ht="15.75" customHeight="1">
       <c r="B39" s="33"/>
     </row>
   </sheetData>
@@ -7357,24 +7315,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" s="12" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" s="12" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" s="12" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" s="12" t="s">
         <v>204</v>
       </c>
@@ -7395,16 +7353,16 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="33.6328125" style="35" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" style="35" customWidth="1"/>
-    <col min="3" max="4" width="11.453125" style="35"/>
-    <col min="5" max="5" width="17.453125" style="35" customWidth="1"/>
-    <col min="6" max="16384" width="11.453125" style="35"/>
+    <col min="1" max="1" width="33.6640625" style="35" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="35" customWidth="1"/>
+    <col min="3" max="4" width="11.44140625" style="35"/>
+    <col min="5" max="5" width="17.44140625" style="35" customWidth="1"/>
+    <col min="6" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="40" t="s">
         <v>163</v>
       </c>
@@ -7421,7 +7379,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="13.8">
       <c r="A2" s="39" t="s">
         <v>158</v>
       </c>
@@ -7439,7 +7397,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="13.8">
       <c r="A3" s="39" t="s">
         <v>157</v>
       </c>
@@ -7457,7 +7415,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="13.8">
       <c r="A4" s="39" t="s">
         <v>156</v>
       </c>
@@ -7475,7 +7433,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="13.8">
       <c r="A5" s="39" t="s">
         <v>155</v>
       </c>
@@ -7493,7 +7451,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="13.8">
       <c r="A6" s="39" t="s">
         <v>154</v>
       </c>
@@ -7511,7 +7469,7 @@
         <v>1.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="13.8">
       <c r="A7" s="39" t="s">
         <v>153</v>
       </c>
@@ -7529,7 +7487,7 @@
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="13.8">
       <c r="A8" s="39" t="s">
         <v>152</v>
       </c>
@@ -7547,7 +7505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="13.8">
       <c r="A9" s="39" t="s">
         <v>151</v>
       </c>
@@ -7565,7 +7523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="13.8">
       <c r="A10" s="39" t="s">
         <v>150</v>
       </c>
@@ -7583,7 +7541,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="C11" s="36"/>
     </row>
   </sheetData>
@@ -7604,20 +7562,20 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="22.1796875" style="55" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.90625" style="55" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.453125" style="55" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.08984375" style="55" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.21875" style="55" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.88671875" style="55" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" style="55" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" style="55" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="55" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.08984375" style="55" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="15.36328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="16.90625" style="55" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="16.08984375" style="55"/>
+    <col min="6" max="7" width="13.109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="15.33203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="16.88671875" style="55" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="16.109375" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1">
       <c r="A1" s="56" t="s">
         <v>33</v>
       </c>
@@ -7664,7 +7622,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1">
       <c r="A2" s="56" t="s">
         <v>31</v>
       </c>
@@ -7711,7 +7669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1">
       <c r="B3" s="52" t="s">
         <v>149</v>
       </c>
@@ -7755,7 +7713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1">
       <c r="B4" s="52" t="s">
         <v>173</v>
       </c>
@@ -7799,7 +7757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1">
       <c r="B5" s="52" t="s">
         <v>198</v>
       </c>
@@ -7843,7 +7801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1">
       <c r="B6" s="52" t="s">
         <v>199</v>
       </c>
@@ -7887,7 +7845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1">
       <c r="B7" s="52" t="s">
         <v>195</v>
       </c>
@@ -7931,7 +7889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1">
       <c r="B8" s="52" t="s">
         <v>136</v>
       </c>
@@ -7975,7 +7933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1">
       <c r="B9" s="52" t="s">
         <v>137</v>
       </c>
@@ -8019,7 +7977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1">
       <c r="B10" s="52" t="s">
         <v>84</v>
       </c>
@@ -8063,7 +8021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1">
       <c r="B11" s="52" t="s">
         <v>58</v>
       </c>
@@ -8107,7 +8065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1">
       <c r="B12" s="52" t="s">
         <v>67</v>
       </c>
@@ -8151,7 +8109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1">
       <c r="B13" s="52" t="s">
         <v>28</v>
       </c>
@@ -8195,7 +8153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1">
       <c r="B14" s="52" t="s">
         <v>85</v>
       </c>
@@ -8239,7 +8197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1">
       <c r="B15" s="52" t="s">
         <v>60</v>
       </c>
@@ -8283,7 +8241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1">
       <c r="B16" s="52"/>
       <c r="C16" s="91"/>
       <c r="D16" s="91"/>
@@ -8299,7 +8257,7 @@
       <c r="N16" s="91"/>
       <c r="O16" s="91"/>
     </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" ht="15.75" customHeight="1">
       <c r="A17" s="56" t="s">
         <v>32</v>
       </c>
@@ -8346,7 +8304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1">
       <c r="A18" s="56"/>
       <c r="B18" s="52" t="s">
         <v>86</v>
@@ -8391,7 +8349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" ht="15.75" customHeight="1">
       <c r="B19" s="92" t="s">
         <v>187</v>
       </c>
@@ -8435,7 +8393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1">
       <c r="B20" s="92" t="s">
         <v>207</v>
       </c>
@@ -8479,7 +8437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" ht="15.75" customHeight="1">
       <c r="B21" s="93" t="s">
         <v>57</v>
       </c>
@@ -8523,7 +8481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1">
       <c r="B22" s="52" t="s">
         <v>88</v>
       </c>
@@ -8567,7 +8525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1">
       <c r="B23" s="52" t="s">
         <v>87</v>
       </c>
@@ -8611,7 +8569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1">
       <c r="B24" s="52" t="s">
         <v>59</v>
       </c>
@@ -8655,7 +8613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" ht="15.75" customHeight="1">
       <c r="B25" s="52"/>
       <c r="C25" s="91"/>
       <c r="D25" s="91"/>
@@ -8671,7 +8629,7 @@
       <c r="N25" s="91"/>
       <c r="O25" s="91"/>
     </row>
-    <row r="26" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" ht="16.05" customHeight="1">
       <c r="A26" s="56" t="s">
         <v>37</v>
       </c>
@@ -8719,7 +8677,7 @@
       </c>
       <c r="P26" s="94"/>
     </row>
-    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" ht="15.75" customHeight="1">
       <c r="B27" s="59" t="s">
         <v>188</v>
       </c>
@@ -8763,7 +8721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" ht="15.75" customHeight="1">
       <c r="A28" s="56"/>
       <c r="B28" s="59" t="s">
         <v>206</v>
@@ -8808,7 +8766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" ht="15.75" customHeight="1">
       <c r="B29" s="59" t="s">
         <v>189</v>
       </c>
@@ -8852,7 +8810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" ht="15.75" customHeight="1">
       <c r="B30" s="59" t="s">
         <v>190</v>
       </c>
@@ -8896,7 +8854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" ht="15.75" customHeight="1">
       <c r="B31" s="52"/>
       <c r="C31" s="95"/>
       <c r="D31" s="95"/>
@@ -8912,7 +8870,7 @@
       <c r="N31" s="91"/>
       <c r="O31" s="91"/>
     </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" ht="15.75" customHeight="1">
       <c r="A32" s="56" t="s">
         <v>35</v>
       </c>
@@ -8959,7 +8917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1">
       <c r="B33" s="52" t="s">
         <v>64</v>
       </c>
@@ -9003,7 +8961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1">
       <c r="B34" s="52" t="s">
         <v>62</v>
       </c>
@@ -9047,7 +9005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1">
       <c r="B35" s="52" t="s">
         <v>47</v>
       </c>
@@ -9091,7 +9049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1">
       <c r="B36" s="52" t="s">
         <v>34</v>
       </c>
@@ -9135,7 +9093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" ht="15.75" customHeight="1">
       <c r="A37" s="97"/>
       <c r="B37" s="52" t="s">
         <v>83</v>
@@ -9180,7 +9138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1">
       <c r="B38" s="52" t="s">
         <v>82</v>
       </c>
@@ -9224,7 +9182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1">
       <c r="B39" s="52" t="s">
         <v>81</v>
       </c>
@@ -9268,7 +9226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1">
       <c r="B40" s="52" t="s">
         <v>79</v>
       </c>
@@ -9312,7 +9270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" ht="15" customHeight="1">
       <c r="B41" s="52" t="s">
         <v>80</v>
       </c>
@@ -9373,22 +9331,22 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="58.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="58.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -9423,7 +9381,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="52" t="s">
         <v>29</v>
       </c>
@@ -9440,7 +9398,7 @@
       <c r="J2" s="90"/>
       <c r="K2" s="90"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="52" t="s">
         <v>86</v>
       </c>
@@ -9457,7 +9415,7 @@
       <c r="J3" s="90"/>
       <c r="K3" s="90"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="52" t="s">
         <v>61</v>
       </c>
@@ -9474,7 +9432,7 @@
       <c r="J4" s="90"/>
       <c r="K4" s="90"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="52" t="s">
         <v>149</v>
       </c>
@@ -9491,7 +9449,7 @@
       <c r="J5" s="90"/>
       <c r="K5" s="90"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="52" t="s">
         <v>197</v>
       </c>
@@ -9510,7 +9468,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="52" t="s">
         <v>63</v>
       </c>
@@ -9529,7 +9487,7 @@
       <c r="J7" s="90"/>
       <c r="K7" s="90"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="52" t="s">
         <v>64</v>
       </c>
@@ -9548,7 +9506,7 @@
       <c r="J8" s="90"/>
       <c r="K8" s="90"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="52" t="s">
         <v>62</v>
       </c>
@@ -9567,7 +9525,7 @@
       <c r="J9" s="90"/>
       <c r="K9" s="90"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="59" t="s">
         <v>188</v>
       </c>
@@ -9584,7 +9542,7 @@
       <c r="J10" s="90"/>
       <c r="K10" s="90"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="59" t="s">
         <v>206</v>
       </c>
@@ -9601,7 +9559,7 @@
       <c r="J11" s="90"/>
       <c r="K11" s="90"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="59" t="s">
         <v>189</v>
       </c>
@@ -9618,7 +9576,7 @@
       <c r="J12" s="90"/>
       <c r="K12" s="90"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="59" t="s">
         <v>190</v>
       </c>
@@ -9635,7 +9593,7 @@
       <c r="J13" s="90"/>
       <c r="K13" s="90"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="92" t="s">
         <v>187</v>
       </c>
@@ -9654,7 +9612,7 @@
       <c r="J14" s="90"/>
       <c r="K14" s="90"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="92" t="s">
         <v>207</v>
       </c>
@@ -9673,7 +9631,7 @@
       <c r="J15" s="90"/>
       <c r="K15" s="90"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="52" t="s">
         <v>57</v>
       </c>
@@ -9694,7 +9652,7 @@
       <c r="J16" s="90"/>
       <c r="K16" s="90"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" s="52" t="s">
         <v>47</v>
       </c>
@@ -9711,7 +9669,7 @@
       <c r="J17" s="90"/>
       <c r="K17" s="90"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" s="52" t="s">
         <v>173</v>
       </c>
@@ -9730,7 +9688,7 @@
       <c r="J18" s="90"/>
       <c r="K18" s="90"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" s="52" t="s">
         <v>198</v>
       </c>
@@ -9749,7 +9707,7 @@
       <c r="J19" s="90"/>
       <c r="K19" s="90"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20" s="52" t="s">
         <v>199</v>
       </c>
@@ -9768,7 +9726,7 @@
       <c r="J20" s="90"/>
       <c r="K20" s="90"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21" s="52" t="s">
         <v>195</v>
       </c>
@@ -9787,7 +9745,7 @@
       <c r="J21" s="90"/>
       <c r="K21" s="90"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="A22" s="52" t="s">
         <v>136</v>
       </c>
@@ -9808,7 +9766,7 @@
       <c r="J22" s="90"/>
       <c r="K22" s="90"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23" s="52" t="s">
         <v>34</v>
       </c>
@@ -9827,7 +9785,7 @@
       <c r="J23" s="90"/>
       <c r="K23" s="90"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="A24" s="52" t="s">
         <v>88</v>
       </c>
@@ -9844,7 +9802,7 @@
       <c r="J24" s="90"/>
       <c r="K24" s="90"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="A25" s="52" t="s">
         <v>87</v>
       </c>
@@ -9861,7 +9819,7 @@
       <c r="J25" s="90"/>
       <c r="K25" s="90"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="A26" s="52" t="s">
         <v>137</v>
       </c>
@@ -9878,7 +9836,7 @@
       <c r="J26" s="90"/>
       <c r="K26" s="90"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11">
       <c r="A27" s="52" t="s">
         <v>59</v>
       </c>
@@ -9897,7 +9855,7 @@
       <c r="J27" s="90"/>
       <c r="K27" s="90"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="A28" s="52" t="s">
         <v>84</v>
       </c>
@@ -9914,7 +9872,7 @@
       <c r="J28" s="90"/>
       <c r="K28" s="90"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="A29" s="52" t="s">
         <v>58</v>
       </c>
@@ -9933,7 +9891,7 @@
       <c r="J29" s="90"/>
       <c r="K29" s="90"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="A30" s="52" t="s">
         <v>67</v>
       </c>
@@ -9950,7 +9908,7 @@
       <c r="J30" s="90"/>
       <c r="K30" s="90"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
       <c r="A31" s="52" t="s">
         <v>28</v>
       </c>
@@ -9969,7 +9927,7 @@
       <c r="J31" s="90"/>
       <c r="K31" s="90"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11">
       <c r="A32" s="52" t="s">
         <v>83</v>
       </c>
@@ -9988,7 +9946,7 @@
       <c r="J32" s="90"/>
       <c r="K32" s="90"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11">
       <c r="A33" s="52" t="s">
         <v>82</v>
       </c>
@@ -10007,7 +9965,7 @@
       <c r="J33" s="90"/>
       <c r="K33" s="90"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11">
       <c r="A34" s="52" t="s">
         <v>81</v>
       </c>
@@ -10026,7 +9984,7 @@
       <c r="J34" s="90"/>
       <c r="K34" s="90"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11">
       <c r="A35" s="52" t="s">
         <v>79</v>
       </c>
@@ -10045,7 +10003,7 @@
       <c r="J35" s="90"/>
       <c r="K35" s="90"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11">
       <c r="A36" s="52" t="s">
         <v>80</v>
       </c>
@@ -10064,7 +10022,7 @@
       <c r="J36" s="90"/>
       <c r="K36" s="90"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11">
       <c r="A37" s="52" t="s">
         <v>85</v>
       </c>
@@ -10081,7 +10039,7 @@
       <c r="J37" s="90"/>
       <c r="K37" s="90"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11">
       <c r="A38" s="52" t="s">
         <v>60</v>
       </c>
@@ -10119,22 +10077,22 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="16.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="16.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" s="40" t="s">
         <v>216</v>
       </c>
@@ -10169,7 +10127,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
@@ -10198,7 +10156,7 @@
       <c r="J2" s="90"/>
       <c r="K2" s="90"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
@@ -10227,7 +10185,7 @@
       <c r="J3" s="90"/>
       <c r="K3" s="90"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="35" t="s">
         <v>3</v>
       </c>
@@ -10256,7 +10214,7 @@
       <c r="J4" s="90"/>
       <c r="K4" s="90"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="35" t="s">
         <v>4</v>
       </c>
@@ -10285,7 +10243,7 @@
       <c r="J5" s="90"/>
       <c r="K5" s="90"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="35" t="s">
         <v>5</v>
       </c>
@@ -10314,7 +10272,7 @@
       <c r="J6" s="90"/>
       <c r="K6" s="90"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="35" t="s">
         <v>53</v>
       </c>
@@ -10335,7 +10293,7 @@
       <c r="J7" s="90"/>
       <c r="K7" s="90"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="35" t="s">
         <v>54</v>
       </c>
@@ -10356,7 +10314,7 @@
       <c r="J8" s="90"/>
       <c r="K8" s="90"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="35" t="s">
         <v>55</v>
       </c>
@@ -10377,7 +10335,7 @@
       <c r="J9" s="90"/>
       <c r="K9" s="90"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="35" t="s">
         <v>56</v>
       </c>
@@ -10398,7 +10356,7 @@
       <c r="J10" s="90"/>
       <c r="K10" s="90"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="35" t="s">
         <v>49</v>
       </c>
@@ -10419,7 +10377,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="35" t="s">
         <v>50</v>
       </c>
@@ -10438,7 +10396,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="35" t="s">
         <v>51</v>
       </c>
@@ -10457,7 +10415,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="35" t="s">
         <v>52</v>
       </c>
@@ -10493,15 +10451,15 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="48.08984375" style="35" customWidth="1"/>
+    <col min="1" max="1" width="48.109375" style="35" customWidth="1"/>
     <col min="2" max="2" width="15" style="35" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="12.81640625" style="35"/>
+    <col min="3" max="3" width="14.6640625" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="A1" s="40" t="s">
         <v>217</v>
       </c>
@@ -10527,11 +10485,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2" s="40" t="s">
         <v>218</v>
       </c>
-      <c r="B2" s="137" t="s">
+      <c r="B2" s="138" t="s">
         <v>32</v>
       </c>
       <c r="C2" s="35" t="s">
@@ -10553,8 +10511,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="137"/>
+    <row r="3" spans="1:10">
+      <c r="B3" s="138"/>
       <c r="C3" s="35" t="s">
         <v>175</v>
       </c>
@@ -10575,8 +10533,8 @@
       </c>
       <c r="J3" s="100"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="137"/>
+    <row r="4" spans="1:10">
+      <c r="B4" s="138"/>
       <c r="C4" s="35" t="s">
         <v>174</v>
       </c>
@@ -10597,8 +10555,8 @@
       </c>
       <c r="J4" s="100"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="137" t="s">
+    <row r="5" spans="1:10">
+      <c r="B5" s="138" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="35" t="s">
@@ -10621,8 +10579,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="137"/>
+    <row r="6" spans="1:10">
+      <c r="B6" s="138"/>
       <c r="C6" s="35" t="s">
         <v>175</v>
       </c>
@@ -10642,8 +10600,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="137"/>
+    <row r="7" spans="1:10">
+      <c r="B7" s="138"/>
       <c r="C7" s="35" t="s">
         <v>174</v>
       </c>
@@ -10663,8 +10621,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="137" t="s">
+    <row r="8" spans="1:10">
+      <c r="B8" s="138" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="35" t="s">
@@ -10686,8 +10644,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="137"/>
+    <row r="9" spans="1:10">
+      <c r="B9" s="138"/>
       <c r="C9" s="35" t="s">
         <v>175</v>
       </c>
@@ -10707,8 +10665,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="137"/>
+    <row r="10" spans="1:10">
+      <c r="B10" s="138"/>
       <c r="C10" s="35" t="s">
         <v>174</v>
       </c>
@@ -10728,8 +10686,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="137" t="s">
+    <row r="11" spans="1:10">
+      <c r="B11" s="138" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="35" t="s">
@@ -10751,8 +10709,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="137"/>
+    <row r="12" spans="1:10">
+      <c r="B12" s="138"/>
       <c r="C12" s="35" t="s">
         <v>175</v>
       </c>
@@ -10772,8 +10730,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="137"/>
+    <row r="13" spans="1:10">
+      <c r="B13" s="138"/>
       <c r="C13" s="35" t="s">
         <v>174</v>
       </c>
@@ -10793,8 +10751,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="137" t="s">
+    <row r="14" spans="1:10">
+      <c r="B14" s="138" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="35" t="s">
@@ -10816,8 +10774,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="137"/>
+    <row r="15" spans="1:10">
+      <c r="B15" s="138"/>
       <c r="C15" s="35" t="s">
         <v>175</v>
       </c>
@@ -10837,8 +10795,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="137"/>
+    <row r="16" spans="1:10">
+      <c r="B16" s="138"/>
       <c r="C16" s="35" t="s">
         <v>174</v>
       </c>
@@ -10858,7 +10816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="B17" s="101" t="s">
         <v>172</v>
       </c>
@@ -10881,18 +10839,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="D18" s="102"/>
       <c r="E18" s="102"/>
       <c r="F18" s="102"/>
       <c r="G18" s="102"/>
       <c r="H18" s="102"/>
     </row>
-    <row r="19" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8">
       <c r="A19" s="40" t="s">
         <v>219</v>
       </c>
-      <c r="B19" s="137" t="s">
+      <c r="B19" s="138" t="s">
         <v>32</v>
       </c>
       <c r="C19" s="35" t="s">
@@ -10914,8 +10872,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="137"/>
+    <row r="20" spans="1:8">
+      <c r="B20" s="138"/>
       <c r="C20" s="35" t="s">
         <v>175</v>
       </c>
@@ -10935,8 +10893,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="137"/>
+    <row r="21" spans="1:8">
+      <c r="B21" s="138"/>
       <c r="C21" s="35" t="s">
         <v>174</v>
       </c>
@@ -10956,8 +10914,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="137" t="s">
+    <row r="22" spans="1:8">
+      <c r="B22" s="138" t="s">
         <v>1</v>
       </c>
       <c r="C22" s="35" t="s">
@@ -10979,8 +10937,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="137"/>
+    <row r="23" spans="1:8">
+      <c r="B23" s="138"/>
       <c r="C23" s="35" t="s">
         <v>175</v>
       </c>
@@ -11000,8 +10958,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="137"/>
+    <row r="24" spans="1:8">
+      <c r="B24" s="138"/>
       <c r="C24" s="35" t="s">
         <v>174</v>
       </c>
@@ -11021,8 +10979,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="137" t="s">
+    <row r="25" spans="1:8">
+      <c r="B25" s="138" t="s">
         <v>2</v>
       </c>
       <c r="C25" s="35" t="s">
@@ -11044,8 +11002,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="137"/>
+    <row r="26" spans="1:8">
+      <c r="B26" s="138"/>
       <c r="C26" s="35" t="s">
         <v>175</v>
       </c>
@@ -11065,8 +11023,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="137"/>
+    <row r="27" spans="1:8">
+      <c r="B27" s="138"/>
       <c r="C27" s="35" t="s">
         <v>174</v>
       </c>
@@ -11086,8 +11044,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="137" t="s">
+    <row r="28" spans="1:8">
+      <c r="B28" s="138" t="s">
         <v>3</v>
       </c>
       <c r="C28" s="35" t="s">
@@ -11109,8 +11067,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="137"/>
+    <row r="29" spans="1:8">
+      <c r="B29" s="138"/>
       <c r="C29" s="35" t="s">
         <v>175</v>
       </c>
@@ -11130,8 +11088,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="137"/>
+    <row r="30" spans="1:8">
+      <c r="B30" s="138"/>
       <c r="C30" s="35" t="s">
         <v>174</v>
       </c>
@@ -11151,8 +11109,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="137" t="s">
+    <row r="31" spans="1:8">
+      <c r="B31" s="138" t="s">
         <v>4</v>
       </c>
       <c r="C31" s="35" t="s">
@@ -11174,8 +11132,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="137"/>
+    <row r="32" spans="1:8">
+      <c r="B32" s="138"/>
       <c r="C32" s="35" t="s">
         <v>175</v>
       </c>
@@ -11195,8 +11153,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="137"/>
+    <row r="33" spans="1:8">
+      <c r="B33" s="138"/>
       <c r="C33" s="35" t="s">
         <v>174</v>
       </c>
@@ -11216,7 +11174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="B34" s="101" t="s">
         <v>172</v>
       </c>
@@ -11239,18 +11197,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="D35" s="102"/>
       <c r="E35" s="102"/>
       <c r="F35" s="102"/>
       <c r="G35" s="102"/>
       <c r="H35" s="102"/>
     </row>
-    <row r="36" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8">
       <c r="A36" s="103" t="s">
         <v>220</v>
       </c>
-      <c r="B36" s="137" t="s">
+      <c r="B36" s="138" t="s">
         <v>32</v>
       </c>
       <c r="C36" s="35" t="s">
@@ -11272,8 +11230,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="137"/>
+    <row r="37" spans="1:8">
+      <c r="B37" s="138"/>
       <c r="C37" s="35" t="s">
         <v>175</v>
       </c>
@@ -11293,8 +11251,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="137"/>
+    <row r="38" spans="1:8">
+      <c r="B38" s="138"/>
       <c r="C38" s="35" t="s">
         <v>174</v>
       </c>
@@ -11314,8 +11272,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="137" t="s">
+    <row r="39" spans="1:8">
+      <c r="B39" s="138" t="s">
         <v>1</v>
       </c>
       <c r="C39" s="35" t="s">
@@ -11337,8 +11295,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="137"/>
+    <row r="40" spans="1:8">
+      <c r="B40" s="138"/>
       <c r="C40" s="35" t="s">
         <v>175</v>
       </c>
@@ -11358,8 +11316,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="137"/>
+    <row r="41" spans="1:8">
+      <c r="B41" s="138"/>
       <c r="C41" s="35" t="s">
         <v>174</v>
       </c>
@@ -11379,8 +11337,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="137" t="s">
+    <row r="42" spans="1:8">
+      <c r="B42" s="138" t="s">
         <v>2</v>
       </c>
       <c r="C42" s="35" t="s">
@@ -11402,8 +11360,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="137"/>
+    <row r="43" spans="1:8">
+      <c r="B43" s="138"/>
       <c r="C43" s="35" t="s">
         <v>175</v>
       </c>
@@ -11423,8 +11381,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="137"/>
+    <row r="44" spans="1:8">
+      <c r="B44" s="138"/>
       <c r="C44" s="35" t="s">
         <v>174</v>
       </c>
@@ -11444,8 +11402,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="137" t="s">
+    <row r="45" spans="1:8">
+      <c r="B45" s="138" t="s">
         <v>3</v>
       </c>
       <c r="C45" s="35" t="s">
@@ -11467,8 +11425,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="137"/>
+    <row r="46" spans="1:8">
+      <c r="B46" s="138"/>
       <c r="C46" s="35" t="s">
         <v>175</v>
       </c>
@@ -11488,8 +11446,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="137"/>
+    <row r="47" spans="1:8">
+      <c r="B47" s="138"/>
       <c r="C47" s="35" t="s">
         <v>174</v>
       </c>
@@ -11509,8 +11467,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B48" s="137" t="s">
+    <row r="48" spans="1:8">
+      <c r="B48" s="138" t="s">
         <v>4</v>
       </c>
       <c r="C48" s="35" t="s">
@@ -11532,8 +11490,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="137"/>
+    <row r="49" spans="2:8">
+      <c r="B49" s="138"/>
       <c r="C49" s="35" t="s">
         <v>175</v>
       </c>
@@ -11553,8 +11511,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="137"/>
+    <row r="50" spans="2:8">
+      <c r="B50" s="138"/>
       <c r="C50" s="35" t="s">
         <v>174</v>
       </c>
@@ -11574,7 +11532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8">
       <c r="B51" s="104" t="s">
         <v>172</v>
       </c>
@@ -11632,14 +11590,14 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.453125" style="12" customWidth="1"/>
-    <col min="2" max="9" width="16.81640625" style="12" customWidth="1"/>
-    <col min="10" max="16384" width="14.453125" style="12"/>
+    <col min="1" max="1" width="8.44140625" style="12" customWidth="1"/>
+    <col min="2" max="9" width="16.77734375" style="12" customWidth="1"/>
+    <col min="10" max="16384" width="14.44140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -11668,7 +11626,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1">
       <c r="A2" s="7">
         <f>start_year</f>
         <v>2017</v>
@@ -11701,7 +11659,7 @@
         <v>10889222.411291081</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1">
       <c r="A3" s="7">
         <f t="shared" ref="A3:A40" si="2">IF($A$2+ROW(A3)-2&lt;=end_year,A2+1,"")</f>
         <v>2018</v>
@@ -11734,7 +11692,7 @@
         <v>11314876.916718401</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1">
       <c r="A4" s="7">
         <f t="shared" si="2"/>
         <v>2019</v>
@@ -11767,7 +11725,7 @@
         <v>11742062.79850255</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1">
       <c r="A5" s="7">
         <f t="shared" si="2"/>
         <v>2020</v>
@@ -11800,7 +11758,7 @@
         <v>12188008.303929869</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1">
       <c r="A6" s="7">
         <f t="shared" si="2"/>
         <v>2021</v>
@@ -11833,7 +11791,7 @@
         <v>12645913.809357187</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1">
       <c r="A7" s="7">
         <f t="shared" si="2"/>
         <v>2022</v>
@@ -11866,7 +11824,7 @@
         <v>13098634.691141337</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1">
       <c r="A8" s="7">
         <f t="shared" si="2"/>
         <v>2023</v>
@@ -11899,7 +11857,7 @@
         <v>13560643.572925486</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1">
       <c r="A9" s="7">
         <f t="shared" si="2"/>
         <v>2024</v>
@@ -11932,7 +11890,7 @@
         <v>14048879.078352805</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1">
       <c r="A10" s="7">
         <f t="shared" si="2"/>
         <v>2025</v>
@@ -11965,7 +11923,7 @@
         <v>14530354.336493783</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1">
       <c r="A11" s="7">
         <f t="shared" si="2"/>
         <v>2026</v>
@@ -11998,7 +11956,7 @@
         <v>15032265.218277931</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15.75" customHeight="1">
       <c r="A12" s="7">
         <f t="shared" si="2"/>
         <v>2027</v>
@@ -12031,7 +11989,7 @@
         <v>15550202.10006208</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15.75" customHeight="1">
       <c r="A13" s="7">
         <f t="shared" si="2"/>
         <v>2028</v>
@@ -12064,7 +12022,7 @@
         <v>16082324.981846228</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15.75" customHeight="1">
       <c r="A14" s="7">
         <f t="shared" si="2"/>
         <v>2029</v>
@@ -12097,7 +12055,7 @@
         <v>16613455.239987208</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15.75" customHeight="1">
       <c r="A15" s="7">
         <f t="shared" si="2"/>
         <v>2030</v>
@@ -12130,7 +12088,7 @@
         <v>17165139.121771358</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15.75" customHeight="1">
       <c r="A16" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12153,7 +12111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1">
       <c r="A17" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12176,7 +12134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1">
       <c r="A18" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12199,7 +12157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1">
       <c r="A19" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12222,7 +12180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1">
       <c r="A20" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12245,7 +12203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1">
       <c r="A21" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12268,7 +12226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1">
       <c r="A22" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12291,7 +12249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1">
       <c r="A23" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12314,7 +12272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1">
       <c r="A24" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12337,7 +12295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1">
       <c r="A25" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12360,7 +12318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="15.75" customHeight="1">
       <c r="A26" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12383,7 +12341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="15.75" customHeight="1">
       <c r="A27" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12406,7 +12364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="15.75" customHeight="1">
       <c r="A28" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12429,7 +12387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="15.75" customHeight="1">
       <c r="A29" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12452,7 +12410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="15.75" customHeight="1">
       <c r="A30" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12475,7 +12433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="15.75" customHeight="1">
       <c r="A31" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12498,7 +12456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="15.75" customHeight="1">
       <c r="A32" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12521,7 +12479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="15.75" customHeight="1">
       <c r="A33" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12544,7 +12502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="15.75" customHeight="1">
       <c r="A34" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12567,7 +12525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="15.75" customHeight="1">
       <c r="A35" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12590,7 +12548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="15.75" customHeight="1">
       <c r="A36" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12613,7 +12571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="15.75" customHeight="1">
       <c r="A37" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12636,7 +12594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="15.75" customHeight="1">
       <c r="A38" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12659,7 +12617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="15.75" customHeight="1">
       <c r="A39" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12682,7 +12640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="15.75" customHeight="1">
       <c r="A40" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12728,22 +12686,22 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="23.90625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="34.08984375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="11.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.90625" style="35" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="34.109375" style="35" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" style="35" customWidth="1"/>
     <col min="5" max="6" width="15" style="35" customWidth="1"/>
-    <col min="7" max="16384" width="16.08984375" style="35"/>
+    <col min="7" max="16384" width="16.109375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="106" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="106" customFormat="1" ht="18.75" customHeight="1">
       <c r="A1" s="105" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="B2" s="107"/>
       <c r="C2" s="108" t="s">
         <v>26</v>
@@ -12758,7 +12716,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="40" t="s">
         <v>222</v>
       </c>
@@ -12768,7 +12726,7 @@
       <c r="E3" s="112"/>
       <c r="F3" s="112"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="B4" s="113" t="s">
         <v>75</v>
       </c>
@@ -12785,7 +12743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="113" t="s">
         <v>76</v>
       </c>
@@ -12802,7 +12760,7 @@
         <v>3.03</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="B6" s="113" t="s">
         <v>77</v>
       </c>
@@ -12819,7 +12777,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="B7" s="113" t="s">
         <v>78</v>
       </c>
@@ -12836,13 +12794,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="C8" s="116"/>
       <c r="D8" s="100"/>
       <c r="E8" s="100"/>
       <c r="F8" s="100"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="A9" s="40" t="s">
         <v>223</v>
       </c>
@@ -12860,14 +12818,14 @@
       </c>
       <c r="G9" s="117"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="C10" s="116"/>
       <c r="D10" s="100"/>
       <c r="E10" s="100"/>
       <c r="F10" s="100"/>
       <c r="G10" s="117"/>
     </row>
-    <row r="11" spans="1:7" s="106" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="106" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="105" t="s">
         <v>224</v>
       </c>
@@ -12877,7 +12835,7 @@
       <c r="F11" s="119"/>
       <c r="G11" s="120"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="A12" s="40" t="s">
         <v>225</v>
       </c>
@@ -12887,7 +12845,7 @@
       <c r="F12" s="100"/>
       <c r="G12" s="117"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="121" t="s">
         <v>226</v>
       </c>
@@ -12905,7 +12863,7 @@
       </c>
       <c r="G13" s="117"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="B14" s="121" t="s">
         <v>227</v>
       </c>
@@ -12923,7 +12881,7 @@
       </c>
       <c r="G14" s="117"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="121" t="s">
         <v>228</v>
       </c>
@@ -12941,7 +12899,7 @@
       </c>
       <c r="G15" s="117"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="A16" s="40"/>
       <c r="B16" s="121"/>
       <c r="C16" s="122"/>
@@ -12950,7 +12908,7 @@
       <c r="F16" s="100"/>
       <c r="G16" s="117"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="A17" s="40" t="s">
         <v>229</v>
       </c>
@@ -12961,7 +12919,7 @@
       <c r="F17" s="124"/>
       <c r="G17" s="117"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="B18" s="125" t="s">
         <v>73</v>
       </c>
@@ -12979,7 +12937,7 @@
       </c>
       <c r="G18" s="117"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="B19" s="125" t="s">
         <v>7</v>
       </c>
@@ -12997,7 +12955,7 @@
       </c>
       <c r="G19" s="117"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="B20" s="125" t="s">
         <v>8</v>
       </c>
@@ -13015,7 +12973,7 @@
       </c>
       <c r="G20" s="117"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="B21" s="125" t="s">
         <v>10</v>
       </c>
@@ -13033,7 +12991,7 @@
       </c>
       <c r="G21" s="117"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1">
       <c r="B22" s="125" t="s">
         <v>13</v>
       </c>
@@ -13050,7 +13008,7 @@
         <v>999.99</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1">
       <c r="B23" s="125" t="s">
         <v>14</v>
       </c>
@@ -13067,7 +13025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1">
       <c r="B24" s="125" t="s">
         <v>27</v>
       </c>
@@ -13084,7 +13042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1">
       <c r="B25" s="125" t="s">
         <v>15</v>
       </c>
@@ -13101,10 +13059,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1">
       <c r="B26" s="121"/>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1">
       <c r="B28" s="40"/>
     </row>
   </sheetData>
@@ -13125,23 +13083,23 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="27.1796875" style="35" customWidth="1"/>
-    <col min="2" max="2" width="26.90625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="18.36328125" style="35" customWidth="1"/>
-    <col min="4" max="8" width="14.81640625" style="35" customWidth="1"/>
-    <col min="9" max="12" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="16.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="27.21875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="35" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="35" customWidth="1"/>
+    <col min="4" max="8" width="14.77734375" style="35" customWidth="1"/>
+    <col min="9" max="12" width="15.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="16.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="106" customFormat="1">
       <c r="A1" s="105" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16">
       <c r="A2" s="126" t="s">
         <v>211</v>
       </c>
@@ -13175,7 +13133,7 @@
       <c r="O2" s="128"/>
       <c r="P2" s="128"/>
     </row>
-    <row r="3" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16">
       <c r="A3" s="40"/>
       <c r="B3" s="35" t="s">
         <v>71</v>
@@ -13207,7 +13165,7 @@
       <c r="O3" s="126"/>
       <c r="P3" s="126"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="C4" s="43" t="s">
         <v>234</v>
       </c>
@@ -13235,7 +13193,7 @@
       <c r="O4" s="126"/>
       <c r="P4" s="126"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="C5" s="43" t="s">
         <v>235</v>
       </c>
@@ -13263,7 +13221,7 @@
       <c r="O5" s="126"/>
       <c r="P5" s="126"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="C6" s="43" t="s">
         <v>236</v>
       </c>
@@ -13291,7 +13249,7 @@
       <c r="O6" s="126"/>
       <c r="P6" s="126"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="B7" s="35" t="s">
         <v>16</v>
       </c>
@@ -13322,7 +13280,7 @@
       <c r="O7" s="126"/>
       <c r="P7" s="126"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16">
       <c r="C8" s="43" t="s">
         <v>234</v>
       </c>
@@ -13350,7 +13308,7 @@
       <c r="O8" s="126"/>
       <c r="P8" s="126"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16">
       <c r="C9" s="43" t="s">
         <v>235</v>
       </c>
@@ -13378,7 +13336,7 @@
       <c r="O9" s="126"/>
       <c r="P9" s="126"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16">
       <c r="C10" s="43" t="s">
         <v>236</v>
       </c>
@@ -13406,7 +13364,7 @@
       <c r="O10" s="126"/>
       <c r="P10" s="126"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16">
       <c r="B11" s="35" t="s">
         <v>18</v>
       </c>
@@ -13437,7 +13395,7 @@
       <c r="O11" s="126"/>
       <c r="P11" s="126"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16">
       <c r="C12" s="43" t="s">
         <v>234</v>
       </c>
@@ -13465,7 +13423,7 @@
       <c r="O12" s="126"/>
       <c r="P12" s="126"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16">
       <c r="C13" s="43" t="s">
         <v>235</v>
       </c>
@@ -13493,7 +13451,7 @@
       <c r="O13" s="126"/>
       <c r="P13" s="126"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16">
       <c r="C14" s="43" t="s">
         <v>236</v>
       </c>
@@ -13521,7 +13479,7 @@
       <c r="O14" s="126"/>
       <c r="P14" s="126"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16">
       <c r="B15" s="35" t="s">
         <v>19</v>
       </c>
@@ -13552,7 +13510,7 @@
       <c r="O15" s="126"/>
       <c r="P15" s="126"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16">
       <c r="C16" s="43" t="s">
         <v>234</v>
       </c>
@@ -13580,7 +13538,7 @@
       <c r="O16" s="126"/>
       <c r="P16" s="126"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16">
       <c r="C17" s="43" t="s">
         <v>235</v>
       </c>
@@ -13608,7 +13566,7 @@
       <c r="O17" s="126"/>
       <c r="P17" s="126"/>
     </row>
-    <row r="18" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="13.95" customHeight="1">
       <c r="C18" s="43" t="s">
         <v>236</v>
       </c>
@@ -13636,7 +13594,7 @@
       <c r="O18" s="126"/>
       <c r="P18" s="126"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16">
       <c r="B19" s="36" t="s">
         <v>17</v>
       </c>
@@ -13667,7 +13625,7 @@
       <c r="O19" s="126"/>
       <c r="P19" s="126"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16">
       <c r="C20" s="43" t="s">
         <v>234</v>
       </c>
@@ -13695,7 +13653,7 @@
       <c r="O20" s="126"/>
       <c r="P20" s="126"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16">
       <c r="C21" s="43" t="s">
         <v>235</v>
       </c>
@@ -13723,7 +13681,7 @@
       <c r="O21" s="126"/>
       <c r="P21" s="126"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16">
       <c r="C22" s="43" t="s">
         <v>236</v>
       </c>
@@ -13751,7 +13709,7 @@
       <c r="O22" s="126"/>
       <c r="P22" s="126"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16">
       <c r="B23" s="36" t="s">
         <v>23</v>
       </c>
@@ -13782,7 +13740,7 @@
       <c r="O23" s="126"/>
       <c r="P23" s="126"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16">
       <c r="C24" s="43" t="s">
         <v>234</v>
       </c>
@@ -13810,7 +13768,7 @@
       <c r="O24" s="126"/>
       <c r="P24" s="126"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16">
       <c r="C25" s="43" t="s">
         <v>235</v>
       </c>
@@ -13838,7 +13796,7 @@
       <c r="O25" s="126"/>
       <c r="P25" s="126"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16">
       <c r="C26" s="43" t="s">
         <v>236</v>
       </c>
@@ -13866,12 +13824,12 @@
       <c r="O26" s="126"/>
       <c r="P26" s="126"/>
     </row>
-    <row r="28" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" s="106" customFormat="1">
       <c r="A28" s="105" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="36" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" s="36" customFormat="1">
       <c r="A29" s="129" t="s">
         <v>238</v>
       </c>
@@ -13905,7 +13863,7 @@
       <c r="O29" s="128"/>
       <c r="P29" s="128"/>
     </row>
-    <row r="30" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16">
       <c r="A30" s="40"/>
       <c r="B30" s="35" t="s">
         <v>71</v>
@@ -13937,7 +13895,7 @@
       <c r="O30" s="126"/>
       <c r="P30" s="126"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16">
       <c r="C31" s="43" t="s">
         <v>234</v>
       </c>
@@ -13965,7 +13923,7 @@
       <c r="O31" s="126"/>
       <c r="P31" s="126"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16">
       <c r="C32" s="43" t="s">
         <v>65</v>
       </c>
@@ -13993,7 +13951,7 @@
       <c r="O32" s="126"/>
       <c r="P32" s="126"/>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:16">
       <c r="C33" s="43" t="s">
         <v>66</v>
       </c>
@@ -14021,7 +13979,7 @@
       <c r="O33" s="126"/>
       <c r="P33" s="126"/>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:16">
       <c r="B34" s="35" t="s">
         <v>16</v>
       </c>
@@ -14052,7 +14010,7 @@
       <c r="O34" s="126"/>
       <c r="P34" s="126"/>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:16">
       <c r="C35" s="43" t="s">
         <v>234</v>
       </c>
@@ -14080,7 +14038,7 @@
       <c r="O35" s="126"/>
       <c r="P35" s="126"/>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:16">
       <c r="C36" s="43" t="s">
         <v>65</v>
       </c>
@@ -14108,7 +14066,7 @@
       <c r="O36" s="126"/>
       <c r="P36" s="126"/>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:16">
       <c r="C37" s="43" t="s">
         <v>66</v>
       </c>
@@ -14136,7 +14094,7 @@
       <c r="O37" s="126"/>
       <c r="P37" s="126"/>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:16">
       <c r="B38" s="35" t="s">
         <v>18</v>
       </c>
@@ -14167,7 +14125,7 @@
       <c r="O38" s="126"/>
       <c r="P38" s="126"/>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:16">
       <c r="C39" s="43" t="s">
         <v>234</v>
       </c>
@@ -14195,7 +14153,7 @@
       <c r="O39" s="126"/>
       <c r="P39" s="126"/>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:16">
       <c r="C40" s="43" t="s">
         <v>65</v>
       </c>
@@ -14223,7 +14181,7 @@
       <c r="O40" s="126"/>
       <c r="P40" s="126"/>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:16">
       <c r="C41" s="43" t="s">
         <v>66</v>
       </c>
@@ -14251,7 +14209,7 @@
       <c r="O41" s="126"/>
       <c r="P41" s="126"/>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:16">
       <c r="B42" s="35" t="s">
         <v>19</v>
       </c>
@@ -14282,7 +14240,7 @@
       <c r="O42" s="126"/>
       <c r="P42" s="126"/>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:16">
       <c r="C43" s="43" t="s">
         <v>234</v>
       </c>
@@ -14310,7 +14268,7 @@
       <c r="O43" s="126"/>
       <c r="P43" s="126"/>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:16">
       <c r="C44" s="43" t="s">
         <v>65</v>
       </c>
@@ -14338,7 +14296,7 @@
       <c r="O44" s="126"/>
       <c r="P44" s="126"/>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:16">
       <c r="C45" s="43" t="s">
         <v>66</v>
       </c>
@@ -14366,7 +14324,7 @@
       <c r="O45" s="126"/>
       <c r="P45" s="126"/>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:16">
       <c r="B46" s="35" t="s">
         <v>17</v>
       </c>
@@ -14397,7 +14355,7 @@
       <c r="O46" s="126"/>
       <c r="P46" s="126"/>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:16">
       <c r="C47" s="43" t="s">
         <v>234</v>
       </c>
@@ -14425,7 +14383,7 @@
       <c r="O47" s="126"/>
       <c r="P47" s="126"/>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:16">
       <c r="C48" s="43" t="s">
         <v>65</v>
       </c>
@@ -14453,7 +14411,7 @@
       <c r="O48" s="126"/>
       <c r="P48" s="126"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16">
       <c r="C49" s="43" t="s">
         <v>66</v>
       </c>
@@ -14481,7 +14439,7 @@
       <c r="O49" s="126"/>
       <c r="P49" s="126"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16">
       <c r="B50" s="35" t="s">
         <v>23</v>
       </c>
@@ -14512,7 +14470,7 @@
       <c r="O50" s="126"/>
       <c r="P50" s="126"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16">
       <c r="C51" s="43" t="s">
         <v>234</v>
       </c>
@@ -14540,7 +14498,7 @@
       <c r="O51" s="126"/>
       <c r="P51" s="126"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16">
       <c r="C52" s="43" t="s">
         <v>65</v>
       </c>
@@ -14568,7 +14526,7 @@
       <c r="O52" s="126"/>
       <c r="P52" s="126"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16">
       <c r="C53" s="43" t="s">
         <v>66</v>
       </c>
@@ -14596,16 +14554,16 @@
       <c r="O53" s="126"/>
       <c r="P53" s="126"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16">
       <c r="C54" s="43"/>
       <c r="D54" s="43"/>
     </row>
-    <row r="55" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" s="106" customFormat="1">
       <c r="A55" s="105" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="56" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" s="36" customFormat="1" ht="26.4">
       <c r="A56" s="129" t="s">
         <v>70</v>
       </c>
@@ -14633,7 +14591,7 @@
       <c r="O56" s="128"/>
       <c r="P56" s="128"/>
     </row>
-    <row r="57" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16">
       <c r="A57" s="40"/>
       <c r="B57" s="35" t="s">
         <v>38</v>
@@ -14659,7 +14617,7 @@
       <c r="O57" s="126"/>
       <c r="P57" s="126"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16">
       <c r="C58" s="43" t="s">
         <v>243</v>
       </c>
@@ -14681,7 +14639,7 @@
       <c r="O58" s="126"/>
       <c r="P58" s="126"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16">
       <c r="B59" s="35" t="s">
         <v>39</v>
       </c>
@@ -14706,7 +14664,7 @@
       <c r="O59" s="126"/>
       <c r="P59" s="126"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16">
       <c r="C60" s="43" t="s">
         <v>243</v>
       </c>
@@ -14728,7 +14686,7 @@
       <c r="O60" s="126"/>
       <c r="P60" s="126"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16">
       <c r="B61" s="35" t="s">
         <v>40</v>
       </c>
@@ -14753,7 +14711,7 @@
       <c r="O61" s="126"/>
       <c r="P61" s="126"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16">
       <c r="C62" s="43" t="s">
         <v>243</v>
       </c>
@@ -14775,16 +14733,16 @@
       <c r="O62" s="126"/>
       <c r="P62" s="126"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16">
       <c r="C63" s="43"/>
       <c r="D63" s="43"/>
     </row>
-    <row r="64" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" s="106" customFormat="1">
       <c r="A64" s="105" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="65" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" s="36" customFormat="1" ht="26.4">
       <c r="A65" s="129" t="s">
         <v>24</v>
       </c>
@@ -14818,7 +14776,7 @@
       <c r="O65" s="128"/>
       <c r="P65" s="128"/>
     </row>
-    <row r="66" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16">
       <c r="A66" s="133"/>
       <c r="B66" s="35" t="s">
         <v>73</v>
@@ -14850,7 +14808,7 @@
       <c r="O66" s="126"/>
       <c r="P66" s="126"/>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16">
       <c r="C67" s="43" t="s">
         <v>167</v>
       </c>
@@ -14878,7 +14836,7 @@
       <c r="O67" s="126"/>
       <c r="P67" s="126"/>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16">
       <c r="C68" s="43" t="s">
         <v>168</v>
       </c>
@@ -14906,7 +14864,7 @@
       <c r="O68" s="126"/>
       <c r="P68" s="126"/>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16">
       <c r="C69" s="43" t="s">
         <v>169</v>
       </c>
@@ -14934,7 +14892,7 @@
       <c r="O69" s="126"/>
       <c r="P69" s="126"/>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16">
       <c r="B70" s="35" t="s">
         <v>7</v>
       </c>
@@ -14965,7 +14923,7 @@
       <c r="O70" s="126"/>
       <c r="P70" s="126"/>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16">
       <c r="C71" s="43" t="s">
         <v>167</v>
       </c>
@@ -14993,7 +14951,7 @@
       <c r="O71" s="126"/>
       <c r="P71" s="126"/>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16">
       <c r="C72" s="43" t="s">
         <v>168</v>
       </c>
@@ -15021,7 +14979,7 @@
       <c r="O72" s="126"/>
       <c r="P72" s="126"/>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16">
       <c r="C73" s="43" t="s">
         <v>169</v>
       </c>
@@ -15049,7 +15007,7 @@
       <c r="O73" s="126"/>
       <c r="P73" s="126"/>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16">
       <c r="B74" s="35" t="s">
         <v>8</v>
       </c>
@@ -15080,7 +15038,7 @@
       <c r="O74" s="126"/>
       <c r="P74" s="126"/>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16">
       <c r="C75" s="43" t="s">
         <v>167</v>
       </c>
@@ -15108,7 +15066,7 @@
       <c r="O75" s="126"/>
       <c r="P75" s="126"/>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16">
       <c r="C76" s="43" t="s">
         <v>168</v>
       </c>
@@ -15136,7 +15094,7 @@
       <c r="O76" s="126"/>
       <c r="P76" s="126"/>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16">
       <c r="C77" s="43" t="s">
         <v>169</v>
       </c>
@@ -15164,7 +15122,7 @@
       <c r="O77" s="126"/>
       <c r="P77" s="126"/>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16">
       <c r="B78" s="35" t="s">
         <v>13</v>
       </c>
@@ -15195,7 +15153,7 @@
       <c r="O78" s="126"/>
       <c r="P78" s="126"/>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16">
       <c r="C79" s="43" t="s">
         <v>167</v>
       </c>
@@ -15223,7 +15181,7 @@
       <c r="O79" s="126"/>
       <c r="P79" s="126"/>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16">
       <c r="C80" s="43" t="s">
         <v>168</v>
       </c>
@@ -15251,7 +15209,7 @@
       <c r="O80" s="126"/>
       <c r="P80" s="126"/>
     </row>
-    <row r="81" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:16">
       <c r="C81" s="43" t="s">
         <v>169</v>
       </c>
@@ -15279,7 +15237,7 @@
       <c r="O81" s="126"/>
       <c r="P81" s="126"/>
     </row>
-    <row r="82" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:16">
       <c r="B82" s="35" t="s">
         <v>71</v>
       </c>
@@ -15310,7 +15268,7 @@
       <c r="O82" s="126"/>
       <c r="P82" s="126"/>
     </row>
-    <row r="83" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:16">
       <c r="C83" s="43" t="s">
         <v>167</v>
       </c>
@@ -15338,7 +15296,7 @@
       <c r="O83" s="126"/>
       <c r="P83" s="126"/>
     </row>
-    <row r="84" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:16">
       <c r="C84" s="43" t="s">
         <v>168</v>
       </c>
@@ -15366,7 +15324,7 @@
       <c r="O84" s="126"/>
       <c r="P84" s="126"/>
     </row>
-    <row r="85" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:16">
       <c r="C85" s="43" t="s">
         <v>169</v>
       </c>
@@ -15394,7 +15352,7 @@
       <c r="O85" s="126"/>
       <c r="P85" s="126"/>
     </row>
-    <row r="86" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:16">
       <c r="B86" s="35" t="s">
         <v>16</v>
       </c>
@@ -15425,7 +15383,7 @@
       <c r="O86" s="126"/>
       <c r="P86" s="126"/>
     </row>
-    <row r="87" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:16">
       <c r="C87" s="43" t="s">
         <v>167</v>
       </c>
@@ -15453,7 +15411,7 @@
       <c r="O87" s="126"/>
       <c r="P87" s="126"/>
     </row>
-    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:16">
       <c r="C88" s="43" t="s">
         <v>168</v>
       </c>
@@ -15481,7 +15439,7 @@
       <c r="O88" s="126"/>
       <c r="P88" s="126"/>
     </row>
-    <row r="89" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:16">
       <c r="C89" s="43" t="s">
         <v>169</v>
       </c>
@@ -15509,7 +15467,7 @@
       <c r="O89" s="126"/>
       <c r="P89" s="126"/>
     </row>
-    <row r="90" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:16">
       <c r="B90" s="35" t="s">
         <v>18</v>
       </c>
@@ -15540,7 +15498,7 @@
       <c r="O90" s="126"/>
       <c r="P90" s="126"/>
     </row>
-    <row r="91" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:16">
       <c r="C91" s="43" t="s">
         <v>167</v>
       </c>
@@ -15568,7 +15526,7 @@
       <c r="O91" s="126"/>
       <c r="P91" s="126"/>
     </row>
-    <row r="92" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:16">
       <c r="C92" s="43" t="s">
         <v>168</v>
       </c>
@@ -15596,7 +15554,7 @@
       <c r="O92" s="126"/>
       <c r="P92" s="126"/>
     </row>
-    <row r="93" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:16">
       <c r="C93" s="43" t="s">
         <v>169</v>
       </c>
@@ -15624,7 +15582,7 @@
       <c r="O93" s="126"/>
       <c r="P93" s="126"/>
     </row>
-    <row r="94" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:16">
       <c r="B94" s="35" t="s">
         <v>17</v>
       </c>
@@ -15655,7 +15613,7 @@
       <c r="O94" s="126"/>
       <c r="P94" s="126"/>
     </row>
-    <row r="95" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:16">
       <c r="C95" s="43" t="s">
         <v>167</v>
       </c>
@@ -15683,7 +15641,7 @@
       <c r="O95" s="126"/>
       <c r="P95" s="126"/>
     </row>
-    <row r="96" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:16">
       <c r="C96" s="43" t="s">
         <v>168</v>
       </c>
@@ -15711,7 +15669,7 @@
       <c r="O96" s="126"/>
       <c r="P96" s="126"/>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16">
       <c r="C97" s="43" t="s">
         <v>169</v>
       </c>
@@ -15739,7 +15697,7 @@
       <c r="O97" s="126"/>
       <c r="P97" s="126"/>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16">
       <c r="B98" s="35" t="s">
         <v>20</v>
       </c>
@@ -15770,7 +15728,7 @@
       <c r="O98" s="126"/>
       <c r="P98" s="126"/>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16">
       <c r="C99" s="43" t="s">
         <v>167</v>
       </c>
@@ -15798,7 +15756,7 @@
       <c r="O99" s="126"/>
       <c r="P99" s="126"/>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16">
       <c r="C100" s="43" t="s">
         <v>168</v>
       </c>
@@ -15826,7 +15784,7 @@
       <c r="O100" s="126"/>
       <c r="P100" s="126"/>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16">
       <c r="C101" s="43" t="s">
         <v>169</v>
       </c>
@@ -15854,12 +15812,12 @@
       <c r="O101" s="126"/>
       <c r="P101" s="126"/>
     </row>
-    <row r="103" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" s="106" customFormat="1">
       <c r="A103" s="105" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="104" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" s="36" customFormat="1" ht="26.4">
       <c r="A104" s="129" t="s">
         <v>71</v>
       </c>
@@ -15893,7 +15851,7 @@
       <c r="O104" s="128"/>
       <c r="P104" s="128"/>
     </row>
-    <row r="105" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16">
       <c r="A105" s="40"/>
       <c r="B105" s="36"/>
       <c r="C105" s="43" t="s">
@@ -15923,7 +15881,7 @@
       <c r="O105" s="126"/>
       <c r="P105" s="126"/>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16">
       <c r="C106" s="43" t="s">
         <v>167</v>
       </c>
@@ -15951,7 +15909,7 @@
       <c r="O106" s="126"/>
       <c r="P106" s="126"/>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16">
       <c r="C107" s="43" t="s">
         <v>168</v>
       </c>
@@ -15979,7 +15937,7 @@
       <c r="O107" s="126"/>
       <c r="P107" s="126"/>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16">
       <c r="C108" s="43" t="s">
         <v>169</v>
       </c>
@@ -16007,7 +15965,7 @@
       <c r="O108" s="126"/>
       <c r="P108" s="126"/>
     </row>
-    <row r="111" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16">
       <c r="A111" s="40"/>
     </row>
   </sheetData>
@@ -16028,24 +15986,24 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="25.81640625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="44.453125" style="35" customWidth="1"/>
-    <col min="3" max="3" width="17.81640625" style="35" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" style="35" customWidth="1"/>
-    <col min="5" max="5" width="17.1796875" style="35" customWidth="1"/>
+    <col min="1" max="1" width="25.77734375" style="35" customWidth="1"/>
+    <col min="2" max="2" width="44.44140625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" style="35" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" style="35" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="35" customWidth="1"/>
     <col min="6" max="6" width="15" style="35" customWidth="1"/>
-    <col min="7" max="7" width="13.6328125" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.81640625" style="35"/>
+    <col min="7" max="7" width="13.6640625" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1">
       <c r="A1" s="105" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="14.25" customHeight="1">
       <c r="A2" s="133" t="s">
         <v>25</v>
       </c>
@@ -16066,7 +16024,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="14.25" customHeight="1">
       <c r="B3" s="121" t="s">
         <v>248</v>
       </c>
@@ -16086,7 +16044,7 @@
         <v>174.7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="14.25" customHeight="1">
       <c r="A4" s="40"/>
       <c r="B4" s="125" t="s">
         <v>250</v>
@@ -16107,12 +16065,12 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="14.25" customHeight="1">
       <c r="A5" s="110" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="14.25" customHeight="1">
       <c r="B6" s="125" t="s">
         <v>58</v>
       </c>
@@ -16132,7 +16090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="14.25" customHeight="1">
       <c r="B7" s="125" t="s">
         <v>136</v>
       </c>
@@ -16152,7 +16110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="14.25" customHeight="1">
       <c r="B8" s="125" t="s">
         <v>60</v>
       </c>
@@ -16172,7 +16130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="14.25" customHeight="1">
       <c r="B9" s="125"/>
       <c r="C9" s="125"/>
       <c r="D9" s="125"/>
@@ -16180,12 +16138,12 @@
       <c r="F9" s="125"/>
       <c r="G9" s="125"/>
     </row>
-    <row r="10" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1">
       <c r="A10" s="105" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="14.25" customHeight="1">
       <c r="A11" s="110"/>
       <c r="B11" s="121" t="s">
         <v>195</v>
@@ -16206,16 +16164,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="14.25" customHeight="1">
       <c r="A12" s="110"/>
       <c r="B12" s="121"/>
     </row>
-    <row r="13" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1">
       <c r="A13" s="105" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="14.25" customHeight="1">
       <c r="A14" s="133" t="s">
         <v>238</v>
       </c>
@@ -16238,7 +16196,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="14.25" customHeight="1">
       <c r="A15" s="40"/>
       <c r="B15" s="125" t="s">
         <v>255</v>
@@ -16259,7 +16217,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="14.25" customHeight="1">
       <c r="A16" s="133" t="s">
         <v>70</v>
       </c>
@@ -16282,13 +16240,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:6" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="18" spans="1:6" s="106" customFormat="1" ht="14.25" customHeight="1">
       <c r="A18" s="105" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="110" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="110" customFormat="1" ht="14.25" customHeight="1">
       <c r="C19" s="56" t="s">
         <v>49</v>
       </c>
@@ -16302,7 +16260,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="B20" s="121" t="s">
         <v>197</v>
       </c>
@@ -16338,16 +16296,16 @@
       <selection activeCell="E6" sqref="C6:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="52.1796875" style="35" customWidth="1"/>
-    <col min="2" max="6" width="16.08984375" style="35"/>
-    <col min="7" max="7" width="17.1796875" style="35" customWidth="1"/>
-    <col min="8" max="8" width="16.08984375" style="35" customWidth="1"/>
-    <col min="9" max="16384" width="16.08984375" style="35"/>
+    <col min="1" max="1" width="52.21875" style="35" customWidth="1"/>
+    <col min="2" max="6" width="16.109375" style="35"/>
+    <col min="7" max="7" width="17.21875" style="35" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" style="35" customWidth="1"/>
+    <col min="9" max="16384" width="16.109375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="127" t="s">
         <v>69</v>
       </c>
@@ -16365,7 +16323,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="92" t="s">
         <v>29</v>
       </c>
@@ -16385,7 +16343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="92"/>
       <c r="B3" s="92" t="s">
         <v>259</v>
@@ -16403,7 +16361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="92" t="s">
         <v>187</v>
       </c>
@@ -16423,7 +16381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="92"/>
       <c r="B5" s="92" t="s">
         <v>259</v>
@@ -16441,7 +16399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="92" t="s">
         <v>207</v>
       </c>
@@ -16461,7 +16419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" s="92"/>
       <c r="B7" s="92" t="s">
         <v>259</v>
@@ -16479,7 +16437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="A8" s="92" t="s">
         <v>57</v>
       </c>
@@ -16499,7 +16457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="A9" s="92"/>
       <c r="B9" s="92" t="s">
         <v>259</v>
@@ -16517,7 +16475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1">
       <c r="A10" s="92" t="s">
         <v>34</v>
       </c>
@@ -16537,7 +16495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1">
       <c r="A11" s="92"/>
       <c r="B11" s="92" t="s">
         <v>259</v>
@@ -16555,7 +16513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1">
       <c r="A12" s="92" t="s">
         <v>59</v>
       </c>
@@ -16575,7 +16533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1">
       <c r="A13" s="92"/>
       <c r="B13" s="92" t="s">
         <v>259</v>
@@ -16593,10 +16551,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" ht="15.75" customHeight="1">
       <c r="A19" s="92"/>
     </row>
-    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" ht="15.75" customHeight="1">
       <c r="A20" s="92"/>
     </row>
   </sheetData>
@@ -16617,15 +16575,15 @@
       <selection activeCell="O19" sqref="E19:O20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" style="35" customWidth="1"/>
-    <col min="2" max="2" width="58.90625" style="35" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="58.88671875" style="35" bestFit="1" customWidth="1"/>
     <col min="3" max="15" width="15" style="35" customWidth="1"/>
-    <col min="16" max="16384" width="12.81640625" style="35"/>
+    <col min="16" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="35.25" customHeight="1">
       <c r="A1" s="40"/>
       <c r="B1" s="40"/>
       <c r="C1" s="109" t="s">
@@ -16668,12 +16626,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15">
       <c r="A2" s="40" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="B3" s="59" t="s">
         <v>149</v>
       </c>
@@ -16717,7 +16675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="B4" s="59" t="s">
         <v>188</v>
       </c>
@@ -16761,7 +16719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="B5" s="59" t="s">
         <v>206</v>
       </c>
@@ -16805,7 +16763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="B6" s="59" t="s">
         <v>189</v>
       </c>
@@ -16849,7 +16807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="B7" s="59" t="s">
         <v>190</v>
       </c>
@@ -16893,7 +16851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="B8" s="92" t="s">
         <v>187</v>
       </c>
@@ -16937,7 +16895,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="B9" s="92" t="s">
         <v>207</v>
       </c>
@@ -16981,7 +16939,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="B10" s="59" t="s">
         <v>57</v>
       </c>
@@ -17025,7 +16983,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="B11" s="92" t="s">
         <v>136</v>
       </c>
@@ -17069,7 +17027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="B12" s="59" t="s">
         <v>34</v>
       </c>
@@ -17113,7 +17071,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="13.05" customHeight="1">
       <c r="B13" s="59" t="s">
         <v>137</v>
       </c>
@@ -17157,7 +17115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="B14" s="59" t="s">
         <v>59</v>
       </c>
@@ -17201,13 +17159,13 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15">
       <c r="A16" s="40" t="s">
         <v>261</v>
       </c>
       <c r="B16" s="59"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15">
       <c r="B17" s="92" t="s">
         <v>63</v>
       </c>
@@ -17251,7 +17209,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15">
       <c r="B18" s="92" t="s">
         <v>64</v>
       </c>
@@ -17295,7 +17253,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15">
       <c r="B19" s="92" t="s">
         <v>62</v>
       </c>
@@ -17339,7 +17297,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15">
       <c r="B20" s="92" t="s">
         <v>47</v>
       </c>
@@ -17383,16 +17341,16 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15">
       <c r="B25" s="43"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15">
       <c r="B26" s="43"/>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15">
       <c r="B27" s="43"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15">
       <c r="B28" s="43"/>
     </row>
   </sheetData>
@@ -17413,15 +17371,15 @@
       <selection activeCell="D5" sqref="D5:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="21.36328125" style="35" customWidth="1"/>
-    <col min="2" max="2" width="27.1796875" style="35" customWidth="1"/>
-    <col min="3" max="7" width="15.54296875" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="21.33203125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="27.21875" style="35" customWidth="1"/>
+    <col min="3" max="7" width="15.5546875" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="40"/>
       <c r="B1" s="127"/>
       <c r="C1" s="40" t="s">
@@ -17440,12 +17398,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="40" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="B3" s="59" t="s">
         <v>67</v>
       </c>
@@ -17465,7 +17423,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="40" t="s">
         <v>263</v>
       </c>
@@ -17476,7 +17434,7 @@
       <c r="F4" s="135"/>
       <c r="G4" s="135"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="B5" s="92" t="s">
         <v>183</v>
       </c>
@@ -17514,20 +17472,20 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="53" style="52" customWidth="1"/>
-    <col min="2" max="2" width="30.54296875" style="52" customWidth="1"/>
-    <col min="3" max="3" width="24.81640625" style="52" customWidth="1"/>
+    <col min="2" max="2" width="30.5546875" style="52" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" style="52" customWidth="1"/>
     <col min="4" max="4" width="15" style="35" customWidth="1"/>
-    <col min="5" max="5" width="13.6328125" style="35" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" style="35" customWidth="1"/>
-    <col min="7" max="7" width="12.81640625" style="35"/>
-    <col min="8" max="8" width="17.54296875" style="35" customWidth="1"/>
-    <col min="9" max="16384" width="12.81640625" style="35"/>
+    <col min="5" max="5" width="13.6640625" style="35" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" style="35" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" style="35"/>
+    <col min="8" max="8" width="17.5546875" style="35" customWidth="1"/>
+    <col min="9" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -17553,7 +17511,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="52" t="s">
         <v>28</v>
       </c>
@@ -17579,7 +17537,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="C3" s="52" t="s">
         <v>267</v>
       </c>
@@ -17599,7 +17557,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="C4" s="52" t="s">
         <v>268</v>
       </c>
@@ -17619,7 +17577,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="52" t="s">
         <v>58</v>
       </c>
@@ -17645,7 +17603,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="C6" s="52" t="s">
         <v>268</v>
       </c>
@@ -17665,7 +17623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="B7" s="52" t="s">
         <v>65</v>
       </c>
@@ -17688,7 +17646,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="C8" s="52" t="s">
         <v>268</v>
       </c>
@@ -17708,7 +17666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="52" t="s">
         <v>136</v>
       </c>
@@ -17734,7 +17692,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="C10" s="52" t="s">
         <v>268</v>
       </c>
@@ -17754,7 +17712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="B11" s="52" t="s">
         <v>65</v>
       </c>
@@ -17777,7 +17735,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="C12" s="52" t="s">
         <v>268</v>
       </c>
@@ -17797,7 +17755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="52" t="s">
         <v>61</v>
       </c>
@@ -17823,7 +17781,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="C14" s="52" t="s">
         <v>268</v>
       </c>
@@ -17844,7 +17802,7 @@
       </c>
       <c r="I14" s="36"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="B15" s="52" t="s">
         <v>65</v>
       </c>
@@ -17868,7 +17826,7 @@
       </c>
       <c r="I15" s="36"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="C16" s="52" t="s">
         <v>268</v>
       </c>
@@ -17889,7 +17847,7 @@
       </c>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="52" t="s">
         <v>62</v>
       </c>
@@ -17916,7 +17874,7 @@
       </c>
       <c r="I17" s="36"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="C18" s="52" t="s">
         <v>267</v>
       </c>
@@ -17937,7 +17895,7 @@
       </c>
       <c r="I18" s="36"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="52" t="s">
         <v>63</v>
       </c>
@@ -17963,7 +17921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="C20" s="52" t="s">
         <v>267</v>
       </c>
@@ -17983,7 +17941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="52" t="s">
         <v>64</v>
       </c>
@@ -18009,7 +17967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="C22" s="52" t="s">
         <v>267</v>
       </c>
@@ -18029,7 +17987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="52" t="s">
         <v>79</v>
       </c>
@@ -18055,7 +18013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="C24" s="52" t="s">
         <v>267</v>
       </c>
@@ -18075,7 +18033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="C25" s="52" t="s">
         <v>268</v>
       </c>
@@ -18095,7 +18053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" s="52" t="s">
         <v>80</v>
       </c>
@@ -18121,7 +18079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="C27" s="52" t="s">
         <v>267</v>
       </c>
@@ -18141,7 +18099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="C28" s="52" t="s">
         <v>268</v>
       </c>
@@ -18161,7 +18119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29" s="52" t="s">
         <v>81</v>
       </c>
@@ -18187,7 +18145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="C30" s="52" t="s">
         <v>267</v>
       </c>
@@ -18207,7 +18165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="C31" s="52" t="s">
         <v>268</v>
       </c>
@@ -18227,7 +18185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="A32" s="52" t="s">
         <v>82</v>
       </c>
@@ -18253,7 +18211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="C33" s="52" t="s">
         <v>267</v>
       </c>
@@ -18273,7 +18231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="C34" s="52" t="s">
         <v>268</v>
       </c>
@@ -18293,7 +18251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" s="52" t="s">
         <v>83</v>
       </c>
@@ -18319,7 +18277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="C36" s="52" t="s">
         <v>267</v>
       </c>
@@ -18339,7 +18297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="C37" s="52" t="s">
         <v>268</v>
       </c>
@@ -18359,7 +18317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38" s="52" t="s">
         <v>60</v>
       </c>
@@ -18385,7 +18343,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="C39" s="52" t="s">
         <v>267</v>
       </c>
@@ -18405,7 +18363,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="C40" s="52" t="s">
         <v>268</v>
       </c>
@@ -18425,7 +18383,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="B41" s="52" t="s">
         <v>16</v>
       </c>
@@ -18448,7 +18406,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="C42" s="52" t="s">
         <v>267</v>
       </c>
@@ -18468,7 +18426,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="C43" s="52" t="s">
         <v>268</v>
       </c>
@@ -18488,7 +18446,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="A44" s="52" t="s">
         <v>84</v>
       </c>
@@ -18514,7 +18472,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="C45" s="52" t="s">
         <v>267</v>
       </c>
@@ -18534,7 +18492,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="A46" s="52" t="s">
         <v>85</v>
       </c>
@@ -18560,7 +18518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="C47" s="52" t="s">
         <v>267</v>
       </c>
@@ -18580,7 +18538,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="A48" s="52" t="s">
         <v>195</v>
       </c>
@@ -18606,7 +18564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:8">
       <c r="C49" s="52" t="s">
         <v>267</v>
       </c>
@@ -18644,16 +18602,16 @@
       <selection activeCell="D7" sqref="D7:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="28" style="35" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" style="35" customWidth="1"/>
-    <col min="3" max="3" width="23.6328125" style="35" customWidth="1"/>
-    <col min="4" max="7" width="17.1796875" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.81640625" style="35"/>
+    <col min="2" max="2" width="27.44140625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" style="35" customWidth="1"/>
+    <col min="4" max="7" width="17.21875" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" s="127" t="s">
         <v>69</v>
       </c>
@@ -18675,7 +18633,7 @@
       </c>
       <c r="H1" s="98"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="43" t="s">
         <v>86</v>
       </c>
@@ -18699,7 +18657,7 @@
       </c>
       <c r="H2" s="92"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="C3" s="35" t="s">
         <v>267</v>
       </c>
@@ -18717,7 +18675,7 @@
       </c>
       <c r="H3" s="136"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="43" t="s">
         <v>87</v>
       </c>
@@ -18741,7 +18699,7 @@
       </c>
       <c r="H4" s="136"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="36"/>
       <c r="C5" s="35" t="s">
         <v>267</v>
@@ -18760,7 +18718,7 @@
       </c>
       <c r="H5" s="92"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="43" t="s">
         <v>88</v>
       </c>
@@ -18784,7 +18742,7 @@
       </c>
       <c r="H6" s="92"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="36"/>
       <c r="C7" s="35" t="s">
         <v>267</v>
@@ -18820,14 +18778,14 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.08984375" customWidth="1"/>
-    <col min="2" max="2" width="31.36328125" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
     <col min="3" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1">
       <c r="A1" s="4" t="str">
         <f>"Percentage of deaths in baseline year ("&amp;start_year&amp;") attributable to cause"</f>
         <v>Percentage of deaths in baseline year (2017) attributable to cause</v>
@@ -18838,7 +18796,7 @@
       <c r="E1" s="41"/>
       <c r="F1" s="41"/>
     </row>
-    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="27.75" customHeight="1">
       <c r="A2" t="s">
         <v>209</v>
       </c>
@@ -18853,7 +18811,7 @@
       <c r="F2" s="41"/>
       <c r="G2" s="41"/>
     </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1">
       <c r="B3" s="24" t="s">
         <v>73</v>
       </c>
@@ -18861,7 +18819,7 @@
         <v>2.7000000000000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1">
       <c r="B4" s="24" t="s">
         <v>7</v>
       </c>
@@ -18869,7 +18827,7 @@
         <v>0.1966</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1">
       <c r="B5" s="24" t="s">
         <v>8</v>
       </c>
@@ -18877,7 +18835,7 @@
         <v>6.2100000000000002E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1">
       <c r="B6" s="24" t="s">
         <v>10</v>
       </c>
@@ -18885,7 +18843,7 @@
         <v>0.29289999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1">
       <c r="B7" s="24" t="s">
         <v>13</v>
       </c>
@@ -18893,7 +18851,7 @@
         <v>0.24709999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1">
       <c r="B8" s="24" t="s">
         <v>14</v>
       </c>
@@ -18901,7 +18859,7 @@
         <v>4.7999999999999996E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1">
       <c r="B9" s="24" t="s">
         <v>27</v>
       </c>
@@ -18909,7 +18867,7 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1">
       <c r="B10" s="24" t="s">
         <v>15</v>
       </c>
@@ -18917,7 +18875,7 @@
         <v>6.1800000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1">
       <c r="B11" s="32" t="s">
         <v>129</v>
       </c>
@@ -18928,7 +18886,7 @@
       <c r="G11" s="24"/>
       <c r="H11" s="24"/>
     </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15.75" customHeight="1">
       <c r="B12" s="32"/>
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
@@ -18937,7 +18895,7 @@
       <c r="G12" s="24"/>
       <c r="H12" s="24"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1">
       <c r="A13" s="12" t="s">
         <v>31</v>
       </c>
@@ -18958,7 +18916,7 @@
       </c>
       <c r="G13" s="24"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15.75" customHeight="1">
       <c r="B14" s="24" t="s">
         <v>71</v>
       </c>
@@ -18975,7 +18933,7 @@
         <v>0.1368</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15.75" customHeight="1">
       <c r="B15" s="24" t="s">
         <v>16</v>
       </c>
@@ -18992,7 +18950,7 @@
         <v>0.20660000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1">
       <c r="B16" s="24" t="s">
         <v>17</v>
       </c>
@@ -19009,7 +18967,7 @@
         <v>2.1100000000000001E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1">
       <c r="B17" s="24" t="s">
         <v>18</v>
       </c>
@@ -19026,7 +18984,7 @@
         <v>7.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1">
       <c r="B18" s="24" t="s">
         <v>19</v>
       </c>
@@ -19043,7 +19001,7 @@
         <v>8.6199999999999999E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1">
       <c r="B19" s="24" t="s">
         <v>20</v>
       </c>
@@ -19060,7 +19018,7 @@
         <v>2.86E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1">
       <c r="B20" s="24" t="s">
         <v>21</v>
       </c>
@@ -19077,7 +19035,7 @@
         <v>1.5299999999999999E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1">
       <c r="B21" s="24" t="s">
         <v>22</v>
       </c>
@@ -19094,7 +19052,7 @@
         <v>0.13589999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1">
       <c r="B22" s="24" t="s">
         <v>23</v>
       </c>
@@ -19111,7 +19069,7 @@
         <v>0.36199999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1">
       <c r="B23" s="32" t="s">
         <v>129</v>
       </c>
@@ -19134,7 +19092,7 @@
       <c r="G23" s="24"/>
       <c r="H23" s="24"/>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1">
       <c r="B24" s="32"/>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
@@ -19143,7 +19101,7 @@
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -19159,7 +19117,7 @@
       <c r="G25" s="24"/>
       <c r="H25" s="24"/>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1">
       <c r="B26" s="24" t="s">
         <v>38</v>
       </c>
@@ -19167,7 +19125,7 @@
         <v>0.10082724000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="15.75" customHeight="1">
       <c r="B27" s="24" t="s">
         <v>39</v>
       </c>
@@ -19175,7 +19133,7 @@
         <v>3.1206000000000002E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="15.75" customHeight="1">
       <c r="B28" s="24" t="s">
         <v>40</v>
       </c>
@@ -19183,7 +19141,7 @@
         <v>0.15891214000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1">
       <c r="B29" s="24" t="s">
         <v>41</v>
       </c>
@@ -19191,7 +19149,7 @@
         <v>0.12598688999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="15.75" customHeight="1">
       <c r="B30" s="24" t="s">
         <v>42</v>
       </c>
@@ -19199,7 +19157,7 @@
         <v>0.12434007</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="15.75" customHeight="1">
       <c r="B31" s="24" t="s">
         <v>43</v>
       </c>
@@ -19207,7 +19165,7 @@
         <v>3.9028409999999999E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="15.75" customHeight="1">
       <c r="B32" s="24" t="s">
         <v>44</v>
       </c>
@@ -19215,7 +19173,7 @@
         <v>8.5254999999999999E-4</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" ht="15.75" customHeight="1">
       <c r="B33" s="24" t="s">
         <v>45</v>
       </c>
@@ -19223,7 +19181,7 @@
         <v>6.8467810000000004E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" ht="15.75" customHeight="1">
       <c r="B34" s="24" t="s">
         <v>46</v>
       </c>
@@ -19231,7 +19189,7 @@
         <v>0.38127283000000001</v>
       </c>
     </row>
-    <row r="35" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" ht="15.75" customHeight="1">
       <c r="B35" s="32" t="s">
         <v>129</v>
       </c>
@@ -19259,13 +19217,13 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.453125" customWidth="1"/>
+    <col min="1" max="1" width="31.44140625" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="36" customHeight="1">
       <c r="A1" s="27" t="str">
         <f>"Percentage of population in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of population in each category in baseline year (2017)</v>
@@ -19289,7 +19247,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>115</v>
       </c>
@@ -19317,7 +19275,7 @@
         <v>0.23269074767298425</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1">
       <c r="A3" s="5"/>
       <c r="B3" s="11" t="s">
         <v>118</v>
@@ -19343,7 +19301,7 @@
         <v>0.37372365733745416</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1">
       <c r="A4" s="5"/>
       <c r="B4" s="11" t="s">
         <v>116</v>
@@ -19364,7 +19322,7 @@
         <v>0.25929610299234518</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1">
       <c r="A5" s="5"/>
       <c r="B5" s="11" t="s">
         <v>119</v>
@@ -19385,7 +19343,7 @@
         <v>0.13428949199721643</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1">
       <c r="B6" s="14"/>
       <c r="C6" s="29"/>
       <c r="D6" s="29"/>
@@ -19393,7 +19351,7 @@
       <c r="F6" s="29"/>
       <c r="G6" s="29"/>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1">
       <c r="B7" s="14"/>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
@@ -19401,7 +19359,7 @@
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>114</v>
       </c>
@@ -19429,7 +19387,7 @@
         <v>0.81212055177975573</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1">
       <c r="B9" s="7" t="s">
         <v>121</v>
       </c>
@@ -19454,7 +19412,7 @@
         <v>0.15821429221536368</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1">
       <c r="B10" s="7" t="s">
         <v>122</v>
       </c>
@@ -19474,7 +19432,7 @@
         <v>2.2330660624019519E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1">
       <c r="B11" s="7" t="s">
         <v>123</v>
       </c>
@@ -19494,7 +19452,7 @@
         <v>7.3344953808610778E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1">
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -19508,7 +19466,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="15"/>
     </row>
-    <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="27" customHeight="1">
       <c r="A13" s="12" t="s">
         <v>70</v>
       </c>
@@ -19552,7 +19510,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1">
       <c r="B14" s="16" t="s">
         <v>131</v>
       </c>
@@ -19596,7 +19554,7 @@
         <v>0.442</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1">
       <c r="B15" s="16" t="s">
         <v>68</v>
       </c>
@@ -19653,14 +19611,14 @@
         <v>0.18564</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1">
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:7" ht="15.75" customHeight="1">
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -19686,13 +19644,13 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="28.81640625" customWidth="1"/>
-    <col min="2" max="7" width="13.453125" customWidth="1"/>
+    <col min="1" max="1" width="28.77734375" customWidth="1"/>
+    <col min="2" max="7" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="40.5" customHeight="1">
       <c r="A1" s="27" t="str">
         <f>"Percentage of children in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of children in each category in baseline year (2017)</v>
@@ -19716,7 +19674,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
@@ -19739,7 +19697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="B3" s="43" t="s">
         <v>167</v>
       </c>
@@ -19759,7 +19717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="B4" s="43" t="s">
         <v>168</v>
       </c>
@@ -19779,7 +19737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="B5" s="43" t="s">
         <v>169</v>
       </c>
@@ -19822,13 +19780,13 @@
       <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="29.453125" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16">
       <c r="A1" s="4" t="s">
         <v>138</v>
       </c>
@@ -19878,7 +19836,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>139</v>
       </c>
@@ -19905,10 +19863,10 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="B3" s="14"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>140</v>
       </c>
@@ -19937,10 +19895,10 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="B5" s="14"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>141</v>
       </c>
@@ -19967,7 +19925,7 @@
         <v>0.17299999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="B7" s="14" t="s">
         <v>32</v>
       </c>
@@ -19991,7 +19949,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16">
       <c r="B8" s="14" t="s">
         <v>144</v>
       </c>
@@ -20015,7 +19973,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
         <v>142</v>
       </c>
@@ -20044,7 +20002,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16">
       <c r="B11" s="34" t="s">
         <v>146</v>
       </c>
@@ -20068,7 +20026,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16">
       <c r="A13" s="12" t="s">
         <v>74</v>
       </c>
@@ -20097,7 +20055,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16">
       <c r="B14" s="16" t="s">
         <v>170</v>
       </c>
@@ -20136,15 +20094,15 @@
       <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="15.6328125" customWidth="1"/>
-    <col min="2" max="2" width="15.453125" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" customWidth="1"/>
-    <col min="4" max="4" width="12.81640625" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="60" t="s">
         <v>164</v>
       </c>
@@ -20158,7 +20116,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" s="61" t="s">
         <v>69</v>
       </c>
@@ -20170,7 +20128,7 @@
       </c>
       <c r="D2" s="80"/>
     </row>
-    <row r="3" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" s="61" t="s">
         <v>185</v>
       </c>
@@ -20199,15 +20157,15 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="17" style="35" customWidth="1"/>
-    <col min="2" max="2" width="19.08984375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="11.453125" style="35"/>
+    <col min="2" max="2" width="19.109375" style="35" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="50" t="s">
         <v>178</v>
       </c>
@@ -20224,7 +20182,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="49" t="s">
         <v>173</v>
       </c>
@@ -20238,7 +20196,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="47"/>
       <c r="B3" s="46" t="s">
         <v>1</v>
@@ -20252,7 +20210,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="47"/>
       <c r="B4" s="46" t="s">
         <v>2</v>
@@ -20266,7 +20224,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="47"/>
       <c r="B5" s="46" t="s">
         <v>3</v>
@@ -20280,7 +20238,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="47"/>
       <c r="B6" s="46" t="s">
         <v>4</v>
@@ -20294,7 +20252,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="47"/>
       <c r="B7" s="46" t="s">
         <v>172</v>
@@ -20303,7 +20261,7 @@
       <c r="D7" s="44"/>
       <c r="E7" s="80"/>
     </row>
-    <row r="9" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="49" t="s">
         <v>198</v>
       </c>
@@ -20319,7 +20277,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="47"/>
       <c r="B10" s="46" t="s">
         <v>1</v>
@@ -20331,7 +20289,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="47"/>
       <c r="B11" s="46" t="s">
         <v>2</v>
@@ -20343,7 +20301,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="47"/>
       <c r="B12" s="46" t="s">
         <v>3</v>
@@ -20355,7 +20313,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="47"/>
       <c r="B13" s="46" t="s">
         <v>4</v>
@@ -20367,7 +20325,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="47"/>
       <c r="B14" s="46" t="s">
         <v>172</v>
@@ -20378,7 +20336,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" s="49" t="s">
         <v>199</v>
       </c>
@@ -20394,7 +20352,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="47"/>
       <c r="B17" s="46" t="s">
         <v>1</v>
@@ -20408,7 +20366,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="47"/>
       <c r="B18" s="46" t="s">
         <v>2</v>
@@ -20422,7 +20380,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="47"/>
       <c r="B19" s="46" t="s">
         <v>3</v>
@@ -20436,7 +20394,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="47"/>
       <c r="B20" s="46" t="s">
         <v>4</v>
@@ -20450,7 +20408,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="47"/>
       <c r="B21" s="46" t="s">
         <v>172</v>
@@ -20473,21 +20431,21 @@
   </sheetPr>
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="56" style="52" customWidth="1"/>
     <col min="2" max="2" width="20" style="36" customWidth="1"/>
-    <col min="3" max="3" width="20.453125" style="35" customWidth="1"/>
-    <col min="4" max="4" width="20.08984375" style="35" customWidth="1"/>
-    <col min="5" max="5" width="32.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="14.453125" style="35"/>
+    <col min="3" max="3" width="20.44140625" style="35" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" style="35" customWidth="1"/>
+    <col min="5" max="5" width="32.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="14.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="26.4">
       <c r="A1" s="54" t="s">
         <v>69</v>
       </c>
@@ -20505,7 +20463,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1">
       <c r="A2" s="52" t="s">
         <v>29</v>
       </c>
@@ -20515,14 +20473,14 @@
       <c r="C2" s="81">
         <v>0.95</v>
       </c>
-      <c r="D2" s="82">
+      <c r="D2" s="137">
         <v>25</v>
       </c>
       <c r="E2" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" s="52" t="s">
         <v>86</v>
       </c>
@@ -20532,14 +20490,14 @@
       <c r="C3" s="81">
         <v>0.95</v>
       </c>
-      <c r="D3" s="82">
+      <c r="D3" s="137">
         <v>1</v>
       </c>
       <c r="E3" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1">
       <c r="A4" s="52" t="s">
         <v>61</v>
       </c>
@@ -20549,14 +20507,14 @@
       <c r="C4" s="81">
         <v>0.95</v>
       </c>
-      <c r="D4" s="82">
+      <c r="D4" s="137">
         <v>90</v>
       </c>
       <c r="E4" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1">
       <c r="A5" s="52" t="s">
         <v>149</v>
       </c>
@@ -20566,14 +20524,14 @@
       <c r="C5" s="81">
         <v>0.95</v>
       </c>
-      <c r="D5" s="82">
+      <c r="D5" s="137">
         <v>1</v>
       </c>
       <c r="E5" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1">
       <c r="A6" s="52" t="s">
         <v>197</v>
       </c>
@@ -20583,14 +20541,14 @@
       <c r="C6" s="81">
         <v>0.95</v>
       </c>
-      <c r="D6" s="82">
+      <c r="D6" s="137">
         <v>0.82</v>
       </c>
       <c r="E6" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1">
       <c r="A7" s="52" t="s">
         <v>63</v>
       </c>
@@ -20600,14 +20558,14 @@
       <c r="C7" s="81">
         <v>0.95</v>
       </c>
-      <c r="D7" s="82">
+      <c r="D7" s="137">
         <v>0.25</v>
       </c>
       <c r="E7" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1">
       <c r="A8" s="52" t="s">
         <v>64</v>
       </c>
@@ -20617,14 +20575,14 @@
       <c r="C8" s="81">
         <v>0.95</v>
       </c>
-      <c r="D8" s="82">
+      <c r="D8" s="137">
         <v>0.75</v>
       </c>
       <c r="E8" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1">
       <c r="A9" s="52" t="s">
         <v>62</v>
       </c>
@@ -20634,14 +20592,14 @@
       <c r="C9" s="81">
         <v>0.95</v>
       </c>
-      <c r="D9" s="82">
+      <c r="D9" s="137">
         <v>0.19</v>
       </c>
       <c r="E9" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1">
       <c r="A10" s="59" t="s">
         <v>188</v>
       </c>
@@ -20651,14 +20609,14 @@
       <c r="C10" s="81">
         <v>0.95</v>
       </c>
-      <c r="D10" s="82">
+      <c r="D10" s="137">
         <v>0.73</v>
       </c>
       <c r="E10" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1">
       <c r="A11" s="59" t="s">
         <v>206</v>
       </c>
@@ -20668,14 +20626,14 @@
       <c r="C11" s="81">
         <v>0.95</v>
       </c>
-      <c r="D11" s="82">
+      <c r="D11" s="137">
         <v>1.78</v>
       </c>
       <c r="E11" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1">
       <c r="A12" s="59" t="s">
         <v>189</v>
       </c>
@@ -20685,14 +20643,14 @@
       <c r="C12" s="81">
         <v>0.95</v>
       </c>
-      <c r="D12" s="82">
+      <c r="D12" s="137">
         <v>0.24</v>
       </c>
       <c r="E12" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1">
       <c r="A13" s="59" t="s">
         <v>190</v>
       </c>
@@ -20702,14 +20660,14 @@
       <c r="C13" s="81">
         <v>0.95</v>
       </c>
-      <c r="D13" s="82">
+      <c r="D13" s="137">
         <v>0.55000000000000004</v>
       </c>
       <c r="E13" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1">
       <c r="A14" s="11" t="s">
         <v>187</v>
       </c>
@@ -20719,14 +20677,14 @@
       <c r="C14" s="81">
         <v>0.95</v>
       </c>
-      <c r="D14" s="82">
+      <c r="D14" s="137">
         <v>0.73</v>
       </c>
       <c r="E14" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1">
       <c r="A15" s="11" t="s">
         <v>207</v>
       </c>
@@ -20736,14 +20694,14 @@
       <c r="C15" s="81">
         <v>0.95</v>
       </c>
-      <c r="D15" s="82">
+      <c r="D15" s="137">
         <v>1.78</v>
       </c>
       <c r="E15" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1">
       <c r="A16" s="52" t="s">
         <v>57</v>
       </c>
@@ -20753,14 +20711,14 @@
       <c r="C16" s="81">
         <v>0.95</v>
       </c>
-      <c r="D16" s="82">
+      <c r="D16" s="137">
         <v>2.06</v>
       </c>
       <c r="E16" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1">
       <c r="A17" s="52" t="s">
         <v>47</v>
       </c>
@@ -20770,14 +20728,14 @@
       <c r="C17" s="81">
         <v>0.95</v>
       </c>
-      <c r="D17" s="82">
+      <c r="D17" s="137">
         <v>0.05</v>
       </c>
       <c r="E17" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="16.05" customHeight="1">
       <c r="A18" s="52" t="s">
         <v>173</v>
       </c>
@@ -20787,14 +20745,14 @@
       <c r="C18" s="81">
         <v>0.95</v>
       </c>
-      <c r="D18" s="82">
+      <c r="D18" s="137">
         <v>5</v>
       </c>
       <c r="E18" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1">
       <c r="A19" s="52" t="s">
         <v>198</v>
       </c>
@@ -20804,14 +20762,14 @@
       <c r="C19" s="81">
         <v>0.95</v>
       </c>
-      <c r="D19" s="82">
+      <c r="D19" s="137">
         <v>5</v>
       </c>
       <c r="E19" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1">
       <c r="A20" s="52" t="s">
         <v>199</v>
       </c>
@@ -20821,14 +20779,14 @@
       <c r="C20" s="81">
         <v>0.95</v>
       </c>
-      <c r="D20" s="82">
+      <c r="D20" s="137">
         <v>5</v>
       </c>
       <c r="E20" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1">
       <c r="A21" s="52" t="s">
         <v>195</v>
       </c>
@@ -20838,14 +20796,14 @@
       <c r="C21" s="81">
         <v>0.95</v>
       </c>
-      <c r="D21" s="82">
+      <c r="D21" s="137">
         <v>8.84</v>
       </c>
       <c r="E21" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1">
       <c r="A22" s="52" t="s">
         <v>136</v>
       </c>
@@ -20855,14 +20813,14 @@
       <c r="C22" s="81">
         <v>0.95</v>
       </c>
-      <c r="D22" s="82">
+      <c r="D22" s="137">
         <v>50</v>
       </c>
       <c r="E22" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1">
       <c r="A23" s="52" t="s">
         <v>34</v>
       </c>
@@ -20872,14 +20830,14 @@
       <c r="C23" s="81">
         <v>0.95</v>
       </c>
-      <c r="D23" s="82">
+      <c r="D23" s="137">
         <v>2.61</v>
       </c>
       <c r="E23" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1">
       <c r="A24" s="52" t="s">
         <v>88</v>
       </c>
@@ -20889,14 +20847,14 @@
       <c r="C24" s="81">
         <v>0.95</v>
       </c>
-      <c r="D24" s="82">
+      <c r="D24" s="137">
         <v>1</v>
       </c>
       <c r="E24" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1">
       <c r="A25" s="52" t="s">
         <v>87</v>
       </c>
@@ -20906,14 +20864,14 @@
       <c r="C25" s="81">
         <v>0.95</v>
       </c>
-      <c r="D25" s="82">
+      <c r="D25" s="137">
         <v>1</v>
       </c>
       <c r="E25" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1">
       <c r="A26" s="52" t="s">
         <v>137</v>
       </c>
@@ -20923,14 +20881,14 @@
       <c r="C26" s="81">
         <v>0.95</v>
       </c>
-      <c r="D26" s="82">
+      <c r="D26" s="137">
         <v>4.6500000000000004</v>
       </c>
       <c r="E26" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1">
       <c r="A27" s="52" t="s">
         <v>59</v>
       </c>
@@ -20940,14 +20898,14 @@
       <c r="C27" s="81">
         <v>0.95</v>
       </c>
-      <c r="D27" s="82">
+      <c r="D27" s="137">
         <v>3.78</v>
       </c>
       <c r="E27" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1">
       <c r="A28" s="52" t="s">
         <v>84</v>
       </c>
@@ -20957,14 +20915,14 @@
       <c r="C28" s="81">
         <v>0.95</v>
       </c>
-      <c r="D28" s="82">
+      <c r="D28" s="137">
         <v>1</v>
       </c>
       <c r="E28" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="15.75" customHeight="1">
       <c r="A29" s="52" t="s">
         <v>58</v>
       </c>
@@ -20974,14 +20932,14 @@
       <c r="C29" s="81">
         <v>0.95</v>
       </c>
-      <c r="D29" s="82">
+      <c r="D29" s="137">
         <v>48</v>
       </c>
       <c r="E29" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1">
       <c r="A30" s="52" t="s">
         <v>67</v>
       </c>
@@ -20991,14 +20949,14 @@
       <c r="C30" s="81">
         <v>0.95</v>
       </c>
-      <c r="D30" s="82">
-        <v>5.3</v>
+      <c r="D30" s="137">
+        <v>65</v>
       </c>
       <c r="E30" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1">
       <c r="A31" s="52" t="s">
         <v>28</v>
       </c>
@@ -21008,14 +20966,14 @@
       <c r="C31" s="81">
         <v>0.95</v>
       </c>
-      <c r="D31" s="82">
+      <c r="D31" s="137">
         <v>0.41</v>
       </c>
       <c r="E31" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="15.75" customHeight="1">
       <c r="A32" s="52" t="s">
         <v>83</v>
       </c>
@@ -21025,14 +20983,14 @@
       <c r="C32" s="81">
         <v>0.95</v>
       </c>
-      <c r="D32" s="82">
+      <c r="D32" s="137">
         <v>0.9</v>
       </c>
       <c r="E32" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15.75" customHeight="1">
       <c r="A33" s="52" t="s">
         <v>82</v>
       </c>
@@ -21042,14 +21000,14 @@
       <c r="C33" s="81">
         <v>0.95</v>
       </c>
-      <c r="D33" s="82">
+      <c r="D33" s="137">
         <v>0.9</v>
       </c>
       <c r="E33" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15.75" customHeight="1">
       <c r="A34" s="52" t="s">
         <v>81</v>
       </c>
@@ -21059,14 +21017,14 @@
       <c r="C34" s="81">
         <v>0.95</v>
       </c>
-      <c r="D34" s="82">
+      <c r="D34" s="137">
         <v>79</v>
       </c>
       <c r="E34" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15.75" customHeight="1">
       <c r="A35" s="52" t="s">
         <v>79</v>
       </c>
@@ -21076,14 +21034,14 @@
       <c r="C35" s="81">
         <v>0.95</v>
       </c>
-      <c r="D35" s="82">
+      <c r="D35" s="137">
         <v>31</v>
       </c>
       <c r="E35" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" s="36" customFormat="1" ht="15.75" customHeight="1">
       <c r="A36" s="52" t="s">
         <v>80</v>
       </c>
@@ -21093,7 +21051,7 @@
       <c r="C36" s="81">
         <v>0.95</v>
       </c>
-      <c r="D36" s="82">
+      <c r="D36" s="137">
         <v>102</v>
       </c>
       <c r="E36" s="82" t="s">
@@ -21101,7 +21059,7 @@
       </c>
       <c r="F36" s="35"/>
     </row>
-    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15.75" customHeight="1">
       <c r="A37" s="52" t="s">
         <v>85</v>
       </c>
@@ -21111,14 +21069,14 @@
       <c r="C37" s="81">
         <v>0.95</v>
       </c>
-      <c r="D37" s="82">
+      <c r="D37" s="137">
         <v>5.53</v>
       </c>
       <c r="E37" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15.75" customHeight="1">
       <c r="A38" s="52" t="s">
         <v>60</v>
       </c>
@@ -21128,18 +21086,18 @@
       <c r="C38" s="81">
         <v>0.95</v>
       </c>
-      <c r="D38" s="82">
+      <c r="D38" s="137">
         <v>1</v>
       </c>
       <c r="E38" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15.75" customHeight="1">
       <c r="F39" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="qPEVIb2i+EW7aeHSHXfyIGKbWVsX0oVXgH7/1TuJ2Sl4kovrKOo2Y4B+EbmYp4DoC5yzt0/wDQVuaLfKSXe2dQ==" saltValue="2Pd0d2wQNpcAJ+vxVS7jHw==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="p70aYUtLGvHfmCP97+tSec/5CYTtcS9K/2VG+kCa9xIk944/Jibt9p1+4wbnuUz7lfTLtwtVT6ABeJSskt/ufg==" saltValue="AuMez0FlgMnVzzFTB279Ag==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D38">
     <sortCondition ref="A2:A38"/>
   </sortState>

--- a/inputs/demo_region2_input.xlsx
+++ b/inputs/demo_region2_input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Github\Nutrition\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dominic.delport\Documents\GitHub\Nutrition\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F21BD5-5884-4917-93C1-18A4466C573F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B97CFDC8-1684-4FC7-84AD-3DA911515486}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="961" firstSheet="1" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -91,12 +91,14 @@
     <definedName name="term_SGA">'Baseline year population inputs'!$C$47</definedName>
     <definedName name="U5_mortality">'Baseline year population inputs'!$C$39</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -120,7 +122,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Nick Scott:</t>
         </r>
@@ -129,7 +131,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Cost per person per year, or per pregnancy</t>
@@ -1235,7 +1237,7 @@
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1405,19 +1407,6 @@
       <color theme="2" tint="-0.499984740745262"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -4763,18 +4752,18 @@
   </sheetPr>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="38.6640625" style="16" customWidth="1"/>
-    <col min="3" max="16384" width="14.44140625" style="12"/>
+    <col min="1" max="1" width="27.6328125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="38.6328125" style="16" customWidth="1"/>
+    <col min="3" max="16384" width="14.453125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.05" customHeight="1">
+    <row r="1" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>100</v>
       </c>
@@ -4785,14 +4774,14 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.05" customHeight="1">
+    <row r="2" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>191</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
     </row>
-    <row r="3" spans="1:3" ht="16.05" customHeight="1">
+    <row r="3" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
         <v>193</v>
@@ -4801,7 +4790,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.05" customHeight="1">
+    <row r="4" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
         <v>192</v>
@@ -4810,17 +4799,17 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.05" customHeight="1">
+    <row r="5" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="16" t="s">
         <v>208</v>
       </c>
@@ -4828,7 +4817,7 @@
         <v>9862402</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>106</v>
       </c>
@@ -4836,7 +4825,7 @@
         <v>0.28199999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1">
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
         <v>107</v>
       </c>
@@ -4844,7 +4833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1">
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
         <v>105</v>
       </c>
@@ -4852,7 +4841,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1">
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
         <v>108</v>
       </c>
@@ -4860,7 +4849,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1">
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
         <v>109</v>
       </c>
@@ -4868,7 +4857,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1">
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
         <v>110</v>
       </c>
@@ -4876,17 +4865,17 @@
         <v>0.221</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1">
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="12"/>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>30</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1">
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
         <v>94</v>
       </c>
@@ -4894,7 +4883,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1">
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
         <v>95</v>
       </c>
@@ -4902,7 +4891,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1">
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
         <v>96</v>
       </c>
@@ -4910,7 +4899,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" customHeight="1">
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="9" t="s">
         <v>97</v>
       </c>
@@ -4918,7 +4907,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" customHeight="1">
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
         <v>98</v>
       </c>
@@ -4927,15 +4916,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" customHeight="1">
+    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="12"/>
     </row>
-    <row r="22" spans="1:3" ht="15" customHeight="1">
+    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" customHeight="1">
+    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="20" t="s">
         <v>101</v>
       </c>
@@ -4943,7 +4932,7 @@
         <v>0.127</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15" customHeight="1">
+    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="20" t="s">
         <v>102</v>
       </c>
@@ -4951,7 +4940,7 @@
         <v>0.45200000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15" customHeight="1">
+    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="20" t="s">
         <v>103</v>
       </c>
@@ -4959,7 +4948,7 @@
         <v>0.33400000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15" customHeight="1">
+    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="20" t="s">
         <v>104</v>
       </c>
@@ -4967,18 +4956,18 @@
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15" customHeight="1">
+    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
     </row>
-    <row r="28" spans="1:3" ht="15" customHeight="1">
+    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>196</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
     </row>
-    <row r="29" spans="1:3" ht="14.25" customHeight="1">
+    <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="30" t="s">
         <v>75</v>
       </c>
@@ -4986,7 +4975,7 @@
         <v>0.20799999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="14.25" customHeight="1">
+    <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="30" t="s">
         <v>76</v>
       </c>
@@ -4994,7 +4983,7 @@
         <v>0.63700000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="14.25" customHeight="1">
+    <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="30" t="s">
         <v>77</v>
       </c>
@@ -5002,7 +4991,7 @@
         <v>0.11899999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="14.25" customHeight="1">
+    <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="30" t="s">
         <v>78</v>
       </c>
@@ -5010,7 +4999,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="13.2">
+    <row r="33" spans="1:5" ht="13" x14ac:dyDescent="0.25">
       <c r="B33" s="32" t="s">
         <v>129</v>
       </c>
@@ -5019,20 +5008,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15" customHeight="1"/>
-    <row r="35" spans="1:5" ht="15" customHeight="1">
+    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15" customHeight="1">
+    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>74</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="13"/>
     </row>
-    <row r="37" spans="1:5" ht="15" customHeight="1">
+    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="42" t="s">
         <v>92</v>
       </c>
@@ -5040,7 +5029,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15" customHeight="1">
+    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="16" t="s">
         <v>91</v>
       </c>
@@ -5050,7 +5039,7 @@
       <c r="D38" s="17"/>
       <c r="E38" s="18"/>
     </row>
-    <row r="39" spans="1:5" ht="15" customHeight="1">
+    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="16" t="s">
         <v>90</v>
       </c>
@@ -5060,7 +5049,7 @@
       <c r="D39" s="17"/>
       <c r="E39" s="17"/>
     </row>
-    <row r="40" spans="1:5" ht="15" customHeight="1">
+    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="16" t="s">
         <v>171</v>
       </c>
@@ -5068,7 +5057,7 @@
         <v>4.01</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15" customHeight="1">
+    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="16" t="s">
         <v>89</v>
       </c>
@@ -5076,7 +5065,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15" customHeight="1">
+    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="42" t="s">
         <v>93</v>
       </c>
@@ -5084,16 +5073,16 @@
         <v>22.4</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1">
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D43" s="17"/>
     </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1">
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
         <v>133</v>
       </c>
       <c r="D44" s="17"/>
     </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1">
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="16" t="s">
         <v>9</v>
       </c>
@@ -5102,7 +5091,7 @@
       </c>
       <c r="D45" s="17"/>
     </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1">
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="16" t="s">
         <v>11</v>
       </c>
@@ -5111,7 +5100,7 @@
       </c>
       <c r="D46" s="17"/>
     </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1">
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="16" t="s">
         <v>12</v>
       </c>
@@ -5121,7 +5110,7 @@
       <c r="D47" s="17"/>
       <c r="E47" s="18"/>
     </row>
-    <row r="48" spans="1:5" ht="15" customHeight="1">
+    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="16" t="s">
         <v>26</v>
       </c>
@@ -5132,16 +5121,16 @@
       <c r="D48" s="17"/>
       <c r="E48" s="17"/>
     </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1">
+    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D49" s="17"/>
     </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1">
+    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
         <v>72</v>
       </c>
       <c r="D50" s="17"/>
     </row>
-    <row r="51" spans="1:4" ht="15.75" customHeight="1">
+    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="16" t="s">
         <v>124</v>
       </c>
@@ -5150,7 +5139,7 @@
       </c>
       <c r="D51" s="17"/>
     </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1">
+    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="16" t="s">
         <v>125</v>
       </c>
@@ -5158,7 +5147,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15.75" customHeight="1">
+    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="16" t="s">
         <v>126</v>
       </c>
@@ -5166,7 +5155,7 @@
         <v>5.64</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15.75" customHeight="1">
+    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="16" t="s">
         <v>127</v>
       </c>
@@ -5174,7 +5163,7 @@
         <v>5.43</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15.75" customHeight="1">
+    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="16" t="s">
         <v>128</v>
       </c>
@@ -5182,12 +5171,12 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15.75" customHeight="1">
+    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15.75" customHeight="1">
+    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="7" t="s">
         <v>111</v>
       </c>
@@ -5195,7 +5184,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15.75" customHeight="1">
+    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="16" t="s">
         <v>132</v>
       </c>
@@ -5203,7 +5192,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15.75" customHeight="1">
+    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="16" t="s">
         <v>269</v>
       </c>
@@ -5211,7 +5200,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15.75" customHeight="1">
+    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="16" t="s">
         <v>270</v>
       </c>
@@ -5219,7 +5208,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1">
+    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
     </row>
   </sheetData>
@@ -5240,15 +5229,15 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="52" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.77734375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="42.44140625" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="11.44140625" style="35"/>
+    <col min="2" max="2" width="47.81640625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="42.453125" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="11.453125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -5259,7 +5248,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="83" t="s">
         <v>187</v>
       </c>
@@ -5268,7 +5257,7 @@
       </c>
       <c r="C2" s="80"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="83" t="s">
         <v>207</v>
       </c>
@@ -5277,7 +5266,7 @@
       </c>
       <c r="C3" s="80"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="84" t="s">
         <v>58</v>
       </c>
@@ -5286,7 +5275,7 @@
       </c>
       <c r="C4" s="80"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="84" t="s">
         <v>137</v>
       </c>
@@ -5295,77 +5284,77 @@
       </c>
       <c r="C5" s="80"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="84"/>
       <c r="B6" s="85"/>
       <c r="C6" s="85"/>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="84"/>
       <c r="B7" s="85"/>
       <c r="C7" s="85"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="84"/>
       <c r="B8" s="85"/>
       <c r="C8" s="85"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="84"/>
       <c r="B9" s="85"/>
       <c r="C9" s="85"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="84"/>
       <c r="B10" s="85"/>
       <c r="C10" s="85"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="86"/>
       <c r="B11" s="85"/>
       <c r="C11" s="85"/>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="86"/>
       <c r="B12" s="85"/>
       <c r="C12" s="85"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="86"/>
       <c r="B13" s="85"/>
       <c r="C13" s="85"/>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="86"/>
       <c r="B14" s="85"/>
       <c r="C14" s="85"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="86"/>
       <c r="B15" s="85"/>
       <c r="C15" s="85"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="86"/>
       <c r="B16" s="85"/>
       <c r="C16" s="85"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="86"/>
       <c r="B17" s="85"/>
       <c r="C17" s="85"/>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="86"/>
       <c r="B18" s="85"/>
       <c r="C18" s="85"/>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="84"/>
       <c r="B19" s="85"/>
       <c r="C19" s="85"/>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="84"/>
       <c r="B20" s="85"/>
       <c r="C20" s="85"/>
@@ -5389,85 +5378,85 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.109375" style="35" customWidth="1"/>
-    <col min="2" max="16384" width="11.44140625" style="35"/>
+    <col min="1" max="1" width="30.08984375" style="35" customWidth="1"/>
+    <col min="2" max="16384" width="11.453125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="48" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="48" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="48" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="48" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="48" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="48" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="48" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="48"/>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="48"/>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="48"/>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="48"/>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="48"/>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="48"/>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="48"/>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="48"/>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="48"/>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="48"/>
     </row>
   </sheetData>
@@ -5487,9 +5476,9 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -5509,7 +5498,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>71</v>
       </c>
@@ -5534,7 +5523,7 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>65</v>
       </c>
@@ -5559,7 +5548,7 @@
         <v>5.8059717622450747E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>66</v>
       </c>
@@ -5597,23 +5586,23 @@
   </sheetPr>
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="C29" activeCellId="3" sqref="C2:O12 C14:O21 C23:O27 C29:O38"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.77734375" customWidth="1"/>
-    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.81640625" customWidth="1"/>
+    <col min="3" max="3" width="8.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="15.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>33</v>
       </c>
@@ -5660,7 +5649,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>31</v>
       </c>
@@ -5711,7 +5700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>149</v>
       </c>
@@ -5755,7 +5744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>195</v>
       </c>
@@ -5799,7 +5788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
         <v>136</v>
       </c>
@@ -5845,7 +5834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
         <v>137</v>
       </c>
@@ -5892,29 +5881,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="33" t="s">
         <v>84</v>
       </c>
       <c r="C7" s="87">
-        <f>diarrhoea_1mo/26</f>
-        <v>6.3846153846153844E-2</v>
+        <f>diarrhoea_1mo</f>
+        <v>1.66</v>
       </c>
       <c r="D7" s="87">
-        <f>diarrhoea_1_5mo/26</f>
-        <v>6.3846153846153844E-2</v>
+        <f>diarrhoea_1_5mo</f>
+        <v>1.66</v>
       </c>
       <c r="E7" s="87">
-        <f>diarrhoea_6_11mo/26</f>
-        <v>0.21692307692307691</v>
+        <f>diarrhoea_6_11mo</f>
+        <v>5.64</v>
       </c>
       <c r="F7" s="87">
-        <f>diarrhoea_12_23mo/26</f>
-        <v>0.20884615384615385</v>
+        <f>diarrhoea_12_23mo</f>
+        <v>5.43</v>
       </c>
       <c r="G7" s="87">
-        <f>diarrhoea_24_59mo/26</f>
-        <v>7.3461538461538453E-2</v>
+        <f>diarrhoea_24_59mo</f>
+        <v>1.91</v>
       </c>
       <c r="H7" s="88">
         <v>0</v>
@@ -5941,7 +5930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
         <v>58</v>
       </c>
@@ -5987,7 +5976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
         <v>67</v>
       </c>
@@ -6035,7 +6024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15" customHeight="1">
+    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
         <v>28</v>
       </c>
@@ -6079,29 +6068,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="33" t="s">
         <v>85</v>
       </c>
       <c r="C11" s="87">
-        <f>diarrhoea_1mo/26</f>
-        <v>6.3846153846153844E-2</v>
+        <f>diarrhoea_1mo</f>
+        <v>1.66</v>
       </c>
       <c r="D11" s="87">
-        <f>diarrhoea_1_5mo/26</f>
-        <v>6.3846153846153844E-2</v>
+        <f>diarrhoea_1_5mo</f>
+        <v>1.66</v>
       </c>
       <c r="E11" s="87">
-        <f>diarrhoea_6_11mo/26</f>
-        <v>0.21692307692307691</v>
+        <f>diarrhoea_6_11mo</f>
+        <v>5.64</v>
       </c>
       <c r="F11" s="87">
-        <f>diarrhoea_12_23mo/26</f>
-        <v>0.20884615384615385</v>
+        <f>diarrhoea_12_23mo</f>
+        <v>5.43</v>
       </c>
       <c r="G11" s="87">
-        <f>diarrhoea_24_59mo/26</f>
-        <v>7.3461538461538453E-2</v>
+        <f>diarrhoea_24_59mo</f>
+        <v>1.91</v>
       </c>
       <c r="H11" s="88">
         <v>0</v>
@@ -6128,7 +6117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
         <v>60</v>
       </c>
@@ -6172,10 +6161,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="33"/>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>32</v>
       </c>
@@ -6226,7 +6215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="11" t="s">
         <v>86</v>
@@ -6271,7 +6260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="11" t="s">
         <v>187</v>
@@ -6320,7 +6309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="11" t="s">
         <v>207</v>
@@ -6369,7 +6358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15" customHeight="1">
+    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="33" t="s">
         <v>57</v>
       </c>
@@ -6417,7 +6406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15.75" customHeight="1">
+    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="11" t="s">
         <v>88</v>
       </c>
@@ -6461,7 +6450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15.75" customHeight="1">
+    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="11" t="s">
         <v>87</v>
       </c>
@@ -6505,7 +6494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15.75" customHeight="1">
+    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="33" t="s">
         <v>59</v>
       </c>
@@ -6553,10 +6542,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15.75" customHeight="1">
+    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="33"/>
     </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1">
+    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="58" t="s">
         <v>37</v>
       </c>
@@ -6607,7 +6596,7 @@
         <v>0.221</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1">
+    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="59" t="s">
         <v>188</v>
       </c>
@@ -6655,7 +6644,7 @@
         <v>0.54921999999999993</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15.75" customHeight="1">
+    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="59" t="s">
         <v>206</v>
       </c>
@@ -6703,7 +6692,7 @@
         <v>0.23537999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15.75" customHeight="1">
+    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="59" t="s">
         <v>189</v>
       </c>
@@ -6751,7 +6740,7 @@
         <v>0.21539999999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15.75" customHeight="1">
+    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="59" t="s">
         <v>190</v>
       </c>
@@ -6796,7 +6785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15.75" customHeight="1">
+    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="11"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -6806,7 +6795,7 @@
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
     </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1">
+    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>35</v>
       </c>
@@ -6864,7 +6853,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1">
+    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="11" t="s">
         <v>64</v>
       </c>
@@ -6919,7 +6908,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="15.75" customHeight="1">
+    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="11" t="s">
         <v>62</v>
       </c>
@@ -6974,7 +6963,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15.75" customHeight="1">
+    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="11" t="s">
         <v>47</v>
       </c>
@@ -7018,7 +7007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="11" t="s">
         <v>34</v>
       </c>
@@ -7075,7 +7064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="33" t="s">
         <v>83</v>
       </c>
@@ -7119,7 +7108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="33" t="s">
         <v>82</v>
@@ -7164,7 +7153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1">
+    <row r="36" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="33" t="s">
         <v>81</v>
       </c>
@@ -7208,7 +7197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1">
+    <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="33" t="s">
         <v>79</v>
       </c>
@@ -7252,7 +7241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1">
+    <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="33" t="s">
         <v>80</v>
       </c>
@@ -7296,7 +7285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="15.75" customHeight="1">
+    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="33"/>
     </row>
   </sheetData>
@@ -7315,24 +7304,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>204</v>
       </c>
@@ -7353,16 +7342,16 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.6640625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="35" customWidth="1"/>
-    <col min="3" max="4" width="11.44140625" style="35"/>
-    <col min="5" max="5" width="17.44140625" style="35" customWidth="1"/>
-    <col min="6" max="16384" width="11.44140625" style="35"/>
+    <col min="1" max="1" width="33.6328125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" style="35" customWidth="1"/>
+    <col min="3" max="4" width="11.453125" style="35"/>
+    <col min="5" max="5" width="17.453125" style="35" customWidth="1"/>
+    <col min="6" max="16384" width="11.453125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>163</v>
       </c>
@@ -7379,7 +7368,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13.8">
+    <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="A2" s="39" t="s">
         <v>158</v>
       </c>
@@ -7397,7 +7386,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13.8">
+    <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="A3" s="39" t="s">
         <v>157</v>
       </c>
@@ -7415,7 +7404,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13.8">
+    <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="A4" s="39" t="s">
         <v>156</v>
       </c>
@@ -7433,7 +7422,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13.8">
+    <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="A5" s="39" t="s">
         <v>155</v>
       </c>
@@ -7451,7 +7440,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.8">
+    <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="A6" s="39" t="s">
         <v>154</v>
       </c>
@@ -7469,7 +7458,7 @@
         <v>1.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="13.8">
+    <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="A7" s="39" t="s">
         <v>153</v>
       </c>
@@ -7487,7 +7476,7 @@
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="13.8">
+    <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="A8" s="39" t="s">
         <v>152</v>
       </c>
@@ -7505,7 +7494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="13.8">
+    <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="A9" s="39" t="s">
         <v>151</v>
       </c>
@@ -7523,7 +7512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.8">
+    <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="A10" s="39" t="s">
         <v>150</v>
       </c>
@@ -7541,7 +7530,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C11" s="36"/>
     </row>
   </sheetData>
@@ -7562,20 +7551,20 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.21875" style="55" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.88671875" style="55" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" style="55" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.1796875" style="55" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.90625" style="55" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.453125" style="55" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.08984375" style="55" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="55" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="15.33203125" style="55" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="16.88671875" style="55" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="16.109375" style="55"/>
+    <col min="6" max="7" width="13.08984375" style="55" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="15.36328125" style="55" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="16.90625" style="55" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="16.08984375" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="56" t="s">
         <v>33</v>
       </c>
@@ -7622,7 +7611,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="56" t="s">
         <v>31</v>
       </c>
@@ -7669,7 +7658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="52" t="s">
         <v>149</v>
       </c>
@@ -7713,7 +7702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="52" t="s">
         <v>173</v>
       </c>
@@ -7757,7 +7746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="52" t="s">
         <v>198</v>
       </c>
@@ -7801,7 +7790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="52" t="s">
         <v>199</v>
       </c>
@@ -7845,7 +7834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="52" t="s">
         <v>195</v>
       </c>
@@ -7889,7 +7878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="52" t="s">
         <v>136</v>
       </c>
@@ -7933,7 +7922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="52" t="s">
         <v>137</v>
       </c>
@@ -7977,7 +7966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="52" t="s">
         <v>84</v>
       </c>
@@ -8021,7 +8010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="52" t="s">
         <v>58</v>
       </c>
@@ -8065,7 +8054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="52" t="s">
         <v>67</v>
       </c>
@@ -8109,7 +8098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="52" t="s">
         <v>28</v>
       </c>
@@ -8153,7 +8142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="52" t="s">
         <v>85</v>
       </c>
@@ -8197,7 +8186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="52" t="s">
         <v>60</v>
       </c>
@@ -8241,7 +8230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="52"/>
       <c r="C16" s="91"/>
       <c r="D16" s="91"/>
@@ -8257,7 +8246,7 @@
       <c r="N16" s="91"/>
       <c r="O16" s="91"/>
     </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1">
+    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="56" t="s">
         <v>32</v>
       </c>
@@ -8304,7 +8293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="56"/>
       <c r="B18" s="52" t="s">
         <v>86</v>
@@ -8349,7 +8338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1">
+    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="92" t="s">
         <v>187</v>
       </c>
@@ -8393,7 +8382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="92" t="s">
         <v>207</v>
       </c>
@@ -8437,7 +8426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1">
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="93" t="s">
         <v>57</v>
       </c>
@@ -8481,7 +8470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="52" t="s">
         <v>88</v>
       </c>
@@ -8525,7 +8514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="52" t="s">
         <v>87</v>
       </c>
@@ -8569,7 +8558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="52" t="s">
         <v>59</v>
       </c>
@@ -8613,7 +8602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1">
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="52"/>
       <c r="C25" s="91"/>
       <c r="D25" s="91"/>
@@ -8629,7 +8618,7 @@
       <c r="N25" s="91"/>
       <c r="O25" s="91"/>
     </row>
-    <row r="26" spans="1:16" ht="16.05" customHeight="1">
+    <row r="26" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="56" t="s">
         <v>37</v>
       </c>
@@ -8677,7 +8666,7 @@
       </c>
       <c r="P26" s="94"/>
     </row>
-    <row r="27" spans="1:16" ht="15.75" customHeight="1">
+    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="59" t="s">
         <v>188</v>
       </c>
@@ -8721,7 +8710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1">
+    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="56"/>
       <c r="B28" s="59" t="s">
         <v>206</v>
@@ -8766,7 +8755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1">
+    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="59" t="s">
         <v>189</v>
       </c>
@@ -8810,7 +8799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1">
+    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="59" t="s">
         <v>190</v>
       </c>
@@ -8854,7 +8843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1">
+    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="52"/>
       <c r="C31" s="95"/>
       <c r="D31" s="95"/>
@@ -8870,7 +8859,7 @@
       <c r="N31" s="91"/>
       <c r="O31" s="91"/>
     </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1">
+    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="56" t="s">
         <v>35</v>
       </c>
@@ -8917,7 +8906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="52" t="s">
         <v>64</v>
       </c>
@@ -8961,7 +8950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="52" t="s">
         <v>62</v>
       </c>
@@ -9005,7 +8994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="52" t="s">
         <v>47</v>
       </c>
@@ -9049,7 +9038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="52" t="s">
         <v>34</v>
       </c>
@@ -9093,7 +9082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1">
+    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="97"/>
       <c r="B37" s="52" t="s">
         <v>83</v>
@@ -9138,7 +9127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1">
+    <row r="38" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="52" t="s">
         <v>82</v>
       </c>
@@ -9182,7 +9171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1">
+    <row r="39" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="52" t="s">
         <v>81</v>
       </c>
@@ -9226,7 +9215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1">
+    <row r="40" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="52" t="s">
         <v>79</v>
       </c>
@@ -9270,7 +9259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="15" customHeight="1">
+    <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="52" t="s">
         <v>80</v>
       </c>
@@ -9331,22 +9320,22 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.77734375" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.77734375" style="35"/>
+    <col min="1" max="1" width="58.90625" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.90625" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.36328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.453125" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.81640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.90625" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.81640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.81640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -9381,7 +9370,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
         <v>29</v>
       </c>
@@ -9398,7 +9387,7 @@
       <c r="J2" s="90"/>
       <c r="K2" s="90"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="52" t="s">
         <v>86</v>
       </c>
@@ -9415,7 +9404,7 @@
       <c r="J3" s="90"/>
       <c r="K3" s="90"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="52" t="s">
         <v>61</v>
       </c>
@@ -9432,7 +9421,7 @@
       <c r="J4" s="90"/>
       <c r="K4" s="90"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="52" t="s">
         <v>149</v>
       </c>
@@ -9449,7 +9438,7 @@
       <c r="J5" s="90"/>
       <c r="K5" s="90"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="52" t="s">
         <v>197</v>
       </c>
@@ -9468,7 +9457,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="52" t="s">
         <v>63</v>
       </c>
@@ -9487,7 +9476,7 @@
       <c r="J7" s="90"/>
       <c r="K7" s="90"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="52" t="s">
         <v>64</v>
       </c>
@@ -9506,7 +9495,7 @@
       <c r="J8" s="90"/>
       <c r="K8" s="90"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
         <v>62</v>
       </c>
@@ -9525,7 +9514,7 @@
       <c r="J9" s="90"/>
       <c r="K9" s="90"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="59" t="s">
         <v>188</v>
       </c>
@@ -9542,7 +9531,7 @@
       <c r="J10" s="90"/>
       <c r="K10" s="90"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="59" t="s">
         <v>206</v>
       </c>
@@ -9559,7 +9548,7 @@
       <c r="J11" s="90"/>
       <c r="K11" s="90"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="59" t="s">
         <v>189</v>
       </c>
@@ -9576,7 +9565,7 @@
       <c r="J12" s="90"/>
       <c r="K12" s="90"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="59" t="s">
         <v>190</v>
       </c>
@@ -9593,7 +9582,7 @@
       <c r="J13" s="90"/>
       <c r="K13" s="90"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="92" t="s">
         <v>187</v>
       </c>
@@ -9612,7 +9601,7 @@
       <c r="J14" s="90"/>
       <c r="K14" s="90"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="92" t="s">
         <v>207</v>
       </c>
@@ -9631,7 +9620,7 @@
       <c r="J15" s="90"/>
       <c r="K15" s="90"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="52" t="s">
         <v>57</v>
       </c>
@@ -9652,7 +9641,7 @@
       <c r="J16" s="90"/>
       <c r="K16" s="90"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="52" t="s">
         <v>47</v>
       </c>
@@ -9669,7 +9658,7 @@
       <c r="J17" s="90"/>
       <c r="K17" s="90"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="52" t="s">
         <v>173</v>
       </c>
@@ -9688,7 +9677,7 @@
       <c r="J18" s="90"/>
       <c r="K18" s="90"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="52" t="s">
         <v>198</v>
       </c>
@@ -9707,7 +9696,7 @@
       <c r="J19" s="90"/>
       <c r="K19" s="90"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="52" t="s">
         <v>199</v>
       </c>
@@ -9726,7 +9715,7 @@
       <c r="J20" s="90"/>
       <c r="K20" s="90"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="52" t="s">
         <v>195</v>
       </c>
@@ -9745,7 +9734,7 @@
       <c r="J21" s="90"/>
       <c r="K21" s="90"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="52" t="s">
         <v>136</v>
       </c>
@@ -9766,7 +9755,7 @@
       <c r="J22" s="90"/>
       <c r="K22" s="90"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="52" t="s">
         <v>34</v>
       </c>
@@ -9785,7 +9774,7 @@
       <c r="J23" s="90"/>
       <c r="K23" s="90"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="52" t="s">
         <v>88</v>
       </c>
@@ -9802,7 +9791,7 @@
       <c r="J24" s="90"/>
       <c r="K24" s="90"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="52" t="s">
         <v>87</v>
       </c>
@@ -9819,7 +9808,7 @@
       <c r="J25" s="90"/>
       <c r="K25" s="90"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="52" t="s">
         <v>137</v>
       </c>
@@ -9836,7 +9825,7 @@
       <c r="J26" s="90"/>
       <c r="K26" s="90"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="52" t="s">
         <v>59</v>
       </c>
@@ -9855,7 +9844,7 @@
       <c r="J27" s="90"/>
       <c r="K27" s="90"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="52" t="s">
         <v>84</v>
       </c>
@@ -9872,7 +9861,7 @@
       <c r="J28" s="90"/>
       <c r="K28" s="90"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="52" t="s">
         <v>58</v>
       </c>
@@ -9891,7 +9880,7 @@
       <c r="J29" s="90"/>
       <c r="K29" s="90"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="52" t="s">
         <v>67</v>
       </c>
@@ -9908,7 +9897,7 @@
       <c r="J30" s="90"/>
       <c r="K30" s="90"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="52" t="s">
         <v>28</v>
       </c>
@@ -9927,7 +9916,7 @@
       <c r="J31" s="90"/>
       <c r="K31" s="90"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="52" t="s">
         <v>83</v>
       </c>
@@ -9946,7 +9935,7 @@
       <c r="J32" s="90"/>
       <c r="K32" s="90"/>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="52" t="s">
         <v>82</v>
       </c>
@@ -9965,7 +9954,7 @@
       <c r="J33" s="90"/>
       <c r="K33" s="90"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="52" t="s">
         <v>81</v>
       </c>
@@ -9984,7 +9973,7 @@
       <c r="J34" s="90"/>
       <c r="K34" s="90"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="52" t="s">
         <v>79</v>
       </c>
@@ -10003,7 +9992,7 @@
       <c r="J35" s="90"/>
       <c r="K35" s="90"/>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="52" t="s">
         <v>80</v>
       </c>
@@ -10022,7 +10011,7 @@
       <c r="J36" s="90"/>
       <c r="K36" s="90"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="52" t="s">
         <v>85</v>
       </c>
@@ -10039,7 +10028,7 @@
       <c r="J37" s="90"/>
       <c r="K37" s="90"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="52" t="s">
         <v>60</v>
       </c>
@@ -10077,22 +10066,22 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.77734375" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.77734375" style="35"/>
+    <col min="1" max="1" width="16.90625" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.90625" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.36328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.453125" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.81640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.90625" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.81640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.81640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>216</v>
       </c>
@@ -10127,7 +10116,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
@@ -10156,7 +10145,7 @@
       <c r="J2" s="90"/>
       <c r="K2" s="90"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
@@ -10185,7 +10174,7 @@
       <c r="J3" s="90"/>
       <c r="K3" s="90"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
         <v>3</v>
       </c>
@@ -10214,7 +10203,7 @@
       <c r="J4" s="90"/>
       <c r="K4" s="90"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
         <v>4</v>
       </c>
@@ -10243,7 +10232,7 @@
       <c r="J5" s="90"/>
       <c r="K5" s="90"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
         <v>5</v>
       </c>
@@ -10272,7 +10261,7 @@
       <c r="J6" s="90"/>
       <c r="K6" s="90"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
         <v>53</v>
       </c>
@@ -10293,7 +10282,7 @@
       <c r="J7" s="90"/>
       <c r="K7" s="90"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
         <v>54</v>
       </c>
@@ -10314,7 +10303,7 @@
       <c r="J8" s="90"/>
       <c r="K8" s="90"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
         <v>55</v>
       </c>
@@ -10335,7 +10324,7 @@
       <c r="J9" s="90"/>
       <c r="K9" s="90"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
         <v>56</v>
       </c>
@@ -10356,7 +10345,7 @@
       <c r="J10" s="90"/>
       <c r="K10" s="90"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
         <v>49</v>
       </c>
@@ -10377,7 +10366,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
         <v>50</v>
       </c>
@@ -10396,7 +10385,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="35" t="s">
         <v>51</v>
       </c>
@@ -10415,7 +10404,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="35" t="s">
         <v>52</v>
       </c>
@@ -10451,15 +10440,15 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.109375" style="35" customWidth="1"/>
+    <col min="1" max="1" width="48.08984375" style="35" customWidth="1"/>
     <col min="2" max="2" width="15" style="35" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="12.77734375" style="35"/>
+    <col min="3" max="3" width="14.6328125" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="12.81640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>217</v>
       </c>
@@ -10485,7 +10474,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
         <v>218</v>
       </c>
@@ -10511,7 +10500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="138"/>
       <c r="C3" s="35" t="s">
         <v>175</v>
@@ -10533,7 +10522,7 @@
       </c>
       <c r="J3" s="100"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="138"/>
       <c r="C4" s="35" t="s">
         <v>174</v>
@@ -10555,7 +10544,7 @@
       </c>
       <c r="J4" s="100"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="138" t="s">
         <v>1</v>
       </c>
@@ -10579,7 +10568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="138"/>
       <c r="C6" s="35" t="s">
         <v>175</v>
@@ -10600,7 +10589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="138"/>
       <c r="C7" s="35" t="s">
         <v>174</v>
@@ -10621,7 +10610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="138" t="s">
         <v>2</v>
       </c>
@@ -10644,7 +10633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="138"/>
       <c r="C9" s="35" t="s">
         <v>175</v>
@@ -10665,7 +10654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="138"/>
       <c r="C10" s="35" t="s">
         <v>174</v>
@@ -10686,7 +10675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="138" t="s">
         <v>3</v>
       </c>
@@ -10709,7 +10698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="138"/>
       <c r="C12" s="35" t="s">
         <v>175</v>
@@ -10730,7 +10719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="138"/>
       <c r="C13" s="35" t="s">
         <v>174</v>
@@ -10751,7 +10740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="138" t="s">
         <v>4</v>
       </c>
@@ -10774,7 +10763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="138"/>
       <c r="C15" s="35" t="s">
         <v>175</v>
@@ -10795,7 +10784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="138"/>
       <c r="C16" s="35" t="s">
         <v>174</v>
@@ -10816,7 +10805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="B17" s="101" t="s">
         <v>172</v>
       </c>
@@ -10839,14 +10828,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D18" s="102"/>
       <c r="E18" s="102"/>
       <c r="F18" s="102"/>
       <c r="G18" s="102"/>
       <c r="H18" s="102"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A19" s="40" t="s">
         <v>219</v>
       </c>
@@ -10872,7 +10861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B20" s="138"/>
       <c r="C20" s="35" t="s">
         <v>175</v>
@@ -10893,7 +10882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B21" s="138"/>
       <c r="C21" s="35" t="s">
         <v>174</v>
@@ -10914,7 +10903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B22" s="138" t="s">
         <v>1</v>
       </c>
@@ -10937,7 +10926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23" s="138"/>
       <c r="C23" s="35" t="s">
         <v>175</v>
@@ -10958,7 +10947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B24" s="138"/>
       <c r="C24" s="35" t="s">
         <v>174</v>
@@ -10979,7 +10968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25" s="138" t="s">
         <v>2</v>
       </c>
@@ -11002,7 +10991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B26" s="138"/>
       <c r="C26" s="35" t="s">
         <v>175</v>
@@ -11023,7 +11012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27" s="138"/>
       <c r="C27" s="35" t="s">
         <v>174</v>
@@ -11044,7 +11033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28" s="138" t="s">
         <v>3</v>
       </c>
@@ -11067,7 +11056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B29" s="138"/>
       <c r="C29" s="35" t="s">
         <v>175</v>
@@ -11088,7 +11077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B30" s="138"/>
       <c r="C30" s="35" t="s">
         <v>174</v>
@@ -11109,7 +11098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B31" s="138" t="s">
         <v>4</v>
       </c>
@@ -11132,7 +11121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B32" s="138"/>
       <c r="C32" s="35" t="s">
         <v>175</v>
@@ -11153,7 +11142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B33" s="138"/>
       <c r="C33" s="35" t="s">
         <v>174</v>
@@ -11174,7 +11163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="B34" s="101" t="s">
         <v>172</v>
       </c>
@@ -11197,14 +11186,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D35" s="102"/>
       <c r="E35" s="102"/>
       <c r="F35" s="102"/>
       <c r="G35" s="102"/>
       <c r="H35" s="102"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A36" s="103" t="s">
         <v>220</v>
       </c>
@@ -11230,7 +11219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B37" s="138"/>
       <c r="C37" s="35" t="s">
         <v>175</v>
@@ -11251,7 +11240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B38" s="138"/>
       <c r="C38" s="35" t="s">
         <v>174</v>
@@ -11272,7 +11261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B39" s="138" t="s">
         <v>1</v>
       </c>
@@ -11295,7 +11284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B40" s="138"/>
       <c r="C40" s="35" t="s">
         <v>175</v>
@@ -11316,7 +11305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B41" s="138"/>
       <c r="C41" s="35" t="s">
         <v>174</v>
@@ -11337,7 +11326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B42" s="138" t="s">
         <v>2</v>
       </c>
@@ -11360,7 +11349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B43" s="138"/>
       <c r="C43" s="35" t="s">
         <v>175</v>
@@ -11381,7 +11370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B44" s="138"/>
       <c r="C44" s="35" t="s">
         <v>174</v>
@@ -11402,7 +11391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B45" s="138" t="s">
         <v>3</v>
       </c>
@@ -11425,7 +11414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B46" s="138"/>
       <c r="C46" s="35" t="s">
         <v>175</v>
@@ -11446,7 +11435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B47" s="138"/>
       <c r="C47" s="35" t="s">
         <v>174</v>
@@ -11467,7 +11456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B48" s="138" t="s">
         <v>4</v>
       </c>
@@ -11490,7 +11479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:8">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="138"/>
       <c r="C49" s="35" t="s">
         <v>175</v>
@@ -11511,7 +11500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:8">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="138"/>
       <c r="C50" s="35" t="s">
         <v>174</v>
@@ -11532,7 +11521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:8">
+    <row r="51" spans="2:8" ht="13" x14ac:dyDescent="0.25">
       <c r="B51" s="104" t="s">
         <v>172</v>
       </c>
@@ -11558,6 +11547,12 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BiU9BXNF+INgNxSFtHuqKvDgOHy4i8LHe4WBopPE5oAPe1uu8rzbQfKL4uxCQ4dbx+6qcxc95feCcYk3II7eJw==" saltValue="oFkUqZTkt+d2Svo646TgPw==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -11567,12 +11562,6 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -11590,14 +11579,14 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.44140625" style="12" customWidth="1"/>
-    <col min="2" max="9" width="16.77734375" style="12" customWidth="1"/>
-    <col min="10" max="16384" width="14.44140625" style="12"/>
+    <col min="1" max="1" width="8.453125" style="12" customWidth="1"/>
+    <col min="2" max="9" width="16.81640625" style="12" customWidth="1"/>
+    <col min="10" max="16384" width="14.453125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1">
+    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -11626,7 +11615,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>start_year</f>
         <v>2017</v>
@@ -11659,7 +11648,7 @@
         <v>10889222.411291081</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f t="shared" ref="A3:A40" si="2">IF($A$2+ROW(A3)-2&lt;=end_year,A2+1,"")</f>
         <v>2018</v>
@@ -11692,7 +11681,7 @@
         <v>11314876.916718401</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f t="shared" si="2"/>
         <v>2019</v>
@@ -11725,7 +11714,7 @@
         <v>11742062.79850255</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f t="shared" si="2"/>
         <v>2020</v>
@@ -11758,7 +11747,7 @@
         <v>12188008.303929869</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f t="shared" si="2"/>
         <v>2021</v>
@@ -11791,7 +11780,7 @@
         <v>12645913.809357187</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <f t="shared" si="2"/>
         <v>2022</v>
@@ -11824,7 +11813,7 @@
         <v>13098634.691141337</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <f t="shared" si="2"/>
         <v>2023</v>
@@ -11857,7 +11846,7 @@
         <v>13560643.572925486</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <f t="shared" si="2"/>
         <v>2024</v>
@@ -11890,7 +11879,7 @@
         <v>14048879.078352805</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <f t="shared" si="2"/>
         <v>2025</v>
@@ -11923,7 +11912,7 @@
         <v>14530354.336493783</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <f t="shared" si="2"/>
         <v>2026</v>
@@ -11956,7 +11945,7 @@
         <v>15032265.218277931</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1">
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <f t="shared" si="2"/>
         <v>2027</v>
@@ -11989,7 +11978,7 @@
         <v>15550202.10006208</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1">
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <f t="shared" si="2"/>
         <v>2028</v>
@@ -12022,7 +12011,7 @@
         <v>16082324.981846228</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1">
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <f t="shared" si="2"/>
         <v>2029</v>
@@ -12055,7 +12044,7 @@
         <v>16613455.239987208</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1">
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <f t="shared" si="2"/>
         <v>2030</v>
@@ -12088,7 +12077,7 @@
         <v>17165139.121771358</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1">
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12111,7 +12100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12134,7 +12123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12157,7 +12146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12180,7 +12169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12203,7 +12192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12226,7 +12215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12249,7 +12238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12272,7 +12261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12295,7 +12284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12318,7 +12307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1">
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12341,7 +12330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" customHeight="1">
+    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12364,7 +12353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.75" customHeight="1">
+    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12387,7 +12376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.75" customHeight="1">
+    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12410,7 +12399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75" customHeight="1">
+    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12433,7 +12422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" customHeight="1">
+    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12456,7 +12445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.75" customHeight="1">
+    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12479,7 +12468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15.75" customHeight="1">
+    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12502,7 +12491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15.75" customHeight="1">
+    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12525,7 +12514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15.75" customHeight="1">
+    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12548,7 +12537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15.75" customHeight="1">
+    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12571,7 +12560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15.75" customHeight="1">
+    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12594,7 +12583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15.75" customHeight="1">
+    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12617,7 +12606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15.75" customHeight="1">
+    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12640,7 +12629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15.75" customHeight="1">
+    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12686,22 +12675,22 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" style="35" customWidth="1"/>
-    <col min="2" max="2" width="34.109375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" style="35" customWidth="1"/>
+    <col min="1" max="1" width="23.90625" style="35" customWidth="1"/>
+    <col min="2" max="2" width="34.08984375" style="35" customWidth="1"/>
+    <col min="3" max="3" width="11.36328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.90625" style="35" customWidth="1"/>
     <col min="5" max="6" width="15" style="35" customWidth="1"/>
-    <col min="7" max="16384" width="16.109375" style="35"/>
+    <col min="7" max="16384" width="16.08984375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="106" customFormat="1" ht="18.75" customHeight="1">
+    <row r="1" spans="1:7" s="106" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="105" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="107"/>
       <c r="C2" s="108" t="s">
         <v>26</v>
@@ -12716,7 +12705,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="40" t="s">
         <v>222</v>
       </c>
@@ -12726,7 +12715,7 @@
       <c r="E3" s="112"/>
       <c r="F3" s="112"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="113" t="s">
         <v>75</v>
       </c>
@@ -12743,7 +12732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="113" t="s">
         <v>76</v>
       </c>
@@ -12760,7 +12749,7 @@
         <v>3.03</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="113" t="s">
         <v>77</v>
       </c>
@@ -12777,7 +12766,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="113" t="s">
         <v>78</v>
       </c>
@@ -12794,13 +12783,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="116"/>
       <c r="D8" s="100"/>
       <c r="E8" s="100"/>
       <c r="F8" s="100"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="40" t="s">
         <v>223</v>
       </c>
@@ -12818,14 +12807,14 @@
       </c>
       <c r="G9" s="117"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="116"/>
       <c r="D10" s="100"/>
       <c r="E10" s="100"/>
       <c r="F10" s="100"/>
       <c r="G10" s="117"/>
     </row>
-    <row r="11" spans="1:7" s="106" customFormat="1" ht="15" customHeight="1">
+    <row r="11" spans="1:7" s="106" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="105" t="s">
         <v>224</v>
       </c>
@@ -12835,7 +12824,7 @@
       <c r="F11" s="119"/>
       <c r="G11" s="120"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="40" t="s">
         <v>225</v>
       </c>
@@ -12845,7 +12834,7 @@
       <c r="F12" s="100"/>
       <c r="G12" s="117"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="121" t="s">
         <v>226</v>
       </c>
@@ -12863,7 +12852,7 @@
       </c>
       <c r="G13" s="117"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="121" t="s">
         <v>227</v>
       </c>
@@ -12881,7 +12870,7 @@
       </c>
       <c r="G14" s="117"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="121" t="s">
         <v>228</v>
       </c>
@@ -12899,7 +12888,7 @@
       </c>
       <c r="G15" s="117"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="40"/>
       <c r="B16" s="121"/>
       <c r="C16" s="122"/>
@@ -12908,7 +12897,7 @@
       <c r="F16" s="100"/>
       <c r="G16" s="117"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="40" t="s">
         <v>229</v>
       </c>
@@ -12919,7 +12908,7 @@
       <c r="F17" s="124"/>
       <c r="G17" s="117"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="125" t="s">
         <v>73</v>
       </c>
@@ -12937,7 +12926,7 @@
       </c>
       <c r="G18" s="117"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="125" t="s">
         <v>7</v>
       </c>
@@ -12955,7 +12944,7 @@
       </c>
       <c r="G19" s="117"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="125" t="s">
         <v>8</v>
       </c>
@@ -12973,7 +12962,7 @@
       </c>
       <c r="G20" s="117"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="125" t="s">
         <v>10</v>
       </c>
@@ -12991,7 +12980,7 @@
       </c>
       <c r="G21" s="117"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="125" t="s">
         <v>13</v>
       </c>
@@ -13008,7 +12997,7 @@
         <v>999.99</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="125" t="s">
         <v>14</v>
       </c>
@@ -13025,7 +13014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="125" t="s">
         <v>27</v>
       </c>
@@ -13042,7 +13031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="125" t="s">
         <v>15</v>
       </c>
@@ -13059,10 +13048,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="121"/>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="40"/>
     </row>
   </sheetData>
@@ -13083,23 +13072,23 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.21875" style="35" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="35" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" style="35" customWidth="1"/>
-    <col min="4" max="8" width="14.77734375" style="35" customWidth="1"/>
-    <col min="9" max="12" width="15.33203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="16.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="12.77734375" style="35"/>
+    <col min="1" max="1" width="27.1796875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="26.90625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="18.36328125" style="35" customWidth="1"/>
+    <col min="4" max="8" width="14.81640625" style="35" customWidth="1"/>
+    <col min="9" max="12" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="16.90625" style="35" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="12.81640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="106" customFormat="1">
+    <row r="1" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="105" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="126" t="s">
         <v>211</v>
       </c>
@@ -13133,7 +13122,7 @@
       <c r="O2" s="128"/>
       <c r="P2" s="128"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A3" s="40"/>
       <c r="B3" s="35" t="s">
         <v>71</v>
@@ -13165,7 +13154,7 @@
       <c r="O3" s="126"/>
       <c r="P3" s="126"/>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C4" s="43" t="s">
         <v>234</v>
       </c>
@@ -13193,7 +13182,7 @@
       <c r="O4" s="126"/>
       <c r="P4" s="126"/>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C5" s="43" t="s">
         <v>235</v>
       </c>
@@ -13221,7 +13210,7 @@
       <c r="O5" s="126"/>
       <c r="P5" s="126"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C6" s="43" t="s">
         <v>236</v>
       </c>
@@ -13249,7 +13238,7 @@
       <c r="O6" s="126"/>
       <c r="P6" s="126"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7" s="35" t="s">
         <v>16</v>
       </c>
@@ -13280,7 +13269,7 @@
       <c r="O7" s="126"/>
       <c r="P7" s="126"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C8" s="43" t="s">
         <v>234</v>
       </c>
@@ -13308,7 +13297,7 @@
       <c r="O8" s="126"/>
       <c r="P8" s="126"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C9" s="43" t="s">
         <v>235</v>
       </c>
@@ -13336,7 +13325,7 @@
       <c r="O9" s="126"/>
       <c r="P9" s="126"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C10" s="43" t="s">
         <v>236</v>
       </c>
@@ -13364,7 +13353,7 @@
       <c r="O10" s="126"/>
       <c r="P10" s="126"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B11" s="35" t="s">
         <v>18</v>
       </c>
@@ -13395,7 +13384,7 @@
       <c r="O11" s="126"/>
       <c r="P11" s="126"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C12" s="43" t="s">
         <v>234</v>
       </c>
@@ -13423,7 +13412,7 @@
       <c r="O12" s="126"/>
       <c r="P12" s="126"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C13" s="43" t="s">
         <v>235</v>
       </c>
@@ -13451,7 +13440,7 @@
       <c r="O13" s="126"/>
       <c r="P13" s="126"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C14" s="43" t="s">
         <v>236</v>
       </c>
@@ -13479,7 +13468,7 @@
       <c r="O14" s="126"/>
       <c r="P14" s="126"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B15" s="35" t="s">
         <v>19</v>
       </c>
@@ -13510,7 +13499,7 @@
       <c r="O15" s="126"/>
       <c r="P15" s="126"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C16" s="43" t="s">
         <v>234</v>
       </c>
@@ -13538,7 +13527,7 @@
       <c r="O16" s="126"/>
       <c r="P16" s="126"/>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C17" s="43" t="s">
         <v>235</v>
       </c>
@@ -13566,7 +13555,7 @@
       <c r="O17" s="126"/>
       <c r="P17" s="126"/>
     </row>
-    <row r="18" spans="1:16" ht="13.95" customHeight="1">
+    <row r="18" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="43" t="s">
         <v>236</v>
       </c>
@@ -13594,7 +13583,7 @@
       <c r="O18" s="126"/>
       <c r="P18" s="126"/>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B19" s="36" t="s">
         <v>17</v>
       </c>
@@ -13625,7 +13614,7 @@
       <c r="O19" s="126"/>
       <c r="P19" s="126"/>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C20" s="43" t="s">
         <v>234</v>
       </c>
@@ -13653,7 +13642,7 @@
       <c r="O20" s="126"/>
       <c r="P20" s="126"/>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C21" s="43" t="s">
         <v>235</v>
       </c>
@@ -13681,7 +13670,7 @@
       <c r="O21" s="126"/>
       <c r="P21" s="126"/>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C22" s="43" t="s">
         <v>236</v>
       </c>
@@ -13709,7 +13698,7 @@
       <c r="O22" s="126"/>
       <c r="P22" s="126"/>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B23" s="36" t="s">
         <v>23</v>
       </c>
@@ -13740,7 +13729,7 @@
       <c r="O23" s="126"/>
       <c r="P23" s="126"/>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C24" s="43" t="s">
         <v>234</v>
       </c>
@@ -13768,7 +13757,7 @@
       <c r="O24" s="126"/>
       <c r="P24" s="126"/>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C25" s="43" t="s">
         <v>235</v>
       </c>
@@ -13796,7 +13785,7 @@
       <c r="O25" s="126"/>
       <c r="P25" s="126"/>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C26" s="43" t="s">
         <v>236</v>
       </c>
@@ -13824,12 +13813,12 @@
       <c r="O26" s="126"/>
       <c r="P26" s="126"/>
     </row>
-    <row r="28" spans="1:16" s="106" customFormat="1">
+    <row r="28" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A28" s="105" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="36" customFormat="1">
+    <row r="29" spans="1:16" s="36" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A29" s="129" t="s">
         <v>238</v>
       </c>
@@ -13863,7 +13852,7 @@
       <c r="O29" s="128"/>
       <c r="P29" s="128"/>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" s="35" t="s">
         <v>71</v>
@@ -13895,7 +13884,7 @@
       <c r="O30" s="126"/>
       <c r="P30" s="126"/>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C31" s="43" t="s">
         <v>234</v>
       </c>
@@ -13923,7 +13912,7 @@
       <c r="O31" s="126"/>
       <c r="P31" s="126"/>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C32" s="43" t="s">
         <v>65</v>
       </c>
@@ -13951,7 +13940,7 @@
       <c r="O32" s="126"/>
       <c r="P32" s="126"/>
     </row>
-    <row r="33" spans="2:16">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C33" s="43" t="s">
         <v>66</v>
       </c>
@@ -13979,7 +13968,7 @@
       <c r="O33" s="126"/>
       <c r="P33" s="126"/>
     </row>
-    <row r="34" spans="2:16">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B34" s="35" t="s">
         <v>16</v>
       </c>
@@ -14010,7 +13999,7 @@
       <c r="O34" s="126"/>
       <c r="P34" s="126"/>
     </row>
-    <row r="35" spans="2:16">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C35" s="43" t="s">
         <v>234</v>
       </c>
@@ -14038,7 +14027,7 @@
       <c r="O35" s="126"/>
       <c r="P35" s="126"/>
     </row>
-    <row r="36" spans="2:16">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C36" s="43" t="s">
         <v>65</v>
       </c>
@@ -14066,7 +14055,7 @@
       <c r="O36" s="126"/>
       <c r="P36" s="126"/>
     </row>
-    <row r="37" spans="2:16">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C37" s="43" t="s">
         <v>66</v>
       </c>
@@ -14094,7 +14083,7 @@
       <c r="O37" s="126"/>
       <c r="P37" s="126"/>
     </row>
-    <row r="38" spans="2:16">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B38" s="35" t="s">
         <v>18</v>
       </c>
@@ -14125,7 +14114,7 @@
       <c r="O38" s="126"/>
       <c r="P38" s="126"/>
     </row>
-    <row r="39" spans="2:16">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C39" s="43" t="s">
         <v>234</v>
       </c>
@@ -14153,7 +14142,7 @@
       <c r="O39" s="126"/>
       <c r="P39" s="126"/>
     </row>
-    <row r="40" spans="2:16">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C40" s="43" t="s">
         <v>65</v>
       </c>
@@ -14181,7 +14170,7 @@
       <c r="O40" s="126"/>
       <c r="P40" s="126"/>
     </row>
-    <row r="41" spans="2:16">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C41" s="43" t="s">
         <v>66</v>
       </c>
@@ -14209,7 +14198,7 @@
       <c r="O41" s="126"/>
       <c r="P41" s="126"/>
     </row>
-    <row r="42" spans="2:16">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B42" s="35" t="s">
         <v>19</v>
       </c>
@@ -14240,7 +14229,7 @@
       <c r="O42" s="126"/>
       <c r="P42" s="126"/>
     </row>
-    <row r="43" spans="2:16">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C43" s="43" t="s">
         <v>234</v>
       </c>
@@ -14268,7 +14257,7 @@
       <c r="O43" s="126"/>
       <c r="P43" s="126"/>
     </row>
-    <row r="44" spans="2:16">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C44" s="43" t="s">
         <v>65</v>
       </c>
@@ -14296,7 +14285,7 @@
       <c r="O44" s="126"/>
       <c r="P44" s="126"/>
     </row>
-    <row r="45" spans="2:16">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C45" s="43" t="s">
         <v>66</v>
       </c>
@@ -14324,7 +14313,7 @@
       <c r="O45" s="126"/>
       <c r="P45" s="126"/>
     </row>
-    <row r="46" spans="2:16">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B46" s="35" t="s">
         <v>17</v>
       </c>
@@ -14355,7 +14344,7 @@
       <c r="O46" s="126"/>
       <c r="P46" s="126"/>
     </row>
-    <row r="47" spans="2:16">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C47" s="43" t="s">
         <v>234</v>
       </c>
@@ -14383,7 +14372,7 @@
       <c r="O47" s="126"/>
       <c r="P47" s="126"/>
     </row>
-    <row r="48" spans="2:16">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C48" s="43" t="s">
         <v>65</v>
       </c>
@@ -14411,7 +14400,7 @@
       <c r="O48" s="126"/>
       <c r="P48" s="126"/>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C49" s="43" t="s">
         <v>66</v>
       </c>
@@ -14439,7 +14428,7 @@
       <c r="O49" s="126"/>
       <c r="P49" s="126"/>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B50" s="35" t="s">
         <v>23</v>
       </c>
@@ -14470,7 +14459,7 @@
       <c r="O50" s="126"/>
       <c r="P50" s="126"/>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C51" s="43" t="s">
         <v>234</v>
       </c>
@@ -14498,7 +14487,7 @@
       <c r="O51" s="126"/>
       <c r="P51" s="126"/>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C52" s="43" t="s">
         <v>65</v>
       </c>
@@ -14526,7 +14515,7 @@
       <c r="O52" s="126"/>
       <c r="P52" s="126"/>
     </row>
-    <row r="53" spans="1:16">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C53" s="43" t="s">
         <v>66</v>
       </c>
@@ -14554,16 +14543,16 @@
       <c r="O53" s="126"/>
       <c r="P53" s="126"/>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C54" s="43"/>
       <c r="D54" s="43"/>
     </row>
-    <row r="55" spans="1:16" s="106" customFormat="1">
+    <row r="55" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A55" s="105" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="56" spans="1:16" s="36" customFormat="1" ht="26.4">
+    <row r="56" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A56" s="129" t="s">
         <v>70</v>
       </c>
@@ -14591,7 +14580,7 @@
       <c r="O56" s="128"/>
       <c r="P56" s="128"/>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
       <c r="B57" s="35" t="s">
         <v>38</v>
@@ -14617,7 +14606,7 @@
       <c r="O57" s="126"/>
       <c r="P57" s="126"/>
     </row>
-    <row r="58" spans="1:16">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C58" s="43" t="s">
         <v>243</v>
       </c>
@@ -14639,7 +14628,7 @@
       <c r="O58" s="126"/>
       <c r="P58" s="126"/>
     </row>
-    <row r="59" spans="1:16">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B59" s="35" t="s">
         <v>39</v>
       </c>
@@ -14664,7 +14653,7 @@
       <c r="O59" s="126"/>
       <c r="P59" s="126"/>
     </row>
-    <row r="60" spans="1:16">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C60" s="43" t="s">
         <v>243</v>
       </c>
@@ -14686,7 +14675,7 @@
       <c r="O60" s="126"/>
       <c r="P60" s="126"/>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B61" s="35" t="s">
         <v>40</v>
       </c>
@@ -14711,7 +14700,7 @@
       <c r="O61" s="126"/>
       <c r="P61" s="126"/>
     </row>
-    <row r="62" spans="1:16">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C62" s="43" t="s">
         <v>243</v>
       </c>
@@ -14733,16 +14722,16 @@
       <c r="O62" s="126"/>
       <c r="P62" s="126"/>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C63" s="43"/>
       <c r="D63" s="43"/>
     </row>
-    <row r="64" spans="1:16" s="106" customFormat="1">
+    <row r="64" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A64" s="105" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="65" spans="1:16" s="36" customFormat="1" ht="26.4">
+    <row r="65" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A65" s="129" t="s">
         <v>24</v>
       </c>
@@ -14776,7 +14765,7 @@
       <c r="O65" s="128"/>
       <c r="P65" s="128"/>
     </row>
-    <row r="66" spans="1:16">
+    <row r="66" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A66" s="133"/>
       <c r="B66" s="35" t="s">
         <v>73</v>
@@ -14808,7 +14797,7 @@
       <c r="O66" s="126"/>
       <c r="P66" s="126"/>
     </row>
-    <row r="67" spans="1:16">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C67" s="43" t="s">
         <v>167</v>
       </c>
@@ -14836,7 +14825,7 @@
       <c r="O67" s="126"/>
       <c r="P67" s="126"/>
     </row>
-    <row r="68" spans="1:16">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C68" s="43" t="s">
         <v>168</v>
       </c>
@@ -14864,7 +14853,7 @@
       <c r="O68" s="126"/>
       <c r="P68" s="126"/>
     </row>
-    <row r="69" spans="1:16">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C69" s="43" t="s">
         <v>169</v>
       </c>
@@ -14892,7 +14881,7 @@
       <c r="O69" s="126"/>
       <c r="P69" s="126"/>
     </row>
-    <row r="70" spans="1:16">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B70" s="35" t="s">
         <v>7</v>
       </c>
@@ -14923,7 +14912,7 @@
       <c r="O70" s="126"/>
       <c r="P70" s="126"/>
     </row>
-    <row r="71" spans="1:16">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C71" s="43" t="s">
         <v>167</v>
       </c>
@@ -14951,7 +14940,7 @@
       <c r="O71" s="126"/>
       <c r="P71" s="126"/>
     </row>
-    <row r="72" spans="1:16">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C72" s="43" t="s">
         <v>168</v>
       </c>
@@ -14979,7 +14968,7 @@
       <c r="O72" s="126"/>
       <c r="P72" s="126"/>
     </row>
-    <row r="73" spans="1:16">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C73" s="43" t="s">
         <v>169</v>
       </c>
@@ -15007,7 +14996,7 @@
       <c r="O73" s="126"/>
       <c r="P73" s="126"/>
     </row>
-    <row r="74" spans="1:16">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B74" s="35" t="s">
         <v>8</v>
       </c>
@@ -15038,7 +15027,7 @@
       <c r="O74" s="126"/>
       <c r="P74" s="126"/>
     </row>
-    <row r="75" spans="1:16">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C75" s="43" t="s">
         <v>167</v>
       </c>
@@ -15066,7 +15055,7 @@
       <c r="O75" s="126"/>
       <c r="P75" s="126"/>
     </row>
-    <row r="76" spans="1:16">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C76" s="43" t="s">
         <v>168</v>
       </c>
@@ -15094,7 +15083,7 @@
       <c r="O76" s="126"/>
       <c r="P76" s="126"/>
     </row>
-    <row r="77" spans="1:16">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C77" s="43" t="s">
         <v>169</v>
       </c>
@@ -15122,7 +15111,7 @@
       <c r="O77" s="126"/>
       <c r="P77" s="126"/>
     </row>
-    <row r="78" spans="1:16">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B78" s="35" t="s">
         <v>13</v>
       </c>
@@ -15153,7 +15142,7 @@
       <c r="O78" s="126"/>
       <c r="P78" s="126"/>
     </row>
-    <row r="79" spans="1:16">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C79" s="43" t="s">
         <v>167</v>
       </c>
@@ -15181,7 +15170,7 @@
       <c r="O79" s="126"/>
       <c r="P79" s="126"/>
     </row>
-    <row r="80" spans="1:16">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C80" s="43" t="s">
         <v>168</v>
       </c>
@@ -15209,7 +15198,7 @@
       <c r="O80" s="126"/>
       <c r="P80" s="126"/>
     </row>
-    <row r="81" spans="2:16">
+    <row r="81" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C81" s="43" t="s">
         <v>169</v>
       </c>
@@ -15237,7 +15226,7 @@
       <c r="O81" s="126"/>
       <c r="P81" s="126"/>
     </row>
-    <row r="82" spans="2:16">
+    <row r="82" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B82" s="35" t="s">
         <v>71</v>
       </c>
@@ -15268,7 +15257,7 @@
       <c r="O82" s="126"/>
       <c r="P82" s="126"/>
     </row>
-    <row r="83" spans="2:16">
+    <row r="83" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C83" s="43" t="s">
         <v>167</v>
       </c>
@@ -15296,7 +15285,7 @@
       <c r="O83" s="126"/>
       <c r="P83" s="126"/>
     </row>
-    <row r="84" spans="2:16">
+    <row r="84" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C84" s="43" t="s">
         <v>168</v>
       </c>
@@ -15324,7 +15313,7 @@
       <c r="O84" s="126"/>
       <c r="P84" s="126"/>
     </row>
-    <row r="85" spans="2:16">
+    <row r="85" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C85" s="43" t="s">
         <v>169</v>
       </c>
@@ -15352,7 +15341,7 @@
       <c r="O85" s="126"/>
       <c r="P85" s="126"/>
     </row>
-    <row r="86" spans="2:16">
+    <row r="86" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B86" s="35" t="s">
         <v>16</v>
       </c>
@@ -15383,7 +15372,7 @@
       <c r="O86" s="126"/>
       <c r="P86" s="126"/>
     </row>
-    <row r="87" spans="2:16">
+    <row r="87" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C87" s="43" t="s">
         <v>167</v>
       </c>
@@ -15411,7 +15400,7 @@
       <c r="O87" s="126"/>
       <c r="P87" s="126"/>
     </row>
-    <row r="88" spans="2:16">
+    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C88" s="43" t="s">
         <v>168</v>
       </c>
@@ -15439,7 +15428,7 @@
       <c r="O88" s="126"/>
       <c r="P88" s="126"/>
     </row>
-    <row r="89" spans="2:16">
+    <row r="89" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C89" s="43" t="s">
         <v>169</v>
       </c>
@@ -15467,7 +15456,7 @@
       <c r="O89" s="126"/>
       <c r="P89" s="126"/>
     </row>
-    <row r="90" spans="2:16">
+    <row r="90" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B90" s="35" t="s">
         <v>18</v>
       </c>
@@ -15498,7 +15487,7 @@
       <c r="O90" s="126"/>
       <c r="P90" s="126"/>
     </row>
-    <row r="91" spans="2:16">
+    <row r="91" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C91" s="43" t="s">
         <v>167</v>
       </c>
@@ -15526,7 +15515,7 @@
       <c r="O91" s="126"/>
       <c r="P91" s="126"/>
     </row>
-    <row r="92" spans="2:16">
+    <row r="92" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C92" s="43" t="s">
         <v>168</v>
       </c>
@@ -15554,7 +15543,7 @@
       <c r="O92" s="126"/>
       <c r="P92" s="126"/>
     </row>
-    <row r="93" spans="2:16">
+    <row r="93" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C93" s="43" t="s">
         <v>169</v>
       </c>
@@ -15582,7 +15571,7 @@
       <c r="O93" s="126"/>
       <c r="P93" s="126"/>
     </row>
-    <row r="94" spans="2:16">
+    <row r="94" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B94" s="35" t="s">
         <v>17</v>
       </c>
@@ -15613,7 +15602,7 @@
       <c r="O94" s="126"/>
       <c r="P94" s="126"/>
     </row>
-    <row r="95" spans="2:16">
+    <row r="95" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C95" s="43" t="s">
         <v>167</v>
       </c>
@@ -15641,7 +15630,7 @@
       <c r="O95" s="126"/>
       <c r="P95" s="126"/>
     </row>
-    <row r="96" spans="2:16">
+    <row r="96" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C96" s="43" t="s">
         <v>168</v>
       </c>
@@ -15669,7 +15658,7 @@
       <c r="O96" s="126"/>
       <c r="P96" s="126"/>
     </row>
-    <row r="97" spans="1:16">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C97" s="43" t="s">
         <v>169</v>
       </c>
@@ -15697,7 +15686,7 @@
       <c r="O97" s="126"/>
       <c r="P97" s="126"/>
     </row>
-    <row r="98" spans="1:16">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B98" s="35" t="s">
         <v>20</v>
       </c>
@@ -15728,7 +15717,7 @@
       <c r="O98" s="126"/>
       <c r="P98" s="126"/>
     </row>
-    <row r="99" spans="1:16">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C99" s="43" t="s">
         <v>167</v>
       </c>
@@ -15756,7 +15745,7 @@
       <c r="O99" s="126"/>
       <c r="P99" s="126"/>
     </row>
-    <row r="100" spans="1:16">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C100" s="43" t="s">
         <v>168</v>
       </c>
@@ -15784,7 +15773,7 @@
       <c r="O100" s="126"/>
       <c r="P100" s="126"/>
     </row>
-    <row r="101" spans="1:16">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C101" s="43" t="s">
         <v>169</v>
       </c>
@@ -15812,12 +15801,12 @@
       <c r="O101" s="126"/>
       <c r="P101" s="126"/>
     </row>
-    <row r="103" spans="1:16" s="106" customFormat="1">
+    <row r="103" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A103" s="105" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="104" spans="1:16" s="36" customFormat="1" ht="26.4">
+    <row r="104" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A104" s="129" t="s">
         <v>71</v>
       </c>
@@ -15851,7 +15840,7 @@
       <c r="O104" s="128"/>
       <c r="P104" s="128"/>
     </row>
-    <row r="105" spans="1:16">
+    <row r="105" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="36"/>
       <c r="C105" s="43" t="s">
@@ -15881,7 +15870,7 @@
       <c r="O105" s="126"/>
       <c r="P105" s="126"/>
     </row>
-    <row r="106" spans="1:16">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C106" s="43" t="s">
         <v>167</v>
       </c>
@@ -15909,7 +15898,7 @@
       <c r="O106" s="126"/>
       <c r="P106" s="126"/>
     </row>
-    <row r="107" spans="1:16">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C107" s="43" t="s">
         <v>168</v>
       </c>
@@ -15937,7 +15926,7 @@
       <c r="O107" s="126"/>
       <c r="P107" s="126"/>
     </row>
-    <row r="108" spans="1:16">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C108" s="43" t="s">
         <v>169</v>
       </c>
@@ -15965,7 +15954,7 @@
       <c r="O108" s="126"/>
       <c r="P108" s="126"/>
     </row>
-    <row r="111" spans="1:16">
+    <row r="111" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
     </row>
   </sheetData>
@@ -15986,24 +15975,24 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.77734375" style="35" customWidth="1"/>
-    <col min="2" max="2" width="44.44140625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" style="35" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" style="35" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="35" customWidth="1"/>
+    <col min="1" max="1" width="25.81640625" style="35" customWidth="1"/>
+    <col min="2" max="2" width="44.453125" style="35" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" style="35" customWidth="1"/>
+    <col min="4" max="4" width="17.54296875" style="35" customWidth="1"/>
+    <col min="5" max="5" width="17.1796875" style="35" customWidth="1"/>
     <col min="6" max="6" width="15" style="35" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.77734375" style="35"/>
+    <col min="7" max="7" width="13.6328125" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.81640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="105" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25" customHeight="1">
+    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="133" t="s">
         <v>25</v>
       </c>
@@ -16024,7 +16013,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.25" customHeight="1">
+    <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="121" t="s">
         <v>248</v>
       </c>
@@ -16044,7 +16033,7 @@
         <v>174.7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1">
+    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="40"/>
       <c r="B4" s="125" t="s">
         <v>250</v>
@@ -16065,12 +16054,12 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1">
+    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="110" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.25" customHeight="1">
+    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="125" t="s">
         <v>58</v>
       </c>
@@ -16090,7 +16079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.25" customHeight="1">
+    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="125" t="s">
         <v>136</v>
       </c>
@@ -16110,7 +16099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.25" customHeight="1">
+    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="125" t="s">
         <v>60</v>
       </c>
@@ -16130,7 +16119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.25" customHeight="1">
+    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="125"/>
       <c r="C9" s="125"/>
       <c r="D9" s="125"/>
@@ -16138,12 +16127,12 @@
       <c r="F9" s="125"/>
       <c r="G9" s="125"/>
     </row>
-    <row r="10" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1">
+    <row r="10" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="105" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.25" customHeight="1">
+    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="110"/>
       <c r="B11" s="121" t="s">
         <v>195</v>
@@ -16164,16 +16153,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1">
+    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="110"/>
       <c r="B12" s="121"/>
     </row>
-    <row r="13" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1">
+    <row r="13" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="105" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.25" customHeight="1">
+    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="133" t="s">
         <v>238</v>
       </c>
@@ -16196,7 +16185,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.25" customHeight="1">
+    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="40"/>
       <c r="B15" s="125" t="s">
         <v>255</v>
@@ -16217,7 +16206,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1">
+    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="133" t="s">
         <v>70</v>
       </c>
@@ -16240,13 +16229,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.25" customHeight="1"/>
-    <row r="18" spans="1:6" s="106" customFormat="1" ht="14.25" customHeight="1">
+    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:6" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="105" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="110" customFormat="1" ht="14.25" customHeight="1">
+    <row r="19" spans="1:6" s="110" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" s="56" t="s">
         <v>49</v>
       </c>
@@ -16260,7 +16249,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20" s="121" t="s">
         <v>197</v>
       </c>
@@ -16296,16 +16285,16 @@
       <selection activeCell="E6" sqref="C6:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.21875" style="35" customWidth="1"/>
-    <col min="2" max="6" width="16.109375" style="35"/>
-    <col min="7" max="7" width="17.21875" style="35" customWidth="1"/>
-    <col min="8" max="8" width="16.109375" style="35" customWidth="1"/>
-    <col min="9" max="16384" width="16.109375" style="35"/>
+    <col min="1" max="1" width="52.1796875" style="35" customWidth="1"/>
+    <col min="2" max="6" width="16.08984375" style="35"/>
+    <col min="7" max="7" width="17.1796875" style="35" customWidth="1"/>
+    <col min="8" max="8" width="16.08984375" style="35" customWidth="1"/>
+    <col min="9" max="16384" width="16.08984375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="127" t="s">
         <v>69</v>
       </c>
@@ -16323,7 +16312,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="92" t="s">
         <v>29</v>
       </c>
@@ -16343,7 +16332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="92"/>
       <c r="B3" s="92" t="s">
         <v>259</v>
@@ -16361,7 +16350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="92" t="s">
         <v>187</v>
       </c>
@@ -16381,7 +16370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="92"/>
       <c r="B5" s="92" t="s">
         <v>259</v>
@@ -16399,7 +16388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="92" t="s">
         <v>207</v>
       </c>
@@ -16419,7 +16408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="92"/>
       <c r="B7" s="92" t="s">
         <v>259</v>
@@ -16437,7 +16426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="92" t="s">
         <v>57</v>
       </c>
@@ -16457,7 +16446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="92"/>
       <c r="B9" s="92" t="s">
         <v>259</v>
@@ -16475,7 +16464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="92" t="s">
         <v>34</v>
       </c>
@@ -16495,7 +16484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="92"/>
       <c r="B11" s="92" t="s">
         <v>259</v>
@@ -16513,7 +16502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="92" t="s">
         <v>59</v>
       </c>
@@ -16533,7 +16522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="92"/>
       <c r="B13" s="92" t="s">
         <v>259</v>
@@ -16551,10 +16540,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15.75" customHeight="1">
+    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="92"/>
     </row>
-    <row r="20" spans="1:1" ht="15.75" customHeight="1">
+    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="92"/>
     </row>
   </sheetData>
@@ -16575,15 +16564,15 @@
       <selection activeCell="O19" sqref="E19:O20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" style="35" customWidth="1"/>
-    <col min="2" max="2" width="58.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="58.90625" style="35" bestFit="1" customWidth="1"/>
     <col min="3" max="15" width="15" style="35" customWidth="1"/>
-    <col min="16" max="16384" width="12.77734375" style="35"/>
+    <col min="16" max="16384" width="12.81640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="35.25" customHeight="1">
+    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="40"/>
       <c r="B1" s="40"/>
       <c r="C1" s="109" t="s">
@@ -16626,12 +16615,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="59" t="s">
         <v>149</v>
       </c>
@@ -16675,7 +16664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B4" s="59" t="s">
         <v>188</v>
       </c>
@@ -16719,7 +16708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B5" s="59" t="s">
         <v>206</v>
       </c>
@@ -16763,7 +16752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B6" s="59" t="s">
         <v>189</v>
       </c>
@@ -16807,7 +16796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B7" s="59" t="s">
         <v>190</v>
       </c>
@@ -16851,7 +16840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B8" s="92" t="s">
         <v>187</v>
       </c>
@@ -16895,7 +16884,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B9" s="92" t="s">
         <v>207</v>
       </c>
@@ -16939,7 +16928,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B10" s="59" t="s">
         <v>57</v>
       </c>
@@ -16983,7 +16972,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B11" s="92" t="s">
         <v>136</v>
       </c>
@@ -17027,7 +17016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B12" s="59" t="s">
         <v>34</v>
       </c>
@@ -17071,7 +17060,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="13.05" customHeight="1">
+    <row r="13" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="59" t="s">
         <v>137</v>
       </c>
@@ -17115,7 +17104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B14" s="59" t="s">
         <v>59</v>
       </c>
@@ -17159,13 +17148,13 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" ht="13" x14ac:dyDescent="0.3">
       <c r="A16" s="40" t="s">
         <v>261</v>
       </c>
       <c r="B16" s="59"/>
     </row>
-    <row r="17" spans="2:15">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="92" t="s">
         <v>63</v>
       </c>
@@ -17209,7 +17198,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="18" spans="2:15">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="92" t="s">
         <v>64</v>
       </c>
@@ -17253,7 +17242,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="19" spans="2:15">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="92" t="s">
         <v>62</v>
       </c>
@@ -17297,7 +17286,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="20" spans="2:15">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="92" t="s">
         <v>47</v>
       </c>
@@ -17341,16 +17330,16 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="25" spans="2:15">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="43"/>
     </row>
-    <row r="26" spans="2:15">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="43"/>
     </row>
-    <row r="27" spans="2:15">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="43"/>
     </row>
-    <row r="28" spans="2:15">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="43"/>
     </row>
   </sheetData>
@@ -17371,15 +17360,15 @@
       <selection activeCell="D5" sqref="D5:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" style="35" customWidth="1"/>
-    <col min="2" max="2" width="27.21875" style="35" customWidth="1"/>
-    <col min="3" max="7" width="15.5546875" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.77734375" style="35"/>
+    <col min="1" max="1" width="21.36328125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="27.1796875" style="35" customWidth="1"/>
+    <col min="3" max="7" width="15.54296875" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.81640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="40"/>
       <c r="B1" s="127"/>
       <c r="C1" s="40" t="s">
@@ -17398,12 +17387,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="59" t="s">
         <v>67</v>
       </c>
@@ -17423,7 +17412,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A4" s="40" t="s">
         <v>263</v>
       </c>
@@ -17434,7 +17423,7 @@
       <c r="F4" s="135"/>
       <c r="G4" s="135"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="92" t="s">
         <v>183</v>
       </c>
@@ -17472,20 +17461,20 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="52" customWidth="1"/>
-    <col min="2" max="2" width="30.5546875" style="52" customWidth="1"/>
-    <col min="3" max="3" width="24.77734375" style="52" customWidth="1"/>
+    <col min="2" max="2" width="30.54296875" style="52" customWidth="1"/>
+    <col min="3" max="3" width="24.81640625" style="52" customWidth="1"/>
     <col min="4" max="4" width="15" style="35" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" style="35" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" style="35" customWidth="1"/>
-    <col min="7" max="7" width="12.77734375" style="35"/>
-    <col min="8" max="8" width="17.5546875" style="35" customWidth="1"/>
-    <col min="9" max="16384" width="12.77734375" style="35"/>
+    <col min="5" max="5" width="13.6328125" style="35" customWidth="1"/>
+    <col min="6" max="6" width="14.453125" style="35" customWidth="1"/>
+    <col min="7" max="7" width="12.81640625" style="35"/>
+    <col min="8" max="8" width="17.54296875" style="35" customWidth="1"/>
+    <col min="9" max="16384" width="12.81640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -17511,7 +17500,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
         <v>28</v>
       </c>
@@ -17537,7 +17526,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C3" s="52" t="s">
         <v>267</v>
       </c>
@@ -17557,7 +17546,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C4" s="52" t="s">
         <v>268</v>
       </c>
@@ -17577,7 +17566,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="52" t="s">
         <v>58</v>
       </c>
@@ -17603,7 +17592,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C6" s="52" t="s">
         <v>268</v>
       </c>
@@ -17623,7 +17612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="52" t="s">
         <v>65</v>
       </c>
@@ -17646,7 +17635,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C8" s="52" t="s">
         <v>268</v>
       </c>
@@ -17666,7 +17655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
         <v>136</v>
       </c>
@@ -17692,7 +17681,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C10" s="52" t="s">
         <v>268</v>
       </c>
@@ -17712,7 +17701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="52" t="s">
         <v>65</v>
       </c>
@@ -17735,7 +17724,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C12" s="52" t="s">
         <v>268</v>
       </c>
@@ -17755,7 +17744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="52" t="s">
         <v>61</v>
       </c>
@@ -17781,7 +17770,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C14" s="52" t="s">
         <v>268</v>
       </c>
@@ -17802,7 +17791,7 @@
       </c>
       <c r="I14" s="36"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="52" t="s">
         <v>65</v>
       </c>
@@ -17826,7 +17815,7 @@
       </c>
       <c r="I15" s="36"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C16" s="52" t="s">
         <v>268</v>
       </c>
@@ -17847,7 +17836,7 @@
       </c>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="52" t="s">
         <v>62</v>
       </c>
@@ -17874,7 +17863,7 @@
       </c>
       <c r="I17" s="36"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C18" s="52" t="s">
         <v>267</v>
       </c>
@@ -17895,7 +17884,7 @@
       </c>
       <c r="I18" s="36"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="52" t="s">
         <v>63</v>
       </c>
@@ -17921,7 +17910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C20" s="52" t="s">
         <v>267</v>
       </c>
@@ -17941,7 +17930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="52" t="s">
         <v>64</v>
       </c>
@@ -17967,7 +17956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C22" s="52" t="s">
         <v>267</v>
       </c>
@@ -17987,7 +17976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="52" t="s">
         <v>79</v>
       </c>
@@ -18013,7 +18002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C24" s="52" t="s">
         <v>267</v>
       </c>
@@ -18033,7 +18022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C25" s="52" t="s">
         <v>268</v>
       </c>
@@ -18053,7 +18042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="52" t="s">
         <v>80</v>
       </c>
@@ -18079,7 +18068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C27" s="52" t="s">
         <v>267</v>
       </c>
@@ -18099,7 +18088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C28" s="52" t="s">
         <v>268</v>
       </c>
@@ -18119,7 +18108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="52" t="s">
         <v>81</v>
       </c>
@@ -18145,7 +18134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C30" s="52" t="s">
         <v>267</v>
       </c>
@@ -18165,7 +18154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C31" s="52" t="s">
         <v>268</v>
       </c>
@@ -18185,7 +18174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="52" t="s">
         <v>82</v>
       </c>
@@ -18211,7 +18200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C33" s="52" t="s">
         <v>267</v>
       </c>
@@ -18231,7 +18220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C34" s="52" t="s">
         <v>268</v>
       </c>
@@ -18251,7 +18240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="52" t="s">
         <v>83</v>
       </c>
@@ -18277,7 +18266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C36" s="52" t="s">
         <v>267</v>
       </c>
@@ -18297,7 +18286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C37" s="52" t="s">
         <v>268</v>
       </c>
@@ -18317,7 +18306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="52" t="s">
         <v>60</v>
       </c>
@@ -18343,7 +18332,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C39" s="52" t="s">
         <v>267</v>
       </c>
@@ -18363,7 +18352,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C40" s="52" t="s">
         <v>268</v>
       </c>
@@ -18383,7 +18372,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B41" s="52" t="s">
         <v>16</v>
       </c>
@@ -18406,7 +18395,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C42" s="52" t="s">
         <v>267</v>
       </c>
@@ -18426,7 +18415,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C43" s="52" t="s">
         <v>268</v>
       </c>
@@ -18446,7 +18435,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="52" t="s">
         <v>84</v>
       </c>
@@ -18472,7 +18461,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C45" s="52" t="s">
         <v>267</v>
       </c>
@@ -18492,7 +18481,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="52" t="s">
         <v>85</v>
       </c>
@@ -18518,7 +18507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C47" s="52" t="s">
         <v>267</v>
       </c>
@@ -18538,7 +18527,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="52" t="s">
         <v>195</v>
       </c>
@@ -18564,7 +18553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:8">
+    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C49" s="52" t="s">
         <v>267</v>
       </c>
@@ -18602,16 +18591,16 @@
       <selection activeCell="D7" sqref="D7:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" style="35" customWidth="1"/>
-    <col min="2" max="2" width="27.44140625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" style="35" customWidth="1"/>
-    <col min="4" max="7" width="17.21875" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.77734375" style="35"/>
+    <col min="2" max="2" width="27.453125" style="35" customWidth="1"/>
+    <col min="3" max="3" width="23.6328125" style="35" customWidth="1"/>
+    <col min="4" max="7" width="17.1796875" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.81640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="127" t="s">
         <v>69</v>
       </c>
@@ -18633,7 +18622,7 @@
       </c>
       <c r="H1" s="98"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
         <v>86</v>
       </c>
@@ -18657,7 +18646,7 @@
       </c>
       <c r="H2" s="92"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="35" t="s">
         <v>267</v>
       </c>
@@ -18675,7 +18664,7 @@
       </c>
       <c r="H3" s="136"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="43" t="s">
         <v>87</v>
       </c>
@@ -18699,7 +18688,7 @@
       </c>
       <c r="H4" s="136"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="36"/>
       <c r="C5" s="35" t="s">
         <v>267</v>
@@ -18718,7 +18707,7 @@
       </c>
       <c r="H5" s="92"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="43" t="s">
         <v>88</v>
       </c>
@@ -18742,7 +18731,7 @@
       </c>
       <c r="H6" s="92"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="36"/>
       <c r="C7" s="35" t="s">
         <v>267</v>
@@ -18778,14 +18767,14 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.109375" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16.08984375" customWidth="1"/>
+    <col min="2" max="2" width="31.36328125" customWidth="1"/>
     <col min="3" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="str">
         <f>"Percentage of deaths in baseline year ("&amp;start_year&amp;") attributable to cause"</f>
         <v>Percentage of deaths in baseline year (2017) attributable to cause</v>
@@ -18796,7 +18785,7 @@
       <c r="E1" s="41"/>
       <c r="F1" s="41"/>
     </row>
-    <row r="2" spans="1:8" ht="27.75" customHeight="1">
+    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>209</v>
       </c>
@@ -18811,7 +18800,7 @@
       <c r="F2" s="41"/>
       <c r="G2" s="41"/>
     </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="24" t="s">
         <v>73</v>
       </c>
@@ -18819,7 +18808,7 @@
         <v>2.7000000000000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="24" t="s">
         <v>7</v>
       </c>
@@ -18827,7 +18816,7 @@
         <v>0.1966</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="24" t="s">
         <v>8</v>
       </c>
@@ -18835,7 +18824,7 @@
         <v>6.2100000000000002E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="24" t="s">
         <v>10</v>
       </c>
@@ -18843,7 +18832,7 @@
         <v>0.29289999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="24" t="s">
         <v>13</v>
       </c>
@@ -18851,7 +18840,7 @@
         <v>0.24709999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="24" t="s">
         <v>14</v>
       </c>
@@ -18859,7 +18848,7 @@
         <v>4.7999999999999996E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="24" t="s">
         <v>27</v>
       </c>
@@ -18867,7 +18856,7 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="24" t="s">
         <v>15</v>
       </c>
@@ -18875,7 +18864,7 @@
         <v>6.1800000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="32" t="s">
         <v>129</v>
       </c>
@@ -18886,7 +18875,7 @@
       <c r="G11" s="24"/>
       <c r="H11" s="24"/>
     </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1">
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="32"/>
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
@@ -18895,7 +18884,7 @@
       <c r="G12" s="24"/>
       <c r="H12" s="24"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>31</v>
       </c>
@@ -18916,7 +18905,7 @@
       </c>
       <c r="G13" s="24"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1">
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="24" t="s">
         <v>71</v>
       </c>
@@ -18933,7 +18922,7 @@
         <v>0.1368</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1">
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="24" t="s">
         <v>16</v>
       </c>
@@ -18950,7 +18939,7 @@
         <v>0.20660000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="24" t="s">
         <v>17</v>
       </c>
@@ -18967,7 +18956,7 @@
         <v>2.1100000000000001E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="24" t="s">
         <v>18</v>
       </c>
@@ -18984,7 +18973,7 @@
         <v>7.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="24" t="s">
         <v>19</v>
       </c>
@@ -19001,7 +18990,7 @@
         <v>8.6199999999999999E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="24" t="s">
         <v>20</v>
       </c>
@@ -19018,7 +19007,7 @@
         <v>2.86E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="24" t="s">
         <v>21</v>
       </c>
@@ -19035,7 +19024,7 @@
         <v>1.5299999999999999E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="24" t="s">
         <v>22</v>
       </c>
@@ -19052,7 +19041,7 @@
         <v>0.13589999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="24" t="s">
         <v>23</v>
       </c>
@@ -19069,7 +19058,7 @@
         <v>0.36199999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="32" t="s">
         <v>129</v>
       </c>
@@ -19092,7 +19081,7 @@
       <c r="G23" s="24"/>
       <c r="H23" s="24"/>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="32"/>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
@@ -19101,7 +19090,7 @@
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -19117,7 +19106,7 @@
       <c r="G25" s="24"/>
       <c r="H25" s="24"/>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="24" t="s">
         <v>38</v>
       </c>
@@ -19125,7 +19114,7 @@
         <v>0.10082724000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1">
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="24" t="s">
         <v>39</v>
       </c>
@@ -19133,7 +19122,7 @@
         <v>3.1206000000000002E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1">
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="24" t="s">
         <v>40</v>
       </c>
@@ -19141,7 +19130,7 @@
         <v>0.15891214000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="24" t="s">
         <v>41</v>
       </c>
@@ -19149,7 +19138,7 @@
         <v>0.12598688999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1">
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="24" t="s">
         <v>42</v>
       </c>
@@ -19157,7 +19146,7 @@
         <v>0.12434007</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1">
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="24" t="s">
         <v>43</v>
       </c>
@@ -19165,7 +19154,7 @@
         <v>3.9028409999999999E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1">
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="24" t="s">
         <v>44</v>
       </c>
@@ -19173,7 +19162,7 @@
         <v>8.5254999999999999E-4</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="15.75" customHeight="1">
+    <row r="33" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="24" t="s">
         <v>45</v>
       </c>
@@ -19181,7 +19170,7 @@
         <v>6.8467810000000004E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:3" ht="15.75" customHeight="1">
+    <row r="34" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="24" t="s">
         <v>46</v>
       </c>
@@ -19189,7 +19178,7 @@
         <v>0.38127283000000001</v>
       </c>
     </row>
-    <row r="35" spans="2:3" ht="15.75" customHeight="1">
+    <row r="35" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="32" t="s">
         <v>129</v>
       </c>
@@ -19217,13 +19206,13 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.44140625" customWidth="1"/>
+    <col min="1" max="1" width="31.453125" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="36" customHeight="1">
+    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="str">
         <f>"Percentage of population in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of population in each category in baseline year (2017)</v>
@@ -19247,7 +19236,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>115</v>
       </c>
@@ -19275,7 +19264,7 @@
         <v>0.23269074767298425</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="11" t="s">
         <v>118</v>
@@ -19301,7 +19290,7 @@
         <v>0.37372365733745416</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="11" t="s">
         <v>116</v>
@@ -19322,7 +19311,7 @@
         <v>0.25929610299234518</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="11" t="s">
         <v>119</v>
@@ -19343,7 +19332,7 @@
         <v>0.13428949199721643</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="14"/>
       <c r="C6" s="29"/>
       <c r="D6" s="29"/>
@@ -19351,7 +19340,7 @@
       <c r="F6" s="29"/>
       <c r="G6" s="29"/>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="14"/>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
@@ -19359,7 +19348,7 @@
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>114</v>
       </c>
@@ -19387,7 +19376,7 @@
         <v>0.81212055177975573</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>121</v>
       </c>
@@ -19412,7 +19401,7 @@
         <v>0.15821429221536368</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
         <v>122</v>
       </c>
@@ -19432,7 +19421,7 @@
         <v>2.2330660624019519E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
         <v>123</v>
       </c>
@@ -19452,7 +19441,7 @@
         <v>7.3344953808610778E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -19466,7 +19455,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="15"/>
     </row>
-    <row r="13" spans="1:15" ht="27" customHeight="1">
+    <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>70</v>
       </c>
@@ -19510,7 +19499,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
         <v>131</v>
       </c>
@@ -19554,7 +19543,7 @@
         <v>0.442</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="16" t="s">
         <v>68</v>
       </c>
@@ -19611,14 +19600,14 @@
         <v>0.18564</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="3:7" ht="15.75" customHeight="1">
+    <row r="17" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -19644,13 +19633,13 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.77734375" customWidth="1"/>
-    <col min="2" max="7" width="13.44140625" customWidth="1"/>
+    <col min="1" max="1" width="28.81640625" customWidth="1"/>
+    <col min="2" max="7" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="40.5" customHeight="1">
+    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="str">
         <f>"Percentage of children in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of children in each category in baseline year (2017)</v>
@@ -19674,7 +19663,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
@@ -19697,7 +19686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="43" t="s">
         <v>167</v>
       </c>
@@ -19717,7 +19706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="43" t="s">
         <v>168</v>
       </c>
@@ -19737,7 +19726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="43" t="s">
         <v>169</v>
       </c>
@@ -19780,13 +19769,13 @@
       <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="29.44140625" customWidth="1"/>
+    <col min="2" max="2" width="29.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>138</v>
       </c>
@@ -19836,7 +19825,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>139</v>
       </c>
@@ -19863,10 +19852,10 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B3" s="14"/>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>140</v>
       </c>
@@ -19895,10 +19884,10 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B5" s="14"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>141</v>
       </c>
@@ -19925,7 +19914,7 @@
         <v>0.17299999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
         <v>32</v>
       </c>
@@ -19949,7 +19938,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
         <v>144</v>
       </c>
@@ -19973,7 +19962,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>142</v>
       </c>
@@ -20002,7 +19991,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B11" s="34" t="s">
         <v>146</v>
       </c>
@@ -20026,7 +20015,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>74</v>
       </c>
@@ -20055,7 +20044,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
         <v>170</v>
       </c>
@@ -20094,15 +20083,15 @@
       <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" customWidth="1"/>
+    <col min="1" max="1" width="15.6328125" customWidth="1"/>
+    <col min="2" max="2" width="15.453125" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" customWidth="1"/>
+    <col min="4" max="4" width="12.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="60" t="s">
         <v>164</v>
       </c>
@@ -20116,7 +20105,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="61" t="s">
         <v>69</v>
       </c>
@@ -20128,7 +20117,7 @@
       </c>
       <c r="D2" s="80"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A3" s="61" t="s">
         <v>185</v>
       </c>
@@ -20157,15 +20146,15 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="35" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="11.44140625" style="35"/>
+    <col min="2" max="2" width="19.08984375" style="35" customWidth="1"/>
+    <col min="3" max="3" width="13.453125" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="11.453125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="50" t="s">
         <v>178</v>
       </c>
@@ -20182,7 +20171,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="49" t="s">
         <v>173</v>
       </c>
@@ -20196,7 +20185,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="47"/>
       <c r="B3" s="46" t="s">
         <v>1</v>
@@ -20210,7 +20199,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="47"/>
       <c r="B4" s="46" t="s">
         <v>2</v>
@@ -20224,7 +20213,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="47"/>
       <c r="B5" s="46" t="s">
         <v>3</v>
@@ -20238,7 +20227,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="47"/>
       <c r="B6" s="46" t="s">
         <v>4</v>
@@ -20252,7 +20241,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="47"/>
       <c r="B7" s="46" t="s">
         <v>172</v>
@@ -20261,7 +20250,7 @@
       <c r="D7" s="44"/>
       <c r="E7" s="80"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A9" s="49" t="s">
         <v>198</v>
       </c>
@@ -20277,7 +20266,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="47"/>
       <c r="B10" s="46" t="s">
         <v>1</v>
@@ -20289,7 +20278,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="47"/>
       <c r="B11" s="46" t="s">
         <v>2</v>
@@ -20301,7 +20290,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="47"/>
       <c r="B12" s="46" t="s">
         <v>3</v>
@@ -20313,7 +20302,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="47"/>
       <c r="B13" s="46" t="s">
         <v>4</v>
@@ -20325,7 +20314,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="47"/>
       <c r="B14" s="46" t="s">
         <v>172</v>
@@ -20336,7 +20325,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A16" s="49" t="s">
         <v>199</v>
       </c>
@@ -20352,7 +20341,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="47"/>
       <c r="B17" s="46" t="s">
         <v>1</v>
@@ -20366,7 +20355,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="47"/>
       <c r="B18" s="46" t="s">
         <v>2</v>
@@ -20380,7 +20369,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="47"/>
       <c r="B19" s="46" t="s">
         <v>3</v>
@@ -20394,7 +20383,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="47"/>
       <c r="B20" s="46" t="s">
         <v>4</v>
@@ -20408,7 +20397,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="47"/>
       <c r="B21" s="46" t="s">
         <v>172</v>
@@ -20435,17 +20424,17 @@
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="56" style="52" customWidth="1"/>
     <col min="2" max="2" width="20" style="36" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" style="35" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" style="35" customWidth="1"/>
-    <col min="5" max="5" width="32.33203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="14.44140625" style="35"/>
+    <col min="3" max="3" width="20.453125" style="35" customWidth="1"/>
+    <col min="4" max="4" width="20.08984375" style="35" customWidth="1"/>
+    <col min="5" max="5" width="32.36328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="14.453125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.4">
+    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="54" t="s">
         <v>69</v>
       </c>
@@ -20463,7 +20452,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
         <v>29</v>
       </c>
@@ -20480,7 +20469,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="52" t="s">
         <v>86</v>
       </c>
@@ -20497,7 +20486,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="52" t="s">
         <v>61</v>
       </c>
@@ -20514,7 +20503,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="52" t="s">
         <v>149</v>
       </c>
@@ -20531,7 +20520,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="52" t="s">
         <v>197</v>
       </c>
@@ -20548,7 +20537,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="52" t="s">
         <v>63</v>
       </c>
@@ -20565,7 +20554,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="52" t="s">
         <v>64</v>
       </c>
@@ -20582,7 +20571,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
         <v>62</v>
       </c>
@@ -20599,7 +20588,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="59" t="s">
         <v>188</v>
       </c>
@@ -20616,7 +20605,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="59" t="s">
         <v>206</v>
       </c>
@@ -20633,7 +20622,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="59" t="s">
         <v>189</v>
       </c>
@@ -20650,7 +20639,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="59" t="s">
         <v>190</v>
       </c>
@@ -20667,7 +20656,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>187</v>
       </c>
@@ -20684,7 +20673,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>207</v>
       </c>
@@ -20701,7 +20690,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="52" t="s">
         <v>57</v>
       </c>
@@ -20718,7 +20707,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="52" t="s">
         <v>47</v>
       </c>
@@ -20735,7 +20724,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="16.05" customHeight="1">
+    <row r="18" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="52" t="s">
         <v>173</v>
       </c>
@@ -20752,7 +20741,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="52" t="s">
         <v>198</v>
       </c>
@@ -20769,7 +20758,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="52" t="s">
         <v>199</v>
       </c>
@@ -20786,7 +20775,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="52" t="s">
         <v>195</v>
       </c>
@@ -20803,7 +20792,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="52" t="s">
         <v>136</v>
       </c>
@@ -20820,7 +20809,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="52" t="s">
         <v>34</v>
       </c>
@@ -20837,7 +20826,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="52" t="s">
         <v>88</v>
       </c>
@@ -20854,7 +20843,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="52" t="s">
         <v>87</v>
       </c>
@@ -20871,7 +20860,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="52" t="s">
         <v>137</v>
       </c>
@@ -20888,7 +20877,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="52" t="s">
         <v>59</v>
       </c>
@@ -20905,7 +20894,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="52" t="s">
         <v>84</v>
       </c>
@@ -20922,7 +20911,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1">
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="52" t="s">
         <v>58</v>
       </c>
@@ -20939,7 +20928,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="52" t="s">
         <v>67</v>
       </c>
@@ -20956,7 +20945,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="52" t="s">
         <v>28</v>
       </c>
@@ -20973,7 +20962,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1">
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="52" t="s">
         <v>83</v>
       </c>
@@ -20990,7 +20979,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1">
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="52" t="s">
         <v>82</v>
       </c>
@@ -21007,7 +20996,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1">
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="52" t="s">
         <v>81</v>
       </c>
@@ -21024,7 +21013,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75" customHeight="1">
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="52" t="s">
         <v>79</v>
       </c>
@@ -21041,7 +21030,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="36" customFormat="1" ht="15.75" customHeight="1">
+    <row r="36" spans="1:6" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="52" t="s">
         <v>80</v>
       </c>
@@ -21059,7 +21048,7 @@
       </c>
       <c r="F36" s="35"/>
     </row>
-    <row r="37" spans="1:6" ht="15.75" customHeight="1">
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="52" t="s">
         <v>85</v>
       </c>
@@ -21076,7 +21065,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1">
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="52" t="s">
         <v>60</v>
       </c>
@@ -21093,7 +21082,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1">
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F39" s="36"/>
     </row>
   </sheetData>

--- a/inputs/demo_region2_input.xlsx
+++ b/inputs/demo_region2_input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dominic.delport\Documents\GitHub\Nutrition\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Github\Nutrition\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA34A15-C310-4027-8B2B-E5585E12CB7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152BC21D-C703-4A4C-9890-6646666CD3FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="961" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10470" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -91,14 +91,12 @@
     <definedName name="term_SGA">'Baseline year population inputs'!$C$47</definedName>
     <definedName name="U5_mortality">'Baseline year population inputs'!$C$39</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -1293,7 +1291,7 @@
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="27">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -4805,18 +4803,18 @@
   </sheetPr>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="27.6328125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="38.6328125" style="16" customWidth="1"/>
-    <col min="3" max="16384" width="14.453125" style="12"/>
+    <col min="1" max="1" width="27.6640625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" style="16" customWidth="1"/>
+    <col min="3" max="16384" width="14.44140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.05" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>100</v>
       </c>
@@ -4827,14 +4825,14 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="16.05" customHeight="1">
       <c r="A2" s="12" t="s">
         <v>191</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
     </row>
-    <row r="3" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="16.05" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
         <v>193</v>
@@ -4843,7 +4841,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="16.05" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
         <v>192</v>
@@ -4852,17 +4850,17 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="16.05" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" customHeight="1">
       <c r="A6" s="12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" customHeight="1">
       <c r="B7" s="16" t="s">
         <v>208</v>
       </c>
@@ -4870,7 +4868,7 @@
         <v>9862402</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15" customHeight="1">
       <c r="B8" s="7" t="s">
         <v>106</v>
       </c>
@@ -4878,7 +4876,7 @@
         <v>0.28199999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15" customHeight="1">
       <c r="B9" s="9" t="s">
         <v>107</v>
       </c>
@@ -4886,7 +4884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15" customHeight="1">
       <c r="B10" s="9" t="s">
         <v>105</v>
       </c>
@@ -4894,7 +4892,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15" customHeight="1">
       <c r="B11" s="7" t="s">
         <v>108</v>
       </c>
@@ -4902,7 +4900,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15" customHeight="1">
       <c r="B12" s="7" t="s">
         <v>109</v>
       </c>
@@ -4910,7 +4908,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="15" customHeight="1">
       <c r="B13" s="7" t="s">
         <v>110</v>
       </c>
@@ -4918,17 +4916,17 @@
         <v>0.221</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="15" customHeight="1">
       <c r="B14" s="12"/>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="15" customHeight="1">
       <c r="A15" s="12" t="s">
         <v>30</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="15" customHeight="1">
       <c r="B16" s="9" t="s">
         <v>94</v>
       </c>
@@ -4936,7 +4934,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="15" customHeight="1">
       <c r="B17" s="9" t="s">
         <v>95</v>
       </c>
@@ -4944,7 +4942,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="15" customHeight="1">
       <c r="B18" s="9" t="s">
         <v>96</v>
       </c>
@@ -4952,7 +4950,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="15" customHeight="1">
       <c r="B19" s="9" t="s">
         <v>97</v>
       </c>
@@ -4960,7 +4958,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="15" customHeight="1">
       <c r="B20" s="9" t="s">
         <v>98</v>
       </c>
@@ -4969,15 +4967,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="15" customHeight="1">
       <c r="B21" s="12"/>
     </row>
-    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="15" customHeight="1">
       <c r="A22" s="12" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="15" customHeight="1">
       <c r="B23" s="20" t="s">
         <v>101</v>
       </c>
@@ -4985,7 +4983,7 @@
         <v>0.127</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="15" customHeight="1">
       <c r="B24" s="20" t="s">
         <v>102</v>
       </c>
@@ -4993,7 +4991,7 @@
         <v>0.45200000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="15" customHeight="1">
       <c r="B25" s="20" t="s">
         <v>103</v>
       </c>
@@ -5001,7 +4999,7 @@
         <v>0.33400000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="15" customHeight="1">
       <c r="B26" s="20" t="s">
         <v>104</v>
       </c>
@@ -5009,18 +5007,18 @@
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="15" customHeight="1">
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
     </row>
-    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="15" customHeight="1">
       <c r="A28" s="12" t="s">
         <v>196</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
     </row>
-    <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="14.25" customHeight="1">
       <c r="B29" s="30" t="s">
         <v>75</v>
       </c>
@@ -5028,7 +5026,7 @@
         <v>0.20799999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="14.25" customHeight="1">
       <c r="B30" s="30" t="s">
         <v>76</v>
       </c>
@@ -5036,7 +5034,7 @@
         <v>0.63700000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="14.25" customHeight="1">
       <c r="B31" s="30" t="s">
         <v>77</v>
       </c>
@@ -5044,7 +5042,7 @@
         <v>0.11899999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="14.25" customHeight="1">
       <c r="B32" s="30" t="s">
         <v>78</v>
       </c>
@@ -5052,7 +5050,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="13.2">
       <c r="B33" s="32" t="s">
         <v>129</v>
       </c>
@@ -5061,20 +5059,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="15" customHeight="1"/>
+    <row r="35" spans="1:5" ht="15" customHeight="1">
       <c r="A35" s="4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="15" customHeight="1">
       <c r="A36" s="12" t="s">
         <v>74</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="13"/>
     </row>
-    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="15" customHeight="1">
       <c r="B37" s="42" t="s">
         <v>92</v>
       </c>
@@ -5082,7 +5080,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="15" customHeight="1">
       <c r="B38" s="16" t="s">
         <v>91</v>
       </c>
@@ -5092,7 +5090,7 @@
       <c r="D38" s="17"/>
       <c r="E38" s="18"/>
     </row>
-    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="15" customHeight="1">
       <c r="B39" s="16" t="s">
         <v>90</v>
       </c>
@@ -5102,7 +5100,7 @@
       <c r="D39" s="17"/>
       <c r="E39" s="17"/>
     </row>
-    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="15" customHeight="1">
       <c r="B40" s="16" t="s">
         <v>171</v>
       </c>
@@ -5110,7 +5108,7 @@
         <v>4.01</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="15" customHeight="1">
       <c r="B41" s="16" t="s">
         <v>89</v>
       </c>
@@ -5118,7 +5116,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="15" customHeight="1">
       <c r="B42" s="42" t="s">
         <v>93</v>
       </c>
@@ -5126,16 +5124,16 @@
         <v>22.4</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="15.75" customHeight="1">
       <c r="D43" s="17"/>
     </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="15.75" customHeight="1">
       <c r="A44" s="12" t="s">
         <v>133</v>
       </c>
       <c r="D44" s="17"/>
     </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="15.75" customHeight="1">
       <c r="B45" s="16" t="s">
         <v>9</v>
       </c>
@@ -5144,7 +5142,7 @@
       </c>
       <c r="D45" s="17"/>
     </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="15.75" customHeight="1">
       <c r="B46" s="16" t="s">
         <v>11</v>
       </c>
@@ -5153,7 +5151,7 @@
       </c>
       <c r="D46" s="17"/>
     </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="15.75" customHeight="1">
       <c r="B47" s="16" t="s">
         <v>12</v>
       </c>
@@ -5163,7 +5161,7 @@
       <c r="D47" s="17"/>
       <c r="E47" s="18"/>
     </row>
-    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="15" customHeight="1">
       <c r="B48" s="16" t="s">
         <v>26</v>
       </c>
@@ -5174,16 +5172,16 @@
       <c r="D48" s="17"/>
       <c r="E48" s="17"/>
     </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="15.75" customHeight="1">
       <c r="D49" s="17"/>
     </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="15.75" customHeight="1">
       <c r="A50" s="12" t="s">
         <v>72</v>
       </c>
       <c r="D50" s="17"/>
     </row>
-    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="15.75" customHeight="1">
       <c r="B51" s="16" t="s">
         <v>124</v>
       </c>
@@ -5192,7 +5190,7 @@
       </c>
       <c r="D51" s="17"/>
     </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="15" customHeight="1">
       <c r="B52" s="16" t="s">
         <v>125</v>
       </c>
@@ -5200,7 +5198,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="15.75" customHeight="1">
       <c r="B53" s="16" t="s">
         <v>126</v>
       </c>
@@ -5208,7 +5206,7 @@
         <v>5.64</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="15.75" customHeight="1">
       <c r="B54" s="16" t="s">
         <v>127</v>
       </c>
@@ -5216,7 +5214,7 @@
         <v>5.43</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="15.75" customHeight="1">
       <c r="B55" s="16" t="s">
         <v>128</v>
       </c>
@@ -5224,12 +5222,12 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="15.75" customHeight="1">
       <c r="A57" s="12" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="15.75" customHeight="1">
       <c r="B58" s="7" t="s">
         <v>111</v>
       </c>
@@ -5237,7 +5235,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="15.75" customHeight="1">
       <c r="B59" s="16" t="s">
         <v>132</v>
       </c>
@@ -5245,7 +5243,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="15.75" customHeight="1">
       <c r="B60" s="16" t="s">
         <v>269</v>
       </c>
@@ -5253,7 +5251,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="15.75" customHeight="1">
       <c r="B61" s="16" t="s">
         <v>270</v>
       </c>
@@ -5261,7 +5259,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="15.75" customHeight="1">
       <c r="A63" s="4"/>
     </row>
   </sheetData>
@@ -5282,15 +5280,15 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="53" style="52" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.81640625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="42.453125" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="11.453125" style="35"/>
+    <col min="2" max="2" width="47.77734375" style="35" customWidth="1"/>
+    <col min="3" max="3" width="42.44140625" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -5301,7 +5299,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="83" t="s">
         <v>187</v>
       </c>
@@ -5310,7 +5308,7 @@
       </c>
       <c r="C2" s="80"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="83" t="s">
         <v>207</v>
       </c>
@@ -5319,7 +5317,7 @@
       </c>
       <c r="C3" s="80"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="84" t="s">
         <v>58</v>
       </c>
@@ -5328,7 +5326,7 @@
       </c>
       <c r="C4" s="80"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="84" t="s">
         <v>137</v>
       </c>
@@ -5337,77 +5335,77 @@
       </c>
       <c r="C5" s="80"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="84"/>
       <c r="B6" s="85"/>
       <c r="C6" s="85"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="84"/>
       <c r="B7" s="85"/>
       <c r="C7" s="85"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="84"/>
       <c r="B8" s="85"/>
       <c r="C8" s="85"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="84"/>
       <c r="B9" s="85"/>
       <c r="C9" s="85"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="84"/>
       <c r="B10" s="85"/>
       <c r="C10" s="85"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="86"/>
       <c r="B11" s="85"/>
       <c r="C11" s="85"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="86"/>
       <c r="B12" s="85"/>
       <c r="C12" s="85"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="86"/>
       <c r="B13" s="85"/>
       <c r="C13" s="85"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="86"/>
       <c r="B14" s="85"/>
       <c r="C14" s="85"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="86"/>
       <c r="B15" s="85"/>
       <c r="C15" s="85"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="86"/>
       <c r="B16" s="85"/>
       <c r="C16" s="85"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="86"/>
       <c r="B17" s="85"/>
       <c r="C17" s="85"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="86"/>
       <c r="B18" s="85"/>
       <c r="C18" s="85"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="84"/>
       <c r="B19" s="85"/>
       <c r="C19" s="85"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="84"/>
       <c r="B20" s="85"/>
       <c r="C20" s="85"/>
@@ -5431,85 +5429,85 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="30.08984375" style="35" customWidth="1"/>
-    <col min="2" max="16384" width="11.453125" style="35"/>
+    <col min="1" max="1" width="30.109375" style="35" customWidth="1"/>
+    <col min="2" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" s="48" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" s="48" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" s="48" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1">
       <c r="A5" s="48" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1">
       <c r="A6" s="48" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1">
       <c r="A7" s="48" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1">
       <c r="A8" s="48" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1">
       <c r="A9" s="48" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1">
       <c r="A10" s="48"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1">
       <c r="A11" s="48"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1">
       <c r="A12" s="48"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1">
       <c r="A13" s="48"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1">
       <c r="A14" s="48"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1">
       <c r="A15" s="48"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1">
       <c r="A16" s="48"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" s="48"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" s="48"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" s="48"/>
     </row>
   </sheetData>
@@ -5529,9 +5527,9 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -5551,7 +5549,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>71</v>
       </c>
@@ -5576,7 +5574,7 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>65</v>
       </c>
@@ -5601,7 +5599,7 @@
         <v>5.8059717622450747E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>66</v>
       </c>
@@ -5640,22 +5638,22 @@
   <dimension ref="A1:O39"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="C29" activeCellId="3" sqref="C2:O12 C14:O21 C23:O27 C29:O38"/>
+      <selection activeCell="C7" sqref="C7:G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.81640625" customWidth="1"/>
-    <col min="3" max="3" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.77734375" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>33</v>
       </c>
@@ -5702,7 +5700,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>31</v>
       </c>
@@ -5753,7 +5751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1">
       <c r="B3" s="7" t="s">
         <v>149</v>
       </c>
@@ -5797,7 +5795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1">
       <c r="B4" s="7" t="s">
         <v>195</v>
       </c>
@@ -5841,7 +5839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1">
       <c r="B5" s="11" t="s">
         <v>136</v>
       </c>
@@ -5887,7 +5885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1">
       <c r="B6" s="11" t="s">
         <v>137</v>
       </c>
@@ -5934,29 +5932,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1">
       <c r="B7" s="33" t="s">
         <v>84</v>
       </c>
       <c r="C7" s="87">
-        <f>diarrhoea_1mo/26</f>
-        <v>6.3846153846153844E-2</v>
+        <f>diarrhoea_1mo</f>
+        <v>1.66</v>
       </c>
       <c r="D7" s="87">
-        <f>diarrhoea_1_5mo/26</f>
-        <v>6.3846153846153844E-2</v>
+        <f>diarrhoea_1_5mo</f>
+        <v>1.66</v>
       </c>
       <c r="E7" s="87">
-        <f>diarrhoea_6_11mo/26</f>
-        <v>0.21692307692307691</v>
+        <f>diarrhoea_6_11mo</f>
+        <v>5.64</v>
       </c>
       <c r="F7" s="87">
-        <f>diarrhoea_12_23mo/26</f>
-        <v>0.20884615384615385</v>
+        <f>diarrhoea_12_23mo</f>
+        <v>5.43</v>
       </c>
       <c r="G7" s="87">
-        <f>diarrhoea_24_59mo/26</f>
-        <v>7.3461538461538453E-2</v>
+        <f>diarrhoea_24_59mo</f>
+        <v>1.91</v>
       </c>
       <c r="H7" s="88">
         <v>0</v>
@@ -5983,7 +5981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1">
       <c r="B8" s="11" t="s">
         <v>58</v>
       </c>
@@ -6029,7 +6027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1">
       <c r="B9" s="11" t="s">
         <v>67</v>
       </c>
@@ -6077,7 +6075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="15" customHeight="1">
       <c r="B10" s="11" t="s">
         <v>28</v>
       </c>
@@ -6121,29 +6119,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1">
       <c r="B11" s="33" t="s">
         <v>85</v>
       </c>
       <c r="C11" s="87">
-        <f>diarrhoea_1mo/26</f>
-        <v>6.3846153846153844E-2</v>
+        <f>diarrhoea_1mo</f>
+        <v>1.66</v>
       </c>
       <c r="D11" s="87">
-        <f>diarrhoea_1_5mo/26</f>
-        <v>6.3846153846153844E-2</v>
+        <f>diarrhoea_1_5mo</f>
+        <v>1.66</v>
       </c>
       <c r="E11" s="87">
-        <f>diarrhoea_6_11mo/26</f>
-        <v>0.21692307692307691</v>
+        <f>diarrhoea_6_11mo</f>
+        <v>5.64</v>
       </c>
       <c r="F11" s="87">
-        <f>diarrhoea_12_23mo/26</f>
-        <v>0.20884615384615385</v>
+        <f>diarrhoea_12_23mo</f>
+        <v>5.43</v>
       </c>
       <c r="G11" s="87">
-        <f>diarrhoea_24_59mo/26</f>
-        <v>7.3461538461538453E-2</v>
+        <f>diarrhoea_24_59mo</f>
+        <v>1.91</v>
       </c>
       <c r="H11" s="88">
         <v>0</v>
@@ -6170,7 +6168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1">
       <c r="B12" s="11" t="s">
         <v>60</v>
       </c>
@@ -6214,10 +6212,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1">
       <c r="B13" s="33"/>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>32</v>
       </c>
@@ -6268,7 +6266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1">
       <c r="A15" s="4"/>
       <c r="B15" s="11" t="s">
         <v>86</v>
@@ -6313,7 +6311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1">
       <c r="A16" s="4"/>
       <c r="B16" s="11" t="s">
         <v>187</v>
@@ -6362,7 +6360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1">
       <c r="A17" s="4"/>
       <c r="B17" s="11" t="s">
         <v>207</v>
@@ -6411,7 +6409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="15" customHeight="1">
       <c r="B18" s="33" t="s">
         <v>57</v>
       </c>
@@ -6459,7 +6457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="15.75" customHeight="1">
       <c r="B19" s="11" t="s">
         <v>88</v>
       </c>
@@ -6503,7 +6501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="15.75" customHeight="1">
       <c r="B20" s="11" t="s">
         <v>87</v>
       </c>
@@ -6547,7 +6545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="15.75" customHeight="1">
       <c r="B21" s="33" t="s">
         <v>59</v>
       </c>
@@ -6595,10 +6593,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="15.75" customHeight="1">
       <c r="B22" s="33"/>
     </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" ht="15.75" customHeight="1">
       <c r="A23" s="58" t="s">
         <v>37</v>
       </c>
@@ -6649,7 +6647,7 @@
         <v>0.221</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="15.75" customHeight="1">
       <c r="B24" s="59" t="s">
         <v>188</v>
       </c>
@@ -6697,7 +6695,7 @@
         <v>0.54921999999999993</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="15.75" customHeight="1">
       <c r="B25" s="59" t="s">
         <v>206</v>
       </c>
@@ -6745,7 +6743,7 @@
         <v>0.23537999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="15.75" customHeight="1">
       <c r="B26" s="59" t="s">
         <v>189</v>
       </c>
@@ -6793,7 +6791,7 @@
         <v>0.21539999999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="15.75" customHeight="1">
       <c r="B27" s="59" t="s">
         <v>190</v>
       </c>
@@ -6838,7 +6836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="15.75" customHeight="1">
       <c r="B28" s="11"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -6848,7 +6846,7 @@
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
     </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" ht="15.75" customHeight="1">
       <c r="A29" s="4" t="s">
         <v>35</v>
       </c>
@@ -6906,7 +6904,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="15.75" customHeight="1">
       <c r="B30" s="11" t="s">
         <v>64</v>
       </c>
@@ -6961,7 +6959,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="15.75" customHeight="1">
       <c r="B31" s="11" t="s">
         <v>62</v>
       </c>
@@ -7016,7 +7014,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="15.75" customHeight="1">
       <c r="B32" s="11" t="s">
         <v>47</v>
       </c>
@@ -7060,7 +7058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1">
       <c r="B33" s="11" t="s">
         <v>34</v>
       </c>
@@ -7117,7 +7115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1">
       <c r="B34" s="33" t="s">
         <v>83</v>
       </c>
@@ -7161,7 +7159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1">
       <c r="A35" s="5"/>
       <c r="B35" s="33" t="s">
         <v>82</v>
@@ -7206,7 +7204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="B36" s="33" t="s">
         <v>81</v>
       </c>
@@ -7250,7 +7248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="B37" s="33" t="s">
         <v>79</v>
       </c>
@@ -7294,7 +7292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="B38" s="33" t="s">
         <v>80</v>
       </c>
@@ -7338,7 +7336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" ht="15.75" customHeight="1">
       <c r="B39" s="33"/>
     </row>
   </sheetData>
@@ -7357,24 +7355,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" s="12" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" s="12" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" s="12" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" s="12" t="s">
         <v>204</v>
       </c>
@@ -7395,16 +7393,16 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="33.6328125" style="35" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" style="35" customWidth="1"/>
-    <col min="3" max="4" width="11.453125" style="35"/>
-    <col min="5" max="5" width="17.453125" style="35" customWidth="1"/>
-    <col min="6" max="16384" width="11.453125" style="35"/>
+    <col min="1" max="1" width="33.6640625" style="35" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="35" customWidth="1"/>
+    <col min="3" max="4" width="11.44140625" style="35"/>
+    <col min="5" max="5" width="17.44140625" style="35" customWidth="1"/>
+    <col min="6" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="40" t="s">
         <v>163</v>
       </c>
@@ -7421,7 +7419,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="13.8">
       <c r="A2" s="39" t="s">
         <v>158</v>
       </c>
@@ -7439,7 +7437,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="13.8">
       <c r="A3" s="39" t="s">
         <v>157</v>
       </c>
@@ -7457,7 +7455,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="13.8">
       <c r="A4" s="39" t="s">
         <v>156</v>
       </c>
@@ -7475,7 +7473,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="13.8">
       <c r="A5" s="39" t="s">
         <v>155</v>
       </c>
@@ -7493,7 +7491,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="13.8">
       <c r="A6" s="39" t="s">
         <v>154</v>
       </c>
@@ -7511,7 +7509,7 @@
         <v>1.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="13.8">
       <c r="A7" s="39" t="s">
         <v>153</v>
       </c>
@@ -7529,7 +7527,7 @@
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="13.8">
       <c r="A8" s="39" t="s">
         <v>152</v>
       </c>
@@ -7547,7 +7545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="13.8">
       <c r="A9" s="39" t="s">
         <v>151</v>
       </c>
@@ -7565,7 +7563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="13.8">
       <c r="A10" s="39" t="s">
         <v>150</v>
       </c>
@@ -7583,7 +7581,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="C11" s="36"/>
     </row>
   </sheetData>
@@ -7604,20 +7602,20 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="22.1796875" style="55" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.90625" style="55" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.453125" style="55" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.08984375" style="55" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.21875" style="55" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.88671875" style="55" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" style="55" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" style="55" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="55" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.08984375" style="55" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="15.36328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="16.90625" style="55" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="16.08984375" style="55"/>
+    <col min="6" max="7" width="13.109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="15.33203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="16.88671875" style="55" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="16.109375" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1">
       <c r="A1" s="56" t="s">
         <v>33</v>
       </c>
@@ -7664,7 +7662,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1">
       <c r="A2" s="56" t="s">
         <v>31</v>
       </c>
@@ -7711,7 +7709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1">
       <c r="B3" s="52" t="s">
         <v>149</v>
       </c>
@@ -7755,7 +7753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1">
       <c r="B4" s="52" t="s">
         <v>173</v>
       </c>
@@ -7799,7 +7797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1">
       <c r="B5" s="52" t="s">
         <v>198</v>
       </c>
@@ -7843,7 +7841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1">
       <c r="B6" s="52" t="s">
         <v>199</v>
       </c>
@@ -7887,7 +7885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1">
       <c r="B7" s="52" t="s">
         <v>195</v>
       </c>
@@ -7931,7 +7929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1">
       <c r="B8" s="52" t="s">
         <v>136</v>
       </c>
@@ -7975,7 +7973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1">
       <c r="B9" s="52" t="s">
         <v>137</v>
       </c>
@@ -8019,7 +8017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1">
       <c r="B10" s="52" t="s">
         <v>84</v>
       </c>
@@ -8063,7 +8061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1">
       <c r="B11" s="52" t="s">
         <v>58</v>
       </c>
@@ -8107,7 +8105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1">
       <c r="B12" s="52" t="s">
         <v>67</v>
       </c>
@@ -8151,7 +8149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1">
       <c r="B13" s="52" t="s">
         <v>28</v>
       </c>
@@ -8195,7 +8193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1">
       <c r="B14" s="52" t="s">
         <v>85</v>
       </c>
@@ -8239,7 +8237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1">
       <c r="B15" s="52" t="s">
         <v>60</v>
       </c>
@@ -8283,7 +8281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1">
       <c r="B16" s="52"/>
       <c r="C16" s="91"/>
       <c r="D16" s="91"/>
@@ -8299,7 +8297,7 @@
       <c r="N16" s="91"/>
       <c r="O16" s="91"/>
     </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" ht="15.75" customHeight="1">
       <c r="A17" s="56" t="s">
         <v>32</v>
       </c>
@@ -8346,7 +8344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1">
       <c r="A18" s="56"/>
       <c r="B18" s="52" t="s">
         <v>86</v>
@@ -8391,7 +8389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" ht="15.75" customHeight="1">
       <c r="B19" s="92" t="s">
         <v>187</v>
       </c>
@@ -8435,7 +8433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1">
       <c r="B20" s="92" t="s">
         <v>207</v>
       </c>
@@ -8479,7 +8477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" ht="15.75" customHeight="1">
       <c r="B21" s="93" t="s">
         <v>57</v>
       </c>
@@ -8523,7 +8521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1">
       <c r="B22" s="52" t="s">
         <v>88</v>
       </c>
@@ -8567,7 +8565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1">
       <c r="B23" s="52" t="s">
         <v>87</v>
       </c>
@@ -8611,7 +8609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1">
       <c r="B24" s="52" t="s">
         <v>59</v>
       </c>
@@ -8655,7 +8653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" ht="15.75" customHeight="1">
       <c r="B25" s="52"/>
       <c r="C25" s="91"/>
       <c r="D25" s="91"/>
@@ -8671,7 +8669,7 @@
       <c r="N25" s="91"/>
       <c r="O25" s="91"/>
     </row>
-    <row r="26" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" ht="16.05" customHeight="1">
       <c r="A26" s="56" t="s">
         <v>37</v>
       </c>
@@ -8719,7 +8717,7 @@
       </c>
       <c r="P26" s="94"/>
     </row>
-    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" ht="15.75" customHeight="1">
       <c r="B27" s="59" t="s">
         <v>188</v>
       </c>
@@ -8763,7 +8761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" ht="15.75" customHeight="1">
       <c r="A28" s="56"/>
       <c r="B28" s="59" t="s">
         <v>206</v>
@@ -8808,7 +8806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" ht="15.75" customHeight="1">
       <c r="B29" s="59" t="s">
         <v>189</v>
       </c>
@@ -8852,7 +8850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" ht="15.75" customHeight="1">
       <c r="B30" s="59" t="s">
         <v>190</v>
       </c>
@@ -8896,7 +8894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" ht="15.75" customHeight="1">
       <c r="B31" s="52"/>
       <c r="C31" s="95"/>
       <c r="D31" s="95"/>
@@ -8912,7 +8910,7 @@
       <c r="N31" s="91"/>
       <c r="O31" s="91"/>
     </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" ht="15.75" customHeight="1">
       <c r="A32" s="56" t="s">
         <v>35</v>
       </c>
@@ -8959,7 +8957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1">
       <c r="B33" s="52" t="s">
         <v>64</v>
       </c>
@@ -9003,7 +9001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1">
       <c r="B34" s="52" t="s">
         <v>62</v>
       </c>
@@ -9047,7 +9045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1">
       <c r="B35" s="52" t="s">
         <v>47</v>
       </c>
@@ -9091,7 +9089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1">
       <c r="B36" s="52" t="s">
         <v>34</v>
       </c>
@@ -9135,7 +9133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" ht="15.75" customHeight="1">
       <c r="A37" s="97"/>
       <c r="B37" s="52" t="s">
         <v>83</v>
@@ -9180,7 +9178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1">
       <c r="B38" s="52" t="s">
         <v>82</v>
       </c>
@@ -9224,7 +9222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1">
       <c r="B39" s="52" t="s">
         <v>81</v>
       </c>
@@ -9268,7 +9266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1">
       <c r="B40" s="52" t="s">
         <v>79</v>
       </c>
@@ -9312,7 +9310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" ht="15" customHeight="1">
       <c r="B41" s="52" t="s">
         <v>80</v>
       </c>
@@ -9373,22 +9371,22 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="58.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="58.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -9423,7 +9421,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="52" t="s">
         <v>29</v>
       </c>
@@ -9440,7 +9438,7 @@
       <c r="J2" s="90"/>
       <c r="K2" s="90"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="52" t="s">
         <v>86</v>
       </c>
@@ -9457,7 +9455,7 @@
       <c r="J3" s="90"/>
       <c r="K3" s="90"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="52" t="s">
         <v>61</v>
       </c>
@@ -9474,7 +9472,7 @@
       <c r="J4" s="90"/>
       <c r="K4" s="90"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="52" t="s">
         <v>149</v>
       </c>
@@ -9491,7 +9489,7 @@
       <c r="J5" s="90"/>
       <c r="K5" s="90"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="52" t="s">
         <v>197</v>
       </c>
@@ -9510,7 +9508,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="52" t="s">
         <v>63</v>
       </c>
@@ -9529,7 +9527,7 @@
       <c r="J7" s="90"/>
       <c r="K7" s="90"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="52" t="s">
         <v>64</v>
       </c>
@@ -9548,7 +9546,7 @@
       <c r="J8" s="90"/>
       <c r="K8" s="90"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="52" t="s">
         <v>62</v>
       </c>
@@ -9567,7 +9565,7 @@
       <c r="J9" s="90"/>
       <c r="K9" s="90"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="59" t="s">
         <v>188</v>
       </c>
@@ -9584,7 +9582,7 @@
       <c r="J10" s="90"/>
       <c r="K10" s="90"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="59" t="s">
         <v>206</v>
       </c>
@@ -9601,7 +9599,7 @@
       <c r="J11" s="90"/>
       <c r="K11" s="90"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="59" t="s">
         <v>189</v>
       </c>
@@ -9618,7 +9616,7 @@
       <c r="J12" s="90"/>
       <c r="K12" s="90"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="59" t="s">
         <v>190</v>
       </c>
@@ -9635,7 +9633,7 @@
       <c r="J13" s="90"/>
       <c r="K13" s="90"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="92" t="s">
         <v>187</v>
       </c>
@@ -9654,7 +9652,7 @@
       <c r="J14" s="90"/>
       <c r="K14" s="90"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="92" t="s">
         <v>207</v>
       </c>
@@ -9673,7 +9671,7 @@
       <c r="J15" s="90"/>
       <c r="K15" s="90"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="52" t="s">
         <v>57</v>
       </c>
@@ -9694,7 +9692,7 @@
       <c r="J16" s="90"/>
       <c r="K16" s="90"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" s="52" t="s">
         <v>47</v>
       </c>
@@ -9711,7 +9709,7 @@
       <c r="J17" s="90"/>
       <c r="K17" s="90"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" s="52" t="s">
         <v>173</v>
       </c>
@@ -9730,7 +9728,7 @@
       <c r="J18" s="90"/>
       <c r="K18" s="90"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" s="52" t="s">
         <v>198</v>
       </c>
@@ -9749,7 +9747,7 @@
       <c r="J19" s="90"/>
       <c r="K19" s="90"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20" s="52" t="s">
         <v>199</v>
       </c>
@@ -9768,7 +9766,7 @@
       <c r="J20" s="90"/>
       <c r="K20" s="90"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21" s="52" t="s">
         <v>195</v>
       </c>
@@ -9787,7 +9785,7 @@
       <c r="J21" s="90"/>
       <c r="K21" s="90"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="A22" s="52" t="s">
         <v>136</v>
       </c>
@@ -9808,7 +9806,7 @@
       <c r="J22" s="90"/>
       <c r="K22" s="90"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23" s="52" t="s">
         <v>34</v>
       </c>
@@ -9827,7 +9825,7 @@
       <c r="J23" s="90"/>
       <c r="K23" s="90"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="A24" s="52" t="s">
         <v>88</v>
       </c>
@@ -9844,7 +9842,7 @@
       <c r="J24" s="90"/>
       <c r="K24" s="90"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="A25" s="52" t="s">
         <v>87</v>
       </c>
@@ -9861,7 +9859,7 @@
       <c r="J25" s="90"/>
       <c r="K25" s="90"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="A26" s="52" t="s">
         <v>137</v>
       </c>
@@ -9878,7 +9876,7 @@
       <c r="J26" s="90"/>
       <c r="K26" s="90"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11">
       <c r="A27" s="52" t="s">
         <v>59</v>
       </c>
@@ -9897,7 +9895,7 @@
       <c r="J27" s="90"/>
       <c r="K27" s="90"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="A28" s="52" t="s">
         <v>84</v>
       </c>
@@ -9914,7 +9912,7 @@
       <c r="J28" s="90"/>
       <c r="K28" s="90"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="A29" s="52" t="s">
         <v>58</v>
       </c>
@@ -9933,7 +9931,7 @@
       <c r="J29" s="90"/>
       <c r="K29" s="90"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="A30" s="52" t="s">
         <v>67</v>
       </c>
@@ -9950,7 +9948,7 @@
       <c r="J30" s="90"/>
       <c r="K30" s="90"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
       <c r="A31" s="52" t="s">
         <v>28</v>
       </c>
@@ -9969,7 +9967,7 @@
       <c r="J31" s="90"/>
       <c r="K31" s="90"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11">
       <c r="A32" s="52" t="s">
         <v>83</v>
       </c>
@@ -9988,7 +9986,7 @@
       <c r="J32" s="90"/>
       <c r="K32" s="90"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11">
       <c r="A33" s="52" t="s">
         <v>82</v>
       </c>
@@ -10007,7 +10005,7 @@
       <c r="J33" s="90"/>
       <c r="K33" s="90"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11">
       <c r="A34" s="52" t="s">
         <v>81</v>
       </c>
@@ -10026,7 +10024,7 @@
       <c r="J34" s="90"/>
       <c r="K34" s="90"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11">
       <c r="A35" s="52" t="s">
         <v>79</v>
       </c>
@@ -10045,7 +10043,7 @@
       <c r="J35" s="90"/>
       <c r="K35" s="90"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11">
       <c r="A36" s="52" t="s">
         <v>80</v>
       </c>
@@ -10064,7 +10062,7 @@
       <c r="J36" s="90"/>
       <c r="K36" s="90"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11">
       <c r="A37" s="52" t="s">
         <v>85</v>
       </c>
@@ -10081,7 +10079,7 @@
       <c r="J37" s="90"/>
       <c r="K37" s="90"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11">
       <c r="A38" s="52" t="s">
         <v>60</v>
       </c>
@@ -10119,22 +10117,22 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="16.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="16.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" s="40" t="s">
         <v>216</v>
       </c>
@@ -10169,7 +10167,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
@@ -10198,7 +10196,7 @@
       <c r="J2" s="90"/>
       <c r="K2" s="90"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
@@ -10227,7 +10225,7 @@
       <c r="J3" s="90"/>
       <c r="K3" s="90"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="35" t="s">
         <v>3</v>
       </c>
@@ -10256,7 +10254,7 @@
       <c r="J4" s="90"/>
       <c r="K4" s="90"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="35" t="s">
         <v>4</v>
       </c>
@@ -10285,7 +10283,7 @@
       <c r="J5" s="90"/>
       <c r="K5" s="90"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="35" t="s">
         <v>5</v>
       </c>
@@ -10314,7 +10312,7 @@
       <c r="J6" s="90"/>
       <c r="K6" s="90"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="35" t="s">
         <v>53</v>
       </c>
@@ -10335,7 +10333,7 @@
       <c r="J7" s="90"/>
       <c r="K7" s="90"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="35" t="s">
         <v>54</v>
       </c>
@@ -10356,7 +10354,7 @@
       <c r="J8" s="90"/>
       <c r="K8" s="90"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="35" t="s">
         <v>55</v>
       </c>
@@ -10377,7 +10375,7 @@
       <c r="J9" s="90"/>
       <c r="K9" s="90"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="35" t="s">
         <v>56</v>
       </c>
@@ -10398,7 +10396,7 @@
       <c r="J10" s="90"/>
       <c r="K10" s="90"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="35" t="s">
         <v>49</v>
       </c>
@@ -10419,7 +10417,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="35" t="s">
         <v>50</v>
       </c>
@@ -10438,7 +10436,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="35" t="s">
         <v>51</v>
       </c>
@@ -10457,7 +10455,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="35" t="s">
         <v>52</v>
       </c>
@@ -10493,15 +10491,15 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="48.08984375" style="35" customWidth="1"/>
+    <col min="1" max="1" width="48.109375" style="35" customWidth="1"/>
     <col min="2" max="2" width="15" style="35" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="12.81640625" style="35"/>
+    <col min="3" max="3" width="14.6640625" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="A1" s="40" t="s">
         <v>217</v>
       </c>
@@ -10527,7 +10525,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2" s="40" t="s">
         <v>218</v>
       </c>
@@ -10553,7 +10551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="B3" s="137"/>
       <c r="C3" s="35" t="s">
         <v>175</v>
@@ -10575,7 +10573,7 @@
       </c>
       <c r="J3" s="100"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="B4" s="137"/>
       <c r="C4" s="35" t="s">
         <v>174</v>
@@ -10597,7 +10595,7 @@
       </c>
       <c r="J4" s="100"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="B5" s="137" t="s">
         <v>1</v>
       </c>
@@ -10621,7 +10619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="B6" s="137"/>
       <c r="C6" s="35" t="s">
         <v>175</v>
@@ -10642,7 +10640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="B7" s="137"/>
       <c r="C7" s="35" t="s">
         <v>174</v>
@@ -10663,7 +10661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="B8" s="137" t="s">
         <v>2</v>
       </c>
@@ -10686,7 +10684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="B9" s="137"/>
       <c r="C9" s="35" t="s">
         <v>175</v>
@@ -10707,7 +10705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="B10" s="137"/>
       <c r="C10" s="35" t="s">
         <v>174</v>
@@ -10728,7 +10726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="B11" s="137" t="s">
         <v>3</v>
       </c>
@@ -10751,7 +10749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="B12" s="137"/>
       <c r="C12" s="35" t="s">
         <v>175</v>
@@ -10772,7 +10770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="B13" s="137"/>
       <c r="C13" s="35" t="s">
         <v>174</v>
@@ -10793,7 +10791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="B14" s="137" t="s">
         <v>4</v>
       </c>
@@ -10816,7 +10814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="B15" s="137"/>
       <c r="C15" s="35" t="s">
         <v>175</v>
@@ -10837,7 +10835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="B16" s="137"/>
       <c r="C16" s="35" t="s">
         <v>174</v>
@@ -10858,7 +10856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="B17" s="101" t="s">
         <v>172</v>
       </c>
@@ -10881,14 +10879,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="D18" s="102"/>
       <c r="E18" s="102"/>
       <c r="F18" s="102"/>
       <c r="G18" s="102"/>
       <c r="H18" s="102"/>
     </row>
-    <row r="19" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8">
       <c r="A19" s="40" t="s">
         <v>219</v>
       </c>
@@ -10914,7 +10912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="B20" s="137"/>
       <c r="C20" s="35" t="s">
         <v>175</v>
@@ -10935,7 +10933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="B21" s="137"/>
       <c r="C21" s="35" t="s">
         <v>174</v>
@@ -10956,7 +10954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="B22" s="137" t="s">
         <v>1</v>
       </c>
@@ -10979,7 +10977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="B23" s="137"/>
       <c r="C23" s="35" t="s">
         <v>175</v>
@@ -11000,7 +10998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="B24" s="137"/>
       <c r="C24" s="35" t="s">
         <v>174</v>
@@ -11021,7 +11019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="B25" s="137" t="s">
         <v>2</v>
       </c>
@@ -11044,7 +11042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="B26" s="137"/>
       <c r="C26" s="35" t="s">
         <v>175</v>
@@ -11065,7 +11063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="B27" s="137"/>
       <c r="C27" s="35" t="s">
         <v>174</v>
@@ -11086,7 +11084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="B28" s="137" t="s">
         <v>3</v>
       </c>
@@ -11109,7 +11107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="B29" s="137"/>
       <c r="C29" s="35" t="s">
         <v>175</v>
@@ -11130,7 +11128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="B30" s="137"/>
       <c r="C30" s="35" t="s">
         <v>174</v>
@@ -11151,7 +11149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="B31" s="137" t="s">
         <v>4</v>
       </c>
@@ -11174,7 +11172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="B32" s="137"/>
       <c r="C32" s="35" t="s">
         <v>175</v>
@@ -11195,7 +11193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="B33" s="137"/>
       <c r="C33" s="35" t="s">
         <v>174</v>
@@ -11216,7 +11214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="B34" s="101" t="s">
         <v>172</v>
       </c>
@@ -11239,14 +11237,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="D35" s="102"/>
       <c r="E35" s="102"/>
       <c r="F35" s="102"/>
       <c r="G35" s="102"/>
       <c r="H35" s="102"/>
     </row>
-    <row r="36" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8">
       <c r="A36" s="103" t="s">
         <v>220</v>
       </c>
@@ -11272,7 +11270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="B37" s="137"/>
       <c r="C37" s="35" t="s">
         <v>175</v>
@@ -11293,7 +11291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="B38" s="137"/>
       <c r="C38" s="35" t="s">
         <v>174</v>
@@ -11314,7 +11312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="B39" s="137" t="s">
         <v>1</v>
       </c>
@@ -11337,7 +11335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="B40" s="137"/>
       <c r="C40" s="35" t="s">
         <v>175</v>
@@ -11358,7 +11356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="B41" s="137"/>
       <c r="C41" s="35" t="s">
         <v>174</v>
@@ -11379,7 +11377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="B42" s="137" t="s">
         <v>2</v>
       </c>
@@ -11402,7 +11400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="B43" s="137"/>
       <c r="C43" s="35" t="s">
         <v>175</v>
@@ -11423,7 +11421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="B44" s="137"/>
       <c r="C44" s="35" t="s">
         <v>174</v>
@@ -11444,7 +11442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="B45" s="137" t="s">
         <v>3</v>
       </c>
@@ -11467,7 +11465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="B46" s="137"/>
       <c r="C46" s="35" t="s">
         <v>175</v>
@@ -11488,7 +11486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="B47" s="137"/>
       <c r="C47" s="35" t="s">
         <v>174</v>
@@ -11509,7 +11507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="B48" s="137" t="s">
         <v>4</v>
       </c>
@@ -11532,7 +11530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8">
       <c r="B49" s="137"/>
       <c r="C49" s="35" t="s">
         <v>175</v>
@@ -11553,7 +11551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8">
       <c r="B50" s="137"/>
       <c r="C50" s="35" t="s">
         <v>174</v>
@@ -11574,7 +11572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8">
       <c r="B51" s="104" t="s">
         <v>172</v>
       </c>
@@ -11600,6 +11598,12 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BiU9BXNF+INgNxSFtHuqKvDgOHy4i8LHe4WBopPE5oAPe1uu8rzbQfKL4uxCQ4dbx+6qcxc95feCcYk3II7eJw==" saltValue="oFkUqZTkt+d2Svo646TgPw==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -11609,12 +11613,6 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -11632,14 +11630,14 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.453125" style="12" customWidth="1"/>
-    <col min="2" max="9" width="16.81640625" style="12" customWidth="1"/>
-    <col min="10" max="16384" width="14.453125" style="12"/>
+    <col min="1" max="1" width="8.44140625" style="12" customWidth="1"/>
+    <col min="2" max="9" width="16.77734375" style="12" customWidth="1"/>
+    <col min="10" max="16384" width="14.44140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -11668,7 +11666,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1">
       <c r="A2" s="7">
         <f>start_year</f>
         <v>2017</v>
@@ -11701,7 +11699,7 @@
         <v>10889222.411291081</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1">
       <c r="A3" s="7">
         <f t="shared" ref="A3:A40" si="2">IF($A$2+ROW(A3)-2&lt;=end_year,A2+1,"")</f>
         <v>2018</v>
@@ -11734,7 +11732,7 @@
         <v>11314876.916718401</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1">
       <c r="A4" s="7">
         <f t="shared" si="2"/>
         <v>2019</v>
@@ -11767,7 +11765,7 @@
         <v>11742062.79850255</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1">
       <c r="A5" s="7">
         <f t="shared" si="2"/>
         <v>2020</v>
@@ -11800,7 +11798,7 @@
         <v>12188008.303929869</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1">
       <c r="A6" s="7">
         <f t="shared" si="2"/>
         <v>2021</v>
@@ -11833,7 +11831,7 @@
         <v>12645913.809357187</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1">
       <c r="A7" s="7">
         <f t="shared" si="2"/>
         <v>2022</v>
@@ -11866,7 +11864,7 @@
         <v>13098634.691141337</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1">
       <c r="A8" s="7">
         <f t="shared" si="2"/>
         <v>2023</v>
@@ -11899,7 +11897,7 @@
         <v>13560643.572925486</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1">
       <c r="A9" s="7">
         <f t="shared" si="2"/>
         <v>2024</v>
@@ -11932,7 +11930,7 @@
         <v>14048879.078352805</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1">
       <c r="A10" s="7">
         <f t="shared" si="2"/>
         <v>2025</v>
@@ -11965,7 +11963,7 @@
         <v>14530354.336493783</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1">
       <c r="A11" s="7">
         <f t="shared" si="2"/>
         <v>2026</v>
@@ -11998,7 +11996,7 @@
         <v>15032265.218277931</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15.75" customHeight="1">
       <c r="A12" s="7">
         <f t="shared" si="2"/>
         <v>2027</v>
@@ -12031,7 +12029,7 @@
         <v>15550202.10006208</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15.75" customHeight="1">
       <c r="A13" s="7">
         <f t="shared" si="2"/>
         <v>2028</v>
@@ -12064,7 +12062,7 @@
         <v>16082324.981846228</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15.75" customHeight="1">
       <c r="A14" s="7">
         <f t="shared" si="2"/>
         <v>2029</v>
@@ -12097,7 +12095,7 @@
         <v>16613455.239987208</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15.75" customHeight="1">
       <c r="A15" s="7">
         <f t="shared" si="2"/>
         <v>2030</v>
@@ -12130,7 +12128,7 @@
         <v>17165139.121771358</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15.75" customHeight="1">
       <c r="A16" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12153,7 +12151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1">
       <c r="A17" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12176,7 +12174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1">
       <c r="A18" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12199,7 +12197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1">
       <c r="A19" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12222,7 +12220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1">
       <c r="A20" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12245,7 +12243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1">
       <c r="A21" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12268,7 +12266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1">
       <c r="A22" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12291,7 +12289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1">
       <c r="A23" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12314,7 +12312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1">
       <c r="A24" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12337,7 +12335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1">
       <c r="A25" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12360,7 +12358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="15.75" customHeight="1">
       <c r="A26" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12383,7 +12381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="15.75" customHeight="1">
       <c r="A27" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12406,7 +12404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="15.75" customHeight="1">
       <c r="A28" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12429,7 +12427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="15.75" customHeight="1">
       <c r="A29" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12452,7 +12450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="15.75" customHeight="1">
       <c r="A30" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12475,7 +12473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="15.75" customHeight="1">
       <c r="A31" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12498,7 +12496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="15.75" customHeight="1">
       <c r="A32" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12521,7 +12519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="15.75" customHeight="1">
       <c r="A33" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12544,7 +12542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="15.75" customHeight="1">
       <c r="A34" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12567,7 +12565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="15.75" customHeight="1">
       <c r="A35" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12590,7 +12588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="15.75" customHeight="1">
       <c r="A36" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12613,7 +12611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="15.75" customHeight="1">
       <c r="A37" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12636,7 +12634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="15.75" customHeight="1">
       <c r="A38" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12659,7 +12657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="15.75" customHeight="1">
       <c r="A39" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12682,7 +12680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="15.75" customHeight="1">
       <c r="A40" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12728,22 +12726,22 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="23.90625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="34.08984375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="11.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.90625" style="35" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="34.109375" style="35" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" style="35" customWidth="1"/>
     <col min="5" max="6" width="15" style="35" customWidth="1"/>
-    <col min="7" max="16384" width="16.08984375" style="35"/>
+    <col min="7" max="16384" width="16.109375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="106" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="106" customFormat="1" ht="18.75" customHeight="1">
       <c r="A1" s="105" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="B2" s="107"/>
       <c r="C2" s="108" t="s">
         <v>26</v>
@@ -12758,7 +12756,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="40" t="s">
         <v>222</v>
       </c>
@@ -12768,7 +12766,7 @@
       <c r="E3" s="112"/>
       <c r="F3" s="112"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="B4" s="113" t="s">
         <v>75</v>
       </c>
@@ -12785,7 +12783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="113" t="s">
         <v>76</v>
       </c>
@@ -12802,7 +12800,7 @@
         <v>3.03</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="B6" s="113" t="s">
         <v>77</v>
       </c>
@@ -12819,7 +12817,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="B7" s="113" t="s">
         <v>78</v>
       </c>
@@ -12836,13 +12834,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="C8" s="116"/>
       <c r="D8" s="100"/>
       <c r="E8" s="100"/>
       <c r="F8" s="100"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="A9" s="40" t="s">
         <v>223</v>
       </c>
@@ -12860,14 +12858,14 @@
       </c>
       <c r="G9" s="117"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="C10" s="116"/>
       <c r="D10" s="100"/>
       <c r="E10" s="100"/>
       <c r="F10" s="100"/>
       <c r="G10" s="117"/>
     </row>
-    <row r="11" spans="1:7" s="106" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="106" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="105" t="s">
         <v>224</v>
       </c>
@@ -12877,7 +12875,7 @@
       <c r="F11" s="119"/>
       <c r="G11" s="120"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="A12" s="40" t="s">
         <v>225</v>
       </c>
@@ -12887,7 +12885,7 @@
       <c r="F12" s="100"/>
       <c r="G12" s="117"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="121" t="s">
         <v>226</v>
       </c>
@@ -12905,7 +12903,7 @@
       </c>
       <c r="G13" s="117"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="B14" s="121" t="s">
         <v>227</v>
       </c>
@@ -12923,7 +12921,7 @@
       </c>
       <c r="G14" s="117"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="121" t="s">
         <v>228</v>
       </c>
@@ -12941,7 +12939,7 @@
       </c>
       <c r="G15" s="117"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="A16" s="40"/>
       <c r="B16" s="121"/>
       <c r="C16" s="122"/>
@@ -12950,7 +12948,7 @@
       <c r="F16" s="100"/>
       <c r="G16" s="117"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="A17" s="40" t="s">
         <v>229</v>
       </c>
@@ -12961,7 +12959,7 @@
       <c r="F17" s="124"/>
       <c r="G17" s="117"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="B18" s="125" t="s">
         <v>73</v>
       </c>
@@ -12979,7 +12977,7 @@
       </c>
       <c r="G18" s="117"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="B19" s="125" t="s">
         <v>7</v>
       </c>
@@ -12997,7 +12995,7 @@
       </c>
       <c r="G19" s="117"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="B20" s="125" t="s">
         <v>8</v>
       </c>
@@ -13015,7 +13013,7 @@
       </c>
       <c r="G20" s="117"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="B21" s="125" t="s">
         <v>10</v>
       </c>
@@ -13033,7 +13031,7 @@
       </c>
       <c r="G21" s="117"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1">
       <c r="B22" s="125" t="s">
         <v>13</v>
       </c>
@@ -13050,7 +13048,7 @@
         <v>999.99</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1">
       <c r="B23" s="125" t="s">
         <v>14</v>
       </c>
@@ -13067,7 +13065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1">
       <c r="B24" s="125" t="s">
         <v>27</v>
       </c>
@@ -13084,7 +13082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1">
       <c r="B25" s="125" t="s">
         <v>15</v>
       </c>
@@ -13101,10 +13099,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1">
       <c r="B26" s="121"/>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1">
       <c r="B28" s="40"/>
     </row>
   </sheetData>
@@ -13125,23 +13123,23 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="27.1796875" style="35" customWidth="1"/>
-    <col min="2" max="2" width="26.90625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="18.36328125" style="35" customWidth="1"/>
-    <col min="4" max="8" width="14.81640625" style="35" customWidth="1"/>
-    <col min="9" max="12" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="16.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="27.21875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="35" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="35" customWidth="1"/>
+    <col min="4" max="8" width="14.77734375" style="35" customWidth="1"/>
+    <col min="9" max="12" width="15.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="16.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="106" customFormat="1">
       <c r="A1" s="105" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16">
       <c r="A2" s="126" t="s">
         <v>211</v>
       </c>
@@ -13175,7 +13173,7 @@
       <c r="O2" s="128"/>
       <c r="P2" s="128"/>
     </row>
-    <row r="3" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16">
       <c r="A3" s="40"/>
       <c r="B3" s="35" t="s">
         <v>71</v>
@@ -13207,7 +13205,7 @@
       <c r="O3" s="126"/>
       <c r="P3" s="126"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="C4" s="43" t="s">
         <v>234</v>
       </c>
@@ -13235,7 +13233,7 @@
       <c r="O4" s="126"/>
       <c r="P4" s="126"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="C5" s="43" t="s">
         <v>235</v>
       </c>
@@ -13263,7 +13261,7 @@
       <c r="O5" s="126"/>
       <c r="P5" s="126"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="C6" s="43" t="s">
         <v>236</v>
       </c>
@@ -13291,7 +13289,7 @@
       <c r="O6" s="126"/>
       <c r="P6" s="126"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="B7" s="35" t="s">
         <v>16</v>
       </c>
@@ -13322,7 +13320,7 @@
       <c r="O7" s="126"/>
       <c r="P7" s="126"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16">
       <c r="C8" s="43" t="s">
         <v>234</v>
       </c>
@@ -13350,7 +13348,7 @@
       <c r="O8" s="126"/>
       <c r="P8" s="126"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16">
       <c r="C9" s="43" t="s">
         <v>235</v>
       </c>
@@ -13378,7 +13376,7 @@
       <c r="O9" s="126"/>
       <c r="P9" s="126"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16">
       <c r="C10" s="43" t="s">
         <v>236</v>
       </c>
@@ -13406,7 +13404,7 @@
       <c r="O10" s="126"/>
       <c r="P10" s="126"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16">
       <c r="B11" s="35" t="s">
         <v>18</v>
       </c>
@@ -13437,7 +13435,7 @@
       <c r="O11" s="126"/>
       <c r="P11" s="126"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16">
       <c r="C12" s="43" t="s">
         <v>234</v>
       </c>
@@ -13465,7 +13463,7 @@
       <c r="O12" s="126"/>
       <c r="P12" s="126"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16">
       <c r="C13" s="43" t="s">
         <v>235</v>
       </c>
@@ -13493,7 +13491,7 @@
       <c r="O13" s="126"/>
       <c r="P13" s="126"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16">
       <c r="C14" s="43" t="s">
         <v>236</v>
       </c>
@@ -13521,7 +13519,7 @@
       <c r="O14" s="126"/>
       <c r="P14" s="126"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16">
       <c r="B15" s="35" t="s">
         <v>19</v>
       </c>
@@ -13552,7 +13550,7 @@
       <c r="O15" s="126"/>
       <c r="P15" s="126"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16">
       <c r="C16" s="43" t="s">
         <v>234</v>
       </c>
@@ -13580,7 +13578,7 @@
       <c r="O16" s="126"/>
       <c r="P16" s="126"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16">
       <c r="C17" s="43" t="s">
         <v>235</v>
       </c>
@@ -13608,7 +13606,7 @@
       <c r="O17" s="126"/>
       <c r="P17" s="126"/>
     </row>
-    <row r="18" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="13.95" customHeight="1">
       <c r="C18" s="43" t="s">
         <v>236</v>
       </c>
@@ -13636,7 +13634,7 @@
       <c r="O18" s="126"/>
       <c r="P18" s="126"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16">
       <c r="B19" s="36" t="s">
         <v>17</v>
       </c>
@@ -13667,7 +13665,7 @@
       <c r="O19" s="126"/>
       <c r="P19" s="126"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16">
       <c r="C20" s="43" t="s">
         <v>234</v>
       </c>
@@ -13695,7 +13693,7 @@
       <c r="O20" s="126"/>
       <c r="P20" s="126"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16">
       <c r="C21" s="43" t="s">
         <v>235</v>
       </c>
@@ -13723,7 +13721,7 @@
       <c r="O21" s="126"/>
       <c r="P21" s="126"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16">
       <c r="C22" s="43" t="s">
         <v>236</v>
       </c>
@@ -13751,7 +13749,7 @@
       <c r="O22" s="126"/>
       <c r="P22" s="126"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16">
       <c r="B23" s="36" t="s">
         <v>23</v>
       </c>
@@ -13782,7 +13780,7 @@
       <c r="O23" s="126"/>
       <c r="P23" s="126"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16">
       <c r="C24" s="43" t="s">
         <v>234</v>
       </c>
@@ -13810,7 +13808,7 @@
       <c r="O24" s="126"/>
       <c r="P24" s="126"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16">
       <c r="C25" s="43" t="s">
         <v>235</v>
       </c>
@@ -13838,7 +13836,7 @@
       <c r="O25" s="126"/>
       <c r="P25" s="126"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16">
       <c r="C26" s="43" t="s">
         <v>236</v>
       </c>
@@ -13866,12 +13864,12 @@
       <c r="O26" s="126"/>
       <c r="P26" s="126"/>
     </row>
-    <row r="28" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" s="106" customFormat="1">
       <c r="A28" s="105" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="36" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" s="36" customFormat="1">
       <c r="A29" s="129" t="s">
         <v>238</v>
       </c>
@@ -13905,7 +13903,7 @@
       <c r="O29" s="128"/>
       <c r="P29" s="128"/>
     </row>
-    <row r="30" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16">
       <c r="A30" s="40"/>
       <c r="B30" s="35" t="s">
         <v>71</v>
@@ -13937,7 +13935,7 @@
       <c r="O30" s="126"/>
       <c r="P30" s="126"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16">
       <c r="C31" s="43" t="s">
         <v>234</v>
       </c>
@@ -13965,7 +13963,7 @@
       <c r="O31" s="126"/>
       <c r="P31" s="126"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16">
       <c r="C32" s="43" t="s">
         <v>65</v>
       </c>
@@ -13993,7 +13991,7 @@
       <c r="O32" s="126"/>
       <c r="P32" s="126"/>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:16">
       <c r="C33" s="43" t="s">
         <v>66</v>
       </c>
@@ -14021,7 +14019,7 @@
       <c r="O33" s="126"/>
       <c r="P33" s="126"/>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:16">
       <c r="B34" s="35" t="s">
         <v>16</v>
       </c>
@@ -14052,7 +14050,7 @@
       <c r="O34" s="126"/>
       <c r="P34" s="126"/>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:16">
       <c r="C35" s="43" t="s">
         <v>234</v>
       </c>
@@ -14080,7 +14078,7 @@
       <c r="O35" s="126"/>
       <c r="P35" s="126"/>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:16">
       <c r="C36" s="43" t="s">
         <v>65</v>
       </c>
@@ -14108,7 +14106,7 @@
       <c r="O36" s="126"/>
       <c r="P36" s="126"/>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:16">
       <c r="C37" s="43" t="s">
         <v>66</v>
       </c>
@@ -14136,7 +14134,7 @@
       <c r="O37" s="126"/>
       <c r="P37" s="126"/>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:16">
       <c r="B38" s="35" t="s">
         <v>18</v>
       </c>
@@ -14167,7 +14165,7 @@
       <c r="O38" s="126"/>
       <c r="P38" s="126"/>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:16">
       <c r="C39" s="43" t="s">
         <v>234</v>
       </c>
@@ -14195,7 +14193,7 @@
       <c r="O39" s="126"/>
       <c r="P39" s="126"/>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:16">
       <c r="C40" s="43" t="s">
         <v>65</v>
       </c>
@@ -14223,7 +14221,7 @@
       <c r="O40" s="126"/>
       <c r="P40" s="126"/>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:16">
       <c r="C41" s="43" t="s">
         <v>66</v>
       </c>
@@ -14251,7 +14249,7 @@
       <c r="O41" s="126"/>
       <c r="P41" s="126"/>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:16">
       <c r="B42" s="35" t="s">
         <v>19</v>
       </c>
@@ -14282,7 +14280,7 @@
       <c r="O42" s="126"/>
       <c r="P42" s="126"/>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:16">
       <c r="C43" s="43" t="s">
         <v>234</v>
       </c>
@@ -14310,7 +14308,7 @@
       <c r="O43" s="126"/>
       <c r="P43" s="126"/>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:16">
       <c r="C44" s="43" t="s">
         <v>65</v>
       </c>
@@ -14338,7 +14336,7 @@
       <c r="O44" s="126"/>
       <c r="P44" s="126"/>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:16">
       <c r="C45" s="43" t="s">
         <v>66</v>
       </c>
@@ -14366,7 +14364,7 @@
       <c r="O45" s="126"/>
       <c r="P45" s="126"/>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:16">
       <c r="B46" s="35" t="s">
         <v>17</v>
       </c>
@@ -14397,7 +14395,7 @@
       <c r="O46" s="126"/>
       <c r="P46" s="126"/>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:16">
       <c r="C47" s="43" t="s">
         <v>234</v>
       </c>
@@ -14425,7 +14423,7 @@
       <c r="O47" s="126"/>
       <c r="P47" s="126"/>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:16">
       <c r="C48" s="43" t="s">
         <v>65</v>
       </c>
@@ -14453,7 +14451,7 @@
       <c r="O48" s="126"/>
       <c r="P48" s="126"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16">
       <c r="C49" s="43" t="s">
         <v>66</v>
       </c>
@@ -14481,7 +14479,7 @@
       <c r="O49" s="126"/>
       <c r="P49" s="126"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16">
       <c r="B50" s="35" t="s">
         <v>23</v>
       </c>
@@ -14512,7 +14510,7 @@
       <c r="O50" s="126"/>
       <c r="P50" s="126"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16">
       <c r="C51" s="43" t="s">
         <v>234</v>
       </c>
@@ -14540,7 +14538,7 @@
       <c r="O51" s="126"/>
       <c r="P51" s="126"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16">
       <c r="C52" s="43" t="s">
         <v>65</v>
       </c>
@@ -14568,7 +14566,7 @@
       <c r="O52" s="126"/>
       <c r="P52" s="126"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16">
       <c r="C53" s="43" t="s">
         <v>66</v>
       </c>
@@ -14596,16 +14594,16 @@
       <c r="O53" s="126"/>
       <c r="P53" s="126"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16">
       <c r="C54" s="43"/>
       <c r="D54" s="43"/>
     </row>
-    <row r="55" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" s="106" customFormat="1">
       <c r="A55" s="105" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="56" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" s="36" customFormat="1" ht="26.4">
       <c r="A56" s="129" t="s">
         <v>70</v>
       </c>
@@ -14633,7 +14631,7 @@
       <c r="O56" s="128"/>
       <c r="P56" s="128"/>
     </row>
-    <row r="57" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16">
       <c r="A57" s="40"/>
       <c r="B57" s="35" t="s">
         <v>38</v>
@@ -14659,7 +14657,7 @@
       <c r="O57" s="126"/>
       <c r="P57" s="126"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16">
       <c r="C58" s="43" t="s">
         <v>243</v>
       </c>
@@ -14681,7 +14679,7 @@
       <c r="O58" s="126"/>
       <c r="P58" s="126"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16">
       <c r="B59" s="35" t="s">
         <v>39</v>
       </c>
@@ -14706,7 +14704,7 @@
       <c r="O59" s="126"/>
       <c r="P59" s="126"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16">
       <c r="C60" s="43" t="s">
         <v>243</v>
       </c>
@@ -14728,7 +14726,7 @@
       <c r="O60" s="126"/>
       <c r="P60" s="126"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16">
       <c r="B61" s="35" t="s">
         <v>40</v>
       </c>
@@ -14753,7 +14751,7 @@
       <c r="O61" s="126"/>
       <c r="P61" s="126"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16">
       <c r="C62" s="43" t="s">
         <v>243</v>
       </c>
@@ -14775,16 +14773,16 @@
       <c r="O62" s="126"/>
       <c r="P62" s="126"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16">
       <c r="C63" s="43"/>
       <c r="D63" s="43"/>
     </row>
-    <row r="64" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" s="106" customFormat="1">
       <c r="A64" s="105" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="65" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" s="36" customFormat="1" ht="26.4">
       <c r="A65" s="129" t="s">
         <v>24</v>
       </c>
@@ -14818,7 +14816,7 @@
       <c r="O65" s="128"/>
       <c r="P65" s="128"/>
     </row>
-    <row r="66" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16">
       <c r="A66" s="133"/>
       <c r="B66" s="35" t="s">
         <v>73</v>
@@ -14850,7 +14848,7 @@
       <c r="O66" s="126"/>
       <c r="P66" s="126"/>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16">
       <c r="C67" s="43" t="s">
         <v>167</v>
       </c>
@@ -14878,7 +14876,7 @@
       <c r="O67" s="126"/>
       <c r="P67" s="126"/>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16">
       <c r="C68" s="43" t="s">
         <v>168</v>
       </c>
@@ -14906,7 +14904,7 @@
       <c r="O68" s="126"/>
       <c r="P68" s="126"/>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16">
       <c r="C69" s="43" t="s">
         <v>169</v>
       </c>
@@ -14934,7 +14932,7 @@
       <c r="O69" s="126"/>
       <c r="P69" s="126"/>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16">
       <c r="B70" s="35" t="s">
         <v>7</v>
       </c>
@@ -14965,7 +14963,7 @@
       <c r="O70" s="126"/>
       <c r="P70" s="126"/>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16">
       <c r="C71" s="43" t="s">
         <v>167</v>
       </c>
@@ -14993,7 +14991,7 @@
       <c r="O71" s="126"/>
       <c r="P71" s="126"/>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16">
       <c r="C72" s="43" t="s">
         <v>168</v>
       </c>
@@ -15021,7 +15019,7 @@
       <c r="O72" s="126"/>
       <c r="P72" s="126"/>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16">
       <c r="C73" s="43" t="s">
         <v>169</v>
       </c>
@@ -15049,7 +15047,7 @@
       <c r="O73" s="126"/>
       <c r="P73" s="126"/>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16">
       <c r="B74" s="35" t="s">
         <v>8</v>
       </c>
@@ -15080,7 +15078,7 @@
       <c r="O74" s="126"/>
       <c r="P74" s="126"/>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16">
       <c r="C75" s="43" t="s">
         <v>167</v>
       </c>
@@ -15108,7 +15106,7 @@
       <c r="O75" s="126"/>
       <c r="P75" s="126"/>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16">
       <c r="C76" s="43" t="s">
         <v>168</v>
       </c>
@@ -15136,7 +15134,7 @@
       <c r="O76" s="126"/>
       <c r="P76" s="126"/>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16">
       <c r="C77" s="43" t="s">
         <v>169</v>
       </c>
@@ -15164,7 +15162,7 @@
       <c r="O77" s="126"/>
       <c r="P77" s="126"/>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16">
       <c r="B78" s="35" t="s">
         <v>13</v>
       </c>
@@ -15195,7 +15193,7 @@
       <c r="O78" s="126"/>
       <c r="P78" s="126"/>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16">
       <c r="C79" s="43" t="s">
         <v>167</v>
       </c>
@@ -15223,7 +15221,7 @@
       <c r="O79" s="126"/>
       <c r="P79" s="126"/>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16">
       <c r="C80" s="43" t="s">
         <v>168</v>
       </c>
@@ -15251,7 +15249,7 @@
       <c r="O80" s="126"/>
       <c r="P80" s="126"/>
     </row>
-    <row r="81" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:16">
       <c r="C81" s="43" t="s">
         <v>169</v>
       </c>
@@ -15279,7 +15277,7 @@
       <c r="O81" s="126"/>
       <c r="P81" s="126"/>
     </row>
-    <row r="82" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:16">
       <c r="B82" s="35" t="s">
         <v>71</v>
       </c>
@@ -15310,7 +15308,7 @@
       <c r="O82" s="126"/>
       <c r="P82" s="126"/>
     </row>
-    <row r="83" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:16">
       <c r="C83" s="43" t="s">
         <v>167</v>
       </c>
@@ -15338,7 +15336,7 @@
       <c r="O83" s="126"/>
       <c r="P83" s="126"/>
     </row>
-    <row r="84" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:16">
       <c r="C84" s="43" t="s">
         <v>168</v>
       </c>
@@ -15366,7 +15364,7 @@
       <c r="O84" s="126"/>
       <c r="P84" s="126"/>
     </row>
-    <row r="85" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:16">
       <c r="C85" s="43" t="s">
         <v>169</v>
       </c>
@@ -15394,7 +15392,7 @@
       <c r="O85" s="126"/>
       <c r="P85" s="126"/>
     </row>
-    <row r="86" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:16">
       <c r="B86" s="35" t="s">
         <v>16</v>
       </c>
@@ -15425,7 +15423,7 @@
       <c r="O86" s="126"/>
       <c r="P86" s="126"/>
     </row>
-    <row r="87" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:16">
       <c r="C87" s="43" t="s">
         <v>167</v>
       </c>
@@ -15453,7 +15451,7 @@
       <c r="O87" s="126"/>
       <c r="P87" s="126"/>
     </row>
-    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:16">
       <c r="C88" s="43" t="s">
         <v>168</v>
       </c>
@@ -15481,7 +15479,7 @@
       <c r="O88" s="126"/>
       <c r="P88" s="126"/>
     </row>
-    <row r="89" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:16">
       <c r="C89" s="43" t="s">
         <v>169</v>
       </c>
@@ -15509,7 +15507,7 @@
       <c r="O89" s="126"/>
       <c r="P89" s="126"/>
     </row>
-    <row r="90" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:16">
       <c r="B90" s="35" t="s">
         <v>18</v>
       </c>
@@ -15540,7 +15538,7 @@
       <c r="O90" s="126"/>
       <c r="P90" s="126"/>
     </row>
-    <row r="91" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:16">
       <c r="C91" s="43" t="s">
         <v>167</v>
       </c>
@@ -15568,7 +15566,7 @@
       <c r="O91" s="126"/>
       <c r="P91" s="126"/>
     </row>
-    <row r="92" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:16">
       <c r="C92" s="43" t="s">
         <v>168</v>
       </c>
@@ -15596,7 +15594,7 @@
       <c r="O92" s="126"/>
       <c r="P92" s="126"/>
     </row>
-    <row r="93" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:16">
       <c r="C93" s="43" t="s">
         <v>169</v>
       </c>
@@ -15624,7 +15622,7 @@
       <c r="O93" s="126"/>
       <c r="P93" s="126"/>
     </row>
-    <row r="94" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:16">
       <c r="B94" s="35" t="s">
         <v>17</v>
       </c>
@@ -15655,7 +15653,7 @@
       <c r="O94" s="126"/>
       <c r="P94" s="126"/>
     </row>
-    <row r="95" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:16">
       <c r="C95" s="43" t="s">
         <v>167</v>
       </c>
@@ -15683,7 +15681,7 @@
       <c r="O95" s="126"/>
       <c r="P95" s="126"/>
     </row>
-    <row r="96" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:16">
       <c r="C96" s="43" t="s">
         <v>168</v>
       </c>
@@ -15711,7 +15709,7 @@
       <c r="O96" s="126"/>
       <c r="P96" s="126"/>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16">
       <c r="C97" s="43" t="s">
         <v>169</v>
       </c>
@@ -15739,7 +15737,7 @@
       <c r="O97" s="126"/>
       <c r="P97" s="126"/>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16">
       <c r="B98" s="35" t="s">
         <v>20</v>
       </c>
@@ -15770,7 +15768,7 @@
       <c r="O98" s="126"/>
       <c r="P98" s="126"/>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16">
       <c r="C99" s="43" t="s">
         <v>167</v>
       </c>
@@ -15798,7 +15796,7 @@
       <c r="O99" s="126"/>
       <c r="P99" s="126"/>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16">
       <c r="C100" s="43" t="s">
         <v>168</v>
       </c>
@@ -15826,7 +15824,7 @@
       <c r="O100" s="126"/>
       <c r="P100" s="126"/>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16">
       <c r="C101" s="43" t="s">
         <v>169</v>
       </c>
@@ -15854,12 +15852,12 @@
       <c r="O101" s="126"/>
       <c r="P101" s="126"/>
     </row>
-    <row r="103" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" s="106" customFormat="1">
       <c r="A103" s="105" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="104" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" s="36" customFormat="1" ht="26.4">
       <c r="A104" s="129" t="s">
         <v>71</v>
       </c>
@@ -15893,7 +15891,7 @@
       <c r="O104" s="128"/>
       <c r="P104" s="128"/>
     </row>
-    <row r="105" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16">
       <c r="A105" s="40"/>
       <c r="B105" s="36"/>
       <c r="C105" s="43" t="s">
@@ -15923,7 +15921,7 @@
       <c r="O105" s="126"/>
       <c r="P105" s="126"/>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16">
       <c r="C106" s="43" t="s">
         <v>167</v>
       </c>
@@ -15951,7 +15949,7 @@
       <c r="O106" s="126"/>
       <c r="P106" s="126"/>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16">
       <c r="C107" s="43" t="s">
         <v>168</v>
       </c>
@@ -15979,7 +15977,7 @@
       <c r="O107" s="126"/>
       <c r="P107" s="126"/>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16">
       <c r="C108" s="43" t="s">
         <v>169</v>
       </c>
@@ -16007,7 +16005,7 @@
       <c r="O108" s="126"/>
       <c r="P108" s="126"/>
     </row>
-    <row r="111" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16">
       <c r="A111" s="40"/>
     </row>
   </sheetData>
@@ -16028,24 +16026,24 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="25.81640625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="44.453125" style="35" customWidth="1"/>
-    <col min="3" max="3" width="17.81640625" style="35" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" style="35" customWidth="1"/>
-    <col min="5" max="5" width="17.1796875" style="35" customWidth="1"/>
+    <col min="1" max="1" width="25.77734375" style="35" customWidth="1"/>
+    <col min="2" max="2" width="44.44140625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" style="35" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" style="35" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="35" customWidth="1"/>
     <col min="6" max="6" width="15" style="35" customWidth="1"/>
-    <col min="7" max="7" width="13.6328125" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.81640625" style="35"/>
+    <col min="7" max="7" width="13.6640625" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1">
       <c r="A1" s="105" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="14.25" customHeight="1">
       <c r="A2" s="133" t="s">
         <v>25</v>
       </c>
@@ -16066,7 +16064,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="14.25" customHeight="1">
       <c r="B3" s="121" t="s">
         <v>248</v>
       </c>
@@ -16086,7 +16084,7 @@
         <v>174.7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="14.25" customHeight="1">
       <c r="A4" s="40"/>
       <c r="B4" s="125" t="s">
         <v>250</v>
@@ -16107,12 +16105,12 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="14.25" customHeight="1">
       <c r="A5" s="110" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="14.25" customHeight="1">
       <c r="B6" s="125" t="s">
         <v>58</v>
       </c>
@@ -16132,7 +16130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="14.25" customHeight="1">
       <c r="B7" s="125" t="s">
         <v>136</v>
       </c>
@@ -16152,7 +16150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="14.25" customHeight="1">
       <c r="B8" s="125" t="s">
         <v>60</v>
       </c>
@@ -16172,7 +16170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="14.25" customHeight="1">
       <c r="B9" s="125"/>
       <c r="C9" s="125"/>
       <c r="D9" s="125"/>
@@ -16180,12 +16178,12 @@
       <c r="F9" s="125"/>
       <c r="G9" s="125"/>
     </row>
-    <row r="10" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1">
       <c r="A10" s="105" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="14.25" customHeight="1">
       <c r="A11" s="110"/>
       <c r="B11" s="121" t="s">
         <v>195</v>
@@ -16206,16 +16204,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="14.25" customHeight="1">
       <c r="A12" s="110"/>
       <c r="B12" s="121"/>
     </row>
-    <row r="13" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1">
       <c r="A13" s="105" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="14.25" customHeight="1">
       <c r="A14" s="133" t="s">
         <v>238</v>
       </c>
@@ -16238,7 +16236,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="14.25" customHeight="1">
       <c r="A15" s="40"/>
       <c r="B15" s="125" t="s">
         <v>255</v>
@@ -16259,7 +16257,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="14.25" customHeight="1">
       <c r="A16" s="133" t="s">
         <v>70</v>
       </c>
@@ -16282,13 +16280,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:6" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="18" spans="1:6" s="106" customFormat="1" ht="14.25" customHeight="1">
       <c r="A18" s="105" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="110" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="110" customFormat="1" ht="14.25" customHeight="1">
       <c r="C19" s="56" t="s">
         <v>49</v>
       </c>
@@ -16302,7 +16300,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="B20" s="121" t="s">
         <v>197</v>
       </c>
@@ -16338,16 +16336,16 @@
       <selection activeCell="E6" sqref="C6:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="52.1796875" style="35" customWidth="1"/>
-    <col min="2" max="6" width="16.08984375" style="35"/>
-    <col min="7" max="7" width="17.1796875" style="35" customWidth="1"/>
-    <col min="8" max="8" width="16.08984375" style="35" customWidth="1"/>
-    <col min="9" max="16384" width="16.08984375" style="35"/>
+    <col min="1" max="1" width="52.21875" style="35" customWidth="1"/>
+    <col min="2" max="6" width="16.109375" style="35"/>
+    <col min="7" max="7" width="17.21875" style="35" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" style="35" customWidth="1"/>
+    <col min="9" max="16384" width="16.109375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="127" t="s">
         <v>69</v>
       </c>
@@ -16365,7 +16363,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="92" t="s">
         <v>29</v>
       </c>
@@ -16385,7 +16383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="92"/>
       <c r="B3" s="92" t="s">
         <v>259</v>
@@ -16403,7 +16401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="92" t="s">
         <v>187</v>
       </c>
@@ -16423,7 +16421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="92"/>
       <c r="B5" s="92" t="s">
         <v>259</v>
@@ -16441,7 +16439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="92" t="s">
         <v>207</v>
       </c>
@@ -16461,7 +16459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" s="92"/>
       <c r="B7" s="92" t="s">
         <v>259</v>
@@ -16479,7 +16477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="A8" s="92" t="s">
         <v>57</v>
       </c>
@@ -16499,7 +16497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="A9" s="92"/>
       <c r="B9" s="92" t="s">
         <v>259</v>
@@ -16517,7 +16515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1">
       <c r="A10" s="92" t="s">
         <v>34</v>
       </c>
@@ -16537,7 +16535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1">
       <c r="A11" s="92"/>
       <c r="B11" s="92" t="s">
         <v>259</v>
@@ -16555,7 +16553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1">
       <c r="A12" s="92" t="s">
         <v>59</v>
       </c>
@@ -16575,7 +16573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1">
       <c r="A13" s="92"/>
       <c r="B13" s="92" t="s">
         <v>259</v>
@@ -16593,10 +16591,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" ht="15.75" customHeight="1">
       <c r="A19" s="92"/>
     </row>
-    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" ht="15.75" customHeight="1">
       <c r="A20" s="92"/>
     </row>
   </sheetData>
@@ -16617,15 +16615,15 @@
       <selection activeCell="O19" sqref="E19:O20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" style="35" customWidth="1"/>
-    <col min="2" max="2" width="58.90625" style="35" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="58.88671875" style="35" bestFit="1" customWidth="1"/>
     <col min="3" max="15" width="15" style="35" customWidth="1"/>
-    <col min="16" max="16384" width="12.81640625" style="35"/>
+    <col min="16" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="35.25" customHeight="1">
       <c r="A1" s="40"/>
       <c r="B1" s="40"/>
       <c r="C1" s="109" t="s">
@@ -16668,12 +16666,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15">
       <c r="A2" s="40" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="B3" s="59" t="s">
         <v>149</v>
       </c>
@@ -16717,7 +16715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="B4" s="59" t="s">
         <v>188</v>
       </c>
@@ -16761,7 +16759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="B5" s="59" t="s">
         <v>206</v>
       </c>
@@ -16805,7 +16803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="B6" s="59" t="s">
         <v>189</v>
       </c>
@@ -16849,7 +16847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="B7" s="59" t="s">
         <v>190</v>
       </c>
@@ -16893,7 +16891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="B8" s="92" t="s">
         <v>187</v>
       </c>
@@ -16937,7 +16935,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="B9" s="92" t="s">
         <v>207</v>
       </c>
@@ -16981,7 +16979,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="B10" s="59" t="s">
         <v>57</v>
       </c>
@@ -17025,7 +17023,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="B11" s="92" t="s">
         <v>136</v>
       </c>
@@ -17069,7 +17067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="B12" s="59" t="s">
         <v>34</v>
       </c>
@@ -17113,7 +17111,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="13.05" customHeight="1">
       <c r="B13" s="59" t="s">
         <v>137</v>
       </c>
@@ -17157,7 +17155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="B14" s="59" t="s">
         <v>59</v>
       </c>
@@ -17201,13 +17199,13 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15">
       <c r="A16" s="40" t="s">
         <v>261</v>
       </c>
       <c r="B16" s="59"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15">
       <c r="B17" s="92" t="s">
         <v>63</v>
       </c>
@@ -17251,7 +17249,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15">
       <c r="B18" s="92" t="s">
         <v>64</v>
       </c>
@@ -17295,7 +17293,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15">
       <c r="B19" s="92" t="s">
         <v>62</v>
       </c>
@@ -17339,7 +17337,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15">
       <c r="B20" s="92" t="s">
         <v>47</v>
       </c>
@@ -17383,16 +17381,16 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15">
       <c r="B25" s="43"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15">
       <c r="B26" s="43"/>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15">
       <c r="B27" s="43"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15">
       <c r="B28" s="43"/>
     </row>
   </sheetData>
@@ -17413,15 +17411,15 @@
       <selection activeCell="D5" sqref="D5:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="21.36328125" style="35" customWidth="1"/>
-    <col min="2" max="2" width="27.1796875" style="35" customWidth="1"/>
-    <col min="3" max="7" width="15.54296875" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="21.33203125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="27.21875" style="35" customWidth="1"/>
+    <col min="3" max="7" width="15.5546875" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="40"/>
       <c r="B1" s="127"/>
       <c r="C1" s="40" t="s">
@@ -17440,12 +17438,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="40" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="B3" s="59" t="s">
         <v>67</v>
       </c>
@@ -17465,7 +17463,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="40" t="s">
         <v>263</v>
       </c>
@@ -17476,7 +17474,7 @@
       <c r="F4" s="135"/>
       <c r="G4" s="135"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="B5" s="92" t="s">
         <v>183</v>
       </c>
@@ -17514,20 +17512,20 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="53" style="52" customWidth="1"/>
-    <col min="2" max="2" width="30.54296875" style="52" customWidth="1"/>
-    <col min="3" max="3" width="24.81640625" style="52" customWidth="1"/>
+    <col min="2" max="2" width="30.5546875" style="52" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" style="52" customWidth="1"/>
     <col min="4" max="4" width="15" style="35" customWidth="1"/>
-    <col min="5" max="5" width="13.6328125" style="35" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" style="35" customWidth="1"/>
-    <col min="7" max="7" width="12.81640625" style="35"/>
-    <col min="8" max="8" width="17.54296875" style="35" customWidth="1"/>
-    <col min="9" max="16384" width="12.81640625" style="35"/>
+    <col min="5" max="5" width="13.6640625" style="35" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" style="35" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" style="35"/>
+    <col min="8" max="8" width="17.5546875" style="35" customWidth="1"/>
+    <col min="9" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -17553,7 +17551,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="52" t="s">
         <v>28</v>
       </c>
@@ -17579,7 +17577,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="C3" s="52" t="s">
         <v>267</v>
       </c>
@@ -17599,7 +17597,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="C4" s="52" t="s">
         <v>268</v>
       </c>
@@ -17619,7 +17617,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="52" t="s">
         <v>58</v>
       </c>
@@ -17645,7 +17643,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="C6" s="52" t="s">
         <v>268</v>
       </c>
@@ -17665,7 +17663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="B7" s="52" t="s">
         <v>65</v>
       </c>
@@ -17688,7 +17686,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="C8" s="52" t="s">
         <v>268</v>
       </c>
@@ -17708,7 +17706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="52" t="s">
         <v>136</v>
       </c>
@@ -17734,7 +17732,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="C10" s="52" t="s">
         <v>268</v>
       </c>
@@ -17754,7 +17752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="B11" s="52" t="s">
         <v>65</v>
       </c>
@@ -17777,7 +17775,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="C12" s="52" t="s">
         <v>268</v>
       </c>
@@ -17797,7 +17795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="52" t="s">
         <v>61</v>
       </c>
@@ -17823,7 +17821,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="C14" s="52" t="s">
         <v>268</v>
       </c>
@@ -17844,7 +17842,7 @@
       </c>
       <c r="I14" s="36"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="B15" s="52" t="s">
         <v>65</v>
       </c>
@@ -17868,7 +17866,7 @@
       </c>
       <c r="I15" s="36"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="C16" s="52" t="s">
         <v>268</v>
       </c>
@@ -17889,7 +17887,7 @@
       </c>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="52" t="s">
         <v>62</v>
       </c>
@@ -17916,7 +17914,7 @@
       </c>
       <c r="I17" s="36"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="C18" s="52" t="s">
         <v>267</v>
       </c>
@@ -17937,7 +17935,7 @@
       </c>
       <c r="I18" s="36"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="52" t="s">
         <v>63</v>
       </c>
@@ -17963,7 +17961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="C20" s="52" t="s">
         <v>267</v>
       </c>
@@ -17983,7 +17981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="52" t="s">
         <v>64</v>
       </c>
@@ -18009,7 +18007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="C22" s="52" t="s">
         <v>267</v>
       </c>
@@ -18029,7 +18027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="52" t="s">
         <v>79</v>
       </c>
@@ -18055,7 +18053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="C24" s="52" t="s">
         <v>267</v>
       </c>
@@ -18075,7 +18073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="C25" s="52" t="s">
         <v>268</v>
       </c>
@@ -18095,7 +18093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" s="52" t="s">
         <v>80</v>
       </c>
@@ -18121,7 +18119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="C27" s="52" t="s">
         <v>267</v>
       </c>
@@ -18141,7 +18139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="C28" s="52" t="s">
         <v>268</v>
       </c>
@@ -18161,7 +18159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29" s="52" t="s">
         <v>81</v>
       </c>
@@ -18187,7 +18185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="C30" s="52" t="s">
         <v>267</v>
       </c>
@@ -18207,7 +18205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="C31" s="52" t="s">
         <v>268</v>
       </c>
@@ -18227,7 +18225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="A32" s="52" t="s">
         <v>82</v>
       </c>
@@ -18253,7 +18251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="C33" s="52" t="s">
         <v>267</v>
       </c>
@@ -18273,7 +18271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="C34" s="52" t="s">
         <v>268</v>
       </c>
@@ -18293,7 +18291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" s="52" t="s">
         <v>83</v>
       </c>
@@ -18319,7 +18317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="C36" s="52" t="s">
         <v>267</v>
       </c>
@@ -18339,7 +18337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="C37" s="52" t="s">
         <v>268</v>
       </c>
@@ -18359,7 +18357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38" s="52" t="s">
         <v>60</v>
       </c>
@@ -18385,7 +18383,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="C39" s="52" t="s">
         <v>267</v>
       </c>
@@ -18405,7 +18403,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="C40" s="52" t="s">
         <v>268</v>
       </c>
@@ -18425,7 +18423,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="B41" s="52" t="s">
         <v>16</v>
       </c>
@@ -18448,7 +18446,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="C42" s="52" t="s">
         <v>267</v>
       </c>
@@ -18468,7 +18466,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="C43" s="52" t="s">
         <v>268</v>
       </c>
@@ -18488,7 +18486,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="A44" s="52" t="s">
         <v>84</v>
       </c>
@@ -18514,7 +18512,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="C45" s="52" t="s">
         <v>267</v>
       </c>
@@ -18534,7 +18532,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="A46" s="52" t="s">
         <v>85</v>
       </c>
@@ -18560,7 +18558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="C47" s="52" t="s">
         <v>267</v>
       </c>
@@ -18580,7 +18578,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="A48" s="52" t="s">
         <v>195</v>
       </c>
@@ -18606,7 +18604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:8">
       <c r="C49" s="52" t="s">
         <v>267</v>
       </c>
@@ -18644,16 +18642,16 @@
       <selection activeCell="D7" sqref="D7:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="28" style="35" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" style="35" customWidth="1"/>
-    <col min="3" max="3" width="23.6328125" style="35" customWidth="1"/>
-    <col min="4" max="7" width="17.1796875" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.81640625" style="35"/>
+    <col min="2" max="2" width="27.44140625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" style="35" customWidth="1"/>
+    <col min="4" max="7" width="17.21875" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" s="127" t="s">
         <v>69</v>
       </c>
@@ -18675,7 +18673,7 @@
       </c>
       <c r="H1" s="98"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="43" t="s">
         <v>86</v>
       </c>
@@ -18699,7 +18697,7 @@
       </c>
       <c r="H2" s="92"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="C3" s="35" t="s">
         <v>267</v>
       </c>
@@ -18717,7 +18715,7 @@
       </c>
       <c r="H3" s="136"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="43" t="s">
         <v>87</v>
       </c>
@@ -18741,7 +18739,7 @@
       </c>
       <c r="H4" s="136"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="36"/>
       <c r="C5" s="35" t="s">
         <v>267</v>
@@ -18760,7 +18758,7 @@
       </c>
       <c r="H5" s="92"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="43" t="s">
         <v>88</v>
       </c>
@@ -18784,7 +18782,7 @@
       </c>
       <c r="H6" s="92"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="36"/>
       <c r="C7" s="35" t="s">
         <v>267</v>
@@ -18820,14 +18818,14 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.08984375" customWidth="1"/>
-    <col min="2" max="2" width="31.36328125" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
     <col min="3" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1">
       <c r="A1" s="4" t="str">
         <f>"Percentage of deaths in baseline year ("&amp;start_year&amp;") attributable to cause"</f>
         <v>Percentage of deaths in baseline year (2017) attributable to cause</v>
@@ -18838,7 +18836,7 @@
       <c r="E1" s="41"/>
       <c r="F1" s="41"/>
     </row>
-    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="27.75" customHeight="1">
       <c r="A2" t="s">
         <v>209</v>
       </c>
@@ -18853,7 +18851,7 @@
       <c r="F2" s="41"/>
       <c r="G2" s="41"/>
     </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1">
       <c r="B3" s="24" t="s">
         <v>73</v>
       </c>
@@ -18861,7 +18859,7 @@
         <v>2.7000000000000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1">
       <c r="B4" s="24" t="s">
         <v>7</v>
       </c>
@@ -18869,7 +18867,7 @@
         <v>0.1966</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1">
       <c r="B5" s="24" t="s">
         <v>8</v>
       </c>
@@ -18877,7 +18875,7 @@
         <v>6.2100000000000002E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1">
       <c r="B6" s="24" t="s">
         <v>10</v>
       </c>
@@ -18885,7 +18883,7 @@
         <v>0.29289999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1">
       <c r="B7" s="24" t="s">
         <v>13</v>
       </c>
@@ -18893,7 +18891,7 @@
         <v>0.24709999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1">
       <c r="B8" s="24" t="s">
         <v>14</v>
       </c>
@@ -18901,7 +18899,7 @@
         <v>4.7999999999999996E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1">
       <c r="B9" s="24" t="s">
         <v>27</v>
       </c>
@@ -18909,7 +18907,7 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1">
       <c r="B10" s="24" t="s">
         <v>15</v>
       </c>
@@ -18917,7 +18915,7 @@
         <v>6.1800000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1">
       <c r="B11" s="32" t="s">
         <v>129</v>
       </c>
@@ -18928,7 +18926,7 @@
       <c r="G11" s="24"/>
       <c r="H11" s="24"/>
     </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15.75" customHeight="1">
       <c r="B12" s="32"/>
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
@@ -18937,7 +18935,7 @@
       <c r="G12" s="24"/>
       <c r="H12" s="24"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1">
       <c r="A13" s="12" t="s">
         <v>31</v>
       </c>
@@ -18958,7 +18956,7 @@
       </c>
       <c r="G13" s="24"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15.75" customHeight="1">
       <c r="B14" s="24" t="s">
         <v>71</v>
       </c>
@@ -18975,7 +18973,7 @@
         <v>0.1368</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15.75" customHeight="1">
       <c r="B15" s="24" t="s">
         <v>16</v>
       </c>
@@ -18992,7 +18990,7 @@
         <v>0.20660000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1">
       <c r="B16" s="24" t="s">
         <v>17</v>
       </c>
@@ -19009,7 +19007,7 @@
         <v>2.1100000000000001E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1">
       <c r="B17" s="24" t="s">
         <v>18</v>
       </c>
@@ -19026,7 +19024,7 @@
         <v>7.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1">
       <c r="B18" s="24" t="s">
         <v>19</v>
       </c>
@@ -19043,7 +19041,7 @@
         <v>8.6199999999999999E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1">
       <c r="B19" s="24" t="s">
         <v>20</v>
       </c>
@@ -19060,7 +19058,7 @@
         <v>2.86E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1">
       <c r="B20" s="24" t="s">
         <v>21</v>
       </c>
@@ -19077,7 +19075,7 @@
         <v>1.5299999999999999E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1">
       <c r="B21" s="24" t="s">
         <v>22</v>
       </c>
@@ -19094,7 +19092,7 @@
         <v>0.13589999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1">
       <c r="B22" s="24" t="s">
         <v>23</v>
       </c>
@@ -19111,7 +19109,7 @@
         <v>0.36199999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1">
       <c r="B23" s="32" t="s">
         <v>129</v>
       </c>
@@ -19134,7 +19132,7 @@
       <c r="G23" s="24"/>
       <c r="H23" s="24"/>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1">
       <c r="B24" s="32"/>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
@@ -19143,7 +19141,7 @@
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -19159,7 +19157,7 @@
       <c r="G25" s="24"/>
       <c r="H25" s="24"/>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1">
       <c r="B26" s="24" t="s">
         <v>38</v>
       </c>
@@ -19167,7 +19165,7 @@
         <v>0.10082724000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="15.75" customHeight="1">
       <c r="B27" s="24" t="s">
         <v>39</v>
       </c>
@@ -19175,7 +19173,7 @@
         <v>3.1206000000000002E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="15.75" customHeight="1">
       <c r="B28" s="24" t="s">
         <v>40</v>
       </c>
@@ -19183,7 +19181,7 @@
         <v>0.15891214000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1">
       <c r="B29" s="24" t="s">
         <v>41</v>
       </c>
@@ -19191,7 +19189,7 @@
         <v>0.12598688999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="15.75" customHeight="1">
       <c r="B30" s="24" t="s">
         <v>42</v>
       </c>
@@ -19199,7 +19197,7 @@
         <v>0.12434007</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="15.75" customHeight="1">
       <c r="B31" s="24" t="s">
         <v>43</v>
       </c>
@@ -19207,7 +19205,7 @@
         <v>3.9028409999999999E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="15.75" customHeight="1">
       <c r="B32" s="24" t="s">
         <v>44</v>
       </c>
@@ -19215,7 +19213,7 @@
         <v>8.5254999999999999E-4</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" ht="15.75" customHeight="1">
       <c r="B33" s="24" t="s">
         <v>45</v>
       </c>
@@ -19223,7 +19221,7 @@
         <v>6.8467810000000004E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" ht="15.75" customHeight="1">
       <c r="B34" s="24" t="s">
         <v>46</v>
       </c>
@@ -19231,7 +19229,7 @@
         <v>0.38127283000000001</v>
       </c>
     </row>
-    <row r="35" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" ht="15.75" customHeight="1">
       <c r="B35" s="32" t="s">
         <v>129</v>
       </c>
@@ -19259,13 +19257,13 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.453125" customWidth="1"/>
+    <col min="1" max="1" width="31.44140625" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="36" customHeight="1">
       <c r="A1" s="27" t="str">
         <f>"Percentage of population in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of population in each category in baseline year (2017)</v>
@@ -19289,7 +19287,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>115</v>
       </c>
@@ -19317,7 +19315,7 @@
         <v>0.23269074767298425</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1">
       <c r="A3" s="5"/>
       <c r="B3" s="11" t="s">
         <v>118</v>
@@ -19343,7 +19341,7 @@
         <v>0.37372365733745416</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1">
       <c r="A4" s="5"/>
       <c r="B4" s="11" t="s">
         <v>116</v>
@@ -19364,7 +19362,7 @@
         <v>0.25929610299234518</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1">
       <c r="A5" s="5"/>
       <c r="B5" s="11" t="s">
         <v>119</v>
@@ -19385,7 +19383,7 @@
         <v>0.13428949199721643</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1">
       <c r="B6" s="14"/>
       <c r="C6" s="29"/>
       <c r="D6" s="29"/>
@@ -19393,7 +19391,7 @@
       <c r="F6" s="29"/>
       <c r="G6" s="29"/>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1">
       <c r="B7" s="14"/>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
@@ -19401,7 +19399,7 @@
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>114</v>
       </c>
@@ -19429,7 +19427,7 @@
         <v>0.81212055177975573</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1">
       <c r="B9" s="7" t="s">
         <v>121</v>
       </c>
@@ -19454,7 +19452,7 @@
         <v>0.15821429221536368</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1">
       <c r="B10" s="7" t="s">
         <v>122</v>
       </c>
@@ -19474,7 +19472,7 @@
         <v>2.2330660624019519E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1">
       <c r="B11" s="7" t="s">
         <v>123</v>
       </c>
@@ -19494,7 +19492,7 @@
         <v>7.3344953808610778E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1">
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -19508,7 +19506,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="15"/>
     </row>
-    <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="27" customHeight="1">
       <c r="A13" s="12" t="s">
         <v>70</v>
       </c>
@@ -19552,7 +19550,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1">
       <c r="B14" s="16" t="s">
         <v>131</v>
       </c>
@@ -19596,7 +19594,7 @@
         <v>0.442</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1">
       <c r="B15" s="16" t="s">
         <v>68</v>
       </c>
@@ -19653,14 +19651,14 @@
         <v>0.18564</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1">
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:7" ht="15.75" customHeight="1">
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -19686,13 +19684,13 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="28.81640625" customWidth="1"/>
-    <col min="2" max="7" width="13.453125" customWidth="1"/>
+    <col min="1" max="1" width="28.77734375" customWidth="1"/>
+    <col min="2" max="7" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="40.5" customHeight="1">
       <c r="A1" s="27" t="str">
         <f>"Percentage of children in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of children in each category in baseline year (2017)</v>
@@ -19716,7 +19714,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
@@ -19739,7 +19737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="B3" s="43" t="s">
         <v>167</v>
       </c>
@@ -19759,7 +19757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="B4" s="43" t="s">
         <v>168</v>
       </c>
@@ -19779,7 +19777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="B5" s="43" t="s">
         <v>169</v>
       </c>
@@ -19822,13 +19820,13 @@
       <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="29.453125" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16">
       <c r="A1" s="4" t="s">
         <v>138</v>
       </c>
@@ -19878,7 +19876,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>139</v>
       </c>
@@ -19905,10 +19903,10 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="B3" s="14"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>140</v>
       </c>
@@ -19937,10 +19935,10 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="B5" s="14"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>141</v>
       </c>
@@ -19967,7 +19965,7 @@
         <v>0.17299999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="B7" s="14" t="s">
         <v>32</v>
       </c>
@@ -19991,7 +19989,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16">
       <c r="B8" s="14" t="s">
         <v>144</v>
       </c>
@@ -20015,7 +20013,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
         <v>142</v>
       </c>
@@ -20044,7 +20042,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16">
       <c r="B11" s="34" t="s">
         <v>146</v>
       </c>
@@ -20068,7 +20066,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16">
       <c r="A13" s="12" t="s">
         <v>74</v>
       </c>
@@ -20097,7 +20095,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16">
       <c r="B14" s="16" t="s">
         <v>170</v>
       </c>
@@ -20136,15 +20134,15 @@
       <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="15.6328125" customWidth="1"/>
-    <col min="2" max="2" width="15.453125" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" customWidth="1"/>
-    <col min="4" max="4" width="12.81640625" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="60" t="s">
         <v>164</v>
       </c>
@@ -20158,7 +20156,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" s="61" t="s">
         <v>69</v>
       </c>
@@ -20170,7 +20168,7 @@
       </c>
       <c r="D2" s="80"/>
     </row>
-    <row r="3" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" s="61" t="s">
         <v>185</v>
       </c>
@@ -20199,15 +20197,15 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="17" style="35" customWidth="1"/>
-    <col min="2" max="2" width="19.08984375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="11.453125" style="35"/>
+    <col min="2" max="2" width="19.109375" style="35" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="50" t="s">
         <v>178</v>
       </c>
@@ -20224,7 +20222,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="49" t="s">
         <v>173</v>
       </c>
@@ -20238,7 +20236,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="47"/>
       <c r="B3" s="46" t="s">
         <v>1</v>
@@ -20252,7 +20250,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="47"/>
       <c r="B4" s="46" t="s">
         <v>2</v>
@@ -20266,7 +20264,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="47"/>
       <c r="B5" s="46" t="s">
         <v>3</v>
@@ -20280,7 +20278,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="47"/>
       <c r="B6" s="46" t="s">
         <v>4</v>
@@ -20294,7 +20292,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="47"/>
       <c r="B7" s="46" t="s">
         <v>172</v>
@@ -20303,7 +20301,7 @@
       <c r="D7" s="44"/>
       <c r="E7" s="80"/>
     </row>
-    <row r="9" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="49" t="s">
         <v>198</v>
       </c>
@@ -20319,7 +20317,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="47"/>
       <c r="B10" s="46" t="s">
         <v>1</v>
@@ -20331,7 +20329,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="47"/>
       <c r="B11" s="46" t="s">
         <v>2</v>
@@ -20343,7 +20341,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="47"/>
       <c r="B12" s="46" t="s">
         <v>3</v>
@@ -20355,7 +20353,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="47"/>
       <c r="B13" s="46" t="s">
         <v>4</v>
@@ -20367,7 +20365,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="47"/>
       <c r="B14" s="46" t="s">
         <v>172</v>
@@ -20378,7 +20376,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" s="49" t="s">
         <v>199</v>
       </c>
@@ -20394,7 +20392,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="47"/>
       <c r="B17" s="46" t="s">
         <v>1</v>
@@ -20408,7 +20406,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="47"/>
       <c r="B18" s="46" t="s">
         <v>2</v>
@@ -20422,7 +20420,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="47"/>
       <c r="B19" s="46" t="s">
         <v>3</v>
@@ -20436,7 +20434,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="47"/>
       <c r="B20" s="46" t="s">
         <v>4</v>
@@ -20450,7 +20448,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="47"/>
       <c r="B21" s="46" t="s">
         <v>172</v>
@@ -20473,21 +20471,21 @@
   </sheetPr>
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="56" style="52" customWidth="1"/>
     <col min="2" max="2" width="20" style="36" customWidth="1"/>
-    <col min="3" max="3" width="20.453125" style="35" customWidth="1"/>
-    <col min="4" max="4" width="20.08984375" style="35" customWidth="1"/>
-    <col min="5" max="5" width="32.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="14.453125" style="35"/>
+    <col min="3" max="3" width="20.44140625" style="35" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" style="35" customWidth="1"/>
+    <col min="5" max="5" width="32.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="14.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="26.4">
       <c r="A1" s="54" t="s">
         <v>69</v>
       </c>
@@ -20505,7 +20503,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1">
       <c r="A2" s="52" t="s">
         <v>29</v>
       </c>
@@ -20522,7 +20520,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" s="52" t="s">
         <v>86</v>
       </c>
@@ -20539,7 +20537,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1">
       <c r="A4" s="52" t="s">
         <v>61</v>
       </c>
@@ -20556,7 +20554,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1">
       <c r="A5" s="52" t="s">
         <v>149</v>
       </c>
@@ -20573,7 +20571,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1">
       <c r="A6" s="52" t="s">
         <v>197</v>
       </c>
@@ -20590,7 +20588,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1">
       <c r="A7" s="52" t="s">
         <v>63</v>
       </c>
@@ -20607,7 +20605,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1">
       <c r="A8" s="52" t="s">
         <v>64</v>
       </c>
@@ -20624,7 +20622,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1">
       <c r="A9" s="52" t="s">
         <v>62</v>
       </c>
@@ -20641,7 +20639,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1">
       <c r="A10" s="59" t="s">
         <v>188</v>
       </c>
@@ -20658,7 +20656,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1">
       <c r="A11" s="59" t="s">
         <v>206</v>
       </c>
@@ -20675,7 +20673,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1">
       <c r="A12" s="59" t="s">
         <v>189</v>
       </c>
@@ -20692,7 +20690,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1">
       <c r="A13" s="59" t="s">
         <v>190</v>
       </c>
@@ -20709,7 +20707,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1">
       <c r="A14" s="11" t="s">
         <v>187</v>
       </c>
@@ -20726,7 +20724,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1">
       <c r="A15" s="11" t="s">
         <v>207</v>
       </c>
@@ -20743,7 +20741,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1">
       <c r="A16" s="52" t="s">
         <v>57</v>
       </c>
@@ -20760,7 +20758,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1">
       <c r="A17" s="52" t="s">
         <v>47</v>
       </c>
@@ -20777,7 +20775,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="16.05" customHeight="1">
       <c r="A18" s="52" t="s">
         <v>173</v>
       </c>
@@ -20794,7 +20792,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1">
       <c r="A19" s="52" t="s">
         <v>198</v>
       </c>
@@ -20811,7 +20809,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1">
       <c r="A20" s="52" t="s">
         <v>199</v>
       </c>
@@ -20828,7 +20826,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1">
       <c r="A21" s="52" t="s">
         <v>195</v>
       </c>
@@ -20845,7 +20843,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1">
       <c r="A22" s="52" t="s">
         <v>136</v>
       </c>
@@ -20862,7 +20860,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1">
       <c r="A23" s="52" t="s">
         <v>34</v>
       </c>
@@ -20879,7 +20877,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1">
       <c r="A24" s="52" t="s">
         <v>88</v>
       </c>
@@ -20896,7 +20894,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1">
       <c r="A25" s="52" t="s">
         <v>87</v>
       </c>
@@ -20913,7 +20911,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1">
       <c r="A26" s="52" t="s">
         <v>137</v>
       </c>
@@ -20930,7 +20928,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1">
       <c r="A27" s="52" t="s">
         <v>59</v>
       </c>
@@ -20947,7 +20945,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1">
       <c r="A28" s="52" t="s">
         <v>84</v>
       </c>
@@ -20964,7 +20962,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="15.75" customHeight="1">
       <c r="A29" s="52" t="s">
         <v>58</v>
       </c>
@@ -20981,7 +20979,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1">
       <c r="A30" s="52" t="s">
         <v>67</v>
       </c>
@@ -20998,7 +20996,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1">
       <c r="A31" s="52" t="s">
         <v>28</v>
       </c>
@@ -21015,7 +21013,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="15.75" customHeight="1">
       <c r="A32" s="52" t="s">
         <v>83</v>
       </c>
@@ -21032,7 +21030,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15.75" customHeight="1">
       <c r="A33" s="52" t="s">
         <v>82</v>
       </c>
@@ -21049,7 +21047,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15.75" customHeight="1">
       <c r="A34" s="52" t="s">
         <v>81</v>
       </c>
@@ -21066,7 +21064,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15.75" customHeight="1">
       <c r="A35" s="52" t="s">
         <v>79</v>
       </c>
@@ -21083,7 +21081,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" s="36" customFormat="1" ht="15.75" customHeight="1">
       <c r="A36" s="52" t="s">
         <v>80</v>
       </c>
@@ -21101,7 +21099,7 @@
       </c>
       <c r="F36" s="35"/>
     </row>
-    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15.75" customHeight="1">
       <c r="A37" s="52" t="s">
         <v>85</v>
       </c>
@@ -21118,7 +21116,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15.75" customHeight="1">
       <c r="A38" s="52" t="s">
         <v>60</v>
       </c>
@@ -21135,7 +21133,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15.75" customHeight="1">
       <c r="F39" s="36"/>
     </row>
   </sheetData>

--- a/inputs/demo_region2_input.xlsx
+++ b/inputs/demo_region2_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Covid-India-UP\Nutrition\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B85AF7-C2B3-4232-A824-9065C9E40270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8183C05-C260-4268-8F60-5CA57EEA47B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12336" tabRatio="961" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="961" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -1569,10 +1569,10 @@
     <t>Unit Cost</t>
   </si>
   <si>
-    <t>Max coverage increase per annum</t>
+    <t>Max-increase per annum</t>
   </si>
   <si>
-    <t>Max coverage decrease per annum</t>
+    <t>Max-decrease per annum</t>
   </si>
 </sst>
 </file>
@@ -5601,8 +5601,8 @@
   </sheetPr>
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -16632,12 +16632,36 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="45">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B145:B147"/>
+    <mergeCell ref="B148:B150"/>
+    <mergeCell ref="B151:B153"/>
+    <mergeCell ref="B154:B156"/>
+    <mergeCell ref="B128:B130"/>
+    <mergeCell ref="B131:B133"/>
+    <mergeCell ref="B134:B136"/>
+    <mergeCell ref="B137:B139"/>
+    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="B111:B113"/>
+    <mergeCell ref="B114:B116"/>
+    <mergeCell ref="B117:B119"/>
+    <mergeCell ref="B120:B122"/>
+    <mergeCell ref="B125:B127"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B67:B69"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -16647,36 +16671,12 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B108:B110"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="B111:B113"/>
-    <mergeCell ref="B114:B116"/>
-    <mergeCell ref="B117:B119"/>
-    <mergeCell ref="B120:B122"/>
-    <mergeCell ref="B125:B127"/>
-    <mergeCell ref="B145:B147"/>
-    <mergeCell ref="B148:B150"/>
-    <mergeCell ref="B151:B153"/>
-    <mergeCell ref="B154:B156"/>
-    <mergeCell ref="B128:B130"/>
-    <mergeCell ref="B131:B133"/>
-    <mergeCell ref="B134:B136"/>
-    <mergeCell ref="B137:B139"/>
-    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/inputs/demo_region2_input.xlsx
+++ b/inputs/demo_region2_input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Covid-India-UP\Nutrition\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8183C05-C260-4268-8F60-5CA57EEA47B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8F269A-48CF-4255-B7D4-64287AC66AA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="961" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-11685" yWindow="-16425" windowWidth="29040" windowHeight="15840" tabRatio="961" firstSheet="2" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -556,7 +556,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2053" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2053" uniqueCount="340">
   <si>
     <t>year</t>
   </si>
@@ -1554,19 +1554,7 @@
     <t>Child death</t>
   </si>
   <si>
-    <t>PW death</t>
-  </si>
-  <si>
-    <t>Child anaemic</t>
-  </si>
-  <si>
-    <t>PW anaemic</t>
-  </si>
-  <si>
     <t>Type</t>
-  </si>
-  <si>
-    <t>Unit Cost</t>
   </si>
   <si>
     <t>Max-increase per annum</t>
@@ -1574,17 +1562,32 @@
   <si>
     <t>Max-decrease per annum</t>
   </si>
+  <si>
+    <t>Maternal death</t>
+  </si>
+  <si>
+    <t>Child wasting episode</t>
+  </si>
+  <si>
+    <t>Child turning age 5 stunted (over lifetime)</t>
+  </si>
+  <si>
+    <t>Anaemic child (per year)</t>
+  </si>
+  <si>
+    <t>Anaemic pregnant woman (per pregnancy)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.0%"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
@@ -1898,7 +1901,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2616,7 +2619,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2652,8 +2655,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2663,7 +2666,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="9" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -2673,16 +2676,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -2715,7 +2718,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="725" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="725" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="725" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="725" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2730,7 +2733,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="725" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="726" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="726" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="19" fillId="3" borderId="4" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="19" fillId="3" borderId="4" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="725" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2760,7 +2763,7 @@
     <xf numFmtId="9" fontId="9" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2779,28 +2782,28 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="9" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2903,7 +2906,7 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="725" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="725" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="725" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="725" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="26" fillId="0" borderId="0" xfId="726" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="726" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2933,7 +2936,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="3" borderId="1" xfId="727" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="9" fillId="3" borderId="1" xfId="727" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
@@ -5128,7 +5131,7 @@
   </sheetPr>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
@@ -5601,8 +5604,8 @@
   </sheetPr>
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5635,10 +5638,10 @@
         <v>205</v>
       </c>
       <c r="F1" s="53" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="G1" s="53" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6072,10 +6075,10 @@
         <v>201</v>
       </c>
       <c r="F20" s="81">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="G20" s="81">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6886,8 +6889,8 @@
   </sheetPr>
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7186,24 +7189,24 @@
         <v>84</v>
       </c>
       <c r="C7" s="87">
-        <f>diarrhoea_1mo</f>
-        <v>1.66</v>
+        <f>diarrhoea_1mo*frac_diarrhea_severe</f>
+        <v>0.33200000000000002</v>
       </c>
       <c r="D7" s="87">
-        <f>diarrhoea_1_5mo</f>
-        <v>1.66</v>
+        <f>diarrhoea_1_5mo*frac_diarrhea_severe</f>
+        <v>0.33200000000000002</v>
       </c>
       <c r="E7" s="87">
-        <f>diarrhoea_6_11mo</f>
-        <v>5.64</v>
+        <f>diarrhoea_6_11mo*frac_diarrhea_severe</f>
+        <v>1.1279999999999999</v>
       </c>
       <c r="F7" s="87">
-        <f>diarrhoea_12_23mo</f>
-        <v>5.43</v>
+        <f>diarrhoea_12_23mo*frac_diarrhea_severe</f>
+        <v>1.0860000000000001</v>
       </c>
       <c r="G7" s="87">
-        <f>diarrhoea_24_59mo</f>
-        <v>1.91</v>
+        <f>diarrhoea_24_59mo*frac_diarrhea_severe</f>
+        <v>0.38200000000000001</v>
       </c>
       <c r="H7" s="88">
         <v>0</v>
@@ -7373,24 +7376,24 @@
         <v>85</v>
       </c>
       <c r="C11" s="87">
-        <f>diarrhoea_1mo</f>
-        <v>1.66</v>
+        <f>diarrhoea_1mo*frac_diarrhea_severe</f>
+        <v>0.33200000000000002</v>
       </c>
       <c r="D11" s="87">
-        <f>diarrhoea_1_5mo</f>
-        <v>1.66</v>
+        <f>diarrhoea_1_5mo*frac_diarrhea_severe</f>
+        <v>0.33200000000000002</v>
       </c>
       <c r="E11" s="87">
-        <f>diarrhoea_6_11mo</f>
-        <v>5.64</v>
+        <f>diarrhoea_6_11mo*frac_diarrhea_severe</f>
+        <v>1.1279999999999999</v>
       </c>
       <c r="F11" s="87">
-        <f>diarrhoea_12_23mo</f>
-        <v>5.43</v>
+        <f>diarrhoea_12_23mo*frac_diarrhea_severe</f>
+        <v>1.0860000000000001</v>
       </c>
       <c r="G11" s="87">
-        <f>diarrhoea_24_59mo</f>
-        <v>1.91</v>
+        <f>diarrhoea_24_59mo*frac_diarrhea_severe</f>
+        <v>0.38200000000000001</v>
       </c>
       <c r="H11" s="88">
         <v>0</v>
@@ -16632,6 +16635,42 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="45">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="B111:B113"/>
+    <mergeCell ref="B114:B116"/>
+    <mergeCell ref="B117:B119"/>
+    <mergeCell ref="B120:B122"/>
+    <mergeCell ref="B125:B127"/>
     <mergeCell ref="B145:B147"/>
     <mergeCell ref="B148:B150"/>
     <mergeCell ref="B151:B153"/>
@@ -16641,42 +16680,6 @@
     <mergeCell ref="B134:B136"/>
     <mergeCell ref="B137:B139"/>
     <mergeCell ref="B142:B144"/>
-    <mergeCell ref="B111:B113"/>
-    <mergeCell ref="B114:B116"/>
-    <mergeCell ref="B117:B119"/>
-    <mergeCell ref="B120:B122"/>
-    <mergeCell ref="B125:B127"/>
-    <mergeCell ref="B108:B110"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -35321,7 +35324,7 @@
   </sheetPr>
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
@@ -35761,7 +35764,7 @@
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -36523,29 +36526,30 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22F68D70-249B-4BD4-B4FA-E42A04973833}">
+  <sheetPr>
+    <tabColor rgb="FF007600"/>
+  </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.77734375" customWidth="1"/>
+    <col min="1" max="1" width="36.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>336</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>238</v>
+        <v>336</v>
       </c>
       <c r="B2" s="147">
         <v>10</v>
@@ -36553,7 +36557,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>211</v>
+        <v>337</v>
       </c>
       <c r="B3" s="147">
         <v>10</v>
@@ -36569,7 +36573,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="146" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B5" s="147">
         <v>100</v>
@@ -36577,7 +36581,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="146" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="B6" s="147">
         <v>5</v>
@@ -36585,7 +36589,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="146" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B7" s="147">
         <v>5</v>
